--- a/Visualization/results/processed_2979_all_datasets_analysis/processed_No.2979240926social22024-12-05202642trace/processed_No.2979240926social22024-12-05202642trace_transients.xlsx
+++ b/Visualization/results/processed_2979_all_datasets_analysis/processed_No.2979240926social22024-12-05202642trace/processed_No.2979240926social22024-12-05202642trace_transients.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X41"/>
+  <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,37 +560,37 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C2" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D2" t="n">
-        <v>3.233085047392614</v>
+        <v>3.233360053869938</v>
       </c>
       <c r="E2" t="n">
-        <v>2.573091832526603</v>
+        <v>2.581748749788958</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.659993214866011</v>
+        <v>-0.6516113040809793</v>
       </c>
       <c r="G2" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H2" t="n">
-        <v>32.7726271050713</v>
+        <v>30.37504138209229</v>
       </c>
       <c r="I2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J2" t="n">
         <v>52</v>
       </c>
       <c r="K2" t="n">
-        <v>170.5116178736232</v>
+        <v>172.8383648205759</v>
       </c>
       <c r="L2" t="n">
-        <v>10.49511143025144</v>
+        <v>10.44898875331879</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -606,16 +606,16 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.8712358171745084</v>
+        <v>0.8881124669401282</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.3653846153846154</v>
+        <v>0.4038461538461539</v>
       </c>
       <c r="R2" t="n">
-        <v>0.167970826508905</v>
+        <v>0.1974841200721499</v>
       </c>
       <c r="S2" t="n">
-        <v>0.944666040062052</v>
+        <v>0.9190498388600876</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="U2" t="n">
-        <v>870</v>
+        <v>1882</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -643,40 +643,40 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>71</v>
+        <v>136</v>
       </c>
       <c r="B3" t="n">
-        <v>108</v>
+        <v>157</v>
       </c>
       <c r="C3" t="n">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D3" t="n">
-        <v>2.577384149015931</v>
+        <v>1.866155531424261</v>
       </c>
       <c r="E3" t="n">
-        <v>1.91739093414992</v>
+        <v>1.214544227343281</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.659993214866011</v>
+        <v>-0.6516113040809793</v>
       </c>
       <c r="G3" t="n">
-        <v>122</v>
+        <v>52</v>
       </c>
       <c r="H3" t="n">
-        <v>30.03816811248493</v>
+        <v>15.37585993563209</v>
       </c>
       <c r="I3" t="n">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="J3" t="n">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="K3" t="n">
-        <v>212.1842913717739</v>
+        <v>72.7772313341506</v>
       </c>
       <c r="L3" t="n">
-        <v>8.366601387210933</v>
+        <v>6.030704231796673</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -692,16 +692,16 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.8009847607059938</v>
+        <v>0.7077419809795714</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.4352941176470588</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="R3" t="n">
-        <v>0.2490198471399652</v>
+        <v>0.1159969236627044</v>
       </c>
       <c r="S3" t="n">
-        <v>0.7415416347582511</v>
+        <v>0.9904289020953159</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="U3" t="n">
-        <v>871</v>
+        <v>1883</v>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -729,40 +729,40 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2318</v>
+        <v>282</v>
       </c>
       <c r="B4" t="n">
-        <v>2359</v>
+        <v>300</v>
       </c>
       <c r="C4" t="n">
-        <v>2429</v>
+        <v>324</v>
       </c>
       <c r="D4" t="n">
-        <v>2.477121388820577</v>
+        <v>2.072513057670574</v>
       </c>
       <c r="E4" t="n">
-        <v>1.797378688485291</v>
+        <v>1.420901753589594</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.6797427003352858</v>
+        <v>-0.6516113040809793</v>
       </c>
       <c r="G4" t="n">
-        <v>111</v>
+        <v>42</v>
       </c>
       <c r="H4" t="n">
-        <v>62.03687900810928</v>
+        <v>23.79486809894865</v>
       </c>
       <c r="I4" t="n">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="J4" t="n">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="K4" t="n">
-        <v>158.4206575646851</v>
+        <v>78.65569640686186</v>
       </c>
       <c r="L4" t="n">
-        <v>6.122930821064783</v>
+        <v>6.69757319627518</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -778,24 +778,24 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.7613341122955275</v>
+        <v>0.6169441056696341</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.5857142857142857</v>
+        <v>0.75</v>
       </c>
       <c r="R4" t="n">
-        <v>0.4107188135269781</v>
+        <v>0.05835719673291152</v>
       </c>
       <c r="S4" t="n">
-        <v>0.920428709433363</v>
+        <v>0.9040123547142737</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>n3</t>
+          <t>n1</t>
         </is>
       </c>
       <c r="U4" t="n">
-        <v>872</v>
+        <v>1884</v>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -815,40 +815,40 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>839</v>
+        <v>472</v>
       </c>
       <c r="B5" t="n">
-        <v>869</v>
+        <v>496</v>
       </c>
       <c r="C5" t="n">
-        <v>953</v>
+        <v>652</v>
       </c>
       <c r="D5" t="n">
-        <v>2.142183869132019</v>
+        <v>2.228689074750681</v>
       </c>
       <c r="E5" t="n">
-        <v>1.263101574123704</v>
+        <v>1.577077770669701</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.8790822950083153</v>
+        <v>-0.6516113040809793</v>
       </c>
       <c r="G5" t="n">
-        <v>114</v>
+        <v>180</v>
       </c>
       <c r="H5" t="n">
-        <v>32.04506398306887</v>
+        <v>40.27714940115908</v>
       </c>
       <c r="I5" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="J5" t="n">
-        <v>84</v>
+        <v>156</v>
       </c>
       <c r="K5" t="n">
-        <v>129.9083572997888</v>
+        <v>266.7424187373523</v>
       </c>
       <c r="L5" t="n">
-        <v>7.182080151701415</v>
+        <v>7.202274627238614</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -864,24 +864,24 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.8970490401697325</v>
+        <v>0.7613957372555651</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.3571428571428572</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="R5" t="n">
-        <v>0.3757668681783685</v>
+        <v>0.2173370312684529</v>
       </c>
       <c r="S5" t="n">
-        <v>0.9388117915021854</v>
+        <v>0.5690648012562503</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>n4</t>
+          <t>n1</t>
         </is>
       </c>
       <c r="U5" t="n">
-        <v>873</v>
+        <v>1885</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -901,40 +901,40 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1426</v>
+        <v>892</v>
       </c>
       <c r="B6" t="n">
-        <v>1451</v>
+        <v>919</v>
       </c>
       <c r="C6" t="n">
-        <v>1644</v>
+        <v>971</v>
       </c>
       <c r="D6" t="n">
-        <v>2.16316318839594</v>
+        <v>3.109954786860441</v>
       </c>
       <c r="E6" t="n">
-        <v>1.284080893387625</v>
+        <v>2.458343482779462</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.8790822950083153</v>
+        <v>-0.6516113040809793</v>
       </c>
       <c r="G6" t="n">
-        <v>218</v>
+        <v>79</v>
       </c>
       <c r="H6" t="n">
-        <v>33.19400673427708</v>
+        <v>111.915432433383</v>
       </c>
       <c r="I6" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J6" t="n">
-        <v>193</v>
+        <v>52</v>
       </c>
       <c r="K6" t="n">
-        <v>350.9823161976777</v>
+        <v>188.7233132976631</v>
       </c>
       <c r="L6" t="n">
-        <v>7.252417322405004</v>
+        <v>10.05018991075277</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -950,24 +950,24 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.6211215006473687</v>
+        <v>0.7162404280995486</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.1295336787564767</v>
+        <v>0.5192307692307693</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1441738228239143</v>
+        <v>0.1588133458503556</v>
       </c>
       <c r="S6" t="n">
-        <v>0.4315290660301179</v>
+        <v>0.8086996949552342</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>n4</t>
+          <t>n1</t>
         </is>
       </c>
       <c r="U6" t="n">
-        <v>874</v>
+        <v>1886</v>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -987,40 +987,40 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>97</v>
+        <v>1063</v>
       </c>
       <c r="B7" t="n">
-        <v>159</v>
+        <v>1085</v>
       </c>
       <c r="C7" t="n">
-        <v>240</v>
+        <v>1186</v>
       </c>
       <c r="D7" t="n">
-        <v>1.699725790848696</v>
+        <v>2.486694818545655</v>
       </c>
       <c r="E7" t="n">
-        <v>1.097748371767614</v>
+        <v>1.835083514464676</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.6019774190810826</v>
+        <v>-0.6516113040809793</v>
       </c>
       <c r="G7" t="n">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="H7" t="n">
-        <v>45.60756318742241</v>
+        <v>31.67967368291556</v>
       </c>
       <c r="I7" t="n">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="J7" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="K7" t="n">
-        <v>112.6551038000594</v>
+        <v>167.2113973465802</v>
       </c>
       <c r="L7" t="n">
-        <v>5.55559651465378</v>
+        <v>8.036050968348126</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -1036,24 +1036,24 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.7148503081327189</v>
+        <v>0.8421348756777298</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.7654320987654321</v>
+        <v>0.2178217821782178</v>
       </c>
       <c r="R7" t="n">
-        <v>0.2764979548740147</v>
+        <v>0.4137797505430051</v>
       </c>
       <c r="S7" t="n">
-        <v>0.9823060191142157</v>
+        <v>0.7109920276819304</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>n5</t>
+          <t>n1</t>
         </is>
       </c>
       <c r="U7" t="n">
-        <v>875</v>
+        <v>1887</v>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -1073,40 +1073,40 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2895</v>
+        <v>2939</v>
       </c>
       <c r="B8" t="n">
-        <v>2927</v>
+        <v>2962</v>
       </c>
       <c r="C8" t="n">
         <v>2998</v>
       </c>
       <c r="D8" t="n">
-        <v>2.609265336619238</v>
+        <v>1.308839013809313</v>
       </c>
       <c r="E8" t="n">
-        <v>2.007287917538156</v>
+        <v>0.6572277097283336</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.6019774190810826</v>
+        <v>-0.6516113040809793</v>
       </c>
       <c r="G8" t="n">
-        <v>103</v>
+        <v>59</v>
       </c>
       <c r="H8" t="n">
-        <v>24.31994989224813</v>
+        <v>12.68025068038742</v>
       </c>
       <c r="I8" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="J8" t="n">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="K8" t="n">
-        <v>177.2795277845397</v>
+        <v>55.69812908281089</v>
       </c>
       <c r="L8" t="n">
-        <v>8.528449405177703</v>
+        <v>4.229669417369653</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -1122,24 +1122,24 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.8064970848750836</v>
+        <v>0.6746866583819141</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.4507042253521127</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="R8" t="n">
-        <v>0.3954597863594562</v>
+        <v>0.5350069567575905</v>
       </c>
       <c r="S8" t="n">
-        <v>0.8185835235192279</v>
+        <v>0.5523499029203454</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>n5</t>
+          <t>n1</t>
         </is>
       </c>
       <c r="U8" t="n">
-        <v>876</v>
+        <v>1888</v>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -1159,40 +1159,40 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>110</v>
+        <v>757</v>
       </c>
       <c r="B9" t="n">
-        <v>141</v>
+        <v>784</v>
       </c>
       <c r="C9" t="n">
-        <v>184</v>
+        <v>895</v>
       </c>
       <c r="D9" t="n">
-        <v>2.843262337020626</v>
+        <v>2.185816625050236</v>
       </c>
       <c r="E9" t="n">
-        <v>2.376689268443472</v>
+        <v>1.614759707524637</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.4665730685771541</v>
+        <v>-0.5710569175255991</v>
       </c>
       <c r="G9" t="n">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="H9" t="n">
-        <v>31.71375625771906</v>
+        <v>45.3812592627371</v>
       </c>
       <c r="I9" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J9" t="n">
-        <v>43</v>
+        <v>111</v>
       </c>
       <c r="K9" t="n">
-        <v>157.616075693886</v>
+        <v>188.3693138305712</v>
       </c>
       <c r="L9" t="n">
-        <v>11.24186136277114</v>
+        <v>3.996408692407338</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1208,24 +1208,24 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.6925538150593249</v>
+        <v>0.8562944210250595</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.7209302325581395</v>
+        <v>0.2432432432432433</v>
       </c>
       <c r="R9" t="n">
-        <v>0.2087142935199098</v>
+        <v>0.1520353398448456</v>
       </c>
       <c r="S9" t="n">
-        <v>0.8675336047217632</v>
+        <v>0.8347523247581657</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>n6</t>
+          <t>n2</t>
         </is>
       </c>
       <c r="U9" t="n">
-        <v>877</v>
+        <v>1889</v>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -1245,40 +1245,40 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>184</v>
+        <v>360</v>
       </c>
       <c r="B10" t="n">
-        <v>200</v>
+        <v>382</v>
       </c>
       <c r="C10" t="n">
-        <v>232</v>
+        <v>450</v>
       </c>
       <c r="D10" t="n">
-        <v>2.428920621519184</v>
+        <v>1.399045616583661</v>
       </c>
       <c r="E10" t="n">
-        <v>1.96234755294203</v>
+        <v>0.7188673546668437</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.4665730685771541</v>
+        <v>-0.6801782619168169</v>
       </c>
       <c r="G10" t="n">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="H10" t="n">
-        <v>20.60075074278143</v>
+        <v>16.63320592516305</v>
       </c>
       <c r="I10" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="J10" t="n">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="K10" t="n">
-        <v>80.63004143928852</v>
+        <v>88.2775675775604</v>
       </c>
       <c r="L10" t="n">
-        <v>9.603612207274313</v>
+        <v>3.456218589888077</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1294,24 +1294,24 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.8291637447585324</v>
+        <v>0.7719497691067386</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.5</v>
+        <v>0.3235294117647059</v>
       </c>
       <c r="R10" t="n">
-        <v>0.2070515642173421</v>
+        <v>0.4787018632859626</v>
       </c>
       <c r="S10" t="n">
-        <v>0.8046413285331721</v>
+        <v>0.5155060230896455</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>n6</t>
+          <t>n3</t>
         </is>
       </c>
       <c r="U10" t="n">
-        <v>878</v>
+        <v>1890</v>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -1331,40 +1331,40 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2746</v>
+        <v>450</v>
       </c>
       <c r="B11" t="n">
-        <v>2833</v>
+        <v>473</v>
       </c>
       <c r="C11" t="n">
-        <v>2998</v>
+        <v>516</v>
       </c>
       <c r="D11" t="n">
-        <v>2.295469392500681</v>
+        <v>1.579934691225524</v>
       </c>
       <c r="E11" t="n">
-        <v>1.771726429238787</v>
+        <v>0.8997564293087071</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.5237429632618934</v>
+        <v>-0.6801782619168169</v>
       </c>
       <c r="G11" t="n">
-        <v>252</v>
+        <v>66</v>
       </c>
       <c r="H11" t="n">
-        <v>71.23684472279137</v>
+        <v>32.19733223355661</v>
       </c>
       <c r="I11" t="n">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="J11" t="n">
-        <v>165</v>
+        <v>43</v>
       </c>
       <c r="K11" t="n">
-        <v>215.5434339562052</v>
+        <v>55.87344659305103</v>
       </c>
       <c r="L11" t="n">
-        <v>8.845633249665715</v>
+        <v>3.903089067214986</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1380,24 +1380,24 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.714681842539781</v>
+        <v>0.853062910367381</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.5272727272727272</v>
+        <v>0.5348837209302325</v>
       </c>
       <c r="R11" t="n">
-        <v>0.3463664219292732</v>
+        <v>0.3888517997988039</v>
       </c>
       <c r="S11" t="n">
-        <v>0.9181707368308062</v>
+        <v>0.9824891523640646</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>n7</t>
+          <t>n3</t>
         </is>
       </c>
       <c r="U11" t="n">
-        <v>879</v>
+        <v>1891</v>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -1417,40 +1417,40 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>116</v>
+        <v>943</v>
       </c>
       <c r="B12" t="n">
-        <v>146</v>
+        <v>987</v>
       </c>
       <c r="C12" t="n">
-        <v>221</v>
+        <v>1078</v>
       </c>
       <c r="D12" t="n">
-        <v>2.70829406209799</v>
+        <v>1.808835226812727</v>
       </c>
       <c r="E12" t="n">
-        <v>2.00643893534056</v>
+        <v>1.12865696489591</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.7018551267574307</v>
+        <v>-0.6801782619168169</v>
       </c>
       <c r="G12" t="n">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="H12" t="n">
-        <v>74.64955157084117</v>
+        <v>45.01463374722562</v>
       </c>
       <c r="I12" t="n">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="J12" t="n">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="K12" t="n">
-        <v>213.7813212961049</v>
+        <v>119.4854776256303</v>
       </c>
       <c r="L12" t="n">
-        <v>11.43260040204539</v>
+        <v>4.468567616987864</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1466,24 +1466,24 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.7253742535092318</v>
+        <v>0.8095856018787855</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.4</v>
+        <v>0.4835164835164835</v>
       </c>
       <c r="R12" t="n">
-        <v>0.08907280087428779</v>
+        <v>0.2945417410480982</v>
       </c>
       <c r="S12" t="n">
-        <v>0.8298310199747528</v>
+        <v>0.6669293687601441</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>n9</t>
+          <t>n3</t>
         </is>
       </c>
       <c r="U12" t="n">
-        <v>880</v>
+        <v>1892</v>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -1503,40 +1503,40 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>221</v>
+        <v>1078</v>
       </c>
       <c r="B13" t="n">
-        <v>255</v>
+        <v>1110</v>
       </c>
       <c r="C13" t="n">
-        <v>315</v>
+        <v>1158</v>
       </c>
       <c r="D13" t="n">
-        <v>3.346774016305224</v>
+        <v>2.462837835423427</v>
       </c>
       <c r="E13" t="n">
-        <v>2.644918889547793</v>
+        <v>1.78265957350661</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.7018551267574307</v>
+        <v>-0.6801782619168169</v>
       </c>
       <c r="G13" t="n">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="H13" t="n">
-        <v>67.53562664831952</v>
+        <v>47.01055032717727</v>
       </c>
       <c r="I13" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J13" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="K13" t="n">
-        <v>233.7842597058705</v>
+        <v>140.4776568202272</v>
       </c>
       <c r="L13" t="n">
-        <v>14.12783438100001</v>
+        <v>6.084223280335872</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1552,24 +1552,24 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.7785341503771241</v>
+        <v>0.7092925751003999</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="R13" t="n">
-        <v>0.2018404550428102</v>
+        <v>0.648258651871345</v>
       </c>
       <c r="S13" t="n">
-        <v>0.8916681611344917</v>
+        <v>0.5778013656038692</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>n9</t>
+          <t>n3</t>
         </is>
       </c>
       <c r="U13" t="n">
-        <v>881</v>
+        <v>1893</v>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -1589,40 +1589,40 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>315</v>
+        <v>1600</v>
       </c>
       <c r="B14" t="n">
-        <v>338</v>
+        <v>1635</v>
       </c>
       <c r="C14" t="n">
-        <v>392</v>
+        <v>1764</v>
       </c>
       <c r="D14" t="n">
-        <v>2.916202014476854</v>
+        <v>2.839722292812021</v>
       </c>
       <c r="E14" t="n">
-        <v>2.214346887719423</v>
+        <v>2.159544030895204</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.7018551267574307</v>
+        <v>-0.6801782619168169</v>
       </c>
       <c r="G14" t="n">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="H14" t="n">
-        <v>35.838728659043</v>
+        <v>40.16279434986177</v>
       </c>
       <c r="I14" t="n">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="J14" t="n">
-        <v>54</v>
+        <v>129</v>
       </c>
       <c r="K14" t="n">
-        <v>177.732864480286</v>
+        <v>300.452685264914</v>
       </c>
       <c r="L14" t="n">
-        <v>12.31024828128407</v>
+        <v>7.015283034518266</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1638,24 +1638,24 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.7367168359744664</v>
+        <v>0.9023140395369443</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.4259259259259259</v>
+        <v>0.2713178294573643</v>
       </c>
       <c r="R14" t="n">
-        <v>0.06463249193831354</v>
+        <v>0.2992154944547274</v>
       </c>
       <c r="S14" t="n">
-        <v>0.8868357370118025</v>
+        <v>0.8873365794440623</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>n9</t>
+          <t>n3</t>
         </is>
       </c>
       <c r="U14" t="n">
-        <v>882</v>
+        <v>1894</v>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -1675,40 +1675,40 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>392</v>
+        <v>2315</v>
       </c>
       <c r="B15" t="n">
-        <v>433</v>
+        <v>2358</v>
       </c>
       <c r="C15" t="n">
-        <v>486</v>
+        <v>2431</v>
       </c>
       <c r="D15" t="n">
-        <v>2.778548514380725</v>
+        <v>2.455669378146717</v>
       </c>
       <c r="E15" t="n">
-        <v>2.076693387623295</v>
+        <v>1.7754911162299</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.7018551267574307</v>
+        <v>-0.6801782619168169</v>
       </c>
       <c r="G15" t="n">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="H15" t="n">
-        <v>41.56107732381128</v>
+        <v>60.76551558545407</v>
       </c>
       <c r="I15" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J15" t="n">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="K15" t="n">
-        <v>195.0057656936781</v>
+        <v>161.951946193369</v>
       </c>
       <c r="L15" t="n">
-        <v>11.72916756240422</v>
+        <v>6.066514239967993</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1724,24 +1724,24 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.7235943217995761</v>
+        <v>0.7379664736061046</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.7735849056603774</v>
+        <v>0.589041095890411</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1352956752202092</v>
+        <v>0.3916927689436798</v>
       </c>
       <c r="S15" t="n">
-        <v>0.9840476511520699</v>
+        <v>0.9277321191049815</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>n9</t>
+          <t>n3</t>
         </is>
       </c>
       <c r="U15" t="n">
-        <v>883</v>
+        <v>1895</v>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -1761,40 +1761,40 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>486</v>
+        <v>750</v>
       </c>
       <c r="B16" t="n">
-        <v>528</v>
+        <v>781</v>
       </c>
       <c r="C16" t="n">
-        <v>593</v>
+        <v>839</v>
       </c>
       <c r="D16" t="n">
-        <v>1.987021548830131</v>
+        <v>2.497413950181091</v>
       </c>
       <c r="E16" t="n">
-        <v>1.285166422072701</v>
+        <v>1.616856774998677</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.7018551267574307</v>
+        <v>-0.8805571751824132</v>
       </c>
       <c r="G16" t="n">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="H16" t="n">
-        <v>25.17202204972955</v>
+        <v>26.33649019897587</v>
       </c>
       <c r="I16" t="n">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="J16" t="n">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="K16" t="n">
-        <v>145.2688791630497</v>
+        <v>167.9173243594059</v>
       </c>
       <c r="L16" t="n">
-        <v>8.387871788350242</v>
+        <v>8.355205426932471</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1810,24 +1810,24 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.609439276381073</v>
+        <v>0.8013427928979318</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.6461538461538462</v>
+        <v>0.5344827586206896</v>
       </c>
       <c r="R16" t="n">
-        <v>0.1757046237623396</v>
+        <v>0.1895265971128346</v>
       </c>
       <c r="S16" t="n">
-        <v>0.915765847511565</v>
+        <v>0.9213033139593145</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>n9</t>
+          <t>n4</t>
         </is>
       </c>
       <c r="U16" t="n">
-        <v>884</v>
+        <v>1896</v>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -1847,40 +1847,40 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>142</v>
+        <v>839</v>
       </c>
       <c r="B17" t="n">
-        <v>274</v>
+        <v>867</v>
       </c>
       <c r="C17" t="n">
-        <v>450</v>
+        <v>956</v>
       </c>
       <c r="D17" t="n">
-        <v>2.022312073737424</v>
+        <v>2.194155361057963</v>
       </c>
       <c r="E17" t="n">
-        <v>1.49073680636553</v>
+        <v>1.31359818587555</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.5315752673718941</v>
+        <v>-0.8805571751824132</v>
       </c>
       <c r="G17" t="n">
-        <v>308</v>
+        <v>117</v>
       </c>
       <c r="H17" t="n">
-        <v>73.0587057865543</v>
+        <v>31.53652241304417</v>
       </c>
       <c r="I17" t="n">
-        <v>132</v>
+        <v>28</v>
       </c>
       <c r="J17" t="n">
-        <v>176</v>
+        <v>89</v>
       </c>
       <c r="K17" t="n">
-        <v>304.2090453078964</v>
+        <v>131.5212463398643</v>
       </c>
       <c r="L17" t="n">
-        <v>7.005301547672627</v>
+        <v>7.340640817240228</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1896,24 +1896,24 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.4613664302696122</v>
+        <v>0.9112092941660012</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.75</v>
+        <v>0.3146067415730337</v>
       </c>
       <c r="R17" t="n">
-        <v>0.7747051314182128</v>
+        <v>0.3543925809275016</v>
       </c>
       <c r="S17" t="n">
-        <v>0.4274416371431214</v>
+        <v>0.9331982921423937</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>n11</t>
+          <t>n4</t>
         </is>
       </c>
       <c r="U17" t="n">
-        <v>885</v>
+        <v>1897</v>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -1933,40 +1933,40 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>450</v>
+        <v>1125</v>
       </c>
       <c r="B18" t="n">
-        <v>518</v>
+        <v>1152</v>
       </c>
       <c r="C18" t="n">
-        <v>609</v>
+        <v>1195</v>
       </c>
       <c r="D18" t="n">
-        <v>4.511311005301287</v>
+        <v>1.731673078951617</v>
       </c>
       <c r="E18" t="n">
-        <v>3.979735737929393</v>
+        <v>0.8511159037692042</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.5315752673718941</v>
+        <v>-0.8805571751824132</v>
       </c>
       <c r="G18" t="n">
-        <v>159</v>
+        <v>70</v>
       </c>
       <c r="H18" t="n">
-        <v>77.93748765951892</v>
+        <v>30.35831721130285</v>
       </c>
       <c r="I18" t="n">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="J18" t="n">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="K18" t="n">
-        <v>344.3173660852102</v>
+        <v>89.0875882131227</v>
       </c>
       <c r="L18" t="n">
-        <v>15.62720926106333</v>
+        <v>5.793386517233272</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
@@ -1982,24 +1982,24 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.76856377891429</v>
+        <v>0.7663519051825901</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.7472527472527473</v>
+        <v>0.6279069767441861</v>
       </c>
       <c r="R18" t="n">
-        <v>0.3091404898892655</v>
+        <v>0.1463028644688747</v>
       </c>
       <c r="S18" t="n">
-        <v>0.910585160323191</v>
+        <v>0.9613888238907856</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>n11</t>
+          <t>n4</t>
         </is>
       </c>
       <c r="U18" t="n">
-        <v>886</v>
+        <v>1898</v>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -2019,40 +2019,40 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1902</v>
+        <v>1484</v>
       </c>
       <c r="B19" t="n">
-        <v>1932</v>
+        <v>1511</v>
       </c>
       <c r="C19" t="n">
-        <v>2010</v>
+        <v>1562</v>
       </c>
       <c r="D19" t="n">
-        <v>2.438072713758766</v>
+        <v>1.975183927449214</v>
       </c>
       <c r="E19" t="n">
-        <v>1.993383644402747</v>
+        <v>1.094626752266801</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.4446890693560195</v>
+        <v>-0.8805571751824132</v>
       </c>
       <c r="G19" t="n">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="H19" t="n">
-        <v>77.55853084116529</v>
+        <v>18.39690573651887</v>
       </c>
       <c r="I19" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J19" t="n">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="K19" t="n">
-        <v>156.9876034798554</v>
+        <v>123.9409366054972</v>
       </c>
       <c r="L19" t="n">
-        <v>6.7906905870285</v>
+        <v>6.608062499457411</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
@@ -2068,24 +2068,24 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.7609477398323243</v>
+        <v>0.7254048335698646</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="R19" t="n">
-        <v>0.3372369306867026</v>
+        <v>0.1313696665633002</v>
       </c>
       <c r="S19" t="n">
-        <v>0.4215052038911393</v>
+        <v>0.948585299578187</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>n13</t>
+          <t>n4</t>
         </is>
       </c>
       <c r="U19" t="n">
-        <v>887</v>
+        <v>1899</v>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -2105,40 +2105,40 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2102</v>
+        <v>96</v>
       </c>
       <c r="B20" t="n">
-        <v>2131</v>
+        <v>157</v>
       </c>
       <c r="C20" t="n">
-        <v>2180</v>
+        <v>240</v>
       </c>
       <c r="D20" t="n">
-        <v>3.537710696887141</v>
+        <v>1.710006394179084</v>
       </c>
       <c r="E20" t="n">
-        <v>2.971939111919639</v>
+        <v>1.105469018082512</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.5657715849675016</v>
+        <v>-0.6045373760965725</v>
       </c>
       <c r="G20" t="n">
-        <v>78</v>
+        <v>144</v>
       </c>
       <c r="H20" t="n">
-        <v>55.92274398204609</v>
+        <v>46.54454170811007</v>
       </c>
       <c r="I20" t="n">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="J20" t="n">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="K20" t="n">
-        <v>159.8639687309619</v>
+        <v>113.2458624699321</v>
       </c>
       <c r="L20" t="n">
-        <v>11.66567095010545</v>
+        <v>5.561503018926981</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -2154,24 +2154,24 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.7098758871756579</v>
+        <v>0.6869472101815192</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.5918367346938775</v>
+        <v>0.7349397590361446</v>
       </c>
       <c r="R20" t="n">
-        <v>0.1380495346017293</v>
+        <v>0.342695562234401</v>
       </c>
       <c r="S20" t="n">
-        <v>0.8779298884444072</v>
+        <v>0.9733834268685282</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>n17</t>
+          <t>n5</t>
         </is>
       </c>
       <c r="U20" t="n">
-        <v>888</v>
+        <v>1900</v>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -2191,40 +2191,40 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2721</v>
+        <v>240</v>
       </c>
       <c r="B21" t="n">
-        <v>2799</v>
+        <v>290</v>
       </c>
       <c r="C21" t="n">
-        <v>2897</v>
+        <v>368</v>
       </c>
       <c r="D21" t="n">
-        <v>3.279074791327527</v>
+        <v>2.042010622949861</v>
       </c>
       <c r="E21" t="n">
-        <v>2.773804654882056</v>
+        <v>1.437473246853288</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.5052701364454707</v>
+        <v>-0.6045373760965725</v>
       </c>
       <c r="G21" t="n">
-        <v>176</v>
+        <v>128</v>
       </c>
       <c r="H21" t="n">
-        <v>82.45606932954979</v>
+        <v>183.3510043782626</v>
       </c>
       <c r="I21" t="n">
+        <v>50</v>
+      </c>
+      <c r="J21" t="n">
         <v>78</v>
       </c>
-      <c r="J21" t="n">
-        <v>98</v>
-      </c>
       <c r="K21" t="n">
-        <v>359.8168588682697</v>
+        <v>164.7365492529476</v>
       </c>
       <c r="L21" t="n">
-        <v>9.966278465816771</v>
+        <v>6.641289929017227</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -2240,24 +2240,24 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.6333125512785167</v>
+        <v>0.7450937979368035</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.7959183673469388</v>
+        <v>0.6410256410256411</v>
       </c>
       <c r="R21" t="n">
-        <v>0.2848695161123649</v>
+        <v>0.4402371654467006</v>
       </c>
       <c r="S21" t="n">
-        <v>0.8695413836286648</v>
+        <v>0.8584249643658463</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>n18</t>
+          <t>n5</t>
         </is>
       </c>
       <c r="U21" t="n">
-        <v>889</v>
+        <v>1901</v>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -2277,40 +2277,40 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2897</v>
+        <v>1962</v>
       </c>
       <c r="B22" t="n">
-        <v>2929</v>
+        <v>2024</v>
       </c>
       <c r="C22" t="n">
-        <v>2998</v>
+        <v>2155</v>
       </c>
       <c r="D22" t="n">
-        <v>2.241804903614285</v>
+        <v>3.323957618057193</v>
       </c>
       <c r="E22" t="n">
-        <v>1.736534767168815</v>
+        <v>2.71942024196062</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.5052701364454707</v>
+        <v>-0.6045373760965725</v>
       </c>
       <c r="G22" t="n">
-        <v>101</v>
+        <v>193</v>
       </c>
       <c r="H22" t="n">
-        <v>27.55450667478135</v>
+        <v>116.529891249188</v>
       </c>
       <c r="I22" t="n">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="J22" t="n">
-        <v>69</v>
+        <v>131</v>
       </c>
       <c r="K22" t="n">
-        <v>113.7971704308163</v>
+        <v>369.2664829924897</v>
       </c>
       <c r="L22" t="n">
-        <v>6.813645115550474</v>
+        <v>10.81060304250208</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -2326,24 +2326,24 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.7275107647511798</v>
+        <v>0.7621362557601612</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.463768115942029</v>
+        <v>0.4732824427480916</v>
       </c>
       <c r="R22" t="n">
-        <v>0.2055860637743329</v>
+        <v>0.2436540935472495</v>
       </c>
       <c r="S22" t="n">
-        <v>0.7462349169082259</v>
+        <v>0.8981136924521624</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>n18</t>
+          <t>n5</t>
         </is>
       </c>
       <c r="U22" t="n">
-        <v>890</v>
+        <v>1902</v>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -2363,40 +2363,40 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1152</v>
+        <v>2896</v>
       </c>
       <c r="B23" t="n">
-        <v>1219</v>
+        <v>2924</v>
       </c>
       <c r="C23" t="n">
-        <v>1456</v>
+        <v>2998</v>
       </c>
       <c r="D23" t="n">
-        <v>4.862145829024133</v>
+        <v>2.720732598494485</v>
       </c>
       <c r="E23" t="n">
-        <v>4.403729487169596</v>
+        <v>2.116195222397913</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.4584163418545369</v>
+        <v>-0.6045373760965725</v>
       </c>
       <c r="G23" t="n">
-        <v>304</v>
+        <v>102</v>
       </c>
       <c r="H23" t="n">
-        <v>137.3909338069836</v>
+        <v>22.15796862999332</v>
       </c>
       <c r="I23" t="n">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="J23" t="n">
-        <v>237</v>
+        <v>74</v>
       </c>
       <c r="K23" t="n">
-        <v>630.2902062060539</v>
+        <v>177.3076394583223</v>
       </c>
       <c r="L23" t="n">
-        <v>22.95864403157358</v>
+        <v>8.848716947332925</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -2412,24 +2412,24 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.9154993254294862</v>
+        <v>0.8209843604058988</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.2827004219409283</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="R23" t="n">
-        <v>0.5123998722664383</v>
+        <v>0.4446817155250258</v>
       </c>
       <c r="S23" t="n">
-        <v>0.957466641114302</v>
+        <v>0.7874991114586051</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>n20</t>
+          <t>n5</t>
         </is>
       </c>
       <c r="U23" t="n">
-        <v>891</v>
+        <v>1903</v>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -2449,40 +2449,40 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1850</v>
+        <v>107</v>
       </c>
       <c r="B24" t="n">
-        <v>1883</v>
+        <v>135</v>
       </c>
       <c r="C24" t="n">
-        <v>1944</v>
+        <v>173</v>
       </c>
       <c r="D24" t="n">
-        <v>1.824487103188276</v>
+        <v>2.854472695360879</v>
       </c>
       <c r="E24" t="n">
-        <v>1.366070761333739</v>
+        <v>2.373098008244271</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.4584163418545369</v>
+        <v>-0.4813746871166085</v>
       </c>
       <c r="G24" t="n">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="H24" t="n">
-        <v>56.9086823211212</v>
+        <v>28.11599266448185</v>
       </c>
       <c r="I24" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="J24" t="n">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="K24" t="n">
-        <v>122.0917669829714</v>
+        <v>147.7074182367789</v>
       </c>
       <c r="L24" t="n">
-        <v>8.615074786990428</v>
+        <v>10.84684241945897</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -2498,24 +2498,24 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.7988566813914183</v>
+        <v>0.5812531084984609</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.5409836065573771</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="R24" t="n">
-        <v>0.4873026983625726</v>
+        <v>0.08131152414062644</v>
       </c>
       <c r="S24" t="n">
-        <v>0.8263703696563391</v>
+        <v>0.9436703530539975</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>n20</t>
+          <t>n6</t>
         </is>
       </c>
       <c r="U24" t="n">
-        <v>892</v>
+        <v>1904</v>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -2535,40 +2535,40 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1034</v>
+        <v>232</v>
       </c>
       <c r="B25" t="n">
-        <v>1067</v>
+        <v>266</v>
       </c>
       <c r="C25" t="n">
-        <v>1186</v>
+        <v>311</v>
       </c>
       <c r="D25" t="n">
-        <v>3.004373782441196</v>
+        <v>3.001599598054834</v>
       </c>
       <c r="E25" t="n">
-        <v>2.44057618410113</v>
+        <v>2.520224910938225</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.5637975983400655</v>
+        <v>-0.4813746871166085</v>
       </c>
       <c r="G25" t="n">
-        <v>152</v>
+        <v>79</v>
       </c>
       <c r="H25" t="n">
-        <v>42.6976669433559</v>
+        <v>39.51515864321911</v>
       </c>
       <c r="I25" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J25" t="n">
-        <v>119</v>
+        <v>45</v>
       </c>
       <c r="K25" t="n">
-        <v>269.276127520372</v>
+        <v>130.1317039673708</v>
       </c>
       <c r="L25" t="n">
-        <v>7.760295818224909</v>
+        <v>11.4059167212654</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
@@ -2584,24 +2584,24 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.8743969944516747</v>
+        <v>0.717814110036763</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.2773109243697479</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="R25" t="n">
-        <v>0.2427510906094124</v>
+        <v>0.1931955137045156</v>
       </c>
       <c r="S25" t="n">
-        <v>0.6611523344965335</v>
+        <v>0.9442961807918296</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>n23</t>
+          <t>n6</t>
         </is>
       </c>
       <c r="U25" t="n">
-        <v>893</v>
+        <v>1905</v>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -2621,40 +2621,40 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1970</v>
+        <v>861</v>
       </c>
       <c r="B26" t="n">
-        <v>1996</v>
+        <v>880</v>
       </c>
       <c r="C26" t="n">
-        <v>2034</v>
+        <v>939</v>
       </c>
       <c r="D26" t="n">
-        <v>2.901059265942807</v>
+        <v>1.311946622173796</v>
       </c>
       <c r="E26" t="n">
-        <v>2.316060309211817</v>
+        <v>0.8305719350571875</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.5849989567309896</v>
+        <v>-0.4813746871166085</v>
       </c>
       <c r="G26" t="n">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="H26" t="n">
-        <v>39.23296531396682</v>
+        <v>24.22707787268951</v>
       </c>
       <c r="I26" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J26" t="n">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="K26" t="n">
-        <v>141.4769380680514</v>
+        <v>54.1542719281978</v>
       </c>
       <c r="L26" t="n">
-        <v>10.41119165284063</v>
+        <v>4.985326465580901</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
@@ -2670,24 +2670,24 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.6518933080238514</v>
+        <v>0.9281704047957464</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.6842105263157895</v>
+        <v>0.3220338983050847</v>
       </c>
       <c r="R26" t="n">
-        <v>0.07075093082807964</v>
+        <v>0.27940695990381</v>
       </c>
       <c r="S26" t="n">
-        <v>0.9669330213016177</v>
+        <v>0.933531718607479</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>n24</t>
+          <t>n6</t>
         </is>
       </c>
       <c r="U26" t="n">
-        <v>894</v>
+        <v>1906</v>
       </c>
       <c r="V26" t="inlineStr">
         <is>
@@ -2707,40 +2707,40 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2034</v>
+        <v>238</v>
       </c>
       <c r="B27" t="n">
-        <v>2077</v>
+        <v>282</v>
       </c>
       <c r="C27" t="n">
-        <v>2131</v>
+        <v>363</v>
       </c>
       <c r="D27" t="n">
-        <v>2.121708738777696</v>
+        <v>3.342659515404041</v>
       </c>
       <c r="E27" t="n">
-        <v>1.536709782046706</v>
+        <v>2.818276979976836</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.5849989567309896</v>
+        <v>-0.5243825354272059</v>
       </c>
       <c r="G27" t="n">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="H27" t="n">
-        <v>30.01317560003736</v>
+        <v>37.61095511554197</v>
       </c>
       <c r="I27" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J27" t="n">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="K27" t="n">
-        <v>167.5352838842419</v>
+        <v>288.1315533992949</v>
       </c>
       <c r="L27" t="n">
-        <v>7.614293361822291</v>
+        <v>12.76167146435377</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -2756,24 +2756,24 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.5405294497314052</v>
+        <v>0.7415839895217128</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.7962962962962963</v>
+        <v>0.5432098765432098</v>
       </c>
       <c r="R27" t="n">
-        <v>0.102036423051734</v>
+        <v>0.1822015217915886</v>
       </c>
       <c r="S27" t="n">
-        <v>0.5942090624687295</v>
+        <v>0.8925910017590887</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>n24</t>
+          <t>n7</t>
         </is>
       </c>
       <c r="U27" t="n">
-        <v>895</v>
+        <v>1907</v>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -2793,40 +2793,40 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1493</v>
+        <v>461</v>
       </c>
       <c r="B28" t="n">
-        <v>1520</v>
+        <v>474</v>
       </c>
       <c r="C28" t="n">
-        <v>1646</v>
+        <v>508</v>
       </c>
       <c r="D28" t="n">
-        <v>3.149957334595007</v>
+        <v>1.828694569515337</v>
       </c>
       <c r="E28" t="n">
-        <v>2.732766856181278</v>
+        <v>1.304312034088131</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.4171904784137292</v>
+        <v>-0.5243825354272059</v>
       </c>
       <c r="G28" t="n">
-        <v>153</v>
+        <v>47</v>
       </c>
       <c r="H28" t="n">
-        <v>16.74984258771769</v>
+        <v>14.27349452920453</v>
       </c>
       <c r="I28" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="J28" t="n">
-        <v>126</v>
+        <v>34</v>
       </c>
       <c r="K28" t="n">
-        <v>280.1827108037593</v>
+        <v>63.8852467933123</v>
       </c>
       <c r="L28" t="n">
-        <v>10.7189228262388</v>
+        <v>6.98162621626801</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -2842,24 +2842,24 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.6620832018006579</v>
+        <v>0.8946371720533485</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.2142857142857143</v>
+        <v>0.3823529411764706</v>
       </c>
       <c r="R28" t="n">
-        <v>0.4230977509425219</v>
+        <v>0.2410913367921735</v>
       </c>
       <c r="S28" t="n">
-        <v>0.876017843622643</v>
+        <v>0.9296806769895716</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>n25</t>
+          <t>n7</t>
         </is>
       </c>
       <c r="U28" t="n">
-        <v>896</v>
+        <v>1908</v>
       </c>
       <c r="V28" t="inlineStr">
         <is>
@@ -2879,40 +2879,40 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1447</v>
+        <v>2746</v>
       </c>
       <c r="B29" t="n">
-        <v>1471</v>
+        <v>2830</v>
       </c>
       <c r="C29" t="n">
-        <v>1604</v>
+        <v>2998</v>
       </c>
       <c r="D29" t="n">
-        <v>4.522242226668561</v>
+        <v>2.241520780550899</v>
       </c>
       <c r="E29" t="n">
-        <v>4.108376774828</v>
+        <v>1.717138245123693</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.413865451840561</v>
+        <v>-0.5243825354272059</v>
       </c>
       <c r="G29" t="n">
-        <v>157</v>
+        <v>252</v>
       </c>
       <c r="H29" t="n">
-        <v>24.2595584144467</v>
+        <v>72.35234655236127</v>
       </c>
       <c r="I29" t="n">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="J29" t="n">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="K29" t="n">
-        <v>407.1751677271191</v>
+        <v>215.446574532696</v>
       </c>
       <c r="L29" t="n">
-        <v>20.79895218681844</v>
+        <v>8.557722271768599</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
@@ -2928,24 +2928,24 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.83430477415622</v>
+        <v>0.6877322651018341</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.1804511278195489</v>
+        <v>0.5</v>
       </c>
       <c r="R29" t="n">
-        <v>0.4206336770335558</v>
+        <v>0.4394891108759622</v>
       </c>
       <c r="S29" t="n">
-        <v>0.9822445636241339</v>
+        <v>0.9068874958384587</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>n26</t>
+          <t>n7</t>
         </is>
       </c>
       <c r="U29" t="n">
-        <v>897</v>
+        <v>1909</v>
       </c>
       <c r="V29" t="inlineStr">
         <is>
@@ -2965,40 +2965,40 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1576</v>
+        <v>115</v>
       </c>
       <c r="B30" t="n">
-        <v>1604</v>
+        <v>147</v>
       </c>
       <c r="C30" t="n">
-        <v>1666</v>
+        <v>222</v>
       </c>
       <c r="D30" t="n">
-        <v>4.044098308329064</v>
+        <v>2.813339741636713</v>
       </c>
       <c r="E30" t="n">
-        <v>3.542612570995848</v>
+        <v>2.111877049182491</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.5014857373332172</v>
+        <v>-0.7014626924542224</v>
       </c>
       <c r="G30" t="n">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="H30" t="n">
-        <v>293.7251050751897</v>
+        <v>77.37129646259228</v>
       </c>
       <c r="I30" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J30" t="n">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="K30" t="n">
-        <v>256.2438674972543</v>
+        <v>216.5881219147482</v>
       </c>
       <c r="L30" t="n">
-        <v>19.870581170792</v>
+        <v>11.66008646653263</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
@@ -3014,24 +3014,24 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.7558845553873188</v>
+        <v>0.7092896259382595</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.4516129032258064</v>
+        <v>0.4266666666666667</v>
       </c>
       <c r="R30" t="n">
-        <v>0.239552783906998</v>
+        <v>0.09383470640169746</v>
       </c>
       <c r="S30" t="n">
-        <v>0.6633446450823088</v>
+        <v>0.7928598989676227</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>n27</t>
+          <t>n9</t>
         </is>
       </c>
       <c r="U30" t="n">
-        <v>898</v>
+        <v>1910</v>
       </c>
       <c r="V30" t="inlineStr">
         <is>
@@ -3051,40 +3051,40 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2425</v>
+        <v>222</v>
       </c>
       <c r="B31" t="n">
-        <v>2456</v>
+        <v>254</v>
       </c>
       <c r="C31" t="n">
-        <v>2530</v>
+        <v>311</v>
       </c>
       <c r="D31" t="n">
-        <v>3.133863477653188</v>
+        <v>3.32626041595469</v>
       </c>
       <c r="E31" t="n">
-        <v>2.63237774031997</v>
+        <v>2.624797723500467</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.5014857373332172</v>
+        <v>-0.7014626924542224</v>
       </c>
       <c r="G31" t="n">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="H31" t="n">
-        <v>77.33073316390846</v>
+        <v>66.71039687397661</v>
       </c>
       <c r="I31" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J31" t="n">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="K31" t="n">
-        <v>199.1406576317457</v>
+        <v>225.3130252149241</v>
       </c>
       <c r="L31" t="n">
-        <v>15.39816390779518</v>
+        <v>13.78592264781817</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
@@ -3100,24 +3100,24 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.8307940704886978</v>
+        <v>0.7800054972219412</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.4189189189189189</v>
+        <v>0.5614035087719298</v>
       </c>
       <c r="R31" t="n">
-        <v>0.1815480781910953</v>
+        <v>0.2297237267421527</v>
       </c>
       <c r="S31" t="n">
-        <v>0.9718946475127844</v>
+        <v>0.824915615015827</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>n27</t>
+          <t>n9</t>
         </is>
       </c>
       <c r="U31" t="n">
-        <v>899</v>
+        <v>1911</v>
       </c>
       <c r="V31" t="inlineStr">
         <is>
@@ -3137,40 +3137,40 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2125</v>
+        <v>311</v>
       </c>
       <c r="B32" t="n">
-        <v>2144</v>
+        <v>340</v>
       </c>
       <c r="C32" t="n">
-        <v>2195</v>
+        <v>390</v>
       </c>
       <c r="D32" t="n">
-        <v>2.749180476599816</v>
+        <v>3.052025995095073</v>
       </c>
       <c r="E32" t="n">
-        <v>2.252484072447574</v>
+        <v>2.35056330264085</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.4966964041522426</v>
+        <v>-0.7014626924542224</v>
       </c>
       <c r="G32" t="n">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="H32" t="n">
-        <v>17.12616569094553</v>
+        <v>26.02560486561862</v>
       </c>
       <c r="I32" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="J32" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K32" t="n">
-        <v>136.7129971493237</v>
+        <v>181.2801814382295</v>
       </c>
       <c r="L32" t="n">
-        <v>9.427529459640517</v>
+        <v>12.64933860430611</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
@@ -3186,24 +3186,24 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.8321747449546677</v>
+        <v>0.664754106106893</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.3725490196078431</v>
+        <v>0.58</v>
       </c>
       <c r="R32" t="n">
-        <v>0.6264730799187356</v>
+        <v>0.09703933895902866</v>
       </c>
       <c r="S32" t="n">
-        <v>0.7622269552205472</v>
+        <v>0.6741153128365764</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>n28</t>
+          <t>n9</t>
         </is>
       </c>
       <c r="U32" t="n">
-        <v>900</v>
+        <v>1912</v>
       </c>
       <c r="V32" t="inlineStr">
         <is>
@@ -3223,40 +3223,40 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1110</v>
+        <v>390</v>
       </c>
       <c r="B33" t="n">
-        <v>1148</v>
+        <v>434</v>
       </c>
       <c r="C33" t="n">
-        <v>1220</v>
+        <v>489</v>
       </c>
       <c r="D33" t="n">
-        <v>1.990775971098405</v>
+        <v>2.830747903773651</v>
       </c>
       <c r="E33" t="n">
-        <v>1.461372371472853</v>
+        <v>2.129285211319429</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.5294035996255518</v>
+        <v>-0.7014626924542224</v>
       </c>
       <c r="G33" t="n">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="H33" t="n">
-        <v>86.17971825869972</v>
+        <v>41.82842262656891</v>
       </c>
       <c r="I33" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="J33" t="n">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="K33" t="n">
-        <v>110.3716600538697</v>
+        <v>202.2020756451989</v>
       </c>
       <c r="L33" t="n">
-        <v>7.181258622400606</v>
+        <v>11.73223583147994</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
@@ -3272,24 +3272,24 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.7638329291837767</v>
+        <v>0.6805163599582299</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.5277777777777778</v>
+        <v>0.8</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1706198003717415</v>
+        <v>0.1545147393033982</v>
       </c>
       <c r="S33" t="n">
-        <v>0.9139501894298778</v>
+        <v>0.9873012113651385</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>n31</t>
+          <t>n9</t>
         </is>
       </c>
       <c r="U33" t="n">
-        <v>901</v>
+        <v>1913</v>
       </c>
       <c r="V33" t="inlineStr">
         <is>
@@ -3309,40 +3309,40 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2523</v>
+        <v>489</v>
       </c>
       <c r="B34" t="n">
-        <v>2538</v>
+        <v>533</v>
       </c>
       <c r="C34" t="n">
-        <v>2604</v>
+        <v>593</v>
       </c>
       <c r="D34" t="n">
-        <v>3.334030098369775</v>
+        <v>2.01044409396847</v>
       </c>
       <c r="E34" t="n">
-        <v>2.765373441955899</v>
+        <v>1.308981401514248</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.568656656413876</v>
+        <v>-0.7014626924542224</v>
       </c>
       <c r="G34" t="n">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="H34" t="n">
-        <v>19.42224976240777</v>
+        <v>25.092089178523</v>
       </c>
       <c r="I34" t="n">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="J34" t="n">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="K34" t="n">
-        <v>216.0008206623646</v>
+        <v>141.6296311046213</v>
       </c>
       <c r="L34" t="n">
-        <v>15.10506700533037</v>
+        <v>8.332428403462007</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -3358,24 +3358,24 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.7409902171755214</v>
+        <v>0.6322684563294654</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.2272727272727273</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="R34" t="n">
-        <v>0.1347367185888655</v>
+        <v>0.2302222454668476</v>
       </c>
       <c r="S34" t="n">
-        <v>0.6238386116825891</v>
+        <v>0.8266508842436786</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>n33</t>
+          <t>n9</t>
         </is>
       </c>
       <c r="U34" t="n">
-        <v>902</v>
+        <v>1914</v>
       </c>
       <c r="V34" t="inlineStr">
         <is>
@@ -3395,40 +3395,40 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2604</v>
+        <v>689</v>
       </c>
       <c r="B35" t="n">
-        <v>2630</v>
+        <v>716</v>
       </c>
       <c r="C35" t="n">
-        <v>2663</v>
+        <v>804</v>
       </c>
       <c r="D35" t="n">
-        <v>2.001877756613271</v>
+        <v>2.457737600395838</v>
       </c>
       <c r="E35" t="n">
-        <v>1.433221100199396</v>
+        <v>1.756274907941616</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.568656656413876</v>
+        <v>-0.7014626924542224</v>
       </c>
       <c r="G35" t="n">
-        <v>59</v>
+        <v>115</v>
       </c>
       <c r="H35" t="n">
-        <v>26.25145771096595</v>
+        <v>171.0552639407575</v>
       </c>
       <c r="I35" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J35" t="n">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="K35" t="n">
-        <v>87.45713806599566</v>
+        <v>210.6820708215569</v>
       </c>
       <c r="L35" t="n">
-        <v>9.069653469808051</v>
+        <v>10.18626812415904</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -3444,24 +3444,24 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.717144660159222</v>
+        <v>0.8557395429295392</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.7878787878787878</v>
+        <v>0.3068181818181818</v>
       </c>
       <c r="R35" t="n">
-        <v>0.2847818008910779</v>
+        <v>0.2181733888198637</v>
       </c>
       <c r="S35" t="n">
-        <v>0.9782617733477209</v>
+        <v>0.7838085702198281</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>n33</t>
+          <t>n9</t>
         </is>
       </c>
       <c r="U35" t="n">
-        <v>903</v>
+        <v>1915</v>
       </c>
       <c r="V35" t="inlineStr">
         <is>
@@ -3481,40 +3481,40 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>240</v>
+        <v>2682</v>
       </c>
       <c r="B36" t="n">
-        <v>273</v>
+        <v>2733</v>
       </c>
       <c r="C36" t="n">
-        <v>372</v>
+        <v>2797</v>
       </c>
       <c r="D36" t="n">
-        <v>3.159150545831916</v>
+        <v>1.792092175688465</v>
       </c>
       <c r="E36" t="n">
-        <v>2.661767479924857</v>
+        <v>1.090629483234242</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.4973830659070594</v>
+        <v>-0.7014626924542224</v>
       </c>
       <c r="G36" t="n">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="H36" t="n">
-        <v>65.41059696051065</v>
+        <v>49.9356614755302</v>
       </c>
       <c r="I36" t="n">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="J36" t="n">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="K36" t="n">
-        <v>321.2343839685423</v>
+        <v>148.0038929178679</v>
       </c>
       <c r="L36" t="n">
-        <v>9.795879818035512</v>
+        <v>7.427453362730899</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
@@ -3530,24 +3530,24 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.777072947872528</v>
+        <v>0.5913395070605549</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.796875</v>
       </c>
       <c r="R36" t="n">
-        <v>0.04772755782796328</v>
+        <v>0.1396735396871894</v>
       </c>
       <c r="S36" t="n">
-        <v>0.9765232028863953</v>
+        <v>0.921444631042609</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>n34</t>
+          <t>n9</t>
         </is>
       </c>
       <c r="U36" t="n">
-        <v>904</v>
+        <v>1916</v>
       </c>
       <c r="V36" t="inlineStr">
         <is>
@@ -3567,73 +3567,73 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>372</v>
+        <v>2805</v>
       </c>
       <c r="B37" t="n">
-        <v>394</v>
+        <v>2853</v>
       </c>
       <c r="C37" t="n">
-        <v>865</v>
+        <v>2916</v>
       </c>
       <c r="D37" t="n">
-        <v>2.451682314456304</v>
+        <v>2.191839531325169</v>
       </c>
       <c r="E37" t="n">
-        <v>1.954299248549245</v>
+        <v>1.832151230545058</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.4973830659070594</v>
+        <v>-0.3596883007801107</v>
       </c>
       <c r="G37" t="n">
-        <v>493</v>
+        <v>111</v>
       </c>
       <c r="H37" t="n">
-        <v>26.17051984174304</v>
+        <v>30.48489829423443</v>
       </c>
       <c r="I37" t="n">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="J37" t="n">
-        <v>471</v>
+        <v>63</v>
       </c>
       <c r="K37" t="n">
-        <v>412.6522351076412</v>
+        <v>121.0009991999174</v>
       </c>
       <c r="L37" t="n">
-        <v>7.602165504934094</v>
+        <v>4.289911036928127</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>complex</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>[{'index': np.int64(813), 'value': np.float64(0.5057916120727657), 'amplitude': np.float64(1.0031746779798252), 'start_idx': np.int64(776), 'end_idx': np.int64(823), 'duration': np.float64(47.0), 'fwhm': np.float64(53.78169833673803), 'rise_time': np.float64(37.0), 'decay_time': np.float64(10.0), 'auc': np.float64(34.53633039415846)}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0.60460610789219</v>
+        <v>0.6628508614170998</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.04670912951167728</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="R37" t="n">
-        <v>0.6088242383738208</v>
+        <v>0.3202890441799713</v>
       </c>
       <c r="S37" t="n">
-        <v>0.2680342459049753</v>
+        <v>0.4945688232292946</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>n34</t>
+          <t>n10</t>
         </is>
       </c>
       <c r="U37" t="n">
-        <v>905</v>
+        <v>1917</v>
       </c>
       <c r="V37" t="inlineStr">
         <is>
@@ -3653,40 +3653,40 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2302</v>
+        <v>2916</v>
       </c>
       <c r="B38" t="n">
-        <v>2336</v>
+        <v>2945</v>
       </c>
       <c r="C38" t="n">
-        <v>2456</v>
+        <v>2998</v>
       </c>
       <c r="D38" t="n">
-        <v>3.197935528092573</v>
+        <v>2.246266708561511</v>
       </c>
       <c r="E38" t="n">
-        <v>2.623142491734304</v>
+        <v>1.8865784077814</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.5747930363582688</v>
+        <v>-0.3596883007801107</v>
       </c>
       <c r="G38" t="n">
-        <v>154</v>
+        <v>82</v>
       </c>
       <c r="H38" t="n">
-        <v>120.7197079165098</v>
+        <v>48.8602628642293</v>
       </c>
       <c r="I38" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="J38" t="n">
-        <v>120</v>
+        <v>53</v>
       </c>
       <c r="K38" t="n">
-        <v>280.2929853044642</v>
+        <v>117.0034482005784</v>
       </c>
       <c r="L38" t="n">
-        <v>18.72599036427869</v>
+        <v>4.396436968684574</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
@@ -3702,24 +3702,24 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>0.8449723629623311</v>
+        <v>0.7961471861885601</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.2833333333333333</v>
+        <v>0.5471698113207547</v>
       </c>
       <c r="R38" t="n">
-        <v>0.3890937290465599</v>
+        <v>0.2050958910534106</v>
       </c>
       <c r="S38" t="n">
-        <v>0.5899411107451812</v>
+        <v>0.8800242153173635</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>n35</t>
+          <t>n10</t>
         </is>
       </c>
       <c r="U38" t="n">
-        <v>906</v>
+        <v>1918</v>
       </c>
       <c r="V38" t="inlineStr">
         <is>
@@ -3739,40 +3739,40 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2572</v>
+        <v>240</v>
       </c>
       <c r="B39" t="n">
-        <v>2606</v>
+        <v>274</v>
       </c>
       <c r="C39" t="n">
-        <v>2655</v>
+        <v>345</v>
       </c>
       <c r="D39" t="n">
-        <v>3.368745184639367</v>
+        <v>2.006222181604719</v>
       </c>
       <c r="E39" t="n">
-        <v>2.793952148281099</v>
+        <v>1.487781214939593</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.5747930363582688</v>
+        <v>-0.5184409666651258</v>
       </c>
       <c r="G39" t="n">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="H39" t="n">
-        <v>254.4151485765201</v>
+        <v>72.85524307345005</v>
       </c>
       <c r="I39" t="n">
         <v>34</v>
       </c>
       <c r="J39" t="n">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="K39" t="n">
-        <v>223.1867717791411</v>
+        <v>141.7868528670887</v>
       </c>
       <c r="L39" t="n">
-        <v>19.72619188633028</v>
+        <v>6.704755162377782</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
@@ -3788,24 +3788,24 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>0.6170409721648359</v>
+        <v>0.7265156555253423</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.6938775510204082</v>
+        <v>0.4788732394366197</v>
       </c>
       <c r="R39" t="n">
-        <v>0.08306811476516451</v>
+        <v>0.0999775892270887</v>
       </c>
       <c r="S39" t="n">
-        <v>0.9429543029472233</v>
+        <v>0.930376823696449</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>n35</t>
+          <t>n11</t>
         </is>
       </c>
       <c r="U39" t="n">
-        <v>907</v>
+        <v>1919</v>
       </c>
       <c r="V39" t="inlineStr">
         <is>
@@ -3825,40 +3825,40 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2655</v>
+        <v>345</v>
       </c>
       <c r="B40" t="n">
-        <v>2680</v>
+        <v>368</v>
       </c>
       <c r="C40" t="n">
-        <v>2784</v>
+        <v>442</v>
       </c>
       <c r="D40" t="n">
-        <v>2.962612275170979</v>
+        <v>1.487552635674431</v>
       </c>
       <c r="E40" t="n">
-        <v>2.38781923881271</v>
+        <v>0.9691116690093049</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.5747930363582688</v>
+        <v>-0.5184409666651258</v>
       </c>
       <c r="G40" t="n">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="H40" t="n">
-        <v>28.42857835580207</v>
+        <v>64.67989587517678</v>
       </c>
       <c r="I40" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J40" t="n">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="K40" t="n">
-        <v>213.9118437618399</v>
+        <v>108.6570875740917</v>
       </c>
       <c r="L40" t="n">
-        <v>17.34801981797163</v>
+        <v>4.971371717846903</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
@@ -3874,24 +3874,24 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>0.8676337535091779</v>
+        <v>0.7989746649819185</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.2403846153846154</v>
+        <v>0.3108108108108108</v>
       </c>
       <c r="R40" t="n">
-        <v>0.4091777544660835</v>
+        <v>0.1750886945972959</v>
       </c>
       <c r="S40" t="n">
-        <v>0.8619293732286281</v>
+        <v>0.5979288628541053</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>n35</t>
+          <t>n11</t>
         </is>
       </c>
       <c r="U40" t="n">
-        <v>908</v>
+        <v>1920</v>
       </c>
       <c r="V40" t="inlineStr">
         <is>
@@ -3911,85 +3911,6449 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2764</v>
+        <v>442</v>
       </c>
       <c r="B41" t="n">
-        <v>2797</v>
+        <v>517</v>
       </c>
       <c r="C41" t="n">
+        <v>612</v>
+      </c>
+      <c r="D41" t="n">
+        <v>4.72444976983008</v>
+      </c>
+      <c r="E41" t="n">
+        <v>4.206008803164955</v>
+      </c>
+      <c r="F41" t="n">
+        <v>-0.5184409666651258</v>
+      </c>
+      <c r="G41" t="n">
+        <v>170</v>
+      </c>
+      <c r="H41" t="n">
+        <v>74.01093122374942</v>
+      </c>
+      <c r="I41" t="n">
+        <v>75</v>
+      </c>
+      <c r="J41" t="n">
+        <v>95</v>
+      </c>
+      <c r="K41" t="n">
+        <v>346.8128165463407</v>
+      </c>
+      <c r="L41" t="n">
+        <v>15.7890184218409</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P41" t="n">
+        <v>0.7360342026985335</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0.4285244878185207</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0.9026029005791987</v>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>n11</t>
+        </is>
+      </c>
+      <c r="U41" t="n">
+        <v>1921</v>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>612</v>
+      </c>
+      <c r="B42" t="n">
+        <v>635</v>
+      </c>
+      <c r="C42" t="n">
+        <v>699</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1.620031271899567</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1.101590305234441</v>
+      </c>
+      <c r="F42" t="n">
+        <v>-0.5184409666651258</v>
+      </c>
+      <c r="G42" t="n">
+        <v>87</v>
+      </c>
+      <c r="H42" t="n">
+        <v>21.08526415180211</v>
+      </c>
+      <c r="I42" t="n">
+        <v>23</v>
+      </c>
+      <c r="J42" t="n">
+        <v>64</v>
+      </c>
+      <c r="K42" t="n">
+        <v>68.56582429121053</v>
+      </c>
+      <c r="L42" t="n">
+        <v>5.414112720453493</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P42" t="n">
+        <v>0.79039661797907</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0.359375</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.328119974517426</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0.5494843801099569</v>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>n11</t>
+        </is>
+      </c>
+      <c r="U42" t="n">
+        <v>1922</v>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>795</v>
+      </c>
+      <c r="B43" t="n">
+        <v>807</v>
+      </c>
+      <c r="C43" t="n">
+        <v>916</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2.565585586217542</v>
+      </c>
+      <c r="E43" t="n">
+        <v>2.047144619552416</v>
+      </c>
+      <c r="F43" t="n">
+        <v>-0.5184409666651258</v>
+      </c>
+      <c r="G43" t="n">
+        <v>121</v>
+      </c>
+      <c r="H43" t="n">
+        <v>14.00706208499321</v>
+      </c>
+      <c r="I43" t="n">
+        <v>12</v>
+      </c>
+      <c r="J43" t="n">
+        <v>109</v>
+      </c>
+      <c r="K43" t="n">
+        <v>203.8849518485216</v>
+      </c>
+      <c r="L43" t="n">
+        <v>8.574136684081028</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P43" t="n">
+        <v>0.7696553575759044</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0.1100917431192661</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0.3098379768963016</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0.8817008010038712</v>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>n11</t>
+        </is>
+      </c>
+      <c r="U43" t="n">
+        <v>1923</v>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>848</v>
+      </c>
+      <c r="B44" t="n">
+        <v>862</v>
+      </c>
+      <c r="C44" t="n">
+        <v>890</v>
+      </c>
+      <c r="D44" t="n">
+        <v>3.127166099653974</v>
+      </c>
+      <c r="E44" t="n">
+        <v>2.589057089448061</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-0.5381090102059131</v>
+      </c>
+      <c r="G44" t="n">
+        <v>42</v>
+      </c>
+      <c r="H44" t="n">
+        <v>11.7114804329932</v>
+      </c>
+      <c r="I44" t="n">
+        <v>14</v>
+      </c>
+      <c r="J44" t="n">
+        <v>28</v>
+      </c>
+      <c r="K44" t="n">
+        <v>84.19019581914338</v>
+      </c>
+      <c r="L44" t="n">
+        <v>9.497977332059598</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P44" t="n">
+        <v>0.8472353631945103</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.338896564057646</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0.988687360725358</v>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>n12</t>
+        </is>
+      </c>
+      <c r="U44" t="n">
+        <v>1924</v>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>2143</v>
+      </c>
+      <c r="B45" t="n">
+        <v>2166</v>
+      </c>
+      <c r="C45" t="n">
+        <v>2224</v>
+      </c>
+      <c r="D45" t="n">
+        <v>2.7461747777098</v>
+      </c>
+      <c r="E45" t="n">
+        <v>2.295530924624861</v>
+      </c>
+      <c r="F45" t="n">
+        <v>-0.4506438530849393</v>
+      </c>
+      <c r="G45" t="n">
+        <v>81</v>
+      </c>
+      <c r="H45" t="n">
+        <v>123.6506800183861</v>
+      </c>
+      <c r="I45" t="n">
+        <v>23</v>
+      </c>
+      <c r="J45" t="n">
+        <v>58</v>
+      </c>
+      <c r="K45" t="n">
+        <v>133.7489807171001</v>
+      </c>
+      <c r="L45" t="n">
+        <v>7.62427335893415</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P45" t="n">
+        <v>0.754143810003549</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0.396551724137931</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0.1644783720329834</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0.7439930163289428</v>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>n13</t>
+        </is>
+      </c>
+      <c r="U45" t="n">
+        <v>1925</v>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>2547</v>
+      </c>
+      <c r="B46" t="n">
+        <v>2567</v>
+      </c>
+      <c r="C46" t="n">
+        <v>2594</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1.558877682354508</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1.108233829269568</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-0.4506438530849393</v>
+      </c>
+      <c r="G46" t="n">
+        <v>47</v>
+      </c>
+      <c r="H46" t="n">
+        <v>139.7252963245533</v>
+      </c>
+      <c r="I46" t="n">
+        <v>20</v>
+      </c>
+      <c r="J46" t="n">
+        <v>27</v>
+      </c>
+      <c r="K46" t="n">
+        <v>47.86098224266669</v>
+      </c>
+      <c r="L46" t="n">
+        <v>4.327950893687967</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P46" t="n">
+        <v>0.713629981203565</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0.7407407407407407</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0.2994333295550526</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0.8649617083240909</v>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>n13</t>
+        </is>
+      </c>
+      <c r="U46" t="n">
+        <v>1926</v>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>2594</v>
+      </c>
+      <c r="B47" t="n">
+        <v>2603</v>
+      </c>
+      <c r="C47" t="n">
+        <v>2634</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1.198532839313868</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.7478889862289289</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-0.4506438530849393</v>
+      </c>
+      <c r="G47" t="n">
+        <v>40</v>
+      </c>
+      <c r="H47" t="n">
+        <v>25.86068779629159</v>
+      </c>
+      <c r="I47" t="n">
+        <v>9</v>
+      </c>
+      <c r="J47" t="n">
+        <v>31</v>
+      </c>
+      <c r="K47" t="n">
+        <v>41.33960281138848</v>
+      </c>
+      <c r="L47" t="n">
+        <v>3.327516540738571</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P47" t="n">
+        <v>0.7643097200734954</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0.2903225806451613</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0.08955662358510838</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0.7356303883711004</v>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>n13</t>
+        </is>
+      </c>
+      <c r="U47" t="n">
+        <v>1927</v>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>286</v>
+      </c>
+      <c r="B48" t="n">
+        <v>330</v>
+      </c>
+      <c r="C48" t="n">
+        <v>385</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1.100601802660775</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.6216353427336562</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-0.4789664599271188</v>
+      </c>
+      <c r="G48" t="n">
+        <v>99</v>
+      </c>
+      <c r="H48" t="n">
+        <v>36.13542209265086</v>
+      </c>
+      <c r="I48" t="n">
+        <v>44</v>
+      </c>
+      <c r="J48" t="n">
+        <v>55</v>
+      </c>
+      <c r="K48" t="n">
+        <v>51.2142378732215</v>
+      </c>
+      <c r="L48" t="n">
+        <v>3.746098267108394</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P48" t="n">
+        <v>0.6488716177603912</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0.3275660199732988</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0.6881901715370164</v>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>n15</t>
+        </is>
+      </c>
+      <c r="U48" t="n">
+        <v>1928</v>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>944</v>
+      </c>
+      <c r="B49" t="n">
+        <v>967</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1052</v>
+      </c>
+      <c r="D49" t="n">
+        <v>3.976067940069692</v>
+      </c>
+      <c r="E49" t="n">
+        <v>3.497101480142573</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-0.4789664599271188</v>
+      </c>
+      <c r="G49" t="n">
+        <v>108</v>
+      </c>
+      <c r="H49" t="n">
+        <v>31.16574988769617</v>
+      </c>
+      <c r="I49" t="n">
+        <v>23</v>
+      </c>
+      <c r="J49" t="n">
+        <v>85</v>
+      </c>
+      <c r="K49" t="n">
+        <v>160.4125759316725</v>
+      </c>
+      <c r="L49" t="n">
+        <v>13.53326987489147</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P49" t="n">
+        <v>0.8908755261019659</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0.2705882352941176</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0.4412206912297444</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0.735255615697358</v>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>n15</t>
+        </is>
+      </c>
+      <c r="U49" t="n">
+        <v>1929</v>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>1708</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1731</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1780</v>
+      </c>
+      <c r="D50" t="n">
+        <v>3.55940294977618</v>
+      </c>
+      <c r="E50" t="n">
+        <v>3.080436489849061</v>
+      </c>
+      <c r="F50" t="n">
+        <v>-0.4789664599271188</v>
+      </c>
+      <c r="G50" t="n">
+        <v>72</v>
+      </c>
+      <c r="H50" t="n">
+        <v>60.82701699653944</v>
+      </c>
+      <c r="I50" t="n">
+        <v>23</v>
+      </c>
+      <c r="J50" t="n">
+        <v>49</v>
+      </c>
+      <c r="K50" t="n">
+        <v>163.3957983871945</v>
+      </c>
+      <c r="L50" t="n">
+        <v>12.11507485255936</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P50" t="n">
+        <v>0.7600421004190961</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0.4693877551020408</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0.3761714414745794</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0.6104304304311929</v>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>n15</t>
+        </is>
+      </c>
+      <c r="U50" t="n">
+        <v>1930</v>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>847</v>
+      </c>
+      <c r="B51" t="n">
+        <v>879</v>
+      </c>
+      <c r="C51" t="n">
+        <v>928</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1.382968397730759</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.8157453070065689</v>
+      </c>
+      <c r="F51" t="n">
+        <v>-0.5672230907241903</v>
+      </c>
+      <c r="G51" t="n">
+        <v>81</v>
+      </c>
+      <c r="H51" t="n">
+        <v>114.3593746410013</v>
+      </c>
+      <c r="I51" t="n">
+        <v>32</v>
+      </c>
+      <c r="J51" t="n">
+        <v>49</v>
+      </c>
+      <c r="K51" t="n">
+        <v>80.53193033552562</v>
+      </c>
+      <c r="L51" t="n">
+        <v>3.843419962558558</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P51" t="n">
+        <v>0.6926826509402103</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0.6530612244897959</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0.1614695868242803</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0.8755926503136717</v>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>n16</t>
+        </is>
+      </c>
+      <c r="U51" t="n">
+        <v>1931</v>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>1287</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1313</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1439</v>
+      </c>
+      <c r="D52" t="n">
+        <v>3.282171866357467</v>
+      </c>
+      <c r="E52" t="n">
+        <v>2.714948775633276</v>
+      </c>
+      <c r="F52" t="n">
+        <v>-0.5672230907241903</v>
+      </c>
+      <c r="G52" t="n">
+        <v>152</v>
+      </c>
+      <c r="H52" t="n">
+        <v>91.12675261822733</v>
+      </c>
+      <c r="I52" t="n">
+        <v>26</v>
+      </c>
+      <c r="J52" t="n">
+        <v>126</v>
+      </c>
+      <c r="K52" t="n">
+        <v>247.7199391522149</v>
+      </c>
+      <c r="L52" t="n">
+        <v>9.121513472328997</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P52" t="n">
+        <v>0.9015545598501684</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0.2063492063492063</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0.241497981216093</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0.9469496842590295</v>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>n16</t>
+        </is>
+      </c>
+      <c r="U52" t="n">
+        <v>1932</v>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B53" t="n">
+        <v>2038</v>
+      </c>
+      <c r="C53" t="n">
+        <v>2093</v>
+      </c>
+      <c r="D53" t="n">
+        <v>2.067407603450305</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1.500184512726115</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-0.5672230907241903</v>
+      </c>
+      <c r="G53" t="n">
+        <v>93</v>
+      </c>
+      <c r="H53" t="n">
+        <v>20.3756334263926</v>
+      </c>
+      <c r="I53" t="n">
+        <v>38</v>
+      </c>
+      <c r="J53" t="n">
+        <v>55</v>
+      </c>
+      <c r="K53" t="n">
+        <v>129.1533228699127</v>
+      </c>
+      <c r="L53" t="n">
+        <v>5.74555113976884</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P53" t="n">
+        <v>0.6552951105252656</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0.6909090909090909</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0.5332455487447797</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0.5159636613822078</v>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>n16</t>
+        </is>
+      </c>
+      <c r="U53" t="n">
+        <v>1933</v>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>2093</v>
+      </c>
+      <c r="B54" t="n">
+        <v>2113</v>
+      </c>
+      <c r="C54" t="n">
+        <v>2160</v>
+      </c>
+      <c r="D54" t="n">
+        <v>2.162125442306577</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1.594902351582387</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-0.5672230907241903</v>
+      </c>
+      <c r="G54" t="n">
+        <v>67</v>
+      </c>
+      <c r="H54" t="n">
+        <v>34.4640006019813</v>
+      </c>
+      <c r="I54" t="n">
+        <v>20</v>
+      </c>
+      <c r="J54" t="n">
+        <v>47</v>
+      </c>
+      <c r="K54" t="n">
+        <v>105.0037170383845</v>
+      </c>
+      <c r="L54" t="n">
+        <v>6.008782341051484</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P54" t="n">
+        <v>0.8455887482377162</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0.425531914893617</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0.1749819829757089</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0.9707877332899272</v>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>n16</t>
+        </is>
+      </c>
+      <c r="U54" t="n">
+        <v>1934</v>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>1795</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1826</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1866</v>
+      </c>
+      <c r="D55" t="n">
+        <v>2.864355275833813</v>
+      </c>
+      <c r="E55" t="n">
+        <v>2.300101221022544</v>
+      </c>
+      <c r="F55" t="n">
+        <v>-0.56425405481127</v>
+      </c>
+      <c r="G55" t="n">
+        <v>71</v>
+      </c>
+      <c r="H55" t="n">
+        <v>283.1025635917304</v>
+      </c>
+      <c r="I55" t="n">
+        <v>31</v>
+      </c>
+      <c r="J55" t="n">
+        <v>40</v>
+      </c>
+      <c r="K55" t="n">
+        <v>138.2852694676389</v>
+      </c>
+      <c r="L55" t="n">
+        <v>9.178723874858248</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P55" t="n">
+        <v>0.5847005107741079</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0.05831207551424847</v>
+      </c>
+      <c r="S55" t="n">
+        <v>0.9885712771620492</v>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>n17</t>
+        </is>
+      </c>
+      <c r="U55" t="n">
+        <v>1935</v>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>2104</v>
+      </c>
+      <c r="B56" t="n">
+        <v>2130</v>
+      </c>
+      <c r="C56" t="n">
+        <v>2179</v>
+      </c>
+      <c r="D56" t="n">
+        <v>3.563994949095171</v>
+      </c>
+      <c r="E56" t="n">
+        <v>2.999740894283902</v>
+      </c>
+      <c r="F56" t="n">
+        <v>-0.56425405481127</v>
+      </c>
+      <c r="G56" t="n">
+        <v>75</v>
+      </c>
+      <c r="H56" t="n">
+        <v>57.80890486582166</v>
+      </c>
+      <c r="I56" t="n">
+        <v>26</v>
+      </c>
+      <c r="J56" t="n">
+        <v>49</v>
+      </c>
+      <c r="K56" t="n">
+        <v>159.1572877101038</v>
+      </c>
+      <c r="L56" t="n">
+        <v>11.42069414542556</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P56" t="n">
+        <v>0.6938272784985251</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0.5306122448979592</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0.1249659007481665</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0.7855641789057545</v>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>n17</t>
+        </is>
+      </c>
+      <c r="U56" t="n">
+        <v>1936</v>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W56" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>2421</v>
+      </c>
+      <c r="B57" t="n">
+        <v>2447</v>
+      </c>
+      <c r="C57" t="n">
+        <v>2510</v>
+      </c>
+      <c r="D57" t="n">
+        <v>2.771560512080804</v>
+      </c>
+      <c r="E57" t="n">
+        <v>2.259844907677845</v>
+      </c>
+      <c r="F57" t="n">
+        <v>-0.5117156044029589</v>
+      </c>
+      <c r="G57" t="n">
+        <v>89</v>
+      </c>
+      <c r="H57" t="n">
+        <v>34.71481380289697</v>
+      </c>
+      <c r="I57" t="n">
+        <v>26</v>
+      </c>
+      <c r="J57" t="n">
+        <v>63</v>
+      </c>
+      <c r="K57" t="n">
+        <v>144.3490999143512</v>
+      </c>
+      <c r="L57" t="n">
+        <v>8.298784665610318</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P57" t="n">
+        <v>0.7650527327797523</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0.4126984126984127</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0.4490126829284213</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0.714867706968078</v>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>n18</t>
+        </is>
+      </c>
+      <c r="U57" t="n">
+        <v>1937</v>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>2717</v>
+      </c>
+      <c r="B58" t="n">
+        <v>2798</v>
+      </c>
+      <c r="C58" t="n">
+        <v>2905</v>
+      </c>
+      <c r="D58" t="n">
+        <v>3.305832242159594</v>
+      </c>
+      <c r="E58" t="n">
+        <v>2.794116637756635</v>
+      </c>
+      <c r="F58" t="n">
+        <v>-0.5117156044029589</v>
+      </c>
+      <c r="G58" t="n">
+        <v>188</v>
+      </c>
+      <c r="H58" t="n">
+        <v>81.57257727890828</v>
+      </c>
+      <c r="I58" t="n">
+        <v>81</v>
+      </c>
+      <c r="J58" t="n">
+        <v>107</v>
+      </c>
+      <c r="K58" t="n">
+        <v>372.1845350843142</v>
+      </c>
+      <c r="L58" t="n">
+        <v>9.898535427508062</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P58" t="n">
+        <v>0.6683856906566689</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0.7570093457943925</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0.2981161443269704</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0.890492253754867</v>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>n18</t>
+        </is>
+      </c>
+      <c r="U58" t="n">
+        <v>1938</v>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>2905</v>
+      </c>
+      <c r="B59" t="n">
+        <v>2930</v>
+      </c>
+      <c r="C59" t="n">
         <v>2998</v>
       </c>
-      <c r="D41" t="n">
-        <v>2.679767198048401</v>
-      </c>
-      <c r="E41" t="n">
-        <v>2.204591826815048</v>
-      </c>
-      <c r="F41" t="n">
-        <v>-0.475175371233353</v>
-      </c>
-      <c r="G41" t="n">
-        <v>234</v>
-      </c>
-      <c r="H41" t="n">
-        <v>44.78936116168643</v>
-      </c>
-      <c r="I41" t="n">
+      <c r="D59" t="n">
+        <v>2.303371640882246</v>
+      </c>
+      <c r="E59" t="n">
+        <v>1.791656036479288</v>
+      </c>
+      <c r="F59" t="n">
+        <v>-0.5117156044029589</v>
+      </c>
+      <c r="G59" t="n">
+        <v>93</v>
+      </c>
+      <c r="H59" t="n">
+        <v>25.31404407090713</v>
+      </c>
+      <c r="I59" t="n">
+        <v>25</v>
+      </c>
+      <c r="J59" t="n">
+        <v>68</v>
+      </c>
+      <c r="K59" t="n">
+        <v>108.0237862100452</v>
+      </c>
+      <c r="L59" t="n">
+        <v>6.896903448160388</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P59" t="n">
+        <v>0.835438429795955</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0.3676470588235294</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0.3013899960972225</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0.7021318154457858</v>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>n18</t>
+        </is>
+      </c>
+      <c r="U59" t="n">
+        <v>1939</v>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>1070</v>
+      </c>
+      <c r="B60" t="n">
+        <v>1082</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1109</v>
+      </c>
+      <c r="D60" t="n">
+        <v>2.208561939310303</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1.760850032254651</v>
+      </c>
+      <c r="F60" t="n">
+        <v>-0.4477119070556517</v>
+      </c>
+      <c r="G60" t="n">
+        <v>39</v>
+      </c>
+      <c r="H60" t="n">
+        <v>25.23010868446841</v>
+      </c>
+      <c r="I60" t="n">
+        <v>12</v>
+      </c>
+      <c r="J60" t="n">
+        <v>27</v>
+      </c>
+      <c r="K60" t="n">
+        <v>76.08993636265467</v>
+      </c>
+      <c r="L60" t="n">
+        <v>4.981013833670989</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P60" t="n">
+        <v>0.6806671137787701</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0.05123262621286149</v>
+      </c>
+      <c r="S60" t="n">
+        <v>0.8446807255611887</v>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>n19</t>
+        </is>
+      </c>
+      <c r="U60" t="n">
+        <v>1940</v>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B61" t="n">
+        <v>1131</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1192</v>
+      </c>
+      <c r="D61" t="n">
+        <v>2.528006752546702</v>
+      </c>
+      <c r="E61" t="n">
+        <v>2.08029484549105</v>
+      </c>
+      <c r="F61" t="n">
+        <v>-0.4477119070556517</v>
+      </c>
+      <c r="G61" t="n">
+        <v>83</v>
+      </c>
+      <c r="H61" t="n">
+        <v>27.1105590200084</v>
+      </c>
+      <c r="I61" t="n">
+        <v>22</v>
+      </c>
+      <c r="J61" t="n">
+        <v>61</v>
+      </c>
+      <c r="K61" t="n">
+        <v>124.7173429404658</v>
+      </c>
+      <c r="L61" t="n">
+        <v>5.70146409839023</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
+        <v>0</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P61" t="n">
+        <v>0.8878202996357947</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0.360655737704918</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0.4118747665006369</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0.9419630042338187</v>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>n19</t>
+        </is>
+      </c>
+      <c r="U61" t="n">
+        <v>1941</v>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>1281</v>
+      </c>
+      <c r="B62" t="n">
+        <v>1311</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1352</v>
+      </c>
+      <c r="D62" t="n">
+        <v>2.435110934131796</v>
+      </c>
+      <c r="E62" t="n">
+        <v>1.987399027076144</v>
+      </c>
+      <c r="F62" t="n">
+        <v>-0.4477119070556517</v>
+      </c>
+      <c r="G62" t="n">
+        <v>71</v>
+      </c>
+      <c r="H62" t="n">
+        <v>110.7489333279518</v>
+      </c>
+      <c r="I62" t="n">
+        <v>30</v>
+      </c>
+      <c r="J62" t="n">
+        <v>41</v>
+      </c>
+      <c r="K62" t="n">
+        <v>133.0812611817095</v>
+      </c>
+      <c r="L62" t="n">
+        <v>5.491954304537976</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
+        <v>0</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P62" t="n">
+        <v>0.7501811056705759</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0.7317073170731707</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0.4227030544508549</v>
+      </c>
+      <c r="S62" t="n">
+        <v>0.9905119310000582</v>
+      </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>n19</t>
+        </is>
+      </c>
+      <c r="U62" t="n">
+        <v>1942</v>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>1669</v>
+      </c>
+      <c r="B63" t="n">
+        <v>1711</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1808</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1.606709457385455</v>
+      </c>
+      <c r="E63" t="n">
+        <v>1.158997550329804</v>
+      </c>
+      <c r="F63" t="n">
+        <v>-0.4477119070556517</v>
+      </c>
+      <c r="G63" t="n">
+        <v>139</v>
+      </c>
+      <c r="H63" t="n">
+        <v>67.47023503862283</v>
+      </c>
+      <c r="I63" t="n">
+        <v>42</v>
+      </c>
+      <c r="J63" t="n">
+        <v>97</v>
+      </c>
+      <c r="K63" t="n">
+        <v>136.3763877847239</v>
+      </c>
+      <c r="L63" t="n">
+        <v>3.623643915744639</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>complex</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
+        <v>1</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>[{'index': np.int64(1785), 'value': np.float64(0.9873259360277119), 'amplitude': np.float64(1.4350378430833635), 'start_idx': np.int64(1767), 'end_idx': np.int64(1807), 'duration': np.float64(40.0), 'fwhm': np.float64(19.447025541983066), 'rise_time': np.float64(18.0), 'decay_time': np.float64(22.0), 'auc': np.float64(40.141009074570576)}]</t>
+        </is>
+      </c>
+      <c r="P63" t="n">
+        <v>0.7467326010145187</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0.4329896907216495</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0.5267084948049254</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0.3240565436674259</v>
+      </c>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>n19</t>
+        </is>
+      </c>
+      <c r="U63" t="n">
+        <v>1943</v>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W63" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>2379</v>
+      </c>
+      <c r="B64" t="n">
+        <v>2392</v>
+      </c>
+      <c r="C64" t="n">
+        <v>2509</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1.478001979464898</v>
+      </c>
+      <c r="E64" t="n">
+        <v>1.030290072409246</v>
+      </c>
+      <c r="F64" t="n">
+        <v>-0.4477119070556517</v>
+      </c>
+      <c r="G64" t="n">
+        <v>130</v>
+      </c>
+      <c r="H64" t="n">
+        <v>21.82395787988344</v>
+      </c>
+      <c r="I64" t="n">
+        <v>13</v>
+      </c>
+      <c r="J64" t="n">
+        <v>117</v>
+      </c>
+      <c r="K64" t="n">
+        <v>94.15046794432288</v>
+      </c>
+      <c r="L64" t="n">
+        <v>3.333367371261851</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>complex</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
+        <v>1</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>[{'index': np.int64(2462), 'value': np.float64(0.4771925801478269), 'amplitude': np.float64(0.9249044872034786), 'start_idx': np.int64(2454), 'end_idx': np.int64(2469), 'duration': np.float64(15.0), 'fwhm': np.float64(66.9658897145232), 'rise_time': np.float64(8.0), 'decay_time': np.float64(7.0), 'auc': np.float64(11.572113256311882)}]</t>
+        </is>
+      </c>
+      <c r="P64" t="n">
+        <v>0.6530787676087313</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0.3798614810566912</v>
+      </c>
+      <c r="S64" t="n">
+        <v>0.2685080104690989</v>
+      </c>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>n19</t>
+        </is>
+      </c>
+      <c r="U64" t="n">
+        <v>1944</v>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W64" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>1151</v>
+      </c>
+      <c r="B65" t="n">
+        <v>1221</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1351</v>
+      </c>
+      <c r="D65" t="n">
+        <v>5.014224211868003</v>
+      </c>
+      <c r="E65" t="n">
+        <v>4.547253612696775</v>
+      </c>
+      <c r="F65" t="n">
+        <v>-0.4669705991712282</v>
+      </c>
+      <c r="G65" t="n">
+        <v>200</v>
+      </c>
+      <c r="H65" t="n">
+        <v>136.6167497526433</v>
+      </c>
+      <c r="I65" t="n">
+        <v>70</v>
+      </c>
+      <c r="J65" t="n">
+        <v>130</v>
+      </c>
+      <c r="K65" t="n">
+        <v>577.5845799021635</v>
+      </c>
+      <c r="L65" t="n">
+        <v>23.23270727391711</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P65" t="n">
+        <v>0.7508791840011489</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>0.5384615384615384</v>
+      </c>
+      <c r="R65" t="n">
+        <v>0.28297476979715</v>
+      </c>
+      <c r="S65" t="n">
+        <v>0.9023751319948417</v>
+      </c>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>n20</t>
+        </is>
+      </c>
+      <c r="U65" t="n">
+        <v>1945</v>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W65" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>1351</v>
+      </c>
+      <c r="B66" t="n">
+        <v>1368</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1458</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1.019324033523103</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.5523534343518746</v>
+      </c>
+      <c r="F66" t="n">
+        <v>-0.4669705991712282</v>
+      </c>
+      <c r="G66" t="n">
+        <v>107</v>
+      </c>
+      <c r="H66" t="n">
+        <v>11.81157310340814</v>
+      </c>
+      <c r="I66" t="n">
+        <v>17</v>
+      </c>
+      <c r="J66" t="n">
+        <v>90</v>
+      </c>
+      <c r="K66" t="n">
+        <v>55.80785673127925</v>
+      </c>
+      <c r="L66" t="n">
+        <v>4.722895484421975</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P66" t="n">
+        <v>0.7584393897385248</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>0.1888888888888889</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0.4364318253815863</v>
+      </c>
+      <c r="S66" t="n">
+        <v>0.6815345626758651</v>
+      </c>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>n20</t>
+        </is>
+      </c>
+      <c r="U66" t="n">
+        <v>1946</v>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W66" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>1458</v>
+      </c>
+      <c r="B67" t="n">
+        <v>1487</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1550</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.8788909006077865</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.4119203014365582</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-0.4669705991712282</v>
+      </c>
+      <c r="G67" t="n">
+        <v>92</v>
+      </c>
+      <c r="H67" t="n">
+        <v>23.99105073668625</v>
+      </c>
+      <c r="I67" t="n">
+        <v>29</v>
+      </c>
+      <c r="J67" t="n">
+        <v>63</v>
+      </c>
+      <c r="K67" t="n">
+        <v>42.95425485469484</v>
+      </c>
+      <c r="L67" t="n">
+        <v>4.072218185058616</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
+        <v>0</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P67" t="n">
+        <v>0.746343193329476</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0.4603174603174603</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0.3605296581202455</v>
+      </c>
+      <c r="S67" t="n">
+        <v>0.5045531245455332</v>
+      </c>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>n20</t>
+        </is>
+      </c>
+      <c r="U67" t="n">
+        <v>1947</v>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W67" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>1852</v>
+      </c>
+      <c r="B68" t="n">
+        <v>1889</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1946</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1.846129785605276</v>
+      </c>
+      <c r="E68" t="n">
+        <v>1.379159186434048</v>
+      </c>
+      <c r="F68" t="n">
+        <v>-0.4669705991712282</v>
+      </c>
+      <c r="G68" t="n">
+        <v>94</v>
+      </c>
+      <c r="H68" t="n">
+        <v>58.01726268403854</v>
+      </c>
+      <c r="I68" t="n">
+        <v>37</v>
+      </c>
+      <c r="J68" t="n">
+        <v>57</v>
+      </c>
+      <c r="K68" t="n">
+        <v>124.7029209780929</v>
+      </c>
+      <c r="L68" t="n">
+        <v>8.553784411377217</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P68" t="n">
+        <v>0.7743831623049807</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>0.6491228070175439</v>
+      </c>
+      <c r="R68" t="n">
+        <v>0.2235717341486951</v>
+      </c>
+      <c r="S68" t="n">
+        <v>0.8677590766615098</v>
+      </c>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>n20</t>
+        </is>
+      </c>
+      <c r="U68" t="n">
+        <v>1948</v>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W68" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>1946</v>
+      </c>
+      <c r="B69" t="n">
+        <v>1981</v>
+      </c>
+      <c r="C69" t="n">
+        <v>2037</v>
+      </c>
+      <c r="D69" t="n">
+        <v>2.46368503047445</v>
+      </c>
+      <c r="E69" t="n">
+        <v>1.996714431303222</v>
+      </c>
+      <c r="F69" t="n">
+        <v>-0.4669705991712282</v>
+      </c>
+      <c r="G69" t="n">
+        <v>91</v>
+      </c>
+      <c r="H69" t="n">
+        <v>72.42206767949347</v>
+      </c>
+      <c r="I69" t="n">
+        <v>35</v>
+      </c>
+      <c r="J69" t="n">
+        <v>56</v>
+      </c>
+      <c r="K69" t="n">
+        <v>162.4482778009138</v>
+      </c>
+      <c r="L69" t="n">
+        <v>11.41514035065874</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
+        <v>0</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P69" t="n">
+        <v>0.7652233558560704</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="R69" t="n">
+        <v>0.2830819537409567</v>
+      </c>
+      <c r="S69" t="n">
+        <v>0.8562522125734844</v>
+      </c>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>n20</t>
+        </is>
+      </c>
+      <c r="U69" t="n">
+        <v>1949</v>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W69" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>539</v>
+      </c>
+      <c r="B70" t="n">
+        <v>562</v>
+      </c>
+      <c r="C70" t="n">
+        <v>623</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1.535308191140859</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1.15253153472698</v>
+      </c>
+      <c r="F70" t="n">
+        <v>-0.3827766564138793</v>
+      </c>
+      <c r="G70" t="n">
+        <v>84</v>
+      </c>
+      <c r="H70" t="n">
+        <v>16.30261787463235</v>
+      </c>
+      <c r="I70" t="n">
+        <v>23</v>
+      </c>
+      <c r="J70" t="n">
+        <v>61</v>
+      </c>
+      <c r="K70" t="n">
+        <v>90.10214239760172</v>
+      </c>
+      <c r="L70" t="n">
+        <v>3.324677225709281</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
+        <v>0</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P70" t="n">
+        <v>0.7703621053119566</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>0.3770491803278688</v>
+      </c>
+      <c r="R70" t="n">
+        <v>0.8673605541694775</v>
+      </c>
+      <c r="S70" t="n">
+        <v>0.606730799387855</v>
+      </c>
+      <c r="T70" t="inlineStr">
+        <is>
+          <t>n21</t>
+        </is>
+      </c>
+      <c r="U70" t="n">
+        <v>1950</v>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W70" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>623</v>
+      </c>
+      <c r="B71" t="n">
+        <v>638</v>
+      </c>
+      <c r="C71" t="n">
+        <v>659</v>
+      </c>
+      <c r="D71" t="n">
+        <v>1.766795862509395</v>
+      </c>
+      <c r="E71" t="n">
+        <v>1.384019206095516</v>
+      </c>
+      <c r="F71" t="n">
+        <v>-0.3827766564138793</v>
+      </c>
+      <c r="G71" t="n">
+        <v>36</v>
+      </c>
+      <c r="H71" t="n">
+        <v>13.89402418205577</v>
+      </c>
+      <c r="I71" t="n">
+        <v>15</v>
+      </c>
+      <c r="J71" t="n">
+        <v>21</v>
+      </c>
+      <c r="K71" t="n">
+        <v>44.46793592639695</v>
+      </c>
+      <c r="L71" t="n">
+        <v>3.825958853380111</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P71" t="n">
+        <v>0.7319515768192884</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="R71" t="n">
+        <v>0.1288821039383162</v>
+      </c>
+      <c r="S71" t="n">
+        <v>0.8995130114656322</v>
+      </c>
+      <c r="T71" t="inlineStr">
+        <is>
+          <t>n21</t>
+        </is>
+      </c>
+      <c r="U71" t="n">
+        <v>1951</v>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W71" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>2892</v>
+      </c>
+      <c r="B72" t="n">
+        <v>2939</v>
+      </c>
+      <c r="C72" t="n">
+        <v>2998</v>
+      </c>
+      <c r="D72" t="n">
+        <v>1.73416903467203</v>
+      </c>
+      <c r="E72" t="n">
+        <v>1.351392378258151</v>
+      </c>
+      <c r="F72" t="n">
+        <v>-0.3827766564138793</v>
+      </c>
+      <c r="G72" t="n">
+        <v>106</v>
+      </c>
+      <c r="H72" t="n">
+        <v>40.96597100566441</v>
+      </c>
+      <c r="I72" t="n">
+        <v>47</v>
+      </c>
+      <c r="J72" t="n">
+        <v>59</v>
+      </c>
+      <c r="K72" t="n">
+        <v>81.18231960576583</v>
+      </c>
+      <c r="L72" t="n">
+        <v>3.755306151802703</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P72" t="n">
+        <v>0.5418483913445604</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>0.7966101694915254</v>
+      </c>
+      <c r="R72" t="n">
+        <v>0.642707821346048</v>
+      </c>
+      <c r="S72" t="n">
+        <v>0.2670982534688281</v>
+      </c>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>n21</t>
+        </is>
+      </c>
+      <c r="U72" t="n">
+        <v>1952</v>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W72" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>1895</v>
+      </c>
+      <c r="B73" t="n">
+        <v>1929</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1986</v>
+      </c>
+      <c r="D73" t="n">
+        <v>1.52446138755426</v>
+      </c>
+      <c r="E73" t="n">
+        <v>1.00785441916902</v>
+      </c>
+      <c r="F73" t="n">
+        <v>-0.5166069683852401</v>
+      </c>
+      <c r="G73" t="n">
+        <v>91</v>
+      </c>
+      <c r="H73" t="n">
+        <v>60.61643646518928</v>
+      </c>
+      <c r="I73" t="n">
+        <v>34</v>
+      </c>
+      <c r="J73" t="n">
+        <v>57</v>
+      </c>
+      <c r="K73" t="n">
+        <v>93.08869171267015</v>
+      </c>
+      <c r="L73" t="n">
+        <v>4.400590977868172</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P73" t="n">
+        <v>0.6883711300663201</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>0.5964912280701754</v>
+      </c>
+      <c r="R73" t="n">
+        <v>0.4762305910686189</v>
+      </c>
+      <c r="S73" t="n">
+        <v>0.4301791825116293</v>
+      </c>
+      <c r="T73" t="inlineStr">
+        <is>
+          <t>n22</t>
+        </is>
+      </c>
+      <c r="U73" t="n">
+        <v>1953</v>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W73" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>2179</v>
+      </c>
+      <c r="B74" t="n">
+        <v>2206</v>
+      </c>
+      <c r="C74" t="n">
+        <v>2252</v>
+      </c>
+      <c r="D74" t="n">
+        <v>3.510968460020208</v>
+      </c>
+      <c r="E74" t="n">
+        <v>2.994361491634968</v>
+      </c>
+      <c r="F74" t="n">
+        <v>-0.5166069683852401</v>
+      </c>
+      <c r="G74" t="n">
+        <v>73</v>
+      </c>
+      <c r="H74" t="n">
+        <v>49.06443491007622</v>
+      </c>
+      <c r="I74" t="n">
+        <v>27</v>
+      </c>
+      <c r="J74" t="n">
+        <v>46</v>
+      </c>
+      <c r="K74" t="n">
+        <v>167.1326556005751</v>
+      </c>
+      <c r="L74" t="n">
+        <v>10.13494750006891</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
+        <v>0</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P74" t="n">
+        <v>0.7095109579808119</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>0.5869565217391305</v>
+      </c>
+      <c r="R74" t="n">
+        <v>0.1207631729512361</v>
+      </c>
+      <c r="S74" t="n">
+        <v>0.9256061657327059</v>
+      </c>
+      <c r="T74" t="inlineStr">
+        <is>
+          <t>n22</t>
+        </is>
+      </c>
+      <c r="U74" t="n">
+        <v>1954</v>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W74" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>2252</v>
+      </c>
+      <c r="B75" t="n">
+        <v>2261</v>
+      </c>
+      <c r="C75" t="n">
+        <v>2293</v>
+      </c>
+      <c r="D75" t="n">
+        <v>1.448099067267249</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.9314920988820091</v>
+      </c>
+      <c r="F75" t="n">
+        <v>-0.5166069683852401</v>
+      </c>
+      <c r="G75" t="n">
+        <v>41</v>
+      </c>
+      <c r="H75" t="n">
+        <v>9.625577910124775</v>
+      </c>
+      <c r="I75" t="n">
+        <v>9</v>
+      </c>
+      <c r="J75" t="n">
+        <v>32</v>
+      </c>
+      <c r="K75" t="n">
+        <v>32.88886914183649</v>
+      </c>
+      <c r="L75" t="n">
+        <v>4.180159459925156</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P75" t="n">
+        <v>0.8884391503520672</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>0.28125</v>
+      </c>
+      <c r="R75" t="n">
+        <v>0.4418988663328761</v>
+      </c>
+      <c r="S75" t="n">
+        <v>0.8292602559745008</v>
+      </c>
+      <c r="T75" t="inlineStr">
+        <is>
+          <t>n22</t>
+        </is>
+      </c>
+      <c r="U75" t="n">
+        <v>1955</v>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W75" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>2363</v>
+      </c>
+      <c r="B76" t="n">
+        <v>2388</v>
+      </c>
+      <c r="C76" t="n">
+        <v>2485</v>
+      </c>
+      <c r="D76" t="n">
+        <v>2.517614065267506</v>
+      </c>
+      <c r="E76" t="n">
+        <v>2.001007096882266</v>
+      </c>
+      <c r="F76" t="n">
+        <v>-0.5166069683852401</v>
+      </c>
+      <c r="G76" t="n">
+        <v>122</v>
+      </c>
+      <c r="H76" t="n">
+        <v>79.01279466428014</v>
+      </c>
+      <c r="I76" t="n">
+        <v>25</v>
+      </c>
+      <c r="J76" t="n">
+        <v>97</v>
+      </c>
+      <c r="K76" t="n">
+        <v>203.8126938069416</v>
+      </c>
+      <c r="L76" t="n">
+        <v>7.267478095423957</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
+        <v>0.8161796271035291</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>0.2577319587628866</v>
+      </c>
+      <c r="R76" t="n">
+        <v>0.2660712548440748</v>
+      </c>
+      <c r="S76" t="n">
+        <v>0.7095555732423404</v>
+      </c>
+      <c r="T76" t="inlineStr">
+        <is>
+          <t>n22</t>
+        </is>
+      </c>
+      <c r="U76" t="n">
+        <v>1956</v>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W76" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>2485</v>
+      </c>
+      <c r="B77" t="n">
+        <v>2510</v>
+      </c>
+      <c r="C77" t="n">
+        <v>2557</v>
+      </c>
+      <c r="D77" t="n">
+        <v>1.389604985979555</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.8729980175943153</v>
+      </c>
+      <c r="F77" t="n">
+        <v>-0.5166069683852401</v>
+      </c>
+      <c r="G77" t="n">
+        <v>72</v>
+      </c>
+      <c r="H77" t="n">
+        <v>27.28447979934754</v>
+      </c>
+      <c r="I77" t="n">
+        <v>25</v>
+      </c>
+      <c r="J77" t="n">
+        <v>47</v>
+      </c>
+      <c r="K77" t="n">
+        <v>65.56524126392918</v>
+      </c>
+      <c r="L77" t="n">
+        <v>4.011307346992155</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>0</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P77" t="n">
+        <v>0.8612569023985823</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>0.5319148936170213</v>
+      </c>
+      <c r="R77" t="n">
+        <v>0.3459053341862321</v>
+      </c>
+      <c r="S77" t="n">
+        <v>0.8844508254173472</v>
+      </c>
+      <c r="T77" t="inlineStr">
+        <is>
+          <t>n22</t>
+        </is>
+      </c>
+      <c r="U77" t="n">
+        <v>1957</v>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W77" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>2869</v>
+      </c>
+      <c r="B78" t="n">
+        <v>2885</v>
+      </c>
+      <c r="C78" t="n">
+        <v>2909</v>
+      </c>
+      <c r="D78" t="n">
+        <v>1.354857441561394</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.8382504731761541</v>
+      </c>
+      <c r="F78" t="n">
+        <v>-0.5166069683852401</v>
+      </c>
+      <c r="G78" t="n">
+        <v>40</v>
+      </c>
+      <c r="H78" t="n">
+        <v>27.82708830906813</v>
+      </c>
+      <c r="I78" t="n">
+        <v>16</v>
+      </c>
+      <c r="J78" t="n">
+        <v>24</v>
+      </c>
+      <c r="K78" t="n">
+        <v>41.16500075782746</v>
+      </c>
+      <c r="L78" t="n">
+        <v>3.911003245020145</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P78" t="n">
+        <v>0.7192082386146681</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="R78" t="n">
+        <v>0.3083466031468712</v>
+      </c>
+      <c r="S78" t="n">
+        <v>0.6695546579663474</v>
+      </c>
+      <c r="T78" t="inlineStr">
+        <is>
+          <t>n22</t>
+        </is>
+      </c>
+      <c r="U78" t="n">
+        <v>1958</v>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W78" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>373</v>
+      </c>
+      <c r="B79" t="n">
+        <v>395</v>
+      </c>
+      <c r="C79" t="n">
+        <v>444</v>
+      </c>
+      <c r="D79" t="n">
+        <v>1.484987366850257</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.9186319466351599</v>
+      </c>
+      <c r="F79" t="n">
+        <v>-0.5663554202150968</v>
+      </c>
+      <c r="G79" t="n">
+        <v>71</v>
+      </c>
+      <c r="H79" t="n">
+        <v>22.56982842362595</v>
+      </c>
+      <c r="I79" t="n">
+        <v>22</v>
+      </c>
+      <c r="J79" t="n">
+        <v>49</v>
+      </c>
+      <c r="K79" t="n">
+        <v>68.47564303214287</v>
+      </c>
+      <c r="L79" t="n">
+        <v>3.843529391091931</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P79" t="n">
+        <v>0.7796987413389309</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>0.4489795918367347</v>
+      </c>
+      <c r="R79" t="n">
+        <v>0.4202240285568775</v>
+      </c>
+      <c r="S79" t="n">
+        <v>0.5047435827811573</v>
+      </c>
+      <c r="T79" t="inlineStr">
+        <is>
+          <t>n23</t>
+        </is>
+      </c>
+      <c r="U79" t="n">
+        <v>1959</v>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W79" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>1038</v>
+      </c>
+      <c r="B80" t="n">
+        <v>1069</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1135</v>
+      </c>
+      <c r="D80" t="n">
+        <v>2.955896612481932</v>
+      </c>
+      <c r="E80" t="n">
+        <v>2.389541192266836</v>
+      </c>
+      <c r="F80" t="n">
+        <v>-0.5663554202150968</v>
+      </c>
+      <c r="G80" t="n">
+        <v>97</v>
+      </c>
+      <c r="H80" t="n">
+        <v>44.937609058833</v>
+      </c>
+      <c r="I80" t="n">
+        <v>31</v>
+      </c>
+      <c r="J80" t="n">
+        <v>66</v>
+      </c>
+      <c r="K80" t="n">
+        <v>201.6087742855416</v>
+      </c>
+      <c r="L80" t="n">
+        <v>7.650620982184431</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
+        <v>0</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P80" t="n">
+        <v>0.7822202236039215</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>0.4696969696969697</v>
+      </c>
+      <c r="R80" t="n">
+        <v>0.1608459291702131</v>
+      </c>
+      <c r="S80" t="n">
+        <v>0.873105049937453</v>
+      </c>
+      <c r="T80" t="inlineStr">
+        <is>
+          <t>n23</t>
+        </is>
+      </c>
+      <c r="U80" t="n">
+        <v>1960</v>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W80" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>1971</v>
+      </c>
+      <c r="B81" t="n">
+        <v>1995</v>
+      </c>
+      <c r="C81" t="n">
+        <v>2030</v>
+      </c>
+      <c r="D81" t="n">
+        <v>2.871786247032897</v>
+      </c>
+      <c r="E81" t="n">
+        <v>2.289190276154071</v>
+      </c>
+      <c r="F81" t="n">
+        <v>-0.5825959708788265</v>
+      </c>
+      <c r="G81" t="n">
+        <v>59</v>
+      </c>
+      <c r="H81" t="n">
+        <v>45.74410101496255</v>
+      </c>
+      <c r="I81" t="n">
+        <v>24</v>
+      </c>
+      <c r="J81" t="n">
+        <v>35</v>
+      </c>
+      <c r="K81" t="n">
+        <v>133.8410219213683</v>
+      </c>
+      <c r="L81" t="n">
+        <v>10.24766149858848</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
+        <v>0</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P81" t="n">
+        <v>0.6224525546592836</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>0.6857142857142857</v>
+      </c>
+      <c r="R81" t="n">
+        <v>0.0602532422071938</v>
+      </c>
+      <c r="S81" t="n">
+        <v>0.9353375867135393</v>
+      </c>
+      <c r="T81" t="inlineStr">
+        <is>
+          <t>n24</t>
+        </is>
+      </c>
+      <c r="U81" t="n">
+        <v>1961</v>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W81" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>2132</v>
+      </c>
+      <c r="B82" t="n">
+        <v>2176</v>
+      </c>
+      <c r="C82" t="n">
+        <v>2287</v>
+      </c>
+      <c r="D82" t="n">
+        <v>3.317879380109697</v>
+      </c>
+      <c r="E82" t="n">
+        <v>2.73528340923087</v>
+      </c>
+      <c r="F82" t="n">
+        <v>-0.5825959708788265</v>
+      </c>
+      <c r="G82" t="n">
+        <v>155</v>
+      </c>
+      <c r="H82" t="n">
+        <v>105.4210585219034</v>
+      </c>
+      <c r="I82" t="n">
+        <v>44</v>
+      </c>
+      <c r="J82" t="n">
+        <v>111</v>
+      </c>
+      <c r="K82" t="n">
+        <v>332.7494101976054</v>
+      </c>
+      <c r="L82" t="n">
+        <v>11.8394970432217</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P82" t="n">
+        <v>0.7193705006266086</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>0.3963963963963964</v>
+      </c>
+      <c r="R82" t="n">
+        <v>0.1129485915687781</v>
+      </c>
+      <c r="S82" t="n">
+        <v>0.9670976422669159</v>
+      </c>
+      <c r="T82" t="inlineStr">
+        <is>
+          <t>n24</t>
+        </is>
+      </c>
+      <c r="U82" t="n">
+        <v>1962</v>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W82" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>2842</v>
+      </c>
+      <c r="B83" t="n">
+        <v>2862</v>
+      </c>
+      <c r="C83" t="n">
+        <v>2998</v>
+      </c>
+      <c r="D83" t="n">
+        <v>2.417614191931613</v>
+      </c>
+      <c r="E83" t="n">
+        <v>1.835018221052787</v>
+      </c>
+      <c r="F83" t="n">
+        <v>-0.5825959708788265</v>
+      </c>
+      <c r="G83" t="n">
+        <v>156</v>
+      </c>
+      <c r="H83" t="n">
+        <v>13.68219379924631</v>
+      </c>
+      <c r="I83" t="n">
+        <v>20</v>
+      </c>
+      <c r="J83" t="n">
+        <v>136</v>
+      </c>
+      <c r="K83" t="n">
+        <v>187.4034656159207</v>
+      </c>
+      <c r="L83" t="n">
+        <v>8.626997186401274</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>0</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P83" t="n">
+        <v>0.6504182946556424</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>0.1470588235294118</v>
+      </c>
+      <c r="R83" t="n">
+        <v>0.4706867734904055</v>
+      </c>
+      <c r="S83" t="n">
+        <v>0.6008880739410998</v>
+      </c>
+      <c r="T83" t="inlineStr">
+        <is>
+          <t>n24</t>
+        </is>
+      </c>
+      <c r="U83" t="n">
+        <v>1963</v>
+      </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W83" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>1489</v>
+      </c>
+      <c r="B84" t="n">
+        <v>1520</v>
+      </c>
+      <c r="C84" t="n">
+        <v>1647</v>
+      </c>
+      <c r="D84" t="n">
+        <v>3.244417556143017</v>
+      </c>
+      <c r="E84" t="n">
+        <v>2.823523570701676</v>
+      </c>
+      <c r="F84" t="n">
+        <v>-0.4208939854413409</v>
+      </c>
+      <c r="G84" t="n">
+        <v>158</v>
+      </c>
+      <c r="H84" t="n">
+        <v>13.77267293862747</v>
+      </c>
+      <c r="I84" t="n">
+        <v>31</v>
+      </c>
+      <c r="J84" t="n">
+        <v>127</v>
+      </c>
+      <c r="K84" t="n">
+        <v>292.5527965963926</v>
+      </c>
+      <c r="L84" t="n">
+        <v>10.47668252084478</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P84" t="n">
+        <v>0.6497209978312813</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>0.2440944881889764</v>
+      </c>
+      <c r="R84" t="n">
+        <v>0.4197624284035343</v>
+      </c>
+      <c r="S84" t="n">
+        <v>0.8526521855505826</v>
+      </c>
+      <c r="T84" t="inlineStr">
+        <is>
+          <t>n25</t>
+        </is>
+      </c>
+      <c r="U84" t="n">
+        <v>1964</v>
+      </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W84" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>1647</v>
+      </c>
+      <c r="B85" t="n">
+        <v>1666</v>
+      </c>
+      <c r="C85" t="n">
+        <v>1727</v>
+      </c>
+      <c r="D85" t="n">
+        <v>2.225355946039995</v>
+      </c>
+      <c r="E85" t="n">
+        <v>1.804461960598654</v>
+      </c>
+      <c r="F85" t="n">
+        <v>-0.4208939854413409</v>
+      </c>
+      <c r="G85" t="n">
+        <v>80</v>
+      </c>
+      <c r="H85" t="n">
+        <v>26.13193458961177</v>
+      </c>
+      <c r="I85" t="n">
+        <v>19</v>
+      </c>
+      <c r="J85" t="n">
+        <v>61</v>
+      </c>
+      <c r="K85" t="n">
+        <v>97.6310048874757</v>
+      </c>
+      <c r="L85" t="n">
+        <v>7.185988652536899</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P85" t="n">
+        <v>0.923386722796229</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>0.3114754098360656</v>
+      </c>
+      <c r="R85" t="n">
+        <v>0.2604707419392558</v>
+      </c>
+      <c r="S85" t="n">
+        <v>0.8511451254304969</v>
+      </c>
+      <c r="T85" t="inlineStr">
+        <is>
+          <t>n25</t>
+        </is>
+      </c>
+      <c r="U85" t="n">
+        <v>1965</v>
+      </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W85" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>1447</v>
+      </c>
+      <c r="B86" t="n">
+        <v>1470</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1589</v>
+      </c>
+      <c r="D86" t="n">
+        <v>4.63520821481154</v>
+      </c>
+      <c r="E86" t="n">
+        <v>4.215504740162404</v>
+      </c>
+      <c r="F86" t="n">
+        <v>-0.4197034746491365</v>
+      </c>
+      <c r="G86" t="n">
+        <v>142</v>
+      </c>
+      <c r="H86" t="n">
+        <v>23.12094804843878</v>
+      </c>
+      <c r="I86" t="n">
+        <v>23</v>
+      </c>
+      <c r="J86" t="n">
+        <v>119</v>
+      </c>
+      <c r="K86" t="n">
+        <v>392.936323336385</v>
+      </c>
+      <c r="L86" t="n">
+        <v>20.71328554207772</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
+        <v>0</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P86" t="n">
+        <v>0.8414400528520957</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>0.1932773109243698</v>
+      </c>
+      <c r="R86" t="n">
+        <v>0.3726262419237881</v>
+      </c>
+      <c r="S86" t="n">
+        <v>0.972277252650011</v>
+      </c>
+      <c r="T86" t="inlineStr">
+        <is>
+          <t>n26</t>
+        </is>
+      </c>
+      <c r="U86" t="n">
+        <v>1966</v>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W86" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>1633</v>
+      </c>
+      <c r="B87" t="n">
+        <v>1650</v>
+      </c>
+      <c r="C87" t="n">
+        <v>1678</v>
+      </c>
+      <c r="D87" t="n">
+        <v>2.565551617597553</v>
+      </c>
+      <c r="E87" t="n">
+        <v>2.049379817570106</v>
+      </c>
+      <c r="F87" t="n">
+        <v>-0.5161718000274472</v>
+      </c>
+      <c r="G87" t="n">
+        <v>45</v>
+      </c>
+      <c r="H87" t="n">
+        <v>7.814269735481275</v>
+      </c>
+      <c r="I87" t="n">
+        <v>17</v>
+      </c>
+      <c r="J87" t="n">
+        <v>28</v>
+      </c>
+      <c r="K87" t="n">
+        <v>99.37331404646289</v>
+      </c>
+      <c r="L87" t="n">
+        <v>12.38260842796319</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P87" t="n">
+        <v>0.5076896478780921</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>0.6071428571428571</v>
+      </c>
+      <c r="R87" t="n">
+        <v>0.0840120539290021</v>
+      </c>
+      <c r="S87" t="n">
+        <v>0.7680596218511113</v>
+      </c>
+      <c r="T87" t="inlineStr">
+        <is>
+          <t>n27</t>
+        </is>
+      </c>
+      <c r="U87" t="n">
+        <v>1967</v>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W87" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>1678</v>
+      </c>
+      <c r="B88" t="n">
+        <v>1692</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1741</v>
+      </c>
+      <c r="D88" t="n">
+        <v>2.608126300746834</v>
+      </c>
+      <c r="E88" t="n">
+        <v>2.091954500719386</v>
+      </c>
+      <c r="F88" t="n">
+        <v>-0.5161718000274472</v>
+      </c>
+      <c r="G88" t="n">
+        <v>63</v>
+      </c>
+      <c r="H88" t="n">
+        <v>18.31710983483549</v>
+      </c>
+      <c r="I88" t="n">
+        <v>14</v>
+      </c>
+      <c r="J88" t="n">
+        <v>49</v>
+      </c>
+      <c r="K88" t="n">
+        <v>115.0968863134372</v>
+      </c>
+      <c r="L88" t="n">
+        <v>12.58809469717956</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
+        <v>0</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P88" t="n">
+        <v>0.9492098924680457</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="R88" t="n">
+        <v>0.2465775490999079</v>
+      </c>
+      <c r="S88" t="n">
+        <v>0.9861375901974173</v>
+      </c>
+      <c r="T88" t="inlineStr">
+        <is>
+          <t>n27</t>
+        </is>
+      </c>
+      <c r="U88" t="n">
+        <v>1968</v>
+      </c>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W88" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>1741</v>
+      </c>
+      <c r="B89" t="n">
+        <v>1763</v>
+      </c>
+      <c r="C89" t="n">
+        <v>1825</v>
+      </c>
+      <c r="D89" t="n">
+        <v>1.490986918997989</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.9748151189705421</v>
+      </c>
+      <c r="F89" t="n">
+        <v>-0.5161718000274472</v>
+      </c>
+      <c r="G89" t="n">
+        <v>84</v>
+      </c>
+      <c r="H89" t="n">
+        <v>21.5151489692114</v>
+      </c>
+      <c r="I89" t="n">
+        <v>22</v>
+      </c>
+      <c r="J89" t="n">
+        <v>62</v>
+      </c>
+      <c r="K89" t="n">
+        <v>84.53318290056598</v>
+      </c>
+      <c r="L89" t="n">
+        <v>7.196232990414726</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
+        <v>0</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P89" t="n">
+        <v>0.8321153122972125</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>0.3548387096774194</v>
+      </c>
+      <c r="R89" t="n">
+        <v>0.2740818284591094</v>
+      </c>
+      <c r="S89" t="n">
+        <v>0.696893713986513</v>
+      </c>
+      <c r="T89" t="inlineStr">
+        <is>
+          <t>n27</t>
+        </is>
+      </c>
+      <c r="U89" t="n">
+        <v>1969</v>
+      </c>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W89" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>2427</v>
+      </c>
+      <c r="B90" t="n">
+        <v>2455</v>
+      </c>
+      <c r="C90" t="n">
+        <v>2526</v>
+      </c>
+      <c r="D90" t="n">
+        <v>3.117071583976275</v>
+      </c>
+      <c r="E90" t="n">
+        <v>2.600899783948828</v>
+      </c>
+      <c r="F90" t="n">
+        <v>-0.5161718000274472</v>
+      </c>
+      <c r="G90" t="n">
+        <v>99</v>
+      </c>
+      <c r="H90" t="n">
+        <v>80.89220940489304</v>
+      </c>
+      <c r="I90" t="n">
+        <v>28</v>
+      </c>
+      <c r="J90" t="n">
+        <v>71</v>
+      </c>
+      <c r="K90" t="n">
+        <v>196.383384026418</v>
+      </c>
+      <c r="L90" t="n">
+        <v>15.04451385875949</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
+        <v>0</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P90" t="n">
+        <v>0.8282747427137904</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>0.3943661971830986</v>
+      </c>
+      <c r="R90" t="n">
+        <v>0.1817833152945622</v>
+      </c>
+      <c r="S90" t="n">
+        <v>0.9315228864335395</v>
+      </c>
+      <c r="T90" t="inlineStr">
+        <is>
+          <t>n27</t>
+        </is>
+      </c>
+      <c r="U90" t="n">
+        <v>1970</v>
+      </c>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W90" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>2125</v>
+      </c>
+      <c r="B91" t="n">
+        <v>2145</v>
+      </c>
+      <c r="C91" t="n">
+        <v>2193</v>
+      </c>
+      <c r="D91" t="n">
+        <v>2.958004110078964</v>
+      </c>
+      <c r="E91" t="n">
+        <v>2.452198970793469</v>
+      </c>
+      <c r="F91" t="n">
+        <v>-0.5058051392854945</v>
+      </c>
+      <c r="G91" t="n">
+        <v>68</v>
+      </c>
+      <c r="H91" t="n">
+        <v>13.83574274223065</v>
+      </c>
+      <c r="I91" t="n">
+        <v>20</v>
+      </c>
+      <c r="J91" t="n">
+        <v>48</v>
+      </c>
+      <c r="K91" t="n">
+        <v>135.0120696353499</v>
+      </c>
+      <c r="L91" t="n">
+        <v>9.907209250051578</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
+        <v>0</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P91" t="n">
+        <v>0.7305859268424122</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="R91" t="n">
+        <v>0.5939585018764499</v>
+      </c>
+      <c r="S91" t="n">
+        <v>0.4849627513521187</v>
+      </c>
+      <c r="T91" t="inlineStr">
+        <is>
+          <t>n28</t>
+        </is>
+      </c>
+      <c r="U91" t="n">
+        <v>1971</v>
+      </c>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W91" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>2240</v>
+      </c>
+      <c r="B92" t="n">
+        <v>2257</v>
+      </c>
+      <c r="C92" t="n">
+        <v>2339</v>
+      </c>
+      <c r="D92" t="n">
+        <v>3.041202971116337</v>
+      </c>
+      <c r="E92" t="n">
+        <v>2.535397831830842</v>
+      </c>
+      <c r="F92" t="n">
+        <v>-0.5058051392854945</v>
+      </c>
+      <c r="G92" t="n">
+        <v>99</v>
+      </c>
+      <c r="H92" t="n">
+        <v>18.097579097986</v>
+      </c>
+      <c r="I92" t="n">
+        <v>17</v>
+      </c>
+      <c r="J92" t="n">
+        <v>82</v>
+      </c>
+      <c r="K92" t="n">
+        <v>194.4237449066059</v>
+      </c>
+      <c r="L92" t="n">
+        <v>10.18586624138389</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
+        <v>0</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P92" t="n">
+        <v>0.8459045338048887</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>0.2073170731707317</v>
+      </c>
+      <c r="R92" t="n">
+        <v>0.322574620518941</v>
+      </c>
+      <c r="S92" t="n">
+        <v>0.9219874017400455</v>
+      </c>
+      <c r="T92" t="inlineStr">
+        <is>
+          <t>n28</t>
+        </is>
+      </c>
+      <c r="U92" t="n">
+        <v>1972</v>
+      </c>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W92" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>1647</v>
+      </c>
+      <c r="B93" t="n">
+        <v>1680</v>
+      </c>
+      <c r="C93" t="n">
+        <v>1854</v>
+      </c>
+      <c r="D93" t="n">
+        <v>1.194436672690277</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.6738835194631817</v>
+      </c>
+      <c r="F93" t="n">
+        <v>-0.5205531532270955</v>
+      </c>
+      <c r="G93" t="n">
+        <v>207</v>
+      </c>
+      <c r="H93" t="n">
+        <v>60.79771903345159</v>
+      </c>
+      <c r="I93" t="n">
         <v>33</v>
       </c>
-      <c r="J41" t="n">
-        <v>201</v>
-      </c>
-      <c r="K41" t="n">
-        <v>282.7531544924901</v>
-      </c>
-      <c r="L41" t="n">
-        <v>7.59164295723582</v>
-      </c>
-      <c r="M41" t="inlineStr">
+      <c r="J93" t="n">
+        <v>174</v>
+      </c>
+      <c r="K93" t="n">
+        <v>123.1406005394342</v>
+      </c>
+      <c r="L93" t="n">
+        <v>4.828076402323551</v>
+      </c>
+      <c r="M93" t="inlineStr">
         <is>
           <t>complex</t>
         </is>
       </c>
-      <c r="N41" t="n">
-        <v>1</v>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>[{'index': np.int64(2928), 'value': np.float64(1.2903341369891352), 'amplitude': np.float64(1.7655095082224883), 'start_idx': np.int64(2921), 'end_idx': np.int64(2951), 'duration': np.float64(30.0), 'fwhm': np.float64(35.57270372893436), 'rise_time': np.float64(7.0), 'decay_time': np.float64(23.0), 'auc': np.float64(34.99566093227755)}]</t>
-        </is>
-      </c>
-      <c r="P41" t="n">
-        <v>0.7139836448222467</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0.1641791044776119</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0.3962061571282655</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0.3949119221108144</v>
-      </c>
-      <c r="T41" t="inlineStr">
+      <c r="N93" t="n">
+        <v>2</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>[{'index': np.int64(1773), 'value': np.float64(0.272223340778368), 'amplitude': np.float64(0.7927764940054636), 'start_idx': np.int64(1740), 'end_idx': np.int64(1782), 'duration': np.float64(42.0), 'fwhm': np.float64(34.71573249986977), 'rise_time': np.float64(33.0), 'decay_time': np.float64(9.0), 'auc': np.float64(24.092880036775533)}, {'index': np.int64(1825), 'value': np.float64(0.2614497546072368), 'amplitude': np.float64(0.7820029078343322), 'start_idx': np.int64(1808), 'end_idx': np.int64(1840), 'duration': np.float64(32.0), 'fwhm': np.float64(20.319863829494125), 'rise_time': np.float64(17.0), 'decay_time': np.float64(15.0), 'auc': np.float64(19.29809246974283)}]</t>
+        </is>
+      </c>
+      <c r="P93" t="n">
+        <v>0.753725943146746</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>0.1896551724137931</v>
+      </c>
+      <c r="R93" t="n">
+        <v>0.5024150547613029</v>
+      </c>
+      <c r="S93" t="n">
+        <v>0.2867086022019671</v>
+      </c>
+      <c r="T93" t="inlineStr">
+        <is>
+          <t>n29</t>
+        </is>
+      </c>
+      <c r="U93" t="n">
+        <v>1973</v>
+      </c>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W93" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>1854</v>
+      </c>
+      <c r="B94" t="n">
+        <v>1948</v>
+      </c>
+      <c r="C94" t="n">
+        <v>2069</v>
+      </c>
+      <c r="D94" t="n">
+        <v>3.54034783482334</v>
+      </c>
+      <c r="E94" t="n">
+        <v>3.019794681596244</v>
+      </c>
+      <c r="F94" t="n">
+        <v>-0.5205531532270955</v>
+      </c>
+      <c r="G94" t="n">
+        <v>215</v>
+      </c>
+      <c r="H94" t="n">
+        <v>85.25932008245695</v>
+      </c>
+      <c r="I94" t="n">
+        <v>94</v>
+      </c>
+      <c r="J94" t="n">
+        <v>121</v>
+      </c>
+      <c r="K94" t="n">
+        <v>399.3429930882262</v>
+      </c>
+      <c r="L94" t="n">
+        <v>14.31057018605134</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
+        <v>0</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P94" t="n">
+        <v>0.7622106692144417</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>0.7768595041322314</v>
+      </c>
+      <c r="R94" t="n">
+        <v>0.3274513357146573</v>
+      </c>
+      <c r="S94" t="n">
+        <v>0.9406803237560007</v>
+      </c>
+      <c r="T94" t="inlineStr">
+        <is>
+          <t>n29</t>
+        </is>
+      </c>
+      <c r="U94" t="n">
+        <v>1974</v>
+      </c>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W94" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>2069</v>
+      </c>
+      <c r="B95" t="n">
+        <v>2145</v>
+      </c>
+      <c r="C95" t="n">
+        <v>2367</v>
+      </c>
+      <c r="D95" t="n">
+        <v>4.156768011033154</v>
+      </c>
+      <c r="E95" t="n">
+        <v>3.636214857806058</v>
+      </c>
+      <c r="F95" t="n">
+        <v>-0.5205531532270955</v>
+      </c>
+      <c r="G95" t="n">
+        <v>298</v>
+      </c>
+      <c r="H95" t="n">
+        <v>172.1995876177857</v>
+      </c>
+      <c r="I95" t="n">
+        <v>76</v>
+      </c>
+      <c r="J95" t="n">
+        <v>222</v>
+      </c>
+      <c r="K95" t="n">
+        <v>640.0029715921462</v>
+      </c>
+      <c r="L95" t="n">
+        <v>16.80222485031369</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
+        <v>0</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P95" t="n">
+        <v>0.7867678189718691</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>0.3423423423423423</v>
+      </c>
+      <c r="R95" t="n">
+        <v>0.2761374807733104</v>
+      </c>
+      <c r="S95" t="n">
+        <v>0.7949858796689545</v>
+      </c>
+      <c r="T95" t="inlineStr">
+        <is>
+          <t>n29</t>
+        </is>
+      </c>
+      <c r="U95" t="n">
+        <v>1975</v>
+      </c>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W95" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>1111</v>
+      </c>
+      <c r="B96" t="n">
+        <v>1145</v>
+      </c>
+      <c r="C96" t="n">
+        <v>1222</v>
+      </c>
+      <c r="D96" t="n">
+        <v>1.995151636131654</v>
+      </c>
+      <c r="E96" t="n">
+        <v>1.454638173289078</v>
+      </c>
+      <c r="F96" t="n">
+        <v>-0.5405134628425766</v>
+      </c>
+      <c r="G96" t="n">
+        <v>111</v>
+      </c>
+      <c r="H96" t="n">
+        <v>89.05558256046629</v>
+      </c>
+      <c r="I96" t="n">
+        <v>34</v>
+      </c>
+      <c r="J96" t="n">
+        <v>77</v>
+      </c>
+      <c r="K96" t="n">
+        <v>112.0457428019267</v>
+      </c>
+      <c r="L96" t="n">
+        <v>7.178299329846477</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
+        <v>0</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P96" t="n">
+        <v>0.769829807199188</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>0.4415584415584415</v>
+      </c>
+      <c r="R96" t="n">
+        <v>0.15233437154755</v>
+      </c>
+      <c r="S96" t="n">
+        <v>0.8753786934083211</v>
+      </c>
+      <c r="T96" t="inlineStr">
+        <is>
+          <t>n31</t>
+        </is>
+      </c>
+      <c r="U96" t="n">
+        <v>1976</v>
+      </c>
+      <c r="V96" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W96" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>2521</v>
+      </c>
+      <c r="B97" t="n">
+        <v>2569</v>
+      </c>
+      <c r="C97" t="n">
+        <v>2656</v>
+      </c>
+      <c r="D97" t="n">
+        <v>2.535136023531233</v>
+      </c>
+      <c r="E97" t="n">
+        <v>1.994622560688657</v>
+      </c>
+      <c r="F97" t="n">
+        <v>-0.5405134628425766</v>
+      </c>
+      <c r="G97" t="n">
+        <v>135</v>
+      </c>
+      <c r="H97" t="n">
+        <v>69.16896550290448</v>
+      </c>
+      <c r="I97" t="n">
+        <v>48</v>
+      </c>
+      <c r="J97" t="n">
+        <v>87</v>
+      </c>
+      <c r="K97" t="n">
+        <v>225.7697865585631</v>
+      </c>
+      <c r="L97" t="n">
+        <v>9.121093800202305</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
+        <v>0</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P97" t="n">
+        <v>0.7688988777773711</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>0.5517241379310345</v>
+      </c>
+      <c r="R97" t="n">
+        <v>0.1724019275096524</v>
+      </c>
+      <c r="S97" t="n">
+        <v>0.9722042709834954</v>
+      </c>
+      <c r="T97" t="inlineStr">
+        <is>
+          <t>n31</t>
+        </is>
+      </c>
+      <c r="U97" t="n">
+        <v>1977</v>
+      </c>
+      <c r="V97" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W97" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>2541</v>
+      </c>
+      <c r="B98" t="n">
+        <v>2598</v>
+      </c>
+      <c r="C98" t="n">
+        <v>2727</v>
+      </c>
+      <c r="D98" t="n">
+        <v>5.385046464050767</v>
+      </c>
+      <c r="E98" t="n">
+        <v>4.986652468700614</v>
+      </c>
+      <c r="F98" t="n">
+        <v>-0.3983939953501532</v>
+      </c>
+      <c r="G98" t="n">
+        <v>186</v>
+      </c>
+      <c r="H98" t="n">
+        <v>142.6679892506113</v>
+      </c>
+      <c r="I98" t="n">
+        <v>57</v>
+      </c>
+      <c r="J98" t="n">
+        <v>129</v>
+      </c>
+      <c r="K98" t="n">
+        <v>588.0473147751867</v>
+      </c>
+      <c r="L98" t="n">
+        <v>28.67785893219985</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
+        <v>0</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P98" t="n">
+        <v>0.7356936063957419</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>0.4418604651162791</v>
+      </c>
+      <c r="R98" t="n">
+        <v>0.4901962671961977</v>
+      </c>
+      <c r="S98" t="n">
+        <v>0.9746943220570091</v>
+      </c>
+      <c r="T98" t="inlineStr">
+        <is>
+          <t>n32</t>
+        </is>
+      </c>
+      <c r="U98" t="n">
+        <v>1978</v>
+      </c>
+      <c r="V98" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W98" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>2727</v>
+      </c>
+      <c r="B99" t="n">
+        <v>2738</v>
+      </c>
+      <c r="C99" t="n">
+        <v>2786</v>
+      </c>
+      <c r="D99" t="n">
+        <v>1.152325758743998</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.7539317633938444</v>
+      </c>
+      <c r="F99" t="n">
+        <v>-0.3983939953501532</v>
+      </c>
+      <c r="G99" t="n">
+        <v>59</v>
+      </c>
+      <c r="H99" t="n">
+        <v>10.81984415156967</v>
+      </c>
+      <c r="I99" t="n">
+        <v>11</v>
+      </c>
+      <c r="J99" t="n">
+        <v>48</v>
+      </c>
+      <c r="K99" t="n">
+        <v>45.82742591034609</v>
+      </c>
+      <c r="L99" t="n">
+        <v>6.136666744439251</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
+        <v>0</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P99" t="n">
+        <v>0.826817737533281</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>0.2291666666666667</v>
+      </c>
+      <c r="R99" t="n">
+        <v>0.2937831649290981</v>
+      </c>
+      <c r="S99" t="n">
+        <v>0.7848411352598426</v>
+      </c>
+      <c r="T99" t="inlineStr">
+        <is>
+          <t>n32</t>
+        </is>
+      </c>
+      <c r="U99" t="n">
+        <v>1979</v>
+      </c>
+      <c r="V99" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W99" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>1233</v>
+      </c>
+      <c r="B100" t="n">
+        <v>1247</v>
+      </c>
+      <c r="C100" t="n">
+        <v>1269</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.8481757320928169</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.2860720950619889</v>
+      </c>
+      <c r="F100" t="n">
+        <v>-0.562103637030828</v>
+      </c>
+      <c r="G100" t="n">
+        <v>36</v>
+      </c>
+      <c r="H100" t="n">
+        <v>19.611954385633</v>
+      </c>
+      <c r="I100" t="n">
+        <v>14</v>
+      </c>
+      <c r="J100" t="n">
+        <v>22</v>
+      </c>
+      <c r="K100" t="n">
+        <v>17.46514468636778</v>
+      </c>
+      <c r="L100" t="n">
+        <v>3.690269242512108</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
+        <v>0</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P100" t="n">
+        <v>0.6312573534324597</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>0.6363636363636364</v>
+      </c>
+      <c r="R100" t="n">
+        <v>0.04612092191219377</v>
+      </c>
+      <c r="S100" t="n">
+        <v>0.8788023125859381</v>
+      </c>
+      <c r="T100" t="inlineStr">
+        <is>
+          <t>n33</t>
+        </is>
+      </c>
+      <c r="U100" t="n">
+        <v>1980</v>
+      </c>
+      <c r="V100" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W100" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>1394</v>
+      </c>
+      <c r="B101" t="n">
+        <v>1410</v>
+      </c>
+      <c r="C101" t="n">
+        <v>1437</v>
+      </c>
+      <c r="D101" t="n">
+        <v>2.93385527613809</v>
+      </c>
+      <c r="E101" t="n">
+        <v>2.371751639107262</v>
+      </c>
+      <c r="F101" t="n">
+        <v>-0.562103637030828</v>
+      </c>
+      <c r="G101" t="n">
+        <v>43</v>
+      </c>
+      <c r="H101" t="n">
+        <v>13.28887816134943</v>
+      </c>
+      <c r="I101" t="n">
+        <v>16</v>
+      </c>
+      <c r="J101" t="n">
+        <v>27</v>
+      </c>
+      <c r="K101" t="n">
+        <v>112.5415935073805</v>
+      </c>
+      <c r="L101" t="n">
+        <v>12.76470839456826</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
+        <v>0</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P101" t="n">
+        <v>0.6977489523754492</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>0.5925925925925926</v>
+      </c>
+      <c r="R101" t="n">
+        <v>0.07929706766014308</v>
+      </c>
+      <c r="S101" t="n">
+        <v>0.9600768097057487</v>
+      </c>
+      <c r="T101" t="inlineStr">
+        <is>
+          <t>n33</t>
+        </is>
+      </c>
+      <c r="U101" t="n">
+        <v>1981</v>
+      </c>
+      <c r="V101" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W101" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>1437</v>
+      </c>
+      <c r="B102" t="n">
+        <v>1484</v>
+      </c>
+      <c r="C102" t="n">
+        <v>1555</v>
+      </c>
+      <c r="D102" t="n">
+        <v>2.727239807976304</v>
+      </c>
+      <c r="E102" t="n">
+        <v>2.165136170945476</v>
+      </c>
+      <c r="F102" t="n">
+        <v>-0.562103637030828</v>
+      </c>
+      <c r="G102" t="n">
+        <v>118</v>
+      </c>
+      <c r="H102" t="n">
+        <v>14.77625619143396</v>
+      </c>
+      <c r="I102" t="n">
+        <v>47</v>
+      </c>
+      <c r="J102" t="n">
+        <v>71</v>
+      </c>
+      <c r="K102" t="n">
+        <v>250.8740261606397</v>
+      </c>
+      <c r="L102" t="n">
+        <v>11.8657594169745</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
+        <v>0</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P102" t="n">
+        <v>0.5723586009919127</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>0.6619718309859155</v>
+      </c>
+      <c r="R102" t="n">
+        <v>0.2774909016086629</v>
+      </c>
+      <c r="S102" t="n">
+        <v>0.9445873141466651</v>
+      </c>
+      <c r="T102" t="inlineStr">
+        <is>
+          <t>n33</t>
+        </is>
+      </c>
+      <c r="U102" t="n">
+        <v>1982</v>
+      </c>
+      <c r="V102" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W102" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X102" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>1555</v>
+      </c>
+      <c r="B103" t="n">
+        <v>1586</v>
+      </c>
+      <c r="C103" t="n">
+        <v>1638</v>
+      </c>
+      <c r="D103" t="n">
+        <v>1.394648018546624</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.8325443815157964</v>
+      </c>
+      <c r="F103" t="n">
+        <v>-0.562103637030828</v>
+      </c>
+      <c r="G103" t="n">
+        <v>83</v>
+      </c>
+      <c r="H103" t="n">
+        <v>14.62082212318842</v>
+      </c>
+      <c r="I103" t="n">
+        <v>31</v>
+      </c>
+      <c r="J103" t="n">
+        <v>52</v>
+      </c>
+      <c r="K103" t="n">
+        <v>72.64456637204931</v>
+      </c>
+      <c r="L103" t="n">
+        <v>6.067877790224092</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
+        <v>0</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P103" t="n">
+        <v>0.5808473109440311</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>0.5961538461538461</v>
+      </c>
+      <c r="R103" t="n">
+        <v>0.3041638535011137</v>
+      </c>
+      <c r="S103" t="n">
+        <v>0.9279621339955995</v>
+      </c>
+      <c r="T103" t="inlineStr">
+        <is>
+          <t>n33</t>
+        </is>
+      </c>
+      <c r="U103" t="n">
+        <v>1983</v>
+      </c>
+      <c r="V103" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W103" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X103" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>1896</v>
+      </c>
+      <c r="B104" t="n">
+        <v>1915</v>
+      </c>
+      <c r="C104" t="n">
+        <v>1940</v>
+      </c>
+      <c r="D104" t="n">
+        <v>1.05281173689214</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.4907080998613123</v>
+      </c>
+      <c r="F104" t="n">
+        <v>-0.562103637030828</v>
+      </c>
+      <c r="G104" t="n">
+        <v>44</v>
+      </c>
+      <c r="H104" t="n">
+        <v>31.96157951656801</v>
+      </c>
+      <c r="I104" t="n">
+        <v>19</v>
+      </c>
+      <c r="J104" t="n">
+        <v>25</v>
+      </c>
+      <c r="K104" t="n">
+        <v>29.7070181840711</v>
+      </c>
+      <c r="L104" t="n">
+        <v>4.580605909606073</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
+        <v>0</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P104" t="n">
+        <v>0.7638490126534456</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="R104" t="n">
+        <v>0.469700121675779</v>
+      </c>
+      <c r="S104" t="n">
+        <v>0.9823704827981462</v>
+      </c>
+      <c r="T104" t="inlineStr">
+        <is>
+          <t>n33</t>
+        </is>
+      </c>
+      <c r="U104" t="n">
+        <v>1984</v>
+      </c>
+      <c r="V104" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W104" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X104" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>1940</v>
+      </c>
+      <c r="B105" t="n">
+        <v>1954</v>
+      </c>
+      <c r="C105" t="n">
+        <v>1989</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.9065463182753819</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.3444426812445538</v>
+      </c>
+      <c r="F105" t="n">
+        <v>-0.562103637030828</v>
+      </c>
+      <c r="G105" t="n">
+        <v>49</v>
+      </c>
+      <c r="H105" t="n">
+        <v>13.75929523877971</v>
+      </c>
+      <c r="I105" t="n">
+        <v>14</v>
+      </c>
+      <c r="J105" t="n">
+        <v>35</v>
+      </c>
+      <c r="K105" t="n">
+        <v>25.37252263784661</v>
+      </c>
+      <c r="L105" t="n">
+        <v>3.944229796565486</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
+        <v>0</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P105" t="n">
+        <v>0.8566407636286847</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="R105" t="n">
+        <v>0.3162344925027254</v>
+      </c>
+      <c r="S105" t="n">
+        <v>0.8454206106649435</v>
+      </c>
+      <c r="T105" t="inlineStr">
+        <is>
+          <t>n33</t>
+        </is>
+      </c>
+      <c r="U105" t="n">
+        <v>1985</v>
+      </c>
+      <c r="V105" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W105" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X105" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>2118</v>
+      </c>
+      <c r="B106" t="n">
+        <v>2156</v>
+      </c>
+      <c r="C106" t="n">
+        <v>2208</v>
+      </c>
+      <c r="D106" t="n">
+        <v>1.263049649539602</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.700946012508774</v>
+      </c>
+      <c r="F106" t="n">
+        <v>-0.562103637030828</v>
+      </c>
+      <c r="G106" t="n">
+        <v>90</v>
+      </c>
+      <c r="H106" t="n">
+        <v>63.93099801341759</v>
+      </c>
+      <c r="I106" t="n">
+        <v>38</v>
+      </c>
+      <c r="J106" t="n">
+        <v>52</v>
+      </c>
+      <c r="K106" t="n">
+        <v>73.58551000487675</v>
+      </c>
+      <c r="L106" t="n">
+        <v>5.495315530852316</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
+        <v>0</v>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P106" t="n">
+        <v>0.6127940807789843</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>0.7307692307692307</v>
+      </c>
+      <c r="R106" t="n">
+        <v>0.1332389752314767</v>
+      </c>
+      <c r="S106" t="n">
+        <v>0.7012492032786195</v>
+      </c>
+      <c r="T106" t="inlineStr">
+        <is>
+          <t>n33</t>
+        </is>
+      </c>
+      <c r="U106" t="n">
+        <v>1986</v>
+      </c>
+      <c r="V106" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W106" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X106" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>2560</v>
+      </c>
+      <c r="B107" t="n">
+        <v>2578</v>
+      </c>
+      <c r="C107" t="n">
+        <v>2602</v>
+      </c>
+      <c r="D107" t="n">
+        <v>3.294136810010637</v>
+      </c>
+      <c r="E107" t="n">
+        <v>2.732033172979809</v>
+      </c>
+      <c r="F107" t="n">
+        <v>-0.562103637030828</v>
+      </c>
+      <c r="G107" t="n">
+        <v>42</v>
+      </c>
+      <c r="H107" t="n">
+        <v>12.1885578504257</v>
+      </c>
+      <c r="I107" t="n">
+        <v>18</v>
+      </c>
+      <c r="J107" t="n">
+        <v>24</v>
+      </c>
+      <c r="K107" t="n">
+        <v>103.9046546968667</v>
+      </c>
+      <c r="L107" t="n">
+        <v>14.3322324497713</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
+        <v>0</v>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P107" t="n">
+        <v>0.7828520060290914</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="R107" t="n">
+        <v>0.2384535213050905</v>
+      </c>
+      <c r="S107" t="n">
+        <v>0.9923172952832988</v>
+      </c>
+      <c r="T107" t="inlineStr">
+        <is>
+          <t>n33</t>
+        </is>
+      </c>
+      <c r="U107" t="n">
+        <v>1987</v>
+      </c>
+      <c r="V107" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W107" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X107" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>242</v>
+      </c>
+      <c r="B108" t="n">
+        <v>272</v>
+      </c>
+      <c r="C108" t="n">
+        <v>361</v>
+      </c>
+      <c r="D108" t="n">
+        <v>3.144862306932446</v>
+      </c>
+      <c r="E108" t="n">
+        <v>2.648745481933077</v>
+      </c>
+      <c r="F108" t="n">
+        <v>-0.4961168249993682</v>
+      </c>
+      <c r="G108" t="n">
+        <v>119</v>
+      </c>
+      <c r="H108" t="n">
+        <v>66.6136670042651</v>
+      </c>
+      <c r="I108" t="n">
+        <v>30</v>
+      </c>
+      <c r="J108" t="n">
+        <v>89</v>
+      </c>
+      <c r="K108" t="n">
+        <v>297.3495318901779</v>
+      </c>
+      <c r="L108" t="n">
+        <v>9.61568349633415</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
+        <v>0</v>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P108" t="n">
+        <v>0.7558470835706889</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>0.3370786516853932</v>
+      </c>
+      <c r="R108" t="n">
+        <v>0.04012389902262956</v>
+      </c>
+      <c r="S108" t="n">
+        <v>0.9682997876027829</v>
+      </c>
+      <c r="T108" t="inlineStr">
+        <is>
+          <t>n34</t>
+        </is>
+      </c>
+      <c r="U108" t="n">
+        <v>1988</v>
+      </c>
+      <c r="V108" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W108" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X108" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>361</v>
+      </c>
+      <c r="B109" t="n">
+        <v>392</v>
+      </c>
+      <c r="C109" t="n">
+        <v>470</v>
+      </c>
+      <c r="D109" t="n">
+        <v>2.460969940371134</v>
+      </c>
+      <c r="E109" t="n">
+        <v>1.964853115371766</v>
+      </c>
+      <c r="F109" t="n">
+        <v>-0.4961168249993682</v>
+      </c>
+      <c r="G109" t="n">
+        <v>109</v>
+      </c>
+      <c r="H109" t="n">
+        <v>24.45384589472241</v>
+      </c>
+      <c r="I109" t="n">
+        <v>31</v>
+      </c>
+      <c r="J109" t="n">
+        <v>78</v>
+      </c>
+      <c r="K109" t="n">
+        <v>199.4476714312199</v>
+      </c>
+      <c r="L109" t="n">
+        <v>7.524624524398763</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
+        <v>0</v>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P109" t="n">
+        <v>0.5104619104227819</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>0.3974358974358974</v>
+      </c>
+      <c r="R109" t="n">
+        <v>0.1058978963682067</v>
+      </c>
+      <c r="S109" t="n">
+        <v>0.6429253167267153</v>
+      </c>
+      <c r="T109" t="inlineStr">
+        <is>
+          <t>n34</t>
+        </is>
+      </c>
+      <c r="U109" t="n">
+        <v>1989</v>
+      </c>
+      <c r="V109" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W109" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X109" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>75</v>
+      </c>
+      <c r="B110" t="n">
+        <v>100</v>
+      </c>
+      <c r="C110" t="n">
+        <v>147</v>
+      </c>
+      <c r="D110" t="n">
+        <v>3.262865109253163</v>
+      </c>
+      <c r="E110" t="n">
+        <v>2.687403527657549</v>
+      </c>
+      <c r="F110" t="n">
+        <v>-0.575461581595613</v>
+      </c>
+      <c r="G110" t="n">
+        <v>72</v>
+      </c>
+      <c r="H110" t="n">
+        <v>28.20597185159954</v>
+      </c>
+      <c r="I110" t="n">
+        <v>25</v>
+      </c>
+      <c r="J110" t="n">
+        <v>47</v>
+      </c>
+      <c r="K110" t="n">
+        <v>170.8210099794214</v>
+      </c>
+      <c r="L110" t="n">
+        <v>18.65760944162382</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
+        <v>0</v>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P110" t="n">
+        <v>0.8556741879069524</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>0.5319148936170213</v>
+      </c>
+      <c r="R110" t="n">
+        <v>0.2014672328146705</v>
+      </c>
+      <c r="S110" t="n">
+        <v>0.9381103698958312</v>
+      </c>
+      <c r="T110" t="inlineStr">
+        <is>
+          <t>n35</t>
+        </is>
+      </c>
+      <c r="U110" t="n">
+        <v>1990</v>
+      </c>
+      <c r="V110" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W110" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X110" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>2571</v>
+      </c>
+      <c r="B111" t="n">
+        <v>2606</v>
+      </c>
+      <c r="C111" t="n">
+        <v>2655</v>
+      </c>
+      <c r="D111" t="n">
+        <v>3.444416365015837</v>
+      </c>
+      <c r="E111" t="n">
+        <v>2.868954783420223</v>
+      </c>
+      <c r="F111" t="n">
+        <v>-0.575461581595613</v>
+      </c>
+      <c r="G111" t="n">
+        <v>84</v>
+      </c>
+      <c r="H111" t="n">
+        <v>256.5622200772709</v>
+      </c>
+      <c r="I111" t="n">
+        <v>35</v>
+      </c>
+      <c r="J111" t="n">
+        <v>49</v>
+      </c>
+      <c r="K111" t="n">
+        <v>225.0757587209713</v>
+      </c>
+      <c r="L111" t="n">
+        <v>19.69574994398484</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
+        <v>0</v>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P111" t="n">
+        <v>0.6199930791743566</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="R111" t="n">
+        <v>0.0931612108649366</v>
+      </c>
+      <c r="S111" t="n">
+        <v>0.9368010001931246</v>
+      </c>
+      <c r="T111" t="inlineStr">
+        <is>
+          <t>n35</t>
+        </is>
+      </c>
+      <c r="U111" t="n">
+        <v>1991</v>
+      </c>
+      <c r="V111" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W111" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X111" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>2655</v>
+      </c>
+      <c r="B112" t="n">
+        <v>2681</v>
+      </c>
+      <c r="C112" t="n">
+        <v>2786</v>
+      </c>
+      <c r="D112" t="n">
+        <v>2.969657647571707</v>
+      </c>
+      <c r="E112" t="n">
+        <v>2.394196065976094</v>
+      </c>
+      <c r="F112" t="n">
+        <v>-0.575461581595613</v>
+      </c>
+      <c r="G112" t="n">
+        <v>131</v>
+      </c>
+      <c r="H112" t="n">
+        <v>31.11720923506164</v>
+      </c>
+      <c r="I112" t="n">
+        <v>26</v>
+      </c>
+      <c r="J112" t="n">
+        <v>105</v>
+      </c>
+      <c r="K112" t="n">
+        <v>215.0859867401995</v>
+      </c>
+      <c r="L112" t="n">
+        <v>16.98100004397862</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
+        <v>0</v>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P112" t="n">
+        <v>0.8917918849552346</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>0.2476190476190476</v>
+      </c>
+      <c r="R112" t="n">
+        <v>0.4257780307609775</v>
+      </c>
+      <c r="S112" t="n">
+        <v>0.9146630147725456</v>
+      </c>
+      <c r="T112" t="inlineStr">
+        <is>
+          <t>n35</t>
+        </is>
+      </c>
+      <c r="U112" t="n">
+        <v>1992</v>
+      </c>
+      <c r="V112" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W112" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X112" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>1269</v>
+      </c>
+      <c r="B113" t="n">
+        <v>1290</v>
+      </c>
+      <c r="C113" t="n">
+        <v>1339</v>
+      </c>
+      <c r="D113" t="n">
+        <v>2.165481844886507</v>
+      </c>
+      <c r="E113" t="n">
+        <v>1.695798199797842</v>
+      </c>
+      <c r="F113" t="n">
+        <v>-0.4696836450886649</v>
+      </c>
+      <c r="G113" t="n">
+        <v>70</v>
+      </c>
+      <c r="H113" t="n">
+        <v>20.03531342844576</v>
+      </c>
+      <c r="I113" t="n">
+        <v>21</v>
+      </c>
+      <c r="J113" t="n">
+        <v>49</v>
+      </c>
+      <c r="K113" t="n">
+        <v>104.57557636502</v>
+      </c>
+      <c r="L113" t="n">
+        <v>5.938229188508214</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
+        <v>0</v>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P113" t="n">
+        <v>0.6588698588502822</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="R113" t="n">
+        <v>0.3385618522302804</v>
+      </c>
+      <c r="S113" t="n">
+        <v>0.4311017280394521</v>
+      </c>
+      <c r="T113" t="inlineStr">
         <is>
           <t>n36</t>
         </is>
       </c>
-      <c r="U41" t="n">
-        <v>909</v>
-      </c>
-      <c r="V41" t="inlineStr">
-        <is>
-          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W41" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X41" t="inlineStr">
+      <c r="U113" t="n">
+        <v>1993</v>
+      </c>
+      <c r="V113" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W113" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X113" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>2032</v>
+      </c>
+      <c r="B114" t="n">
+        <v>2054</v>
+      </c>
+      <c r="C114" t="n">
+        <v>2195</v>
+      </c>
+      <c r="D114" t="n">
+        <v>2.938355121874606</v>
+      </c>
+      <c r="E114" t="n">
+        <v>2.468671476785941</v>
+      </c>
+      <c r="F114" t="n">
+        <v>-0.4696836450886649</v>
+      </c>
+      <c r="G114" t="n">
+        <v>163</v>
+      </c>
+      <c r="H114" t="n">
+        <v>150.0587772668323</v>
+      </c>
+      <c r="I114" t="n">
+        <v>22</v>
+      </c>
+      <c r="J114" t="n">
+        <v>141</v>
+      </c>
+      <c r="K114" t="n">
+        <v>246.3698123918492</v>
+      </c>
+      <c r="L114" t="n">
+        <v>8.057618304268388</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
+        <v>0</v>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P114" t="n">
+        <v>0.8069899940016485</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>0.1560283687943262</v>
+      </c>
+      <c r="R114" t="n">
+        <v>0.4081167043222709</v>
+      </c>
+      <c r="S114" t="n">
+        <v>0.7158643811054166</v>
+      </c>
+      <c r="T114" t="inlineStr">
+        <is>
+          <t>n36</t>
+        </is>
+      </c>
+      <c r="U114" t="n">
+        <v>1994</v>
+      </c>
+      <c r="V114" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W114" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X114" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>2828</v>
+      </c>
+      <c r="B115" t="n">
+        <v>2850</v>
+      </c>
+      <c r="C115" t="n">
+        <v>2880</v>
+      </c>
+      <c r="D115" t="n">
+        <v>1.564248168743866</v>
+      </c>
+      <c r="E115" t="n">
+        <v>1.094564523655201</v>
+      </c>
+      <c r="F115" t="n">
+        <v>-0.4696836450886649</v>
+      </c>
+      <c r="G115" t="n">
+        <v>52</v>
+      </c>
+      <c r="H115" t="n">
+        <v>14.64165277931261</v>
+      </c>
+      <c r="I115" t="n">
+        <v>22</v>
+      </c>
+      <c r="J115" t="n">
+        <v>30</v>
+      </c>
+      <c r="K115" t="n">
+        <v>64.32727840076856</v>
+      </c>
+      <c r="L115" t="n">
+        <v>4.289513742929661</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
+        <v>0</v>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P115" t="n">
+        <v>0.6607851862631564</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="R115" t="n">
+        <v>0.1608276905858165</v>
+      </c>
+      <c r="S115" t="n">
+        <v>0.6850505413565985</v>
+      </c>
+      <c r="T115" t="inlineStr">
+        <is>
+          <t>n36</t>
+        </is>
+      </c>
+      <c r="U115" t="n">
+        <v>1995</v>
+      </c>
+      <c r="V115" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W115" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X115" t="inlineStr">
         <is>
           <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
         </is>

--- a/Visualization/results/processed_2979_all_datasets_analysis/processed_No.2979240926social22024-12-05202642trace/processed_No.2979240926social22024-12-05202642trace_transients.xlsx
+++ b/Visualization/results/processed_2979_all_datasets_analysis/processed_No.2979240926social22024-12-05202642trace/processed_No.2979240926social22024-12-05202642trace_transients.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X115"/>
+  <dimension ref="A1:X75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -563,34 +563,34 @@
         <v>21</v>
       </c>
       <c r="C2" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D2" t="n">
-        <v>3.233360053869938</v>
+        <v>3.231677109381709</v>
       </c>
       <c r="E2" t="n">
-        <v>2.581748749788958</v>
+        <v>2.576296995578411</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.6516113040809793</v>
+        <v>-0.6553801138032984</v>
       </c>
       <c r="G2" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H2" t="n">
-        <v>30.37504138209229</v>
+        <v>30.91624166359833</v>
       </c>
       <c r="I2" t="n">
         <v>21</v>
       </c>
       <c r="J2" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K2" t="n">
-        <v>172.8383648205759</v>
+        <v>171.5242957246656</v>
       </c>
       <c r="L2" t="n">
-        <v>10.44898875331879</v>
+        <v>10.46273948369591</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -606,16 +606,16 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.8881124669401282</v>
+        <v>0.8790272268516239</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.4038461538461539</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="R2" t="n">
-        <v>0.1974841200721499</v>
+        <v>0.1943250034520057</v>
       </c>
       <c r="S2" t="n">
-        <v>0.9190498388600876</v>
+        <v>0.9259783838884745</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="U2" t="n">
-        <v>1882</v>
+        <v>1505</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -643,40 +643,40 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="B3" t="n">
         <v>157</v>
       </c>
       <c r="C3" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D3" t="n">
-        <v>1.866155531424261</v>
+        <v>1.844693320422736</v>
       </c>
       <c r="E3" t="n">
-        <v>1.214544227343281</v>
+        <v>1.189313206619438</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.6516113040809793</v>
+        <v>-0.6553801138032984</v>
       </c>
       <c r="G3" t="n">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H3" t="n">
-        <v>15.37585993563209</v>
+        <v>15.48713782508702</v>
       </c>
       <c r="I3" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="J3" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K3" t="n">
-        <v>72.7772313341506</v>
+        <v>64.42608754412984</v>
       </c>
       <c r="L3" t="n">
-        <v>6.030704231796673</v>
+        <v>5.972300135699412</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -692,16 +692,16 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.7077419809795714</v>
+        <v>0.8513878736019287</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.6774193548387096</v>
+        <v>0.4375</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1159969236627044</v>
+        <v>0.1659028453910084</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9904289020953159</v>
+        <v>0.9917901238090349</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="U3" t="n">
-        <v>1883</v>
+        <v>1506</v>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -729,40 +729,40 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>282</v>
+        <v>892</v>
       </c>
       <c r="B4" t="n">
-        <v>300</v>
+        <v>920</v>
       </c>
       <c r="C4" t="n">
-        <v>324</v>
+        <v>971</v>
       </c>
       <c r="D4" t="n">
-        <v>2.072513057670574</v>
+        <v>3.079993071083774</v>
       </c>
       <c r="E4" t="n">
-        <v>1.420901753589594</v>
+        <v>2.424612957280476</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.6516113040809793</v>
+        <v>-0.6553801138032984</v>
       </c>
       <c r="G4" t="n">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="H4" t="n">
-        <v>23.79486809894865</v>
+        <v>112.5193363254826</v>
       </c>
       <c r="I4" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="J4" t="n">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="K4" t="n">
-        <v>78.65569640686186</v>
+        <v>189.0868704940166</v>
       </c>
       <c r="L4" t="n">
-        <v>6.69757319627518</v>
+        <v>9.971653733842052</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -778,16 +778,16 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.6169441056696341</v>
+        <v>0.7173666286306732</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.75</v>
+        <v>0.5490196078431373</v>
       </c>
       <c r="R4" t="n">
-        <v>0.05835719673291152</v>
+        <v>0.1680639065596447</v>
       </c>
       <c r="S4" t="n">
-        <v>0.9040123547142737</v>
+        <v>0.821646838395796</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -795,7 +795,7 @@
         </is>
       </c>
       <c r="U4" t="n">
-        <v>1884</v>
+        <v>1507</v>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -815,40 +815,40 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>472</v>
+        <v>1063</v>
       </c>
       <c r="B5" t="n">
-        <v>496</v>
+        <v>1084</v>
       </c>
       <c r="C5" t="n">
-        <v>652</v>
+        <v>1186</v>
       </c>
       <c r="D5" t="n">
-        <v>2.228689074750681</v>
+        <v>2.443510735357307</v>
       </c>
       <c r="E5" t="n">
-        <v>1.577077770669701</v>
+        <v>1.788130621554008</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.6516113040809793</v>
+        <v>-0.6553801138032984</v>
       </c>
       <c r="G5" t="n">
-        <v>180</v>
+        <v>123</v>
       </c>
       <c r="H5" t="n">
-        <v>40.27714940115908</v>
+        <v>33.24435563422435</v>
       </c>
       <c r="I5" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J5" t="n">
-        <v>156</v>
+        <v>102</v>
       </c>
       <c r="K5" t="n">
-        <v>266.7424187373523</v>
+        <v>167.6297945264992</v>
       </c>
       <c r="L5" t="n">
-        <v>7.202274627238614</v>
+        <v>7.911005767079561</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -864,16 +864,16 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.7613957372555651</v>
+        <v>0.8468662731514724</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.2058823529411765</v>
       </c>
       <c r="R5" t="n">
-        <v>0.2173370312684529</v>
+        <v>0.4034167868598738</v>
       </c>
       <c r="S5" t="n">
-        <v>0.5690648012562503</v>
+        <v>0.7292466129364372</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         </is>
       </c>
       <c r="U5" t="n">
-        <v>1885</v>
+        <v>1508</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -901,40 +901,40 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>892</v>
+        <v>757</v>
       </c>
       <c r="B6" t="n">
-        <v>919</v>
+        <v>785</v>
       </c>
       <c r="C6" t="n">
-        <v>971</v>
+        <v>895</v>
       </c>
       <c r="D6" t="n">
-        <v>3.109954786860441</v>
+        <v>2.164507205661456</v>
       </c>
       <c r="E6" t="n">
-        <v>2.458343482779462</v>
+        <v>1.590053411046348</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.6516113040809793</v>
+        <v>-0.5744537946151074</v>
       </c>
       <c r="G6" t="n">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="H6" t="n">
-        <v>111.915432433383</v>
+        <v>44.89321616904817</v>
       </c>
       <c r="I6" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J6" t="n">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="K6" t="n">
-        <v>188.7233132976631</v>
+        <v>188.8596462554356</v>
       </c>
       <c r="L6" t="n">
-        <v>10.05018991075277</v>
+        <v>3.955411839720217</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -950,24 +950,24 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.7162404280995486</v>
+        <v>0.8576529196810858</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.5192307692307693</v>
+        <v>0.2545454545454545</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1588133458503556</v>
+        <v>0.1485147569569837</v>
       </c>
       <c r="S6" t="n">
-        <v>0.8086996949552342</v>
+        <v>0.836211017724018</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>n1</t>
+          <t>n2</t>
         </is>
       </c>
       <c r="U6" t="n">
-        <v>1886</v>
+        <v>1509</v>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -987,40 +987,40 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1063</v>
+        <v>943</v>
       </c>
       <c r="B7" t="n">
-        <v>1085</v>
+        <v>987</v>
       </c>
       <c r="C7" t="n">
-        <v>1186</v>
+        <v>1077</v>
       </c>
       <c r="D7" t="n">
-        <v>2.486694818545655</v>
+        <v>1.796119828660447</v>
       </c>
       <c r="E7" t="n">
-        <v>1.835083514464676</v>
+        <v>1.115430690037594</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.6516113040809793</v>
+        <v>-0.6806891386228533</v>
       </c>
       <c r="G7" t="n">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="H7" t="n">
-        <v>31.67967368291556</v>
+        <v>44.93293181614081</v>
       </c>
       <c r="I7" t="n">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="J7" t="n">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="K7" t="n">
-        <v>167.2113973465802</v>
+        <v>119.2355591599883</v>
       </c>
       <c r="L7" t="n">
-        <v>8.036050968348126</v>
+        <v>4.438081445574227</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -1036,24 +1036,24 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.8421348756777298</v>
+        <v>0.8072590009632858</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.2178217821782178</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="R7" t="n">
-        <v>0.4137797505430051</v>
+        <v>0.2855412345187248</v>
       </c>
       <c r="S7" t="n">
-        <v>0.7109920276819304</v>
+        <v>0.6613241736700136</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>n1</t>
+          <t>n3</t>
         </is>
       </c>
       <c r="U7" t="n">
-        <v>1887</v>
+        <v>1510</v>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -1073,40 +1073,40 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2939</v>
+        <v>1077</v>
       </c>
       <c r="B8" t="n">
-        <v>2962</v>
+        <v>1110</v>
       </c>
       <c r="C8" t="n">
-        <v>2998</v>
+        <v>1158</v>
       </c>
       <c r="D8" t="n">
-        <v>1.308839013809313</v>
+        <v>2.449399088664387</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6572277097283336</v>
+        <v>1.768709950041534</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.6516113040809793</v>
+        <v>-0.6806891386228533</v>
       </c>
       <c r="G8" t="n">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="H8" t="n">
-        <v>12.68025068038742</v>
+        <v>45.74734504994058</v>
       </c>
       <c r="I8" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J8" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="K8" t="n">
-        <v>55.69812908281089</v>
+        <v>140.7097100313354</v>
       </c>
       <c r="L8" t="n">
-        <v>4.229669417369653</v>
+        <v>6.052286977041614</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -1122,24 +1122,24 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.6746866583819141</v>
+        <v>0.7192554888413432</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.6388888888888888</v>
+        <v>0.6875</v>
       </c>
       <c r="R8" t="n">
-        <v>0.5350069567575905</v>
+        <v>0.6736223407290982</v>
       </c>
       <c r="S8" t="n">
-        <v>0.5523499029203454</v>
+        <v>0.6338487153769068</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>n1</t>
+          <t>n3</t>
         </is>
       </c>
       <c r="U8" t="n">
-        <v>1888</v>
+        <v>1511</v>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -1159,40 +1159,40 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>757</v>
+        <v>1600</v>
       </c>
       <c r="B9" t="n">
-        <v>784</v>
+        <v>1635</v>
       </c>
       <c r="C9" t="n">
-        <v>895</v>
+        <v>1764</v>
       </c>
       <c r="D9" t="n">
-        <v>2.185816625050236</v>
+        <v>2.834874237753611</v>
       </c>
       <c r="E9" t="n">
-        <v>1.614759707524637</v>
+        <v>2.154185099130758</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.5710569175255991</v>
+        <v>-0.6806891386228533</v>
       </c>
       <c r="G9" t="n">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="H9" t="n">
-        <v>45.3812592627371</v>
+        <v>312.1727488645511</v>
       </c>
       <c r="I9" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="J9" t="n">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="K9" t="n">
-        <v>188.3693138305712</v>
+        <v>300.6015304070268</v>
       </c>
       <c r="L9" t="n">
-        <v>3.996408692407338</v>
+        <v>7.004768030702015</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1208,24 +1208,24 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.8562944210250595</v>
+        <v>0.8870477056734903</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.2432432432432433</v>
+        <v>0.2713178294573643</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1520353398448456</v>
+        <v>0.2990735430518913</v>
       </c>
       <c r="S9" t="n">
-        <v>0.8347523247581657</v>
+        <v>0.8899798232648564</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>n2</t>
+          <t>n3</t>
         </is>
       </c>
       <c r="U9" t="n">
-        <v>1889</v>
+        <v>1512</v>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -1245,40 +1245,40 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>360</v>
+        <v>2317</v>
       </c>
       <c r="B10" t="n">
-        <v>382</v>
+        <v>2358</v>
       </c>
       <c r="C10" t="n">
-        <v>450</v>
+        <v>2430</v>
       </c>
       <c r="D10" t="n">
-        <v>1.399045616583661</v>
+        <v>2.470985341760218</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7188673546668437</v>
+        <v>1.790296203137365</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.6801782619168169</v>
+        <v>-0.6806891386228533</v>
       </c>
       <c r="G10" t="n">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="H10" t="n">
-        <v>16.63320592516305</v>
+        <v>61.08593078657896</v>
       </c>
       <c r="I10" t="n">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="J10" t="n">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K10" t="n">
-        <v>88.2775675775604</v>
+        <v>159.8040466686525</v>
       </c>
       <c r="L10" t="n">
-        <v>3.456218589888077</v>
+        <v>6.105625038241866</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1294,16 +1294,16 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.7719497691067386</v>
+        <v>0.7368102634376346</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.3235294117647059</v>
+        <v>0.5694444444444444</v>
       </c>
       <c r="R10" t="n">
-        <v>0.4787018632859626</v>
+        <v>0.3969701121174147</v>
       </c>
       <c r="S10" t="n">
-        <v>0.5155060230896455</v>
+        <v>0.9247737163974535</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         </is>
       </c>
       <c r="U10" t="n">
-        <v>1890</v>
+        <v>1513</v>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -1331,40 +1331,40 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>450</v>
+        <v>749</v>
       </c>
       <c r="B11" t="n">
-        <v>473</v>
+        <v>780</v>
       </c>
       <c r="C11" t="n">
-        <v>516</v>
+        <v>839</v>
       </c>
       <c r="D11" t="n">
-        <v>1.579934691225524</v>
+        <v>2.482358378891558</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8997564293087071</v>
+        <v>1.602338067046604</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.6801782619168169</v>
+        <v>-0.880020311844954</v>
       </c>
       <c r="G11" t="n">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="H11" t="n">
-        <v>32.19733223355661</v>
+        <v>26.51662098552151</v>
       </c>
       <c r="I11" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="J11" t="n">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="K11" t="n">
-        <v>55.87344659305103</v>
+        <v>169.6575922254519</v>
       </c>
       <c r="L11" t="n">
-        <v>3.903089067214986</v>
+        <v>8.31361853771917</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1380,24 +1380,24 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.853062910367381</v>
+        <v>0.7497156393537391</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.5348837209302325</v>
+        <v>0.5254237288135594</v>
       </c>
       <c r="R11" t="n">
-        <v>0.3888517997988039</v>
+        <v>0.1776448937558318</v>
       </c>
       <c r="S11" t="n">
-        <v>0.9824891523640646</v>
+        <v>0.9241000390537795</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>n3</t>
+          <t>n4</t>
         </is>
       </c>
       <c r="U11" t="n">
-        <v>1891</v>
+        <v>1514</v>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -1417,40 +1417,40 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>943</v>
+        <v>839</v>
       </c>
       <c r="B12" t="n">
-        <v>987</v>
+        <v>868</v>
       </c>
       <c r="C12" t="n">
-        <v>1078</v>
+        <v>954</v>
       </c>
       <c r="D12" t="n">
-        <v>1.808835226812727</v>
+        <v>2.175989957706198</v>
       </c>
       <c r="E12" t="n">
-        <v>1.12865696489591</v>
+        <v>1.295969645861244</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.6801782619168169</v>
+        <v>-0.880020311844954</v>
       </c>
       <c r="G12" t="n">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="H12" t="n">
-        <v>45.01463374722562</v>
+        <v>31.78757072190024</v>
       </c>
       <c r="I12" t="n">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="J12" t="n">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="K12" t="n">
-        <v>119.4854776256303</v>
+        <v>130.5187069667607</v>
       </c>
       <c r="L12" t="n">
-        <v>4.468567616987864</v>
+        <v>7.287565971177314</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1466,24 +1466,24 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.8095856018787855</v>
+        <v>0.9034209866685643</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.4835164835164835</v>
+        <v>0.3372093023255814</v>
       </c>
       <c r="R12" t="n">
-        <v>0.2945417410480982</v>
+        <v>0.3639860786541108</v>
       </c>
       <c r="S12" t="n">
-        <v>0.6669293687601441</v>
+        <v>0.9342802511914949</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>n3</t>
+          <t>n4</t>
         </is>
       </c>
       <c r="U12" t="n">
-        <v>1892</v>
+        <v>1515</v>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -1503,40 +1503,40 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1078</v>
+        <v>1125</v>
       </c>
       <c r="B13" t="n">
-        <v>1110</v>
+        <v>1152</v>
       </c>
       <c r="C13" t="n">
-        <v>1158</v>
+        <v>1195</v>
       </c>
       <c r="D13" t="n">
-        <v>2.462837835423427</v>
+        <v>1.722615328328739</v>
       </c>
       <c r="E13" t="n">
-        <v>1.78265957350661</v>
+        <v>0.8425950164837851</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.6801782619168169</v>
+        <v>-0.880020311844954</v>
       </c>
       <c r="G13" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="H13" t="n">
-        <v>47.01055032717727</v>
+        <v>30.41465385368974</v>
       </c>
       <c r="I13" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="J13" t="n">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="K13" t="n">
-        <v>140.4776568202272</v>
+        <v>89.06732784652412</v>
       </c>
       <c r="L13" t="n">
-        <v>6.084223280335872</v>
+        <v>5.76917774997009</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1552,24 +1552,24 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.7092925751003999</v>
+        <v>0.7660087302817371</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6279069767441861</v>
       </c>
       <c r="R13" t="n">
-        <v>0.648258651871345</v>
+        <v>0.1454789744486292</v>
       </c>
       <c r="S13" t="n">
-        <v>0.5778013656038692</v>
+        <v>0.9643215433303262</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>n3</t>
+          <t>n4</t>
         </is>
       </c>
       <c r="U13" t="n">
-        <v>1893</v>
+        <v>1516</v>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -1589,40 +1589,40 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1600</v>
+        <v>1424</v>
       </c>
       <c r="B14" t="n">
-        <v>1635</v>
+        <v>1451</v>
       </c>
       <c r="C14" t="n">
-        <v>1764</v>
+        <v>1562</v>
       </c>
       <c r="D14" t="n">
-        <v>2.839722292812021</v>
+        <v>2.175997605292352</v>
       </c>
       <c r="E14" t="n">
-        <v>2.159544030895204</v>
+        <v>1.295977293447398</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.6801782619168169</v>
+        <v>-0.880020311844954</v>
       </c>
       <c r="G14" t="n">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="H14" t="n">
-        <v>40.16279434986177</v>
+        <v>33.44971225731592</v>
       </c>
       <c r="I14" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="J14" t="n">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="K14" t="n">
-        <v>300.452685264914</v>
+        <v>236.6960875081888</v>
       </c>
       <c r="L14" t="n">
-        <v>7.015283034518266</v>
+        <v>7.287591583560506</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1638,24 +1638,24 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.9023140395369443</v>
+        <v>0.739657951198352</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.2713178294573643</v>
+        <v>0.2432432432432433</v>
       </c>
       <c r="R14" t="n">
-        <v>0.2992154944547274</v>
+        <v>0.09986172240772841</v>
       </c>
       <c r="S14" t="n">
-        <v>0.8873365794440623</v>
+        <v>0.7186054478871274</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>n3</t>
+          <t>n4</t>
         </is>
       </c>
       <c r="U14" t="n">
-        <v>1894</v>
+        <v>1517</v>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -1675,40 +1675,40 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2315</v>
+        <v>97</v>
       </c>
       <c r="B15" t="n">
-        <v>2358</v>
+        <v>158</v>
       </c>
       <c r="C15" t="n">
-        <v>2431</v>
+        <v>240</v>
       </c>
       <c r="D15" t="n">
-        <v>2.455669378146717</v>
+        <v>1.705738661203742</v>
       </c>
       <c r="E15" t="n">
-        <v>1.7754911162299</v>
+        <v>1.104133524819344</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.6801782619168169</v>
+        <v>-0.6016051363843976</v>
       </c>
       <c r="G15" t="n">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="H15" t="n">
-        <v>60.76551558545407</v>
+        <v>46.13795875759897</v>
       </c>
       <c r="I15" t="n">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="J15" t="n">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="K15" t="n">
-        <v>161.951946193369</v>
+        <v>112.7556262266235</v>
       </c>
       <c r="L15" t="n">
-        <v>6.066514239967993</v>
+        <v>5.559744683438883</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1724,24 +1724,24 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.7379664736061046</v>
+        <v>0.6963033206879863</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.589041095890411</v>
+        <v>0.7439024390243902</v>
       </c>
       <c r="R15" t="n">
-        <v>0.3916927689436798</v>
+        <v>0.3033966992693924</v>
       </c>
       <c r="S15" t="n">
-        <v>0.9277321191049815</v>
+        <v>0.9756314098635486</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>n3</t>
+          <t>n5</t>
         </is>
       </c>
       <c r="U15" t="n">
-        <v>1895</v>
+        <v>1518</v>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -1761,40 +1761,40 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>750</v>
+        <v>1964</v>
       </c>
       <c r="B16" t="n">
-        <v>781</v>
+        <v>2024</v>
       </c>
       <c r="C16" t="n">
-        <v>839</v>
+        <v>2155</v>
       </c>
       <c r="D16" t="n">
-        <v>2.497413950181091</v>
+        <v>3.289923442275276</v>
       </c>
       <c r="E16" t="n">
-        <v>1.616856774998677</v>
+        <v>2.688318305890878</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.8805571751824132</v>
+        <v>-0.6016051363843976</v>
       </c>
       <c r="G16" t="n">
-        <v>89</v>
+        <v>191</v>
       </c>
       <c r="H16" t="n">
-        <v>26.33649019897587</v>
+        <v>116.881124132047</v>
       </c>
       <c r="I16" t="n">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="J16" t="n">
-        <v>58</v>
+        <v>131</v>
       </c>
       <c r="K16" t="n">
-        <v>167.9173243594059</v>
+        <v>368.7407518520478</v>
       </c>
       <c r="L16" t="n">
-        <v>8.355205426932471</v>
+        <v>10.72329236777856</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1810,24 +1810,24 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.8013427928979318</v>
+        <v>0.7649941834637538</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.5344827586206896</v>
+        <v>0.4580152671755725</v>
       </c>
       <c r="R16" t="n">
-        <v>0.1895265971128346</v>
+        <v>0.2446367523265253</v>
       </c>
       <c r="S16" t="n">
-        <v>0.9213033139593145</v>
+        <v>0.899976007977892</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>n4</t>
+          <t>n5</t>
         </is>
       </c>
       <c r="U16" t="n">
-        <v>1896</v>
+        <v>1519</v>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -1847,40 +1847,40 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>839</v>
+        <v>2896</v>
       </c>
       <c r="B17" t="n">
-        <v>867</v>
+        <v>2925</v>
       </c>
       <c r="C17" t="n">
-        <v>956</v>
+        <v>2998</v>
       </c>
       <c r="D17" t="n">
-        <v>2.194155361057963</v>
+        <v>2.675467628533369</v>
       </c>
       <c r="E17" t="n">
-        <v>1.31359818587555</v>
+        <v>2.073862492148971</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.8805571751824132</v>
+        <v>-0.6016051363843976</v>
       </c>
       <c r="G17" t="n">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="H17" t="n">
-        <v>31.53652241304417</v>
+        <v>22.65874255558765</v>
       </c>
       <c r="I17" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J17" t="n">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="K17" t="n">
-        <v>131.5212463398643</v>
+        <v>177.0593213873551</v>
       </c>
       <c r="L17" t="n">
-        <v>7.340640817240228</v>
+        <v>8.720513441932532</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1896,24 +1896,24 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.9112092941660012</v>
+        <v>0.8172926916889603</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.3146067415730337</v>
+        <v>0.3972602739726027</v>
       </c>
       <c r="R17" t="n">
-        <v>0.3543925809275016</v>
+        <v>0.4133009897203986</v>
       </c>
       <c r="S17" t="n">
-        <v>0.9331982921423937</v>
+        <v>0.7981359487506497</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>n4</t>
+          <t>n5</t>
         </is>
       </c>
       <c r="U17" t="n">
-        <v>1897</v>
+        <v>1520</v>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -1933,40 +1933,40 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1125</v>
+        <v>108</v>
       </c>
       <c r="B18" t="n">
-        <v>1152</v>
+        <v>132</v>
       </c>
       <c r="C18" t="n">
-        <v>1195</v>
+        <v>173</v>
       </c>
       <c r="D18" t="n">
-        <v>1.731673078951617</v>
+        <v>2.822834069751961</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8511159037692042</v>
+        <v>2.343696241581728</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.8805571751824132</v>
+        <v>-0.4791378281702325</v>
       </c>
       <c r="G18" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H18" t="n">
-        <v>30.35831721130285</v>
+        <v>28.65000432756388</v>
       </c>
       <c r="I18" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J18" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K18" t="n">
-        <v>89.0875882131227</v>
+        <v>145.56151751637</v>
       </c>
       <c r="L18" t="n">
-        <v>5.793386517233272</v>
+        <v>10.87441007385054</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
@@ -1982,24 +1982,24 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.7663519051825901</v>
+        <v>0.7255943874997842</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.6279069767441861</v>
+        <v>0.5853658536585366</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1463028644688747</v>
+        <v>0.09929484193477975</v>
       </c>
       <c r="S18" t="n">
-        <v>0.9613888238907856</v>
+        <v>0.9233704199819549</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>n4</t>
+          <t>n6</t>
         </is>
       </c>
       <c r="U18" t="n">
-        <v>1898</v>
+        <v>1521</v>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -2019,40 +2019,40 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1484</v>
+        <v>232</v>
       </c>
       <c r="B19" t="n">
-        <v>1511</v>
+        <v>267</v>
       </c>
       <c r="C19" t="n">
-        <v>1562</v>
+        <v>311</v>
       </c>
       <c r="D19" t="n">
-        <v>1.975183927449214</v>
+        <v>2.91941674239256</v>
       </c>
       <c r="E19" t="n">
-        <v>1.094626752266801</v>
+        <v>2.440278914222328</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.8805571751824132</v>
+        <v>-0.4791378281702325</v>
       </c>
       <c r="G19" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H19" t="n">
-        <v>18.39690573651887</v>
+        <v>39.89178631167493</v>
       </c>
       <c r="I19" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="J19" t="n">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="K19" t="n">
-        <v>123.9409366054972</v>
+        <v>129.9889108088055</v>
       </c>
       <c r="L19" t="n">
-        <v>6.608062499457411</v>
+        <v>11.2464757221919</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
@@ -2068,24 +2068,24 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.7254048335698646</v>
+        <v>0.7230175027693255</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.5294117647058824</v>
+        <v>0.7954545454545454</v>
       </c>
       <c r="R19" t="n">
-        <v>0.1313696665633002</v>
+        <v>0.1691046628434259</v>
       </c>
       <c r="S19" t="n">
-        <v>0.948585299578187</v>
+        <v>0.9274987449737571</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>n4</t>
+          <t>n6</t>
         </is>
       </c>
       <c r="U19" t="n">
-        <v>1899</v>
+        <v>1522</v>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -2105,40 +2105,40 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>96</v>
+        <v>862</v>
       </c>
       <c r="B20" t="n">
-        <v>157</v>
+        <v>880</v>
       </c>
       <c r="C20" t="n">
-        <v>240</v>
+        <v>939</v>
       </c>
       <c r="D20" t="n">
-        <v>1.710006394179084</v>
+        <v>1.295889912927488</v>
       </c>
       <c r="E20" t="n">
-        <v>1.105469018082512</v>
+        <v>0.8167520847572556</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.6045373760965725</v>
+        <v>-0.4791378281702325</v>
       </c>
       <c r="G20" t="n">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="H20" t="n">
-        <v>46.54454170811007</v>
+        <v>21.23948505834426</v>
       </c>
       <c r="I20" t="n">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="J20" t="n">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="K20" t="n">
-        <v>113.2458624699321</v>
+        <v>53.21991074245034</v>
       </c>
       <c r="L20" t="n">
-        <v>5.561503018926981</v>
+        <v>4.992159643651401</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -2154,24 +2154,24 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.6869472101815192</v>
+        <v>0.9228758829389959</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.7349397590361446</v>
+        <v>0.3050847457627119</v>
       </c>
       <c r="R20" t="n">
-        <v>0.342695562234401</v>
+        <v>0.2791837858670649</v>
       </c>
       <c r="S20" t="n">
-        <v>0.9733834268685282</v>
+        <v>0.9487266449498459</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>n5</t>
+          <t>n6</t>
         </is>
       </c>
       <c r="U20" t="n">
-        <v>1900</v>
+        <v>1523</v>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -2191,40 +2191,40 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B21" t="n">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="C21" t="n">
-        <v>368</v>
+        <v>346</v>
       </c>
       <c r="D21" t="n">
-        <v>2.042010622949861</v>
+        <v>3.352856053951974</v>
       </c>
       <c r="E21" t="n">
-        <v>1.437473246853288</v>
+        <v>2.832471626182142</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.6045373760965725</v>
+        <v>-0.5203844277698323</v>
       </c>
       <c r="G21" t="n">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="H21" t="n">
-        <v>183.3510043782626</v>
+        <v>37.06877299698499</v>
       </c>
       <c r="I21" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J21" t="n">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="K21" t="n">
-        <v>164.7365492529476</v>
+        <v>259.4139816220645</v>
       </c>
       <c r="L21" t="n">
-        <v>6.641289929017227</v>
+        <v>12.85043410899563</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -2240,24 +2240,24 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.7450937979368035</v>
+        <v>0.7354724750416658</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.6410256410256411</v>
+        <v>0.6875</v>
       </c>
       <c r="R21" t="n">
-        <v>0.4402371654467006</v>
+        <v>0.1366994656708918</v>
       </c>
       <c r="S21" t="n">
-        <v>0.8584249643658463</v>
+        <v>0.9369186706960365</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>n5</t>
+          <t>n7</t>
         </is>
       </c>
       <c r="U21" t="n">
-        <v>1901</v>
+        <v>1524</v>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -2277,40 +2277,40 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1962</v>
+        <v>346</v>
       </c>
       <c r="B22" t="n">
-        <v>2024</v>
+        <v>408</v>
       </c>
       <c r="C22" t="n">
-        <v>2155</v>
+        <v>508</v>
       </c>
       <c r="D22" t="n">
-        <v>3.323957618057193</v>
+        <v>2.048578267747453</v>
       </c>
       <c r="E22" t="n">
-        <v>2.71942024196062</v>
+        <v>1.528193839977621</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.6045373760965725</v>
+        <v>-0.5203844277698323</v>
       </c>
       <c r="G22" t="n">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="H22" t="n">
-        <v>116.529891249188</v>
+        <v>42.84246596909088</v>
       </c>
       <c r="I22" t="n">
         <v>62</v>
       </c>
       <c r="J22" t="n">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="K22" t="n">
-        <v>369.2664829924897</v>
+        <v>269.9330562484406</v>
       </c>
       <c r="L22" t="n">
-        <v>10.81060304250208</v>
+        <v>7.851550923511888</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -2326,24 +2326,24 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.7621362557601612</v>
+        <v>0.4757266465198789</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.4732824427480916</v>
+        <v>0.62</v>
       </c>
       <c r="R22" t="n">
-        <v>0.2436540935472495</v>
+        <v>0.1492870147447749</v>
       </c>
       <c r="S22" t="n">
-        <v>0.8981136924521624</v>
+        <v>0.5733750777622469</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>n5</t>
+          <t>n7</t>
         </is>
       </c>
       <c r="U22" t="n">
-        <v>1902</v>
+        <v>1525</v>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -2363,40 +2363,40 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2896</v>
+        <v>2746</v>
       </c>
       <c r="B23" t="n">
-        <v>2924</v>
+        <v>2832</v>
       </c>
       <c r="C23" t="n">
         <v>2998</v>
       </c>
       <c r="D23" t="n">
-        <v>2.720732598494485</v>
+        <v>2.25830833234154</v>
       </c>
       <c r="E23" t="n">
-        <v>2.116195222397913</v>
+        <v>1.737923904571708</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.6045373760965725</v>
+        <v>-0.5203844277698323</v>
       </c>
       <c r="G23" t="n">
-        <v>102</v>
+        <v>252</v>
       </c>
       <c r="H23" t="n">
-        <v>22.15796862999332</v>
+        <v>72.0382386356705</v>
       </c>
       <c r="I23" t="n">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="J23" t="n">
-        <v>74</v>
+        <v>166</v>
       </c>
       <c r="K23" t="n">
-        <v>177.3076394583223</v>
+        <v>214.4933539925151</v>
       </c>
       <c r="L23" t="n">
-        <v>8.848716947332925</v>
+        <v>8.655379758503178</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -2412,24 +2412,24 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.8209843604058988</v>
+        <v>0.6844037242904788</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.3783783783783784</v>
+        <v>0.5180722891566265</v>
       </c>
       <c r="R23" t="n">
-        <v>0.4446817155250258</v>
+        <v>0.3798745141968647</v>
       </c>
       <c r="S23" t="n">
-        <v>0.7874991114586051</v>
+        <v>0.9083271988495365</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>n5</t>
+          <t>n7</t>
         </is>
       </c>
       <c r="U23" t="n">
-        <v>1903</v>
+        <v>1526</v>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -2449,40 +2449,40 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B24" t="n">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="C24" t="n">
-        <v>173</v>
+        <v>221</v>
       </c>
       <c r="D24" t="n">
-        <v>2.854472695360879</v>
+        <v>2.784971997910631</v>
       </c>
       <c r="E24" t="n">
-        <v>2.373098008244271</v>
+        <v>2.082583735250723</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.4813746871166085</v>
+        <v>-0.7023882626599082</v>
       </c>
       <c r="G24" t="n">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="H24" t="n">
-        <v>28.11599266448185</v>
+        <v>76.20846520035549</v>
       </c>
       <c r="I24" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J24" t="n">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="K24" t="n">
-        <v>147.7074182367789</v>
+        <v>215.695733338756</v>
       </c>
       <c r="L24" t="n">
-        <v>10.84684241945897</v>
+        <v>11.61148123822663</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -2498,24 +2498,24 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.5812531084984609</v>
+        <v>0.7088803595456141</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.7368421052631579</v>
+        <v>0.4324324324324325</v>
       </c>
       <c r="R24" t="n">
-        <v>0.08131152414062644</v>
+        <v>0.09235993989271689</v>
       </c>
       <c r="S24" t="n">
-        <v>0.9436703530539975</v>
+        <v>0.8066906594338691</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>n6</t>
+          <t>n9</t>
         </is>
       </c>
       <c r="U24" t="n">
-        <v>1904</v>
+        <v>1527</v>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -2535,40 +2535,40 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="B25" t="n">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="C25" t="n">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D25" t="n">
-        <v>3.001599598054834</v>
+        <v>3.339357986403324</v>
       </c>
       <c r="E25" t="n">
-        <v>2.520224910938225</v>
+        <v>2.636969723743416</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.4813746871166085</v>
+        <v>-0.7023882626599082</v>
       </c>
       <c r="G25" t="n">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="H25" t="n">
-        <v>39.51515864321911</v>
+        <v>66.78232577375459</v>
       </c>
       <c r="I25" t="n">
         <v>34</v>
       </c>
       <c r="J25" t="n">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="K25" t="n">
-        <v>130.1317039673708</v>
+        <v>229.9650833823848</v>
       </c>
       <c r="L25" t="n">
-        <v>11.4059167212654</v>
+        <v>13.92290214620992</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
@@ -2584,24 +2584,24 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.717814110036763</v>
+        <v>0.7806931649183101</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.7555555555555555</v>
+        <v>0.5862068965517241</v>
       </c>
       <c r="R25" t="n">
-        <v>0.1931955137045156</v>
+        <v>0.2223714223683851</v>
       </c>
       <c r="S25" t="n">
-        <v>0.9442961807918296</v>
+        <v>0.8562293410449037</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>n6</t>
+          <t>n9</t>
         </is>
       </c>
       <c r="U25" t="n">
-        <v>1905</v>
+        <v>1528</v>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -2621,40 +2621,40 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>861</v>
+        <v>313</v>
       </c>
       <c r="B26" t="n">
-        <v>880</v>
+        <v>339</v>
       </c>
       <c r="C26" t="n">
-        <v>939</v>
+        <v>391</v>
       </c>
       <c r="D26" t="n">
-        <v>1.311946622173796</v>
+        <v>3.013993037652538</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8305719350571875</v>
+        <v>2.31160477499263</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.4813746871166085</v>
+        <v>-0.7023882626599082</v>
       </c>
       <c r="G26" t="n">
         <v>78</v>
       </c>
       <c r="H26" t="n">
-        <v>24.22707787268951</v>
+        <v>30.89369455550474</v>
       </c>
       <c r="I26" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J26" t="n">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="K26" t="n">
-        <v>54.1542719281978</v>
+        <v>179.500202584448</v>
       </c>
       <c r="L26" t="n">
-        <v>4.985326465580901</v>
+        <v>12.56634667605415</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
@@ -2670,24 +2670,24 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.9281704047957464</v>
+        <v>0.717643730119681</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.3220338983050847</v>
+        <v>0.5</v>
       </c>
       <c r="R26" t="n">
-        <v>0.27940695990381</v>
+        <v>0.07958153930651775</v>
       </c>
       <c r="S26" t="n">
-        <v>0.933531718607479</v>
+        <v>0.7716578884703404</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>n6</t>
+          <t>n9</t>
         </is>
       </c>
       <c r="U26" t="n">
-        <v>1906</v>
+        <v>1529</v>
       </c>
       <c r="V26" t="inlineStr">
         <is>
@@ -2707,40 +2707,40 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>238</v>
+        <v>391</v>
       </c>
       <c r="B27" t="n">
-        <v>282</v>
+        <v>433</v>
       </c>
       <c r="C27" t="n">
-        <v>363</v>
+        <v>488</v>
       </c>
       <c r="D27" t="n">
-        <v>3.342659515404041</v>
+        <v>2.819995925544855</v>
       </c>
       <c r="E27" t="n">
-        <v>2.818276979976836</v>
+        <v>2.117607662884947</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.5243825354272059</v>
+        <v>-0.7023882626599082</v>
       </c>
       <c r="G27" t="n">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="H27" t="n">
-        <v>37.61095511554197</v>
+        <v>41.35251464338359</v>
       </c>
       <c r="I27" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J27" t="n">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="K27" t="n">
-        <v>288.1315533992949</v>
+        <v>199.3956319448942</v>
       </c>
       <c r="L27" t="n">
-        <v>12.76167146435377</v>
+        <v>11.75750772571696</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -2756,24 +2756,24 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.7415839895217128</v>
+        <v>0.7051264688598629</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.5432098765432098</v>
+        <v>0.7636363636363637</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1822015217915886</v>
+        <v>0.1419686629041024</v>
       </c>
       <c r="S27" t="n">
-        <v>0.8925910017590887</v>
+        <v>0.9887931376053518</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>n7</t>
+          <t>n9</t>
         </is>
       </c>
       <c r="U27" t="n">
-        <v>1907</v>
+        <v>1530</v>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -2793,40 +2793,40 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>461</v>
+        <v>488</v>
       </c>
       <c r="B28" t="n">
-        <v>474</v>
+        <v>533</v>
       </c>
       <c r="C28" t="n">
-        <v>508</v>
+        <v>593</v>
       </c>
       <c r="D28" t="n">
-        <v>1.828694569515337</v>
+        <v>1.981276375429275</v>
       </c>
       <c r="E28" t="n">
-        <v>1.304312034088131</v>
+        <v>1.278888112769367</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.5243825354272059</v>
+        <v>-0.7023882626599082</v>
       </c>
       <c r="G28" t="n">
-        <v>47</v>
+        <v>105</v>
       </c>
       <c r="H28" t="n">
-        <v>14.27349452920453</v>
+        <v>25.50050097673841</v>
       </c>
       <c r="I28" t="n">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="J28" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="K28" t="n">
-        <v>63.8852467933123</v>
+        <v>142.9157017954934</v>
       </c>
       <c r="L28" t="n">
-        <v>6.98162621626801</v>
+        <v>8.260604946225008</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -2842,24 +2842,24 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.8946371720533485</v>
+        <v>0.6368195175113902</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.3823529411764706</v>
+        <v>0.75</v>
       </c>
       <c r="R28" t="n">
-        <v>0.2410913367921735</v>
+        <v>0.2268767907526428</v>
       </c>
       <c r="S28" t="n">
-        <v>0.9296806769895716</v>
+        <v>0.8510896601234135</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>n7</t>
+          <t>n9</t>
         </is>
       </c>
       <c r="U28" t="n">
-        <v>1908</v>
+        <v>1531</v>
       </c>
       <c r="V28" t="inlineStr">
         <is>
@@ -2879,40 +2879,40 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2746</v>
+        <v>689</v>
       </c>
       <c r="B29" t="n">
-        <v>2830</v>
+        <v>716</v>
       </c>
       <c r="C29" t="n">
-        <v>2998</v>
+        <v>803</v>
       </c>
       <c r="D29" t="n">
-        <v>2.241520780550899</v>
+        <v>2.466144440452581</v>
       </c>
       <c r="E29" t="n">
-        <v>1.717138245123693</v>
+        <v>1.763756177792673</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.5243825354272059</v>
+        <v>-0.7023882626599082</v>
       </c>
       <c r="G29" t="n">
-        <v>252</v>
+        <v>114</v>
       </c>
       <c r="H29" t="n">
-        <v>72.35234655236127</v>
+        <v>155.905488415464</v>
       </c>
       <c r="I29" t="n">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="J29" t="n">
-        <v>168</v>
+        <v>87</v>
       </c>
       <c r="K29" t="n">
-        <v>215.446574532696</v>
+        <v>210.160481602764</v>
       </c>
       <c r="L29" t="n">
-        <v>8.557722271768599</v>
+        <v>10.28218234242762</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
@@ -2928,24 +2928,24 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.6877322651018341</v>
+        <v>0.853151081841496</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.5</v>
+        <v>0.3103448275862069</v>
       </c>
       <c r="R29" t="n">
-        <v>0.4394891108759622</v>
+        <v>0.2125367409968719</v>
       </c>
       <c r="S29" t="n">
-        <v>0.9068874958384587</v>
+        <v>0.7970749224098275</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>n7</t>
+          <t>n9</t>
         </is>
       </c>
       <c r="U29" t="n">
-        <v>1909</v>
+        <v>1532</v>
       </c>
       <c r="V29" t="inlineStr">
         <is>
@@ -2965,40 +2965,40 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>115</v>
+        <v>2804</v>
       </c>
       <c r="B30" t="n">
-        <v>147</v>
+        <v>2853</v>
       </c>
       <c r="C30" t="n">
-        <v>222</v>
+        <v>2915</v>
       </c>
       <c r="D30" t="n">
-        <v>2.813339741636713</v>
+        <v>2.18156867615535</v>
       </c>
       <c r="E30" t="n">
-        <v>2.111877049182491</v>
+        <v>1.824879366045082</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.7014626924542224</v>
+        <v>-0.3566893101102684</v>
       </c>
       <c r="G30" t="n">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="H30" t="n">
-        <v>77.37129646259228</v>
+        <v>29.40717359336077</v>
       </c>
       <c r="I30" t="n">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="J30" t="n">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="K30" t="n">
-        <v>216.5881219147482</v>
+        <v>119.9694763033415</v>
       </c>
       <c r="L30" t="n">
-        <v>11.66008646653263</v>
+        <v>4.275210911297369</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
@@ -3014,24 +3014,24 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.7092896259382595</v>
+        <v>0.6551436079684205</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.4266666666666667</v>
+        <v>0.7903225806451613</v>
       </c>
       <c r="R30" t="n">
-        <v>0.09383470640169746</v>
+        <v>0.3194722104832317</v>
       </c>
       <c r="S30" t="n">
-        <v>0.7928598989676227</v>
+        <v>0.5090198847346799</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>n9</t>
+          <t>n10</t>
         </is>
       </c>
       <c r="U30" t="n">
-        <v>1910</v>
+        <v>1533</v>
       </c>
       <c r="V30" t="inlineStr">
         <is>
@@ -3051,40 +3051,40 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>222</v>
+        <v>2915</v>
       </c>
       <c r="B31" t="n">
-        <v>254</v>
+        <v>2946</v>
       </c>
       <c r="C31" t="n">
-        <v>311</v>
+        <v>2998</v>
       </c>
       <c r="D31" t="n">
-        <v>3.32626041595469</v>
+        <v>2.247233072279958</v>
       </c>
       <c r="E31" t="n">
-        <v>2.624797723500467</v>
+        <v>1.89054376216969</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.7014626924542224</v>
+        <v>-0.3566893101102684</v>
       </c>
       <c r="G31" t="n">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H31" t="n">
-        <v>66.71039687397661</v>
+        <v>49.24066387265202</v>
       </c>
       <c r="I31" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J31" t="n">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="K31" t="n">
-        <v>225.3130252149241</v>
+        <v>117.5746640947563</v>
       </c>
       <c r="L31" t="n">
-        <v>13.78592264781817</v>
+        <v>4.40389315076297</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
@@ -3100,24 +3100,24 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.7800054972219412</v>
+        <v>0.784560532328672</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.5614035087719298</v>
+        <v>0.5961538461538461</v>
       </c>
       <c r="R31" t="n">
-        <v>0.2297237267421527</v>
+        <v>0.2048215058386151</v>
       </c>
       <c r="S31" t="n">
-        <v>0.824915615015827</v>
+        <v>0.8967284912234761</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>n9</t>
+          <t>n10</t>
         </is>
       </c>
       <c r="U31" t="n">
-        <v>1911</v>
+        <v>1534</v>
       </c>
       <c r="V31" t="inlineStr">
         <is>
@@ -3137,40 +3137,40 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>311</v>
+        <v>346</v>
       </c>
       <c r="B32" t="n">
-        <v>340</v>
+        <v>368</v>
       </c>
       <c r="C32" t="n">
-        <v>390</v>
+        <v>443</v>
       </c>
       <c r="D32" t="n">
-        <v>3.052025995095073</v>
+        <v>1.473426388302682</v>
       </c>
       <c r="E32" t="n">
-        <v>2.35056330264085</v>
+        <v>0.9473491786408661</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.7014626924542224</v>
+        <v>-0.5260772096618158</v>
       </c>
       <c r="G32" t="n">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="H32" t="n">
-        <v>26.02560486561862</v>
+        <v>64.15666833928947</v>
       </c>
       <c r="I32" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="J32" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="K32" t="n">
-        <v>181.2801814382295</v>
+        <v>109.1129949767659</v>
       </c>
       <c r="L32" t="n">
-        <v>12.64933860430611</v>
+        <v>4.984388074830188</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
@@ -3186,24 +3186,24 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.664754106106893</v>
+        <v>0.7961608482956745</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.58</v>
+        <v>0.2933333333333333</v>
       </c>
       <c r="R32" t="n">
-        <v>0.09703933895902866</v>
+        <v>0.1517165057963455</v>
       </c>
       <c r="S32" t="n">
-        <v>0.6741153128365764</v>
+        <v>0.6370580202447182</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>n9</t>
+          <t>n11</t>
         </is>
       </c>
       <c r="U32" t="n">
-        <v>1912</v>
+        <v>1535</v>
       </c>
       <c r="V32" t="inlineStr">
         <is>
@@ -3223,40 +3223,40 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>390</v>
+        <v>443</v>
       </c>
       <c r="B33" t="n">
-        <v>434</v>
+        <v>517</v>
       </c>
       <c r="C33" t="n">
-        <v>489</v>
+        <v>611</v>
       </c>
       <c r="D33" t="n">
-        <v>2.830747903773651</v>
+        <v>4.657649017900541</v>
       </c>
       <c r="E33" t="n">
-        <v>2.129285211319429</v>
+        <v>4.131571808238725</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.7014626924542224</v>
+        <v>-0.5260772096618158</v>
       </c>
       <c r="G33" t="n">
-        <v>99</v>
+        <v>168</v>
       </c>
       <c r="H33" t="n">
-        <v>41.82842262656891</v>
+        <v>74.74859090509523</v>
       </c>
       <c r="I33" t="n">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="J33" t="n">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="K33" t="n">
-        <v>202.2020756451989</v>
+        <v>347.1786531590571</v>
       </c>
       <c r="L33" t="n">
-        <v>11.73223583147994</v>
+        <v>15.75615205881523</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
@@ -3272,24 +3272,24 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.6805163599582299</v>
+        <v>0.7619391449278042</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.8</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1545147393033982</v>
+        <v>0.4261024692207446</v>
       </c>
       <c r="S33" t="n">
-        <v>0.9873012113651385</v>
+        <v>0.908163247068519</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>n9</t>
+          <t>n11</t>
         </is>
       </c>
       <c r="U33" t="n">
-        <v>1913</v>
+        <v>1536</v>
       </c>
       <c r="V33" t="inlineStr">
         <is>
@@ -3309,40 +3309,40 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>489</v>
+        <v>611</v>
       </c>
       <c r="B34" t="n">
-        <v>533</v>
+        <v>635</v>
       </c>
       <c r="C34" t="n">
-        <v>593</v>
+        <v>698</v>
       </c>
       <c r="D34" t="n">
-        <v>2.01044409396847</v>
+        <v>1.57039800595738</v>
       </c>
       <c r="E34" t="n">
-        <v>1.308981401514248</v>
+        <v>1.044320796295564</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.7014626924542224</v>
+        <v>-0.5260772096618158</v>
       </c>
       <c r="G34" t="n">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="H34" t="n">
-        <v>25.092089178523</v>
+        <v>22.04883212112702</v>
       </c>
       <c r="I34" t="n">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="J34" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K34" t="n">
-        <v>141.6296311046213</v>
+        <v>69.11829728519339</v>
       </c>
       <c r="L34" t="n">
-        <v>8.332428403462007</v>
+        <v>5.31242901292677</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -3358,24 +3358,24 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.6322684563294654</v>
+        <v>0.7875110363788654</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="R34" t="n">
-        <v>0.2302222454668476</v>
+        <v>0.300090332869995</v>
       </c>
       <c r="S34" t="n">
-        <v>0.8266508842436786</v>
+        <v>0.5562398274531751</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>n9</t>
+          <t>n11</t>
         </is>
       </c>
       <c r="U34" t="n">
-        <v>1914</v>
+        <v>1537</v>
       </c>
       <c r="V34" t="inlineStr">
         <is>
@@ -3395,40 +3395,40 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>689</v>
+        <v>698</v>
       </c>
       <c r="B35" t="n">
-        <v>716</v>
+        <v>762</v>
       </c>
       <c r="C35" t="n">
-        <v>804</v>
+        <v>915</v>
       </c>
       <c r="D35" t="n">
-        <v>2.457737600395838</v>
+        <v>4.331813308896375</v>
       </c>
       <c r="E35" t="n">
-        <v>1.756274907941616</v>
+        <v>3.805736099234559</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.7014626924542224</v>
+        <v>-0.5260772096618158</v>
       </c>
       <c r="G35" t="n">
-        <v>115</v>
+        <v>217</v>
       </c>
       <c r="H35" t="n">
-        <v>171.0552639407575</v>
+        <v>47.73884321401295</v>
       </c>
       <c r="I35" t="n">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="J35" t="n">
-        <v>88</v>
+        <v>153</v>
       </c>
       <c r="K35" t="n">
-        <v>210.6820708215569</v>
+        <v>455.5511993851521</v>
       </c>
       <c r="L35" t="n">
-        <v>10.18626812415904</v>
+        <v>14.65389704614026</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -3444,24 +3444,24 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.8557395429295392</v>
+        <v>0.7749767866848003</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.3068181818181818</v>
+        <v>0.4183006535947713</v>
       </c>
       <c r="R35" t="n">
-        <v>0.2181733888198637</v>
+        <v>0.2446545345331118</v>
       </c>
       <c r="S35" t="n">
-        <v>0.7838085702198281</v>
+        <v>0.8937182572380304</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>n9</t>
+          <t>n11</t>
         </is>
       </c>
       <c r="U35" t="n">
-        <v>1915</v>
+        <v>1538</v>
       </c>
       <c r="V35" t="inlineStr">
         <is>
@@ -3481,40 +3481,40 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2682</v>
+        <v>848</v>
       </c>
       <c r="B36" t="n">
-        <v>2733</v>
+        <v>862</v>
       </c>
       <c r="C36" t="n">
-        <v>2797</v>
+        <v>892</v>
       </c>
       <c r="D36" t="n">
-        <v>1.792092175688465</v>
+        <v>3.062350052438965</v>
       </c>
       <c r="E36" t="n">
-        <v>1.090629483234242</v>
+        <v>2.520754114132635</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.7014626924542224</v>
+        <v>-0.5415959383063298</v>
       </c>
       <c r="G36" t="n">
-        <v>115</v>
+        <v>44</v>
       </c>
       <c r="H36" t="n">
-        <v>49.9356614755302</v>
+        <v>11.17686352435589</v>
       </c>
       <c r="I36" t="n">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="J36" t="n">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="K36" t="n">
-        <v>148.0038929178679</v>
+        <v>85.72085142091423</v>
       </c>
       <c r="L36" t="n">
-        <v>7.427453362730899</v>
+        <v>9.436215330217591</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
@@ -3530,24 +3530,24 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.5913395070605549</v>
+        <v>0.8472399460151411</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.796875</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1396735396871894</v>
+        <v>0.357121687326992</v>
       </c>
       <c r="S36" t="n">
-        <v>0.921444631042609</v>
+        <v>0.9902095528209641</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>n9</t>
+          <t>n12</t>
         </is>
       </c>
       <c r="U36" t="n">
-        <v>1916</v>
+        <v>1539</v>
       </c>
       <c r="V36" t="inlineStr">
         <is>
@@ -3567,40 +3567,40 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2805</v>
+        <v>2142</v>
       </c>
       <c r="B37" t="n">
-        <v>2853</v>
+        <v>2166</v>
       </c>
       <c r="C37" t="n">
-        <v>2916</v>
+        <v>2223</v>
       </c>
       <c r="D37" t="n">
-        <v>2.191839531325169</v>
+        <v>2.668194780764317</v>
       </c>
       <c r="E37" t="n">
-        <v>1.832151230545058</v>
+        <v>2.221200385661277</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.3596883007801107</v>
+        <v>-0.44699439510304</v>
       </c>
       <c r="G37" t="n">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="H37" t="n">
-        <v>30.48489829423443</v>
+        <v>124.7360764501022</v>
       </c>
       <c r="I37" t="n">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="J37" t="n">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="K37" t="n">
-        <v>121.0009991999174</v>
+        <v>133.7825600668677</v>
       </c>
       <c r="L37" t="n">
-        <v>4.289911036928127</v>
+        <v>7.420017005581219</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
@@ -3616,24 +3616,24 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0.6628508614170998</v>
+        <v>0.7391705738897651</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.7619047619047619</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="R37" t="n">
-        <v>0.3202890441799713</v>
+        <v>0.1592910506437927</v>
       </c>
       <c r="S37" t="n">
-        <v>0.4945688232292946</v>
+        <v>0.7462115342233886</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>n10</t>
+          <t>n13</t>
         </is>
       </c>
       <c r="U37" t="n">
-        <v>1917</v>
+        <v>1540</v>
       </c>
       <c r="V37" t="inlineStr">
         <is>
@@ -3653,40 +3653,40 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2916</v>
+        <v>1708</v>
       </c>
       <c r="B38" t="n">
-        <v>2945</v>
+        <v>1730</v>
       </c>
       <c r="C38" t="n">
-        <v>2998</v>
+        <v>1780</v>
       </c>
       <c r="D38" t="n">
-        <v>2.246266708561511</v>
+        <v>3.446780094823296</v>
       </c>
       <c r="E38" t="n">
-        <v>1.8865784077814</v>
+        <v>2.966501276703234</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.3596883007801107</v>
+        <v>-0.480278818120062</v>
       </c>
       <c r="G38" t="n">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="H38" t="n">
-        <v>48.8602628642293</v>
+        <v>62.62028324117227</v>
       </c>
       <c r="I38" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="J38" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K38" t="n">
-        <v>117.0034482005784</v>
+        <v>163.7621921783599</v>
       </c>
       <c r="L38" t="n">
-        <v>4.396436968684574</v>
+        <v>11.79664680618567</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
@@ -3702,24 +3702,24 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>0.7961471861885601</v>
+        <v>0.7896283859716996</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.5471698113207547</v>
+        <v>0.44</v>
       </c>
       <c r="R38" t="n">
-        <v>0.2050958910534106</v>
+        <v>0.3387010812117205</v>
       </c>
       <c r="S38" t="n">
-        <v>0.8800242153173635</v>
+        <v>0.6970507296082322</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>n10</t>
+          <t>n15</t>
         </is>
       </c>
       <c r="U38" t="n">
-        <v>1918</v>
+        <v>1541</v>
       </c>
       <c r="V38" t="inlineStr">
         <is>
@@ -3739,40 +3739,40 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>240</v>
+        <v>2001</v>
       </c>
       <c r="B39" t="n">
-        <v>274</v>
+        <v>2038</v>
       </c>
       <c r="C39" t="n">
-        <v>345</v>
+        <v>2092</v>
       </c>
       <c r="D39" t="n">
-        <v>2.006222181604719</v>
+        <v>2.014483774446592</v>
       </c>
       <c r="E39" t="n">
-        <v>1.487781214939593</v>
+        <v>1.44955409220358</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.5184409666651258</v>
+        <v>-0.5649296822430117</v>
       </c>
       <c r="G39" t="n">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="H39" t="n">
-        <v>72.85524307345005</v>
+        <v>22.07005598877799</v>
       </c>
       <c r="I39" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="J39" t="n">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="K39" t="n">
-        <v>141.7868528670887</v>
+        <v>127.2903697924317</v>
       </c>
       <c r="L39" t="n">
-        <v>6.704755162377782</v>
+        <v>5.639109905269585</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
@@ -3788,24 +3788,24 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>0.7265156555253423</v>
+        <v>0.6769675330214648</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.4788732394366197</v>
+        <v>0.6851851851851852</v>
       </c>
       <c r="R39" t="n">
-        <v>0.0999775892270887</v>
+        <v>0.504518548871588</v>
       </c>
       <c r="S39" t="n">
-        <v>0.930376823696449</v>
+        <v>0.5534317517108632</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>n11</t>
+          <t>n16</t>
         </is>
       </c>
       <c r="U39" t="n">
-        <v>1919</v>
+        <v>1542</v>
       </c>
       <c r="V39" t="inlineStr">
         <is>
@@ -3825,40 +3825,40 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>345</v>
+        <v>2092</v>
       </c>
       <c r="B40" t="n">
-        <v>368</v>
+        <v>2112</v>
       </c>
       <c r="C40" t="n">
-        <v>442</v>
+        <v>2160</v>
       </c>
       <c r="D40" t="n">
-        <v>1.487552635674431</v>
+        <v>2.13468088609077</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9691116690093049</v>
+        <v>1.569751203847759</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.5184409666651258</v>
+        <v>-0.5649296822430117</v>
       </c>
       <c r="G40" t="n">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="H40" t="n">
-        <v>64.67989587517678</v>
+        <v>35.78272523562418</v>
       </c>
       <c r="I40" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J40" t="n">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="K40" t="n">
-        <v>108.6570875740917</v>
+        <v>106.283633738093</v>
       </c>
       <c r="L40" t="n">
-        <v>4.971371717846903</v>
+        <v>5.97557561993819</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
@@ -3874,24 +3874,24 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>0.7989746649819185</v>
+        <v>0.8201949734979878</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.3108108108108108</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="R40" t="n">
-        <v>0.1750886945972959</v>
+        <v>0.1486670518517494</v>
       </c>
       <c r="S40" t="n">
-        <v>0.5979288628541053</v>
+        <v>0.9562831125156992</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>n11</t>
+          <t>n16</t>
         </is>
       </c>
       <c r="U40" t="n">
-        <v>1920</v>
+        <v>1543</v>
       </c>
       <c r="V40" t="inlineStr">
         <is>
@@ -3911,40 +3911,40 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>442</v>
+        <v>2103</v>
       </c>
       <c r="B41" t="n">
-        <v>517</v>
+        <v>2131</v>
       </c>
       <c r="C41" t="n">
-        <v>612</v>
+        <v>2180</v>
       </c>
       <c r="D41" t="n">
-        <v>4.72444976983008</v>
+        <v>3.568389685670843</v>
       </c>
       <c r="E41" t="n">
-        <v>4.206008803164955</v>
+        <v>2.998634637023813</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.5184409666651258</v>
+        <v>-0.5697550486470302</v>
       </c>
       <c r="G41" t="n">
-        <v>170</v>
+        <v>77</v>
       </c>
       <c r="H41" t="n">
-        <v>74.01093122374942</v>
+        <v>57.20156755720154</v>
       </c>
       <c r="I41" t="n">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="J41" t="n">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="K41" t="n">
-        <v>346.8128165463407</v>
+        <v>160.0077444054657</v>
       </c>
       <c r="L41" t="n">
-        <v>15.7890184218409</v>
+        <v>11.52879406657937</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
@@ -3960,24 +3960,24 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>0.7360342026985335</v>
+        <v>0.6954367747712684</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.7894736842105263</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="R41" t="n">
-        <v>0.4285244878185207</v>
+        <v>0.12816140880725</v>
       </c>
       <c r="S41" t="n">
-        <v>0.9026029005791987</v>
+        <v>0.8325141907966895</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>n11</t>
+          <t>n17</t>
         </is>
       </c>
       <c r="U41" t="n">
-        <v>1921</v>
+        <v>1544</v>
       </c>
       <c r="V41" t="inlineStr">
         <is>
@@ -3997,40 +3997,40 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>612</v>
+        <v>2421</v>
       </c>
       <c r="B42" t="n">
-        <v>635</v>
+        <v>2446</v>
       </c>
       <c r="C42" t="n">
-        <v>699</v>
+        <v>2510</v>
       </c>
       <c r="D42" t="n">
-        <v>1.620031271899567</v>
+        <v>2.743376083034808</v>
       </c>
       <c r="E42" t="n">
-        <v>1.101590305234441</v>
+        <v>2.236415116822295</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.5184409666651258</v>
+        <v>-0.5069609662125124</v>
       </c>
       <c r="G42" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H42" t="n">
-        <v>21.08526415180211</v>
+        <v>35.78803297700188</v>
       </c>
       <c r="I42" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J42" t="n">
         <v>64</v>
       </c>
       <c r="K42" t="n">
-        <v>68.56582429121053</v>
+        <v>143.7757615926283</v>
       </c>
       <c r="L42" t="n">
-        <v>5.414112720453493</v>
+        <v>8.259194792384065</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -4046,24 +4046,24 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>0.79039661797907</v>
+        <v>0.7435385725688839</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.359375</v>
+        <v>0.390625</v>
       </c>
       <c r="R42" t="n">
-        <v>0.328119974517426</v>
+        <v>0.4370587376459428</v>
       </c>
       <c r="S42" t="n">
-        <v>0.5494843801099569</v>
+        <v>0.7375621650605589</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>n11</t>
+          <t>n18</t>
         </is>
       </c>
       <c r="U42" t="n">
-        <v>1922</v>
+        <v>1545</v>
       </c>
       <c r="V42" t="inlineStr">
         <is>
@@ -4083,40 +4083,40 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>795</v>
+        <v>2897</v>
       </c>
       <c r="B43" t="n">
-        <v>807</v>
+        <v>2930</v>
       </c>
       <c r="C43" t="n">
-        <v>916</v>
+        <v>2998</v>
       </c>
       <c r="D43" t="n">
-        <v>2.565585586217542</v>
+        <v>2.29338404575344</v>
       </c>
       <c r="E43" t="n">
-        <v>2.047144619552416</v>
+        <v>1.786423079540928</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.5184409666651258</v>
+        <v>-0.5069609662125124</v>
       </c>
       <c r="G43" t="n">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="H43" t="n">
-        <v>14.00706208499321</v>
+        <v>25.63299527653862</v>
       </c>
       <c r="I43" t="n">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="J43" t="n">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="K43" t="n">
-        <v>203.8849518485216</v>
+        <v>113.7531659022823</v>
       </c>
       <c r="L43" t="n">
-        <v>8.574136684081028</v>
+        <v>6.904450937207935</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -4132,24 +4132,24 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>0.7696553575759044</v>
+        <v>0.6877510906315332</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.1100917431192661</v>
+        <v>0.4852941176470588</v>
       </c>
       <c r="R43" t="n">
-        <v>0.3098379768963016</v>
+        <v>0.2326748866950088</v>
       </c>
       <c r="S43" t="n">
-        <v>0.8817008010038712</v>
+        <v>0.6724918460448175</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>n11</t>
+          <t>n18</t>
         </is>
       </c>
       <c r="U43" t="n">
-        <v>1923</v>
+        <v>1546</v>
       </c>
       <c r="V43" t="inlineStr">
         <is>
@@ -4169,40 +4169,40 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>848</v>
+        <v>1108</v>
       </c>
       <c r="B44" t="n">
-        <v>862</v>
+        <v>1131</v>
       </c>
       <c r="C44" t="n">
-        <v>890</v>
+        <v>1191</v>
       </c>
       <c r="D44" t="n">
-        <v>3.127166099653974</v>
+        <v>2.513216830772105</v>
       </c>
       <c r="E44" t="n">
-        <v>2.589057089448061</v>
+        <v>2.06396001010874</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.5381090102059131</v>
+        <v>-0.4492568206633655</v>
       </c>
       <c r="G44" t="n">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="H44" t="n">
-        <v>11.7114804329932</v>
+        <v>27.49259511798959</v>
       </c>
       <c r="I44" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="J44" t="n">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="K44" t="n">
-        <v>84.19019581914338</v>
+        <v>126.0933406355263</v>
       </c>
       <c r="L44" t="n">
-        <v>9.497977332059598</v>
+        <v>5.692017760141472</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
@@ -4218,24 +4218,24 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>0.8472353631945103</v>
+        <v>0.9101051860547891</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.5</v>
+        <v>0.3833333333333334</v>
       </c>
       <c r="R44" t="n">
-        <v>0.338896564057646</v>
+        <v>0.3991668933958535</v>
       </c>
       <c r="S44" t="n">
-        <v>0.988687360725358</v>
+        <v>0.9407039048895028</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>n12</t>
+          <t>n19</t>
         </is>
       </c>
       <c r="U44" t="n">
-        <v>1924</v>
+        <v>1547</v>
       </c>
       <c r="V44" t="inlineStr">
         <is>
@@ -4255,40 +4255,40 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>2143</v>
+        <v>1152</v>
       </c>
       <c r="B45" t="n">
-        <v>2166</v>
+        <v>1221</v>
       </c>
       <c r="C45" t="n">
-        <v>2224</v>
+        <v>1457</v>
       </c>
       <c r="D45" t="n">
-        <v>2.7461747777098</v>
+        <v>4.965908644659748</v>
       </c>
       <c r="E45" t="n">
-        <v>2.295530924624861</v>
+        <v>4.501011701693044</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.4506438530849393</v>
+        <v>-0.4648969429667044</v>
       </c>
       <c r="G45" t="n">
-        <v>81</v>
+        <v>305</v>
       </c>
       <c r="H45" t="n">
-        <v>123.6506800183861</v>
+        <v>136.9808806375661</v>
       </c>
       <c r="I45" t="n">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="J45" t="n">
-        <v>58</v>
+        <v>236</v>
       </c>
       <c r="K45" t="n">
-        <v>133.7489807171001</v>
+        <v>632.6103170653904</v>
       </c>
       <c r="L45" t="n">
-        <v>7.62427335893415</v>
+        <v>23.17699543967667</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
@@ -4304,24 +4304,24 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>0.754143810003549</v>
+        <v>0.8903726964552472</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.396551724137931</v>
+        <v>0.2923728813559322</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1644783720329834</v>
+        <v>0.5258407941862617</v>
       </c>
       <c r="S45" t="n">
-        <v>0.7439930163289428</v>
+        <v>0.9470117866032122</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>n13</t>
+          <t>n20</t>
         </is>
       </c>
       <c r="U45" t="n">
-        <v>1925</v>
+        <v>1548</v>
       </c>
       <c r="V45" t="inlineStr">
         <is>
@@ -4341,40 +4341,40 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>2547</v>
+        <v>1457</v>
       </c>
       <c r="B46" t="n">
-        <v>2567</v>
+        <v>1486</v>
       </c>
       <c r="C46" t="n">
-        <v>2594</v>
+        <v>1549</v>
       </c>
       <c r="D46" t="n">
-        <v>1.558877682354508</v>
+        <v>0.875554356728101</v>
       </c>
       <c r="E46" t="n">
-        <v>1.108233829269568</v>
+        <v>0.4106574137613965</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.4506438530849393</v>
+        <v>-0.4648969429667044</v>
       </c>
       <c r="G46" t="n">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="H46" t="n">
-        <v>139.7252963245533</v>
+        <v>23.4691425950607</v>
       </c>
       <c r="I46" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="J46" t="n">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="K46" t="n">
-        <v>47.86098224266669</v>
+        <v>42.5750356710049</v>
       </c>
       <c r="L46" t="n">
-        <v>4.327950893687967</v>
+        <v>4.086406091038076</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
@@ -4390,24 +4390,24 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>0.713629981203565</v>
+        <v>0.7524874409235505</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.7407407407407407</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="R46" t="n">
-        <v>0.2994333295550526</v>
+        <v>0.344272490908649</v>
       </c>
       <c r="S46" t="n">
-        <v>0.8649617083240909</v>
+        <v>0.5457852899370316</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>n13</t>
+          <t>n20</t>
         </is>
       </c>
       <c r="U46" t="n">
-        <v>1926</v>
+        <v>1549</v>
       </c>
       <c r="V46" t="inlineStr">
         <is>
@@ -4427,40 +4427,40 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>2594</v>
+        <v>1851</v>
       </c>
       <c r="B47" t="n">
-        <v>2603</v>
+        <v>1890</v>
       </c>
       <c r="C47" t="n">
-        <v>2634</v>
+        <v>1944</v>
       </c>
       <c r="D47" t="n">
-        <v>1.198532839313868</v>
+        <v>1.833092930769323</v>
       </c>
       <c r="E47" t="n">
-        <v>0.7478889862289289</v>
+        <v>1.368195987802619</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.4506438530849393</v>
+        <v>-0.4648969429667044</v>
       </c>
       <c r="G47" t="n">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="H47" t="n">
-        <v>25.86068779629159</v>
+        <v>57.77335686675724</v>
       </c>
       <c r="I47" t="n">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="J47" t="n">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="K47" t="n">
-        <v>41.33960281138848</v>
+        <v>122.8729379527661</v>
       </c>
       <c r="L47" t="n">
-        <v>3.327516540738571</v>
+        <v>8.555450681242876</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
@@ -4476,24 +4476,24 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>0.7643097200734954</v>
+        <v>0.7537206892432635</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.2903225806451613</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="R47" t="n">
-        <v>0.08955662358510838</v>
+        <v>0.2609335557084292</v>
       </c>
       <c r="S47" t="n">
-        <v>0.7356303883711004</v>
+        <v>0.8584665603765147</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>n13</t>
+          <t>n20</t>
         </is>
       </c>
       <c r="U47" t="n">
-        <v>1927</v>
+        <v>1550</v>
       </c>
       <c r="V47" t="inlineStr">
         <is>
@@ -4513,40 +4513,40 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>286</v>
+        <v>2179</v>
       </c>
       <c r="B48" t="n">
-        <v>330</v>
+        <v>2205</v>
       </c>
       <c r="C48" t="n">
-        <v>385</v>
+        <v>2293</v>
       </c>
       <c r="D48" t="n">
-        <v>1.100601802660775</v>
+        <v>3.470077150068267</v>
       </c>
       <c r="E48" t="n">
-        <v>0.6216353427336562</v>
+        <v>2.954582731310611</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.4789664599271188</v>
+        <v>-0.5154944187576556</v>
       </c>
       <c r="G48" t="n">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="H48" t="n">
-        <v>36.13542209265086</v>
+        <v>50.00603262173445</v>
       </c>
       <c r="I48" t="n">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="J48" t="n">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="K48" t="n">
-        <v>51.2142378732215</v>
+        <v>200.0504891090256</v>
       </c>
       <c r="L48" t="n">
-        <v>3.746098267108394</v>
+        <v>10.07921560887734</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
@@ -4562,24 +4562,24 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>0.6488716177603912</v>
+        <v>0.9522478304619405</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.8</v>
+        <v>0.2954545454545455</v>
       </c>
       <c r="R48" t="n">
-        <v>0.3275660199732988</v>
+        <v>0.2231032540610365</v>
       </c>
       <c r="S48" t="n">
-        <v>0.6881901715370164</v>
+        <v>0.9091206035780337</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>n15</t>
+          <t>n22</t>
         </is>
       </c>
       <c r="U48" t="n">
-        <v>1928</v>
+        <v>1551</v>
       </c>
       <c r="V48" t="inlineStr">
         <is>
@@ -4599,40 +4599,40 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>944</v>
+        <v>2361</v>
       </c>
       <c r="B49" t="n">
-        <v>967</v>
+        <v>2389</v>
       </c>
       <c r="C49" t="n">
-        <v>1052</v>
+        <v>2480</v>
       </c>
       <c r="D49" t="n">
-        <v>3.976067940069692</v>
+        <v>2.494076919470717</v>
       </c>
       <c r="E49" t="n">
-        <v>3.497101480142573</v>
+        <v>1.978582500713061</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.4789664599271188</v>
+        <v>-0.5154944187576556</v>
       </c>
       <c r="G49" t="n">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="H49" t="n">
-        <v>31.16574988769617</v>
+        <v>78.49662423167729</v>
       </c>
       <c r="I49" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J49" t="n">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="K49" t="n">
-        <v>160.4125759316725</v>
+        <v>204.3284152900146</v>
       </c>
       <c r="L49" t="n">
-        <v>13.53326987489147</v>
+        <v>7.244317036575231</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
@@ -4648,24 +4648,24 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>0.8908755261019659</v>
+        <v>0.8106104166547051</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.2705882352941176</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="R49" t="n">
-        <v>0.4412206912297444</v>
+        <v>0.2900881273262947</v>
       </c>
       <c r="S49" t="n">
-        <v>0.735255615697358</v>
+        <v>0.6757383118776821</v>
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>n15</t>
+          <t>n22</t>
         </is>
       </c>
       <c r="U49" t="n">
-        <v>1929</v>
+        <v>1552</v>
       </c>
       <c r="V49" t="inlineStr">
         <is>
@@ -4685,40 +4685,40 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1708</v>
+        <v>2480</v>
       </c>
       <c r="B50" t="n">
-        <v>1731</v>
+        <v>2511</v>
       </c>
       <c r="C50" t="n">
-        <v>1780</v>
+        <v>2557</v>
       </c>
       <c r="D50" t="n">
-        <v>3.55940294977618</v>
+        <v>1.371175882496174</v>
       </c>
       <c r="E50" t="n">
-        <v>3.080436489849061</v>
+        <v>0.8556814637385186</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.4789664599271188</v>
+        <v>-0.5154944187576556</v>
       </c>
       <c r="G50" t="n">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H50" t="n">
-        <v>60.82701699653944</v>
+        <v>27.20657317064843</v>
       </c>
       <c r="I50" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="J50" t="n">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K50" t="n">
-        <v>163.3957983871945</v>
+        <v>67.18169968255594</v>
       </c>
       <c r="L50" t="n">
-        <v>12.11507485255936</v>
+        <v>3.982729132434336</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -4734,24 +4734,24 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>0.7600421004190961</v>
+        <v>0.8122714610491576</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.4693877551020408</v>
+        <v>0.6739130434782609</v>
       </c>
       <c r="R50" t="n">
-        <v>0.3761714414745794</v>
+        <v>0.4260748609795174</v>
       </c>
       <c r="S50" t="n">
-        <v>0.6104304304311929</v>
+        <v>0.9047830027614178</v>
       </c>
       <c r="T50" t="inlineStr">
         <is>
-          <t>n15</t>
+          <t>n22</t>
         </is>
       </c>
       <c r="U50" t="n">
-        <v>1930</v>
+        <v>1553</v>
       </c>
       <c r="V50" t="inlineStr">
         <is>
@@ -4771,40 +4771,40 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>847</v>
+        <v>1037</v>
       </c>
       <c r="B51" t="n">
-        <v>879</v>
+        <v>1069</v>
       </c>
       <c r="C51" t="n">
-        <v>928</v>
+        <v>1132</v>
       </c>
       <c r="D51" t="n">
-        <v>1.382968397730759</v>
+        <v>2.976789732116578</v>
       </c>
       <c r="E51" t="n">
-        <v>0.8157453070065689</v>
+        <v>2.409403407503725</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.5672230907241903</v>
+        <v>-0.567386324612853</v>
       </c>
       <c r="G51" t="n">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="H51" t="n">
-        <v>114.3593746410013</v>
+        <v>43.47523691950255</v>
       </c>
       <c r="I51" t="n">
         <v>32</v>
       </c>
       <c r="J51" t="n">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="K51" t="n">
-        <v>80.53193033552562</v>
+        <v>200.3353850320723</v>
       </c>
       <c r="L51" t="n">
-        <v>3.843419962558558</v>
+        <v>7.707709428068239</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
@@ -4820,24 +4820,24 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>0.6926826509402103</v>
+        <v>0.7612834707318478</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.6530612244897959</v>
+        <v>0.5079365079365079</v>
       </c>
       <c r="R51" t="n">
-        <v>0.1614695868242803</v>
+        <v>0.1280781727497559</v>
       </c>
       <c r="S51" t="n">
-        <v>0.8755926503136717</v>
+        <v>0.8714118525264406</v>
       </c>
       <c r="T51" t="inlineStr">
         <is>
-          <t>n16</t>
+          <t>n23</t>
         </is>
       </c>
       <c r="U51" t="n">
-        <v>1931</v>
+        <v>1554</v>
       </c>
       <c r="V51" t="inlineStr">
         <is>
@@ -4857,40 +4857,40 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1287</v>
+        <v>1970</v>
       </c>
       <c r="B52" t="n">
-        <v>1313</v>
+        <v>1995</v>
       </c>
       <c r="C52" t="n">
-        <v>1439</v>
+        <v>2032</v>
       </c>
       <c r="D52" t="n">
-        <v>3.282171866357467</v>
+        <v>2.882263904307858</v>
       </c>
       <c r="E52" t="n">
-        <v>2.714948775633276</v>
+        <v>2.29918728748176</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.5672230907241903</v>
+        <v>-0.583076616826098</v>
       </c>
       <c r="G52" t="n">
-        <v>152</v>
+        <v>62</v>
       </c>
       <c r="H52" t="n">
-        <v>91.12675261822733</v>
+        <v>44.17547186223146</v>
       </c>
       <c r="I52" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J52" t="n">
-        <v>126</v>
+        <v>37</v>
       </c>
       <c r="K52" t="n">
-        <v>247.7199391522149</v>
+        <v>138.48342367342</v>
       </c>
       <c r="L52" t="n">
-        <v>9.121513472328997</v>
+        <v>10.32615375843687</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
@@ -4906,24 +4906,24 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>0.9015545598501684</v>
+        <v>0.6399121658542198</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.2063492063492063</v>
+        <v>0.6756756756756757</v>
       </c>
       <c r="R52" t="n">
-        <v>0.241497981216093</v>
+        <v>0.06922030747379793</v>
       </c>
       <c r="S52" t="n">
-        <v>0.9469496842590295</v>
+        <v>0.9482246618964193</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
-          <t>n16</t>
+          <t>n24</t>
         </is>
       </c>
       <c r="U52" t="n">
-        <v>1932</v>
+        <v>1555</v>
       </c>
       <c r="V52" t="inlineStr">
         <is>
@@ -4943,40 +4943,40 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>2000</v>
+        <v>2132</v>
       </c>
       <c r="B53" t="n">
-        <v>2038</v>
+        <v>2176</v>
       </c>
       <c r="C53" t="n">
-        <v>2093</v>
+        <v>2286</v>
       </c>
       <c r="D53" t="n">
-        <v>2.067407603450305</v>
+        <v>3.266179153430147</v>
       </c>
       <c r="E53" t="n">
-        <v>1.500184512726115</v>
+        <v>2.68310253660405</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.5672230907241903</v>
+        <v>-0.583076616826098</v>
       </c>
       <c r="G53" t="n">
-        <v>93</v>
+        <v>154</v>
       </c>
       <c r="H53" t="n">
-        <v>20.3756334263926</v>
+        <v>106.6529275803437</v>
       </c>
       <c r="I53" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="J53" t="n">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="K53" t="n">
-        <v>129.1533228699127</v>
+        <v>331.7865300253272</v>
       </c>
       <c r="L53" t="n">
-        <v>5.74555113976884</v>
+        <v>11.70158918845428</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
@@ -4992,24 +4992,24 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>0.6552951105252656</v>
+        <v>0.7267865589039245</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.6909090909090909</v>
+        <v>0.4</v>
       </c>
       <c r="R53" t="n">
-        <v>0.5332455487447797</v>
+        <v>0.1057670048227142</v>
       </c>
       <c r="S53" t="n">
-        <v>0.5159636613822078</v>
+        <v>0.9718745412112789</v>
       </c>
       <c r="T53" t="inlineStr">
         <is>
-          <t>n16</t>
+          <t>n24</t>
         </is>
       </c>
       <c r="U53" t="n">
-        <v>1933</v>
+        <v>1556</v>
       </c>
       <c r="V53" t="inlineStr">
         <is>
@@ -5029,40 +5029,40 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>2093</v>
+        <v>2849</v>
       </c>
       <c r="B54" t="n">
-        <v>2113</v>
+        <v>2862</v>
       </c>
       <c r="C54" t="n">
-        <v>2160</v>
+        <v>2998</v>
       </c>
       <c r="D54" t="n">
-        <v>2.162125442306577</v>
+        <v>2.403232559436731</v>
       </c>
       <c r="E54" t="n">
-        <v>1.594902351582387</v>
+        <v>1.820155942610633</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.5672230907241903</v>
+        <v>-0.583076616826098</v>
       </c>
       <c r="G54" t="n">
-        <v>67</v>
+        <v>149</v>
       </c>
       <c r="H54" t="n">
-        <v>34.4640006019813</v>
+        <v>12.98027273012985</v>
       </c>
       <c r="I54" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="J54" t="n">
-        <v>47</v>
+        <v>136</v>
       </c>
       <c r="K54" t="n">
-        <v>105.0037170383845</v>
+        <v>173.782463274849</v>
       </c>
       <c r="L54" t="n">
-        <v>6.008782341051484</v>
+        <v>8.609950285584537</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
@@ -5078,24 +5078,24 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>0.8455887482377162</v>
+        <v>0.6944210540653534</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.425531914893617</v>
+        <v>0.09558823529411764</v>
       </c>
       <c r="R54" t="n">
-        <v>0.1749819829757089</v>
+        <v>0.4810439685204854</v>
       </c>
       <c r="S54" t="n">
-        <v>0.9707877332899272</v>
+        <v>0.5875159095241784</v>
       </c>
       <c r="T54" t="inlineStr">
         <is>
-          <t>n16</t>
+          <t>n24</t>
         </is>
       </c>
       <c r="U54" t="n">
-        <v>1934</v>
+        <v>1557</v>
       </c>
       <c r="V54" t="inlineStr">
         <is>
@@ -5115,40 +5115,40 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1795</v>
+        <v>1490</v>
       </c>
       <c r="B55" t="n">
-        <v>1826</v>
+        <v>1520</v>
       </c>
       <c r="C55" t="n">
-        <v>1866</v>
+        <v>1647</v>
       </c>
       <c r="D55" t="n">
-        <v>2.864355275833813</v>
+        <v>3.215985951549545</v>
       </c>
       <c r="E55" t="n">
-        <v>2.300101221022544</v>
+        <v>2.799707080744287</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.56425405481127</v>
+        <v>-0.4162788708052584</v>
       </c>
       <c r="G55" t="n">
-        <v>71</v>
+        <v>157</v>
       </c>
       <c r="H55" t="n">
-        <v>283.1025635917304</v>
+        <v>13.68419638144178</v>
       </c>
       <c r="I55" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J55" t="n">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="K55" t="n">
-        <v>138.2852694676389</v>
+        <v>289.046179311104</v>
       </c>
       <c r="L55" t="n">
-        <v>9.178723874858248</v>
+        <v>10.58888823559467</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
@@ -5164,24 +5164,24 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>0.5847005107741079</v>
+        <v>0.6480467525438881</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.775</v>
+        <v>0.2362204724409449</v>
       </c>
       <c r="R55" t="n">
-        <v>0.05831207551424847</v>
+        <v>0.4213878033291938</v>
       </c>
       <c r="S55" t="n">
-        <v>0.9885712771620492</v>
+        <v>0.8635538084403311</v>
       </c>
       <c r="T55" t="inlineStr">
         <is>
-          <t>n17</t>
+          <t>n25</t>
         </is>
       </c>
       <c r="U55" t="n">
-        <v>1935</v>
+        <v>1558</v>
       </c>
       <c r="V55" t="inlineStr">
         <is>
@@ -5201,40 +5201,40 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>2104</v>
+        <v>1447</v>
       </c>
       <c r="B56" t="n">
-        <v>2130</v>
+        <v>1470</v>
       </c>
       <c r="C56" t="n">
-        <v>2179</v>
+        <v>1605</v>
       </c>
       <c r="D56" t="n">
-        <v>3.563994949095171</v>
+        <v>4.600750100964675</v>
       </c>
       <c r="E56" t="n">
-        <v>2.999740894283902</v>
+        <v>4.182690191319557</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.56425405481127</v>
+        <v>-0.4180599096451176</v>
       </c>
       <c r="G56" t="n">
-        <v>75</v>
+        <v>158</v>
       </c>
       <c r="H56" t="n">
-        <v>57.80890486582166</v>
+        <v>23.60830746805323</v>
       </c>
       <c r="I56" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J56" t="n">
-        <v>49</v>
+        <v>135</v>
       </c>
       <c r="K56" t="n">
-        <v>159.1572877101038</v>
+        <v>408.9284633869919</v>
       </c>
       <c r="L56" t="n">
-        <v>11.42069414542556</v>
+        <v>20.79016395031621</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
@@ -5250,24 +5250,24 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>0.6938272784985251</v>
+        <v>0.8267504298952387</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.5306122448979592</v>
+        <v>0.1703703703703704</v>
       </c>
       <c r="R56" t="n">
-        <v>0.1249659007481665</v>
+        <v>0.4152300716935557</v>
       </c>
       <c r="S56" t="n">
-        <v>0.7855641789057545</v>
+        <v>0.977639735416956</v>
       </c>
       <c r="T56" t="inlineStr">
         <is>
-          <t>n17</t>
+          <t>n26</t>
         </is>
       </c>
       <c r="U56" t="n">
-        <v>1936</v>
+        <v>1559</v>
       </c>
       <c r="V56" t="inlineStr">
         <is>
@@ -5287,40 +5287,40 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>2421</v>
+        <v>1634</v>
       </c>
       <c r="B57" t="n">
-        <v>2447</v>
+        <v>1650</v>
       </c>
       <c r="C57" t="n">
-        <v>2510</v>
+        <v>1677</v>
       </c>
       <c r="D57" t="n">
-        <v>2.771560512080804</v>
+        <v>2.548760687239358</v>
       </c>
       <c r="E57" t="n">
-        <v>2.259844907677845</v>
+        <v>2.035747699808311</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.5117156044029589</v>
+        <v>-0.5130129874310468</v>
       </c>
       <c r="G57" t="n">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="H57" t="n">
-        <v>34.71481380289697</v>
+        <v>8.288912059574159</v>
       </c>
       <c r="I57" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="J57" t="n">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="K57" t="n">
-        <v>144.3490999143512</v>
+        <v>94.93280295081135</v>
       </c>
       <c r="L57" t="n">
-        <v>8.298784665610318</v>
+        <v>12.4056730548461</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
@@ -5336,24 +5336,24 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>0.7650527327797523</v>
+        <v>0.5952184836056276</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.4126984126984127</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="R57" t="n">
-        <v>0.4490126829284213</v>
+        <v>0.08242609554636331</v>
       </c>
       <c r="S57" t="n">
-        <v>0.714867706968078</v>
+        <v>0.7490531403798286</v>
       </c>
       <c r="T57" t="inlineStr">
         <is>
-          <t>n18</t>
+          <t>n27</t>
         </is>
       </c>
       <c r="U57" t="n">
-        <v>1937</v>
+        <v>1560</v>
       </c>
       <c r="V57" t="inlineStr">
         <is>
@@ -5373,40 +5373,40 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>2717</v>
+        <v>1677</v>
       </c>
       <c r="B58" t="n">
-        <v>2798</v>
+        <v>1693</v>
       </c>
       <c r="C58" t="n">
-        <v>2905</v>
+        <v>1738</v>
       </c>
       <c r="D58" t="n">
-        <v>3.305832242159594</v>
+        <v>2.607653734260376</v>
       </c>
       <c r="E58" t="n">
-        <v>2.794116637756635</v>
+        <v>2.094640746829329</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.5117156044029589</v>
+        <v>-0.5130129874310468</v>
       </c>
       <c r="G58" t="n">
-        <v>188</v>
+        <v>61</v>
       </c>
       <c r="H58" t="n">
-        <v>81.57257727890828</v>
+        <v>16.89258195941147</v>
       </c>
       <c r="I58" t="n">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="J58" t="n">
-        <v>107</v>
+        <v>45</v>
       </c>
       <c r="K58" t="n">
-        <v>372.1845350843142</v>
+        <v>113.7756710243511</v>
       </c>
       <c r="L58" t="n">
-        <v>9.898535427508062</v>
+        <v>12.69232526594002</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
@@ -5422,24 +5422,24 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>0.6683856906566689</v>
+        <v>0.9069395405653102</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.7570093457943925</v>
+        <v>0.3555555555555556</v>
       </c>
       <c r="R58" t="n">
-        <v>0.2981161443269704</v>
+        <v>0.2352959590521477</v>
       </c>
       <c r="S58" t="n">
-        <v>0.890492253754867</v>
+        <v>0.9899749327107522</v>
       </c>
       <c r="T58" t="inlineStr">
         <is>
-          <t>n18</t>
+          <t>n27</t>
         </is>
       </c>
       <c r="U58" t="n">
-        <v>1938</v>
+        <v>1561</v>
       </c>
       <c r="V58" t="inlineStr">
         <is>
@@ -5459,40 +5459,40 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>2905</v>
+        <v>1738</v>
       </c>
       <c r="B59" t="n">
-        <v>2930</v>
+        <v>1764</v>
       </c>
       <c r="C59" t="n">
-        <v>2998</v>
+        <v>1824</v>
       </c>
       <c r="D59" t="n">
-        <v>2.303371640882246</v>
+        <v>1.468039698501863</v>
       </c>
       <c r="E59" t="n">
-        <v>1.791656036479288</v>
+        <v>0.955026711070816</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.5117156044029589</v>
+        <v>-0.5130129874310468</v>
       </c>
       <c r="G59" t="n">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="H59" t="n">
-        <v>25.31404407090713</v>
+        <v>22.67485376973627</v>
       </c>
       <c r="I59" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J59" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="K59" t="n">
-        <v>108.0237862100452</v>
+        <v>87.05210884297207</v>
       </c>
       <c r="L59" t="n">
-        <v>6.896903448160388</v>
+        <v>7.145441556097979</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
@@ -5508,24 +5508,24 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>0.835438429795955</v>
+        <v>0.7988597415602804</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.3676470588235294</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="R59" t="n">
-        <v>0.3013899960972225</v>
+        <v>0.2596445369688012</v>
       </c>
       <c r="S59" t="n">
-        <v>0.7021318154457858</v>
+        <v>0.6872918641125083</v>
       </c>
       <c r="T59" t="inlineStr">
         <is>
-          <t>n18</t>
+          <t>n27</t>
         </is>
       </c>
       <c r="U59" t="n">
-        <v>1939</v>
+        <v>1562</v>
       </c>
       <c r="V59" t="inlineStr">
         <is>
@@ -5545,40 +5545,40 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1070</v>
+        <v>2426</v>
       </c>
       <c r="B60" t="n">
-        <v>1082</v>
+        <v>2455</v>
       </c>
       <c r="C60" t="n">
-        <v>1109</v>
+        <v>2527</v>
       </c>
       <c r="D60" t="n">
-        <v>2.208561939310303</v>
+        <v>3.128390008761666</v>
       </c>
       <c r="E60" t="n">
-        <v>1.760850032254651</v>
+        <v>2.615377021330619</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.4477119070556517</v>
+        <v>-0.5130129874310468</v>
       </c>
       <c r="G60" t="n">
-        <v>39</v>
+        <v>101</v>
       </c>
       <c r="H60" t="n">
-        <v>25.23010868446841</v>
+        <v>80.23827973725975</v>
       </c>
       <c r="I60" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="J60" t="n">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="K60" t="n">
-        <v>76.08993636265467</v>
+        <v>197.1362108641446</v>
       </c>
       <c r="L60" t="n">
-        <v>4.981013833670989</v>
+        <v>15.22692335575077</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
@@ -5594,24 +5594,24 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>0.6806671137787701</v>
+        <v>0.8350018981941059</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.4027777777777778</v>
       </c>
       <c r="R60" t="n">
-        <v>0.05123262621286149</v>
+        <v>0.1879077705807788</v>
       </c>
       <c r="S60" t="n">
-        <v>0.8446807255611887</v>
+        <v>0.9484569221063003</v>
       </c>
       <c r="T60" t="inlineStr">
         <is>
-          <t>n19</t>
+          <t>n27</t>
         </is>
       </c>
       <c r="U60" t="n">
-        <v>1940</v>
+        <v>1563</v>
       </c>
       <c r="V60" t="inlineStr">
         <is>
@@ -5631,40 +5631,40 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1109</v>
+        <v>2125</v>
       </c>
       <c r="B61" t="n">
-        <v>1131</v>
+        <v>2145</v>
       </c>
       <c r="C61" t="n">
-        <v>1192</v>
+        <v>2194</v>
       </c>
       <c r="D61" t="n">
-        <v>2.528006752546702</v>
+        <v>2.8943016479128</v>
       </c>
       <c r="E61" t="n">
-        <v>2.08029484549105</v>
+        <v>2.392522406671113</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.4477119070556517</v>
+        <v>-0.5017792412416869</v>
       </c>
       <c r="G61" t="n">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="H61" t="n">
-        <v>27.1105590200084</v>
+        <v>14.82952008857228</v>
       </c>
       <c r="I61" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J61" t="n">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="K61" t="n">
-        <v>124.7173429404658</v>
+        <v>136.0343514195482</v>
       </c>
       <c r="L61" t="n">
-        <v>5.70146409839023</v>
+        <v>9.7758388677083</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
@@ -5680,24 +5680,24 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>0.8878202996357947</v>
+        <v>0.7577491134258437</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.360655737704918</v>
+        <v>0.4081632653061225</v>
       </c>
       <c r="R61" t="n">
-        <v>0.4118747665006369</v>
+        <v>0.6002171558412259</v>
       </c>
       <c r="S61" t="n">
-        <v>0.9419630042338187</v>
+        <v>0.5658351936674817</v>
       </c>
       <c r="T61" t="inlineStr">
         <is>
-          <t>n19</t>
+          <t>n28</t>
         </is>
       </c>
       <c r="U61" t="n">
-        <v>1941</v>
+        <v>1564</v>
       </c>
       <c r="V61" t="inlineStr">
         <is>
@@ -5717,40 +5717,40 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1281</v>
+        <v>2068</v>
       </c>
       <c r="B62" t="n">
-        <v>1311</v>
+        <v>2140</v>
       </c>
       <c r="C62" t="n">
-        <v>1352</v>
+        <v>2367</v>
       </c>
       <c r="D62" t="n">
-        <v>2.435110934131796</v>
+        <v>4.170034096721508</v>
       </c>
       <c r="E62" t="n">
-        <v>1.987399027076144</v>
+        <v>3.644045580446006</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.4477119070556517</v>
+        <v>-0.5259885162755024</v>
       </c>
       <c r="G62" t="n">
-        <v>71</v>
+        <v>299</v>
       </c>
       <c r="H62" t="n">
-        <v>110.7489333279518</v>
+        <v>171.2089419106587</v>
       </c>
       <c r="I62" t="n">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="J62" t="n">
-        <v>41</v>
+        <v>227</v>
       </c>
       <c r="K62" t="n">
-        <v>133.0812611817095</v>
+        <v>642.4492824730065</v>
       </c>
       <c r="L62" t="n">
-        <v>5.491954304537976</v>
+        <v>16.92273147071997</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
@@ -5766,24 +5766,24 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>0.7501811056705759</v>
+        <v>0.8303097393383321</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.7317073170731707</v>
+        <v>0.3171806167400881</v>
       </c>
       <c r="R62" t="n">
-        <v>0.4227030544508549</v>
+        <v>0.3246534128645783</v>
       </c>
       <c r="S62" t="n">
-        <v>0.9905119310000582</v>
+        <v>0.8256785824238748</v>
       </c>
       <c r="T62" t="inlineStr">
         <is>
-          <t>n19</t>
+          <t>n29</t>
         </is>
       </c>
       <c r="U62" t="n">
-        <v>1942</v>
+        <v>1565</v>
       </c>
       <c r="V62" t="inlineStr">
         <is>
@@ -5803,73 +5803,73 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1669</v>
+        <v>1110</v>
       </c>
       <c r="B63" t="n">
-        <v>1711</v>
+        <v>1146</v>
       </c>
       <c r="C63" t="n">
-        <v>1808</v>
+        <v>1221</v>
       </c>
       <c r="D63" t="n">
-        <v>1.606709457385455</v>
+        <v>1.996285264142442</v>
       </c>
       <c r="E63" t="n">
-        <v>1.158997550329804</v>
+        <v>1.455893316208385</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.4477119070556517</v>
+        <v>-0.5403919479340574</v>
       </c>
       <c r="G63" t="n">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="H63" t="n">
-        <v>67.47023503862283</v>
+        <v>89.50739075127899</v>
       </c>
       <c r="I63" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="J63" t="n">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="K63" t="n">
-        <v>136.3763877847239</v>
+        <v>111.839527956611</v>
       </c>
       <c r="L63" t="n">
-        <v>3.623643915744639</v>
+        <v>7.181711908791296</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>complex</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>[{'index': np.int64(1785), 'value': np.float64(0.9873259360277119), 'amplitude': np.float64(1.4350378430833635), 'start_idx': np.int64(1767), 'end_idx': np.int64(1807), 'duration': np.float64(40.0), 'fwhm': np.float64(19.447025541983066), 'rise_time': np.float64(18.0), 'decay_time': np.float64(22.0), 'auc': np.float64(40.141009074570576)}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>0.7467326010145187</v>
+        <v>0.7639812702676374</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.4329896907216495</v>
+        <v>0.48</v>
       </c>
       <c r="R63" t="n">
-        <v>0.5267084948049254</v>
+        <v>0.1590601409602978</v>
       </c>
       <c r="S63" t="n">
-        <v>0.3240565436674259</v>
+        <v>0.8901242440650955</v>
       </c>
       <c r="T63" t="inlineStr">
         <is>
-          <t>n19</t>
+          <t>n31</t>
         </is>
       </c>
       <c r="U63" t="n">
-        <v>1943</v>
+        <v>1566</v>
       </c>
       <c r="V63" t="inlineStr">
         <is>
@@ -5889,73 +5889,73 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>2379</v>
+        <v>2520</v>
       </c>
       <c r="B64" t="n">
-        <v>2392</v>
+        <v>2570</v>
       </c>
       <c r="C64" t="n">
-        <v>2509</v>
+        <v>2655</v>
       </c>
       <c r="D64" t="n">
-        <v>1.478001979464898</v>
+        <v>2.52821446448473</v>
       </c>
       <c r="E64" t="n">
-        <v>1.030290072409246</v>
+        <v>1.987822516550673</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.4477119070556517</v>
+        <v>-0.5403919479340574</v>
       </c>
       <c r="G64" t="n">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="H64" t="n">
-        <v>21.82395787988344</v>
+        <v>67.70509028529841</v>
       </c>
       <c r="I64" t="n">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="J64" t="n">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="K64" t="n">
-        <v>94.15046794432288</v>
+        <v>225.9048337670441</v>
       </c>
       <c r="L64" t="n">
-        <v>3.333367371261851</v>
+        <v>9.095347370290881</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>complex</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>[{'index': np.int64(2462), 'value': np.float64(0.4771925801478269), 'amplitude': np.float64(0.9249044872034786), 'start_idx': np.int64(2454), 'end_idx': np.int64(2469), 'duration': np.float64(15.0), 'fwhm': np.float64(66.9658897145232), 'rise_time': np.float64(8.0), 'decay_time': np.float64(7.0), 'auc': np.float64(11.572113256311882)}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>0.6530787676087313</v>
+        <v>0.7036992777663174</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="R64" t="n">
-        <v>0.3798614810566912</v>
+        <v>0.1688675897228338</v>
       </c>
       <c r="S64" t="n">
-        <v>0.2685080104690989</v>
+        <v>0.9755054909390275</v>
       </c>
       <c r="T64" t="inlineStr">
         <is>
-          <t>n19</t>
+          <t>n31</t>
         </is>
       </c>
       <c r="U64" t="n">
-        <v>1944</v>
+        <v>1567</v>
       </c>
       <c r="V64" t="inlineStr">
         <is>
@@ -5975,40 +5975,40 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1151</v>
+        <v>1396</v>
       </c>
       <c r="B65" t="n">
-        <v>1221</v>
+        <v>1410</v>
       </c>
       <c r="C65" t="n">
-        <v>1351</v>
+        <v>1432</v>
       </c>
       <c r="D65" t="n">
-        <v>5.014224211868003</v>
+        <v>2.938005604863119</v>
       </c>
       <c r="E65" t="n">
-        <v>4.547253612696775</v>
+        <v>2.373050209076791</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.4669705991712282</v>
+        <v>-0.5649553957863281</v>
       </c>
       <c r="G65" t="n">
-        <v>200</v>
+        <v>36</v>
       </c>
       <c r="H65" t="n">
-        <v>136.6167497526433</v>
+        <v>12.95304554402901</v>
       </c>
       <c r="I65" t="n">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="J65" t="n">
-        <v>130</v>
+        <v>22</v>
       </c>
       <c r="K65" t="n">
-        <v>577.5845799021635</v>
+        <v>95.85162459637047</v>
       </c>
       <c r="L65" t="n">
-        <v>23.23270727391711</v>
+        <v>12.96219965121295</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
@@ -6024,24 +6024,24 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>0.7508791840011489</v>
+        <v>0.6979758875242345</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.5384615384615384</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="R65" t="n">
-        <v>0.28297476979715</v>
+        <v>0.06036377113818114</v>
       </c>
       <c r="S65" t="n">
-        <v>0.9023751319948417</v>
+        <v>0.9861809297891351</v>
       </c>
       <c r="T65" t="inlineStr">
         <is>
-          <t>n20</t>
+          <t>n33</t>
         </is>
       </c>
       <c r="U65" t="n">
-        <v>1945</v>
+        <v>1568</v>
       </c>
       <c r="V65" t="inlineStr">
         <is>
@@ -6061,40 +6061,40 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1351</v>
+        <v>1432</v>
       </c>
       <c r="B66" t="n">
-        <v>1368</v>
+        <v>1484</v>
       </c>
       <c r="C66" t="n">
-        <v>1458</v>
+        <v>1555</v>
       </c>
       <c r="D66" t="n">
-        <v>1.019324033523103</v>
+        <v>2.704134899405278</v>
       </c>
       <c r="E66" t="n">
-        <v>0.5523534343518746</v>
+        <v>2.13917950361895</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.4669705991712282</v>
+        <v>-0.5649553957863281</v>
       </c>
       <c r="G66" t="n">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="H66" t="n">
-        <v>11.81157310340814</v>
+        <v>44.23789401259978</v>
       </c>
       <c r="I66" t="n">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="J66" t="n">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="K66" t="n">
-        <v>55.80785673127925</v>
+        <v>262.6581215285223</v>
       </c>
       <c r="L66" t="n">
-        <v>4.722895484421975</v>
+        <v>11.93038447301972</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
@@ -6110,24 +6110,24 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>0.7584393897385248</v>
+        <v>0.6661294268027289</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.1888888888888889</v>
+        <v>0.7323943661971831</v>
       </c>
       <c r="R66" t="n">
-        <v>0.4364318253815863</v>
+        <v>0.2691957974218226</v>
       </c>
       <c r="S66" t="n">
-        <v>0.6815345626758651</v>
+        <v>0.9449723345102699</v>
       </c>
       <c r="T66" t="inlineStr">
         <is>
-          <t>n20</t>
+          <t>n33</t>
         </is>
       </c>
       <c r="U66" t="n">
-        <v>1946</v>
+        <v>1569</v>
       </c>
       <c r="V66" t="inlineStr">
         <is>
@@ -6147,73 +6147,73 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1458</v>
+        <v>1895</v>
       </c>
       <c r="B67" t="n">
-        <v>1487</v>
+        <v>1914</v>
       </c>
       <c r="C67" t="n">
-        <v>1550</v>
+        <v>1987</v>
       </c>
       <c r="D67" t="n">
-        <v>0.8788909006077865</v>
+        <v>1.030856484198317</v>
       </c>
       <c r="E67" t="n">
-        <v>0.4119203014365582</v>
+        <v>0.4659010884119891</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.4669705991712282</v>
+        <v>-0.5649553957863281</v>
       </c>
       <c r="G67" t="n">
         <v>92</v>
       </c>
       <c r="H67" t="n">
-        <v>23.99105073668625</v>
+        <v>33.26705282992521</v>
       </c>
       <c r="I67" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="J67" t="n">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="K67" t="n">
-        <v>42.95425485469484</v>
+        <v>55.21170662278017</v>
       </c>
       <c r="L67" t="n">
-        <v>4.072218185058616</v>
+        <v>4.548040186788064</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>simple</t>
+          <t>complex</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'index': np.int64(1955), 'value': np.float64(0.33097836869618824), 'amplitude': np.float64(0.8959337644825164), 'start_idx': np.int64(1940), 'end_idx': np.int64(1963), 'duration': np.float64(23.0), 'fwhm': np.float64(17.566176381316836), 'rise_time': np.float64(15.0), 'decay_time': np.float64(8.0), 'auc': np.float64(16.66311707578794)}]</t>
         </is>
       </c>
       <c r="P67" t="n">
-        <v>0.746343193329476</v>
+        <v>0.8668425390959625</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.4603174603174603</v>
+        <v>0.2602739726027397</v>
       </c>
       <c r="R67" t="n">
-        <v>0.3605296581202455</v>
+        <v>0.4630297052073287</v>
       </c>
       <c r="S67" t="n">
-        <v>0.5045531245455332</v>
+        <v>0.4909019110077004</v>
       </c>
       <c r="T67" t="inlineStr">
         <is>
-          <t>n20</t>
+          <t>n33</t>
         </is>
       </c>
       <c r="U67" t="n">
-        <v>1947</v>
+        <v>1570</v>
       </c>
       <c r="V67" t="inlineStr">
         <is>
@@ -6233,40 +6233,40 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1852</v>
+        <v>2560</v>
       </c>
       <c r="B68" t="n">
-        <v>1889</v>
+        <v>2578</v>
       </c>
       <c r="C68" t="n">
-        <v>1946</v>
+        <v>2603</v>
       </c>
       <c r="D68" t="n">
-        <v>1.846129785605276</v>
+        <v>3.234110423085184</v>
       </c>
       <c r="E68" t="n">
-        <v>1.379159186434048</v>
+        <v>2.669155027298856</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.4669705991712282</v>
+        <v>-0.5649553957863281</v>
       </c>
       <c r="G68" t="n">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="H68" t="n">
-        <v>58.01726268403854</v>
+        <v>12.04868348655918</v>
       </c>
       <c r="I68" t="n">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="J68" t="n">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="K68" t="n">
-        <v>124.7029209780929</v>
+        <v>105.5137339308481</v>
       </c>
       <c r="L68" t="n">
-        <v>8.553784411377217</v>
+        <v>14.26858578101727</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
@@ -6282,24 +6282,24 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>0.7743831623049807</v>
+        <v>0.7844722619080894</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.6491228070175439</v>
+        <v>0.72</v>
       </c>
       <c r="R68" t="n">
-        <v>0.2235717341486951</v>
+        <v>0.2486635192900564</v>
       </c>
       <c r="S68" t="n">
-        <v>0.8677590766615098</v>
+        <v>0.9920298198593359</v>
       </c>
       <c r="T68" t="inlineStr">
         <is>
-          <t>n20</t>
+          <t>n33</t>
         </is>
       </c>
       <c r="U68" t="n">
-        <v>1948</v>
+        <v>1571</v>
       </c>
       <c r="V68" t="inlineStr">
         <is>
@@ -6319,40 +6319,40 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>1946</v>
+        <v>241</v>
       </c>
       <c r="B69" t="n">
-        <v>1981</v>
+        <v>273</v>
       </c>
       <c r="C69" t="n">
-        <v>2037</v>
+        <v>361</v>
       </c>
       <c r="D69" t="n">
-        <v>2.46368503047445</v>
+        <v>3.158023963755586</v>
       </c>
       <c r="E69" t="n">
-        <v>1.996714431303222</v>
+        <v>2.658574491614844</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.4669705991712282</v>
+        <v>-0.4994494721407428</v>
       </c>
       <c r="G69" t="n">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="H69" t="n">
-        <v>72.42206767949347</v>
+        <v>65.1401898055405</v>
       </c>
       <c r="I69" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J69" t="n">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="K69" t="n">
-        <v>162.4482778009138</v>
+        <v>299.728340696198</v>
       </c>
       <c r="L69" t="n">
-        <v>11.41514035065874</v>
+        <v>9.708678666995077</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
@@ -6368,24 +6368,24 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>0.7652233558560704</v>
+        <v>0.7494312681531865</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.625</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="R69" t="n">
-        <v>0.2830819537409567</v>
+        <v>0.04362671274104159</v>
       </c>
       <c r="S69" t="n">
-        <v>0.8562522125734844</v>
+        <v>0.9722744048672277</v>
       </c>
       <c r="T69" t="inlineStr">
         <is>
-          <t>n20</t>
+          <t>n34</t>
         </is>
       </c>
       <c r="U69" t="n">
-        <v>1949</v>
+        <v>1572</v>
       </c>
       <c r="V69" t="inlineStr">
         <is>
@@ -6405,40 +6405,40 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>539</v>
+        <v>75</v>
       </c>
       <c r="B70" t="n">
-        <v>562</v>
+        <v>101</v>
       </c>
       <c r="C70" t="n">
-        <v>623</v>
+        <v>147</v>
       </c>
       <c r="D70" t="n">
-        <v>1.535308191140859</v>
+        <v>3.235159050208351</v>
       </c>
       <c r="E70" t="n">
-        <v>1.15253153472698</v>
+        <v>2.659894290329495</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.3827766564138793</v>
+        <v>-0.5752647598788561</v>
       </c>
       <c r="G70" t="n">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="H70" t="n">
-        <v>16.30261787463235</v>
+        <v>27.4527299537427</v>
       </c>
       <c r="I70" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J70" t="n">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="K70" t="n">
-        <v>90.10214239760172</v>
+        <v>170.9526557214903</v>
       </c>
       <c r="L70" t="n">
-        <v>3.324677225709281</v>
+        <v>18.66439462776081</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
@@ -6454,24 +6454,24 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>0.7703621053119566</v>
+        <v>0.8581821135050566</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.3770491803278688</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="R70" t="n">
-        <v>0.8673605541694775</v>
+        <v>0.2122013876703201</v>
       </c>
       <c r="S70" t="n">
-        <v>0.606730799387855</v>
+        <v>0.9475453843599692</v>
       </c>
       <c r="T70" t="inlineStr">
         <is>
-          <t>n21</t>
+          <t>n35</t>
         </is>
       </c>
       <c r="U70" t="n">
-        <v>1950</v>
+        <v>1573</v>
       </c>
       <c r="V70" t="inlineStr">
         <is>
@@ -6491,40 +6491,40 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>623</v>
+        <v>2572</v>
       </c>
       <c r="B71" t="n">
-        <v>638</v>
+        <v>2606</v>
       </c>
       <c r="C71" t="n">
-        <v>659</v>
+        <v>2655</v>
       </c>
       <c r="D71" t="n">
-        <v>1.766795862509395</v>
+        <v>3.424240188554183</v>
       </c>
       <c r="E71" t="n">
-        <v>1.384019206095516</v>
+        <v>2.848975428675327</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.3827766564138793</v>
+        <v>-0.5752647598788561</v>
       </c>
       <c r="G71" t="n">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="H71" t="n">
-        <v>13.89402418205577</v>
+        <v>255.4595484577412</v>
       </c>
       <c r="I71" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="J71" t="n">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="K71" t="n">
-        <v>44.46793592639695</v>
+        <v>223.1532920441657</v>
       </c>
       <c r="L71" t="n">
-        <v>3.825958853380111</v>
+        <v>19.75524825442426</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
@@ -6540,24 +6540,24 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>0.7319515768192884</v>
+        <v>0.6181281338963408</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.6938775510204082</v>
       </c>
       <c r="R71" t="n">
-        <v>0.1288821039383162</v>
+        <v>0.08482301349112314</v>
       </c>
       <c r="S71" t="n">
-        <v>0.8995130114656322</v>
+        <v>0.9407706813779222</v>
       </c>
       <c r="T71" t="inlineStr">
         <is>
-          <t>n21</t>
+          <t>n35</t>
         </is>
       </c>
       <c r="U71" t="n">
-        <v>1951</v>
+        <v>1574</v>
       </c>
       <c r="V71" t="inlineStr">
         <is>
@@ -6577,40 +6577,40 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2892</v>
+        <v>2655</v>
       </c>
       <c r="B72" t="n">
-        <v>2939</v>
+        <v>2681</v>
       </c>
       <c r="C72" t="n">
-        <v>2998</v>
+        <v>2786</v>
       </c>
       <c r="D72" t="n">
-        <v>1.73416903467203</v>
+        <v>2.964046812553613</v>
       </c>
       <c r="E72" t="n">
-        <v>1.351392378258151</v>
+        <v>2.388782052674757</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.3827766564138793</v>
+        <v>-0.5752647598788561</v>
       </c>
       <c r="G72" t="n">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="H72" t="n">
-        <v>40.96597100566441</v>
+        <v>30.12385318444967</v>
       </c>
       <c r="I72" t="n">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="J72" t="n">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="K72" t="n">
-        <v>81.18231960576583</v>
+        <v>214.7260277575415</v>
       </c>
       <c r="L72" t="n">
-        <v>3.755306151802703</v>
+        <v>17.10028426611494</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
@@ -6626,24 +6626,24 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>0.5418483913445604</v>
+        <v>0.882912172358668</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.7966101694915254</v>
+        <v>0.2476190476190476</v>
       </c>
       <c r="R72" t="n">
-        <v>0.642707821346048</v>
+        <v>0.4268047304776821</v>
       </c>
       <c r="S72" t="n">
-        <v>0.2670982534688281</v>
+        <v>0.8920175676389474</v>
       </c>
       <c r="T72" t="inlineStr">
         <is>
-          <t>n21</t>
+          <t>n35</t>
         </is>
       </c>
       <c r="U72" t="n">
-        <v>1952</v>
+        <v>1575</v>
       </c>
       <c r="V72" t="inlineStr">
         <is>
@@ -6663,40 +6663,40 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>1895</v>
+        <v>1269</v>
       </c>
       <c r="B73" t="n">
-        <v>1929</v>
+        <v>1290</v>
       </c>
       <c r="C73" t="n">
-        <v>1986</v>
+        <v>1339</v>
       </c>
       <c r="D73" t="n">
-        <v>1.52446138755426</v>
+        <v>2.144833141038</v>
       </c>
       <c r="E73" t="n">
-        <v>1.00785441916902</v>
+        <v>1.674965893951578</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.5166069683852401</v>
+        <v>-0.469867247086422</v>
       </c>
       <c r="G73" t="n">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="H73" t="n">
-        <v>60.61643646518928</v>
+        <v>20.11840325783601</v>
       </c>
       <c r="I73" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="J73" t="n">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="K73" t="n">
-        <v>93.08869171267015</v>
+        <v>104.6242072737697</v>
       </c>
       <c r="L73" t="n">
-        <v>4.400590977868172</v>
+        <v>5.946626163345254</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
@@ -6712,24 +6712,24 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>0.6883711300663201</v>
+        <v>0.6382415321745041</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.5964912280701754</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="R73" t="n">
-        <v>0.4762305910686189</v>
+        <v>0.336328397051409</v>
       </c>
       <c r="S73" t="n">
-        <v>0.4301791825116293</v>
+        <v>0.4817860891388205</v>
       </c>
       <c r="T73" t="inlineStr">
         <is>
-          <t>n22</t>
+          <t>n36</t>
         </is>
       </c>
       <c r="U73" t="n">
-        <v>1953</v>
+        <v>1576</v>
       </c>
       <c r="V73" t="inlineStr">
         <is>
@@ -6749,40 +6749,40 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2179</v>
+        <v>2032</v>
       </c>
       <c r="B74" t="n">
-        <v>2206</v>
+        <v>2055</v>
       </c>
       <c r="C74" t="n">
-        <v>2252</v>
+        <v>2195</v>
       </c>
       <c r="D74" t="n">
-        <v>3.510968460020208</v>
+        <v>2.929257428332591</v>
       </c>
       <c r="E74" t="n">
-        <v>2.994361491634968</v>
+        <v>2.459390181246168</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.5166069683852401</v>
+        <v>-0.469867247086422</v>
       </c>
       <c r="G74" t="n">
-        <v>73</v>
+        <v>163</v>
       </c>
       <c r="H74" t="n">
-        <v>49.06443491007622</v>
+        <v>152.5708898978439</v>
       </c>
       <c r="I74" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J74" t="n">
-        <v>46</v>
+        <v>140</v>
       </c>
       <c r="K74" t="n">
-        <v>167.1326556005751</v>
+        <v>246.4944720338486</v>
       </c>
       <c r="L74" t="n">
-        <v>10.13494750006891</v>
+        <v>8.121470397490189</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
@@ -6798,24 +6798,24 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>0.7095109579808119</v>
+        <v>0.8196089236294886</v>
       </c>
       <c r="Q74" t="n">
-        <v>0.5869565217391305</v>
+        <v>0.1642857142857143</v>
       </c>
       <c r="R74" t="n">
-        <v>0.1207631729512361</v>
+        <v>0.417708023024714</v>
       </c>
       <c r="S74" t="n">
-        <v>0.9256061657327059</v>
+        <v>0.7591518212454671</v>
       </c>
       <c r="T74" t="inlineStr">
         <is>
-          <t>n22</t>
+          <t>n36</t>
         </is>
       </c>
       <c r="U74" t="n">
-        <v>1954</v>
+        <v>1577</v>
       </c>
       <c r="V74" t="inlineStr">
         <is>
@@ -6835,40 +6835,40 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2252</v>
+        <v>2829</v>
       </c>
       <c r="B75" t="n">
-        <v>2261</v>
+        <v>2850</v>
       </c>
       <c r="C75" t="n">
-        <v>2293</v>
+        <v>2879</v>
       </c>
       <c r="D75" t="n">
-        <v>1.448099067267249</v>
+        <v>1.559102869153465</v>
       </c>
       <c r="E75" t="n">
-        <v>0.9314920988820091</v>
+        <v>1.089235622067043</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.5166069683852401</v>
+        <v>-0.469867247086422</v>
       </c>
       <c r="G75" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="H75" t="n">
-        <v>9.625577910124775</v>
+        <v>28.13978133632372</v>
       </c>
       <c r="I75" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="J75" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K75" t="n">
-        <v>32.88886914183649</v>
+        <v>62.36557640492771</v>
       </c>
       <c r="L75" t="n">
-        <v>4.180159459925156</v>
+        <v>4.322668153368667</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
@@ -6884,24 +6884,24 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>0.8884391503520672</v>
+        <v>0.6480016203928691</v>
       </c>
       <c r="Q75" t="n">
-        <v>0.28125</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="R75" t="n">
-        <v>0.4418988663328761</v>
+        <v>0.1415421863018174</v>
       </c>
       <c r="S75" t="n">
-        <v>0.8292602559745008</v>
+        <v>0.6727562728398895</v>
       </c>
       <c r="T75" t="inlineStr">
         <is>
-          <t>n22</t>
+          <t>n36</t>
         </is>
       </c>
       <c r="U75" t="n">
-        <v>1955</v>
+        <v>1578</v>
       </c>
       <c r="V75" t="inlineStr">
         <is>
@@ -6914,3446 +6914,6 @@
         </is>
       </c>
       <c r="X75" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>2363</v>
-      </c>
-      <c r="B76" t="n">
-        <v>2388</v>
-      </c>
-      <c r="C76" t="n">
-        <v>2485</v>
-      </c>
-      <c r="D76" t="n">
-        <v>2.517614065267506</v>
-      </c>
-      <c r="E76" t="n">
-        <v>2.001007096882266</v>
-      </c>
-      <c r="F76" t="n">
-        <v>-0.5166069683852401</v>
-      </c>
-      <c r="G76" t="n">
-        <v>122</v>
-      </c>
-      <c r="H76" t="n">
-        <v>79.01279466428014</v>
-      </c>
-      <c r="I76" t="n">
-        <v>25</v>
-      </c>
-      <c r="J76" t="n">
-        <v>97</v>
-      </c>
-      <c r="K76" t="n">
-        <v>203.8126938069416</v>
-      </c>
-      <c r="L76" t="n">
-        <v>7.267478095423957</v>
-      </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N76" t="n">
-        <v>0</v>
-      </c>
-      <c r="O76" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P76" t="n">
-        <v>0.8161796271035291</v>
-      </c>
-      <c r="Q76" t="n">
-        <v>0.2577319587628866</v>
-      </c>
-      <c r="R76" t="n">
-        <v>0.2660712548440748</v>
-      </c>
-      <c r="S76" t="n">
-        <v>0.7095555732423404</v>
-      </c>
-      <c r="T76" t="inlineStr">
-        <is>
-          <t>n22</t>
-        </is>
-      </c>
-      <c r="U76" t="n">
-        <v>1956</v>
-      </c>
-      <c r="V76" t="inlineStr">
-        <is>
-          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W76" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X76" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>2485</v>
-      </c>
-      <c r="B77" t="n">
-        <v>2510</v>
-      </c>
-      <c r="C77" t="n">
-        <v>2557</v>
-      </c>
-      <c r="D77" t="n">
-        <v>1.389604985979555</v>
-      </c>
-      <c r="E77" t="n">
-        <v>0.8729980175943153</v>
-      </c>
-      <c r="F77" t="n">
-        <v>-0.5166069683852401</v>
-      </c>
-      <c r="G77" t="n">
-        <v>72</v>
-      </c>
-      <c r="H77" t="n">
-        <v>27.28447979934754</v>
-      </c>
-      <c r="I77" t="n">
-        <v>25</v>
-      </c>
-      <c r="J77" t="n">
-        <v>47</v>
-      </c>
-      <c r="K77" t="n">
-        <v>65.56524126392918</v>
-      </c>
-      <c r="L77" t="n">
-        <v>4.011307346992155</v>
-      </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N77" t="n">
-        <v>0</v>
-      </c>
-      <c r="O77" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P77" t="n">
-        <v>0.8612569023985823</v>
-      </c>
-      <c r="Q77" t="n">
-        <v>0.5319148936170213</v>
-      </c>
-      <c r="R77" t="n">
-        <v>0.3459053341862321</v>
-      </c>
-      <c r="S77" t="n">
-        <v>0.8844508254173472</v>
-      </c>
-      <c r="T77" t="inlineStr">
-        <is>
-          <t>n22</t>
-        </is>
-      </c>
-      <c r="U77" t="n">
-        <v>1957</v>
-      </c>
-      <c r="V77" t="inlineStr">
-        <is>
-          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W77" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X77" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>2869</v>
-      </c>
-      <c r="B78" t="n">
-        <v>2885</v>
-      </c>
-      <c r="C78" t="n">
-        <v>2909</v>
-      </c>
-      <c r="D78" t="n">
-        <v>1.354857441561394</v>
-      </c>
-      <c r="E78" t="n">
-        <v>0.8382504731761541</v>
-      </c>
-      <c r="F78" t="n">
-        <v>-0.5166069683852401</v>
-      </c>
-      <c r="G78" t="n">
-        <v>40</v>
-      </c>
-      <c r="H78" t="n">
-        <v>27.82708830906813</v>
-      </c>
-      <c r="I78" t="n">
-        <v>16</v>
-      </c>
-      <c r="J78" t="n">
-        <v>24</v>
-      </c>
-      <c r="K78" t="n">
-        <v>41.16500075782746</v>
-      </c>
-      <c r="L78" t="n">
-        <v>3.911003245020145</v>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N78" t="n">
-        <v>0</v>
-      </c>
-      <c r="O78" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P78" t="n">
-        <v>0.7192082386146681</v>
-      </c>
-      <c r="Q78" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="R78" t="n">
-        <v>0.3083466031468712</v>
-      </c>
-      <c r="S78" t="n">
-        <v>0.6695546579663474</v>
-      </c>
-      <c r="T78" t="inlineStr">
-        <is>
-          <t>n22</t>
-        </is>
-      </c>
-      <c r="U78" t="n">
-        <v>1958</v>
-      </c>
-      <c r="V78" t="inlineStr">
-        <is>
-          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W78" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X78" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>373</v>
-      </c>
-      <c r="B79" t="n">
-        <v>395</v>
-      </c>
-      <c r="C79" t="n">
-        <v>444</v>
-      </c>
-      <c r="D79" t="n">
-        <v>1.484987366850257</v>
-      </c>
-      <c r="E79" t="n">
-        <v>0.9186319466351599</v>
-      </c>
-      <c r="F79" t="n">
-        <v>-0.5663554202150968</v>
-      </c>
-      <c r="G79" t="n">
-        <v>71</v>
-      </c>
-      <c r="H79" t="n">
-        <v>22.56982842362595</v>
-      </c>
-      <c r="I79" t="n">
-        <v>22</v>
-      </c>
-      <c r="J79" t="n">
-        <v>49</v>
-      </c>
-      <c r="K79" t="n">
-        <v>68.47564303214287</v>
-      </c>
-      <c r="L79" t="n">
-        <v>3.843529391091931</v>
-      </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N79" t="n">
-        <v>0</v>
-      </c>
-      <c r="O79" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P79" t="n">
-        <v>0.7796987413389309</v>
-      </c>
-      <c r="Q79" t="n">
-        <v>0.4489795918367347</v>
-      </c>
-      <c r="R79" t="n">
-        <v>0.4202240285568775</v>
-      </c>
-      <c r="S79" t="n">
-        <v>0.5047435827811573</v>
-      </c>
-      <c r="T79" t="inlineStr">
-        <is>
-          <t>n23</t>
-        </is>
-      </c>
-      <c r="U79" t="n">
-        <v>1959</v>
-      </c>
-      <c r="V79" t="inlineStr">
-        <is>
-          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W79" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X79" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>1038</v>
-      </c>
-      <c r="B80" t="n">
-        <v>1069</v>
-      </c>
-      <c r="C80" t="n">
-        <v>1135</v>
-      </c>
-      <c r="D80" t="n">
-        <v>2.955896612481932</v>
-      </c>
-      <c r="E80" t="n">
-        <v>2.389541192266836</v>
-      </c>
-      <c r="F80" t="n">
-        <v>-0.5663554202150968</v>
-      </c>
-      <c r="G80" t="n">
-        <v>97</v>
-      </c>
-      <c r="H80" t="n">
-        <v>44.937609058833</v>
-      </c>
-      <c r="I80" t="n">
-        <v>31</v>
-      </c>
-      <c r="J80" t="n">
-        <v>66</v>
-      </c>
-      <c r="K80" t="n">
-        <v>201.6087742855416</v>
-      </c>
-      <c r="L80" t="n">
-        <v>7.650620982184431</v>
-      </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N80" t="n">
-        <v>0</v>
-      </c>
-      <c r="O80" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P80" t="n">
-        <v>0.7822202236039215</v>
-      </c>
-      <c r="Q80" t="n">
-        <v>0.4696969696969697</v>
-      </c>
-      <c r="R80" t="n">
-        <v>0.1608459291702131</v>
-      </c>
-      <c r="S80" t="n">
-        <v>0.873105049937453</v>
-      </c>
-      <c r="T80" t="inlineStr">
-        <is>
-          <t>n23</t>
-        </is>
-      </c>
-      <c r="U80" t="n">
-        <v>1960</v>
-      </c>
-      <c r="V80" t="inlineStr">
-        <is>
-          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W80" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X80" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>1971</v>
-      </c>
-      <c r="B81" t="n">
-        <v>1995</v>
-      </c>
-      <c r="C81" t="n">
-        <v>2030</v>
-      </c>
-      <c r="D81" t="n">
-        <v>2.871786247032897</v>
-      </c>
-      <c r="E81" t="n">
-        <v>2.289190276154071</v>
-      </c>
-      <c r="F81" t="n">
-        <v>-0.5825959708788265</v>
-      </c>
-      <c r="G81" t="n">
-        <v>59</v>
-      </c>
-      <c r="H81" t="n">
-        <v>45.74410101496255</v>
-      </c>
-      <c r="I81" t="n">
-        <v>24</v>
-      </c>
-      <c r="J81" t="n">
-        <v>35</v>
-      </c>
-      <c r="K81" t="n">
-        <v>133.8410219213683</v>
-      </c>
-      <c r="L81" t="n">
-        <v>10.24766149858848</v>
-      </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N81" t="n">
-        <v>0</v>
-      </c>
-      <c r="O81" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P81" t="n">
-        <v>0.6224525546592836</v>
-      </c>
-      <c r="Q81" t="n">
-        <v>0.6857142857142857</v>
-      </c>
-      <c r="R81" t="n">
-        <v>0.0602532422071938</v>
-      </c>
-      <c r="S81" t="n">
-        <v>0.9353375867135393</v>
-      </c>
-      <c r="T81" t="inlineStr">
-        <is>
-          <t>n24</t>
-        </is>
-      </c>
-      <c r="U81" t="n">
-        <v>1961</v>
-      </c>
-      <c r="V81" t="inlineStr">
-        <is>
-          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W81" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X81" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>2132</v>
-      </c>
-      <c r="B82" t="n">
-        <v>2176</v>
-      </c>
-      <c r="C82" t="n">
-        <v>2287</v>
-      </c>
-      <c r="D82" t="n">
-        <v>3.317879380109697</v>
-      </c>
-      <c r="E82" t="n">
-        <v>2.73528340923087</v>
-      </c>
-      <c r="F82" t="n">
-        <v>-0.5825959708788265</v>
-      </c>
-      <c r="G82" t="n">
-        <v>155</v>
-      </c>
-      <c r="H82" t="n">
-        <v>105.4210585219034</v>
-      </c>
-      <c r="I82" t="n">
-        <v>44</v>
-      </c>
-      <c r="J82" t="n">
-        <v>111</v>
-      </c>
-      <c r="K82" t="n">
-        <v>332.7494101976054</v>
-      </c>
-      <c r="L82" t="n">
-        <v>11.8394970432217</v>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N82" t="n">
-        <v>0</v>
-      </c>
-      <c r="O82" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P82" t="n">
-        <v>0.7193705006266086</v>
-      </c>
-      <c r="Q82" t="n">
-        <v>0.3963963963963964</v>
-      </c>
-      <c r="R82" t="n">
-        <v>0.1129485915687781</v>
-      </c>
-      <c r="S82" t="n">
-        <v>0.9670976422669159</v>
-      </c>
-      <c r="T82" t="inlineStr">
-        <is>
-          <t>n24</t>
-        </is>
-      </c>
-      <c r="U82" t="n">
-        <v>1962</v>
-      </c>
-      <c r="V82" t="inlineStr">
-        <is>
-          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W82" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X82" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>2842</v>
-      </c>
-      <c r="B83" t="n">
-        <v>2862</v>
-      </c>
-      <c r="C83" t="n">
-        <v>2998</v>
-      </c>
-      <c r="D83" t="n">
-        <v>2.417614191931613</v>
-      </c>
-      <c r="E83" t="n">
-        <v>1.835018221052787</v>
-      </c>
-      <c r="F83" t="n">
-        <v>-0.5825959708788265</v>
-      </c>
-      <c r="G83" t="n">
-        <v>156</v>
-      </c>
-      <c r="H83" t="n">
-        <v>13.68219379924631</v>
-      </c>
-      <c r="I83" t="n">
-        <v>20</v>
-      </c>
-      <c r="J83" t="n">
-        <v>136</v>
-      </c>
-      <c r="K83" t="n">
-        <v>187.4034656159207</v>
-      </c>
-      <c r="L83" t="n">
-        <v>8.626997186401274</v>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N83" t="n">
-        <v>0</v>
-      </c>
-      <c r="O83" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P83" t="n">
-        <v>0.6504182946556424</v>
-      </c>
-      <c r="Q83" t="n">
-        <v>0.1470588235294118</v>
-      </c>
-      <c r="R83" t="n">
-        <v>0.4706867734904055</v>
-      </c>
-      <c r="S83" t="n">
-        <v>0.6008880739410998</v>
-      </c>
-      <c r="T83" t="inlineStr">
-        <is>
-          <t>n24</t>
-        </is>
-      </c>
-      <c r="U83" t="n">
-        <v>1963</v>
-      </c>
-      <c r="V83" t="inlineStr">
-        <is>
-          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W83" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X83" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>1489</v>
-      </c>
-      <c r="B84" t="n">
-        <v>1520</v>
-      </c>
-      <c r="C84" t="n">
-        <v>1647</v>
-      </c>
-      <c r="D84" t="n">
-        <v>3.244417556143017</v>
-      </c>
-      <c r="E84" t="n">
-        <v>2.823523570701676</v>
-      </c>
-      <c r="F84" t="n">
-        <v>-0.4208939854413409</v>
-      </c>
-      <c r="G84" t="n">
-        <v>158</v>
-      </c>
-      <c r="H84" t="n">
-        <v>13.77267293862747</v>
-      </c>
-      <c r="I84" t="n">
-        <v>31</v>
-      </c>
-      <c r="J84" t="n">
-        <v>127</v>
-      </c>
-      <c r="K84" t="n">
-        <v>292.5527965963926</v>
-      </c>
-      <c r="L84" t="n">
-        <v>10.47668252084478</v>
-      </c>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N84" t="n">
-        <v>0</v>
-      </c>
-      <c r="O84" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P84" t="n">
-        <v>0.6497209978312813</v>
-      </c>
-      <c r="Q84" t="n">
-        <v>0.2440944881889764</v>
-      </c>
-      <c r="R84" t="n">
-        <v>0.4197624284035343</v>
-      </c>
-      <c r="S84" t="n">
-        <v>0.8526521855505826</v>
-      </c>
-      <c r="T84" t="inlineStr">
-        <is>
-          <t>n25</t>
-        </is>
-      </c>
-      <c r="U84" t="n">
-        <v>1964</v>
-      </c>
-      <c r="V84" t="inlineStr">
-        <is>
-          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W84" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X84" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>1647</v>
-      </c>
-      <c r="B85" t="n">
-        <v>1666</v>
-      </c>
-      <c r="C85" t="n">
-        <v>1727</v>
-      </c>
-      <c r="D85" t="n">
-        <v>2.225355946039995</v>
-      </c>
-      <c r="E85" t="n">
-        <v>1.804461960598654</v>
-      </c>
-      <c r="F85" t="n">
-        <v>-0.4208939854413409</v>
-      </c>
-      <c r="G85" t="n">
-        <v>80</v>
-      </c>
-      <c r="H85" t="n">
-        <v>26.13193458961177</v>
-      </c>
-      <c r="I85" t="n">
-        <v>19</v>
-      </c>
-      <c r="J85" t="n">
-        <v>61</v>
-      </c>
-      <c r="K85" t="n">
-        <v>97.6310048874757</v>
-      </c>
-      <c r="L85" t="n">
-        <v>7.185988652536899</v>
-      </c>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N85" t="n">
-        <v>0</v>
-      </c>
-      <c r="O85" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P85" t="n">
-        <v>0.923386722796229</v>
-      </c>
-      <c r="Q85" t="n">
-        <v>0.3114754098360656</v>
-      </c>
-      <c r="R85" t="n">
-        <v>0.2604707419392558</v>
-      </c>
-      <c r="S85" t="n">
-        <v>0.8511451254304969</v>
-      </c>
-      <c r="T85" t="inlineStr">
-        <is>
-          <t>n25</t>
-        </is>
-      </c>
-      <c r="U85" t="n">
-        <v>1965</v>
-      </c>
-      <c r="V85" t="inlineStr">
-        <is>
-          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W85" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X85" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>1447</v>
-      </c>
-      <c r="B86" t="n">
-        <v>1470</v>
-      </c>
-      <c r="C86" t="n">
-        <v>1589</v>
-      </c>
-      <c r="D86" t="n">
-        <v>4.63520821481154</v>
-      </c>
-      <c r="E86" t="n">
-        <v>4.215504740162404</v>
-      </c>
-      <c r="F86" t="n">
-        <v>-0.4197034746491365</v>
-      </c>
-      <c r="G86" t="n">
-        <v>142</v>
-      </c>
-      <c r="H86" t="n">
-        <v>23.12094804843878</v>
-      </c>
-      <c r="I86" t="n">
-        <v>23</v>
-      </c>
-      <c r="J86" t="n">
-        <v>119</v>
-      </c>
-      <c r="K86" t="n">
-        <v>392.936323336385</v>
-      </c>
-      <c r="L86" t="n">
-        <v>20.71328554207772</v>
-      </c>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N86" t="n">
-        <v>0</v>
-      </c>
-      <c r="O86" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P86" t="n">
-        <v>0.8414400528520957</v>
-      </c>
-      <c r="Q86" t="n">
-        <v>0.1932773109243698</v>
-      </c>
-      <c r="R86" t="n">
-        <v>0.3726262419237881</v>
-      </c>
-      <c r="S86" t="n">
-        <v>0.972277252650011</v>
-      </c>
-      <c r="T86" t="inlineStr">
-        <is>
-          <t>n26</t>
-        </is>
-      </c>
-      <c r="U86" t="n">
-        <v>1966</v>
-      </c>
-      <c r="V86" t="inlineStr">
-        <is>
-          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W86" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X86" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>1633</v>
-      </c>
-      <c r="B87" t="n">
-        <v>1650</v>
-      </c>
-      <c r="C87" t="n">
-        <v>1678</v>
-      </c>
-      <c r="D87" t="n">
-        <v>2.565551617597553</v>
-      </c>
-      <c r="E87" t="n">
-        <v>2.049379817570106</v>
-      </c>
-      <c r="F87" t="n">
-        <v>-0.5161718000274472</v>
-      </c>
-      <c r="G87" t="n">
-        <v>45</v>
-      </c>
-      <c r="H87" t="n">
-        <v>7.814269735481275</v>
-      </c>
-      <c r="I87" t="n">
-        <v>17</v>
-      </c>
-      <c r="J87" t="n">
-        <v>28</v>
-      </c>
-      <c r="K87" t="n">
-        <v>99.37331404646289</v>
-      </c>
-      <c r="L87" t="n">
-        <v>12.38260842796319</v>
-      </c>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N87" t="n">
-        <v>0</v>
-      </c>
-      <c r="O87" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P87" t="n">
-        <v>0.5076896478780921</v>
-      </c>
-      <c r="Q87" t="n">
-        <v>0.6071428571428571</v>
-      </c>
-      <c r="R87" t="n">
-        <v>0.0840120539290021</v>
-      </c>
-      <c r="S87" t="n">
-        <v>0.7680596218511113</v>
-      </c>
-      <c r="T87" t="inlineStr">
-        <is>
-          <t>n27</t>
-        </is>
-      </c>
-      <c r="U87" t="n">
-        <v>1967</v>
-      </c>
-      <c r="V87" t="inlineStr">
-        <is>
-          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W87" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X87" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>1678</v>
-      </c>
-      <c r="B88" t="n">
-        <v>1692</v>
-      </c>
-      <c r="C88" t="n">
-        <v>1741</v>
-      </c>
-      <c r="D88" t="n">
-        <v>2.608126300746834</v>
-      </c>
-      <c r="E88" t="n">
-        <v>2.091954500719386</v>
-      </c>
-      <c r="F88" t="n">
-        <v>-0.5161718000274472</v>
-      </c>
-      <c r="G88" t="n">
-        <v>63</v>
-      </c>
-      <c r="H88" t="n">
-        <v>18.31710983483549</v>
-      </c>
-      <c r="I88" t="n">
-        <v>14</v>
-      </c>
-      <c r="J88" t="n">
-        <v>49</v>
-      </c>
-      <c r="K88" t="n">
-        <v>115.0968863134372</v>
-      </c>
-      <c r="L88" t="n">
-        <v>12.58809469717956</v>
-      </c>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N88" t="n">
-        <v>0</v>
-      </c>
-      <c r="O88" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P88" t="n">
-        <v>0.9492098924680457</v>
-      </c>
-      <c r="Q88" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="R88" t="n">
-        <v>0.2465775490999079</v>
-      </c>
-      <c r="S88" t="n">
-        <v>0.9861375901974173</v>
-      </c>
-      <c r="T88" t="inlineStr">
-        <is>
-          <t>n27</t>
-        </is>
-      </c>
-      <c r="U88" t="n">
-        <v>1968</v>
-      </c>
-      <c r="V88" t="inlineStr">
-        <is>
-          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W88" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X88" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>1741</v>
-      </c>
-      <c r="B89" t="n">
-        <v>1763</v>
-      </c>
-      <c r="C89" t="n">
-        <v>1825</v>
-      </c>
-      <c r="D89" t="n">
-        <v>1.490986918997989</v>
-      </c>
-      <c r="E89" t="n">
-        <v>0.9748151189705421</v>
-      </c>
-      <c r="F89" t="n">
-        <v>-0.5161718000274472</v>
-      </c>
-      <c r="G89" t="n">
-        <v>84</v>
-      </c>
-      <c r="H89" t="n">
-        <v>21.5151489692114</v>
-      </c>
-      <c r="I89" t="n">
-        <v>22</v>
-      </c>
-      <c r="J89" t="n">
-        <v>62</v>
-      </c>
-      <c r="K89" t="n">
-        <v>84.53318290056598</v>
-      </c>
-      <c r="L89" t="n">
-        <v>7.196232990414726</v>
-      </c>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N89" t="n">
-        <v>0</v>
-      </c>
-      <c r="O89" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P89" t="n">
-        <v>0.8321153122972125</v>
-      </c>
-      <c r="Q89" t="n">
-        <v>0.3548387096774194</v>
-      </c>
-      <c r="R89" t="n">
-        <v>0.2740818284591094</v>
-      </c>
-      <c r="S89" t="n">
-        <v>0.696893713986513</v>
-      </c>
-      <c r="T89" t="inlineStr">
-        <is>
-          <t>n27</t>
-        </is>
-      </c>
-      <c r="U89" t="n">
-        <v>1969</v>
-      </c>
-      <c r="V89" t="inlineStr">
-        <is>
-          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W89" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X89" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>2427</v>
-      </c>
-      <c r="B90" t="n">
-        <v>2455</v>
-      </c>
-      <c r="C90" t="n">
-        <v>2526</v>
-      </c>
-      <c r="D90" t="n">
-        <v>3.117071583976275</v>
-      </c>
-      <c r="E90" t="n">
-        <v>2.600899783948828</v>
-      </c>
-      <c r="F90" t="n">
-        <v>-0.5161718000274472</v>
-      </c>
-      <c r="G90" t="n">
-        <v>99</v>
-      </c>
-      <c r="H90" t="n">
-        <v>80.89220940489304</v>
-      </c>
-      <c r="I90" t="n">
-        <v>28</v>
-      </c>
-      <c r="J90" t="n">
-        <v>71</v>
-      </c>
-      <c r="K90" t="n">
-        <v>196.383384026418</v>
-      </c>
-      <c r="L90" t="n">
-        <v>15.04451385875949</v>
-      </c>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N90" t="n">
-        <v>0</v>
-      </c>
-      <c r="O90" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P90" t="n">
-        <v>0.8282747427137904</v>
-      </c>
-      <c r="Q90" t="n">
-        <v>0.3943661971830986</v>
-      </c>
-      <c r="R90" t="n">
-        <v>0.1817833152945622</v>
-      </c>
-      <c r="S90" t="n">
-        <v>0.9315228864335395</v>
-      </c>
-      <c r="T90" t="inlineStr">
-        <is>
-          <t>n27</t>
-        </is>
-      </c>
-      <c r="U90" t="n">
-        <v>1970</v>
-      </c>
-      <c r="V90" t="inlineStr">
-        <is>
-          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W90" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X90" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>2125</v>
-      </c>
-      <c r="B91" t="n">
-        <v>2145</v>
-      </c>
-      <c r="C91" t="n">
-        <v>2193</v>
-      </c>
-      <c r="D91" t="n">
-        <v>2.958004110078964</v>
-      </c>
-      <c r="E91" t="n">
-        <v>2.452198970793469</v>
-      </c>
-      <c r="F91" t="n">
-        <v>-0.5058051392854945</v>
-      </c>
-      <c r="G91" t="n">
-        <v>68</v>
-      </c>
-      <c r="H91" t="n">
-        <v>13.83574274223065</v>
-      </c>
-      <c r="I91" t="n">
-        <v>20</v>
-      </c>
-      <c r="J91" t="n">
-        <v>48</v>
-      </c>
-      <c r="K91" t="n">
-        <v>135.0120696353499</v>
-      </c>
-      <c r="L91" t="n">
-        <v>9.907209250051578</v>
-      </c>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N91" t="n">
-        <v>0</v>
-      </c>
-      <c r="O91" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P91" t="n">
-        <v>0.7305859268424122</v>
-      </c>
-      <c r="Q91" t="n">
-        <v>0.4166666666666667</v>
-      </c>
-      <c r="R91" t="n">
-        <v>0.5939585018764499</v>
-      </c>
-      <c r="S91" t="n">
-        <v>0.4849627513521187</v>
-      </c>
-      <c r="T91" t="inlineStr">
-        <is>
-          <t>n28</t>
-        </is>
-      </c>
-      <c r="U91" t="n">
-        <v>1971</v>
-      </c>
-      <c r="V91" t="inlineStr">
-        <is>
-          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W91" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X91" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>2240</v>
-      </c>
-      <c r="B92" t="n">
-        <v>2257</v>
-      </c>
-      <c r="C92" t="n">
-        <v>2339</v>
-      </c>
-      <c r="D92" t="n">
-        <v>3.041202971116337</v>
-      </c>
-      <c r="E92" t="n">
-        <v>2.535397831830842</v>
-      </c>
-      <c r="F92" t="n">
-        <v>-0.5058051392854945</v>
-      </c>
-      <c r="G92" t="n">
-        <v>99</v>
-      </c>
-      <c r="H92" t="n">
-        <v>18.097579097986</v>
-      </c>
-      <c r="I92" t="n">
-        <v>17</v>
-      </c>
-      <c r="J92" t="n">
-        <v>82</v>
-      </c>
-      <c r="K92" t="n">
-        <v>194.4237449066059</v>
-      </c>
-      <c r="L92" t="n">
-        <v>10.18586624138389</v>
-      </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N92" t="n">
-        <v>0</v>
-      </c>
-      <c r="O92" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P92" t="n">
-        <v>0.8459045338048887</v>
-      </c>
-      <c r="Q92" t="n">
-        <v>0.2073170731707317</v>
-      </c>
-      <c r="R92" t="n">
-        <v>0.322574620518941</v>
-      </c>
-      <c r="S92" t="n">
-        <v>0.9219874017400455</v>
-      </c>
-      <c r="T92" t="inlineStr">
-        <is>
-          <t>n28</t>
-        </is>
-      </c>
-      <c r="U92" t="n">
-        <v>1972</v>
-      </c>
-      <c r="V92" t="inlineStr">
-        <is>
-          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W92" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X92" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>1647</v>
-      </c>
-      <c r="B93" t="n">
-        <v>1680</v>
-      </c>
-      <c r="C93" t="n">
-        <v>1854</v>
-      </c>
-      <c r="D93" t="n">
-        <v>1.194436672690277</v>
-      </c>
-      <c r="E93" t="n">
-        <v>0.6738835194631817</v>
-      </c>
-      <c r="F93" t="n">
-        <v>-0.5205531532270955</v>
-      </c>
-      <c r="G93" t="n">
-        <v>207</v>
-      </c>
-      <c r="H93" t="n">
-        <v>60.79771903345159</v>
-      </c>
-      <c r="I93" t="n">
-        <v>33</v>
-      </c>
-      <c r="J93" t="n">
-        <v>174</v>
-      </c>
-      <c r="K93" t="n">
-        <v>123.1406005394342</v>
-      </c>
-      <c r="L93" t="n">
-        <v>4.828076402323551</v>
-      </c>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>complex</t>
-        </is>
-      </c>
-      <c r="N93" t="n">
-        <v>2</v>
-      </c>
-      <c r="O93" t="inlineStr">
-        <is>
-          <t>[{'index': np.int64(1773), 'value': np.float64(0.272223340778368), 'amplitude': np.float64(0.7927764940054636), 'start_idx': np.int64(1740), 'end_idx': np.int64(1782), 'duration': np.float64(42.0), 'fwhm': np.float64(34.71573249986977), 'rise_time': np.float64(33.0), 'decay_time': np.float64(9.0), 'auc': np.float64(24.092880036775533)}, {'index': np.int64(1825), 'value': np.float64(0.2614497546072368), 'amplitude': np.float64(0.7820029078343322), 'start_idx': np.int64(1808), 'end_idx': np.int64(1840), 'duration': np.float64(32.0), 'fwhm': np.float64(20.319863829494125), 'rise_time': np.float64(17.0), 'decay_time': np.float64(15.0), 'auc': np.float64(19.29809246974283)}]</t>
-        </is>
-      </c>
-      <c r="P93" t="n">
-        <v>0.753725943146746</v>
-      </c>
-      <c r="Q93" t="n">
-        <v>0.1896551724137931</v>
-      </c>
-      <c r="R93" t="n">
-        <v>0.5024150547613029</v>
-      </c>
-      <c r="S93" t="n">
-        <v>0.2867086022019671</v>
-      </c>
-      <c r="T93" t="inlineStr">
-        <is>
-          <t>n29</t>
-        </is>
-      </c>
-      <c r="U93" t="n">
-        <v>1973</v>
-      </c>
-      <c r="V93" t="inlineStr">
-        <is>
-          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W93" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X93" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>1854</v>
-      </c>
-      <c r="B94" t="n">
-        <v>1948</v>
-      </c>
-      <c r="C94" t="n">
-        <v>2069</v>
-      </c>
-      <c r="D94" t="n">
-        <v>3.54034783482334</v>
-      </c>
-      <c r="E94" t="n">
-        <v>3.019794681596244</v>
-      </c>
-      <c r="F94" t="n">
-        <v>-0.5205531532270955</v>
-      </c>
-      <c r="G94" t="n">
-        <v>215</v>
-      </c>
-      <c r="H94" t="n">
-        <v>85.25932008245695</v>
-      </c>
-      <c r="I94" t="n">
-        <v>94</v>
-      </c>
-      <c r="J94" t="n">
-        <v>121</v>
-      </c>
-      <c r="K94" t="n">
-        <v>399.3429930882262</v>
-      </c>
-      <c r="L94" t="n">
-        <v>14.31057018605134</v>
-      </c>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N94" t="n">
-        <v>0</v>
-      </c>
-      <c r="O94" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P94" t="n">
-        <v>0.7622106692144417</v>
-      </c>
-      <c r="Q94" t="n">
-        <v>0.7768595041322314</v>
-      </c>
-      <c r="R94" t="n">
-        <v>0.3274513357146573</v>
-      </c>
-      <c r="S94" t="n">
-        <v>0.9406803237560007</v>
-      </c>
-      <c r="T94" t="inlineStr">
-        <is>
-          <t>n29</t>
-        </is>
-      </c>
-      <c r="U94" t="n">
-        <v>1974</v>
-      </c>
-      <c r="V94" t="inlineStr">
-        <is>
-          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W94" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X94" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>2069</v>
-      </c>
-      <c r="B95" t="n">
-        <v>2145</v>
-      </c>
-      <c r="C95" t="n">
-        <v>2367</v>
-      </c>
-      <c r="D95" t="n">
-        <v>4.156768011033154</v>
-      </c>
-      <c r="E95" t="n">
-        <v>3.636214857806058</v>
-      </c>
-      <c r="F95" t="n">
-        <v>-0.5205531532270955</v>
-      </c>
-      <c r="G95" t="n">
-        <v>298</v>
-      </c>
-      <c r="H95" t="n">
-        <v>172.1995876177857</v>
-      </c>
-      <c r="I95" t="n">
-        <v>76</v>
-      </c>
-      <c r="J95" t="n">
-        <v>222</v>
-      </c>
-      <c r="K95" t="n">
-        <v>640.0029715921462</v>
-      </c>
-      <c r="L95" t="n">
-        <v>16.80222485031369</v>
-      </c>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N95" t="n">
-        <v>0</v>
-      </c>
-      <c r="O95" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P95" t="n">
-        <v>0.7867678189718691</v>
-      </c>
-      <c r="Q95" t="n">
-        <v>0.3423423423423423</v>
-      </c>
-      <c r="R95" t="n">
-        <v>0.2761374807733104</v>
-      </c>
-      <c r="S95" t="n">
-        <v>0.7949858796689545</v>
-      </c>
-      <c r="T95" t="inlineStr">
-        <is>
-          <t>n29</t>
-        </is>
-      </c>
-      <c r="U95" t="n">
-        <v>1975</v>
-      </c>
-      <c r="V95" t="inlineStr">
-        <is>
-          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W95" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X95" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>1111</v>
-      </c>
-      <c r="B96" t="n">
-        <v>1145</v>
-      </c>
-      <c r="C96" t="n">
-        <v>1222</v>
-      </c>
-      <c r="D96" t="n">
-        <v>1.995151636131654</v>
-      </c>
-      <c r="E96" t="n">
-        <v>1.454638173289078</v>
-      </c>
-      <c r="F96" t="n">
-        <v>-0.5405134628425766</v>
-      </c>
-      <c r="G96" t="n">
-        <v>111</v>
-      </c>
-      <c r="H96" t="n">
-        <v>89.05558256046629</v>
-      </c>
-      <c r="I96" t="n">
-        <v>34</v>
-      </c>
-      <c r="J96" t="n">
-        <v>77</v>
-      </c>
-      <c r="K96" t="n">
-        <v>112.0457428019267</v>
-      </c>
-      <c r="L96" t="n">
-        <v>7.178299329846477</v>
-      </c>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N96" t="n">
-        <v>0</v>
-      </c>
-      <c r="O96" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P96" t="n">
-        <v>0.769829807199188</v>
-      </c>
-      <c r="Q96" t="n">
-        <v>0.4415584415584415</v>
-      </c>
-      <c r="R96" t="n">
-        <v>0.15233437154755</v>
-      </c>
-      <c r="S96" t="n">
-        <v>0.8753786934083211</v>
-      </c>
-      <c r="T96" t="inlineStr">
-        <is>
-          <t>n31</t>
-        </is>
-      </c>
-      <c r="U96" t="n">
-        <v>1976</v>
-      </c>
-      <c r="V96" t="inlineStr">
-        <is>
-          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W96" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X96" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>2521</v>
-      </c>
-      <c r="B97" t="n">
-        <v>2569</v>
-      </c>
-      <c r="C97" t="n">
-        <v>2656</v>
-      </c>
-      <c r="D97" t="n">
-        <v>2.535136023531233</v>
-      </c>
-      <c r="E97" t="n">
-        <v>1.994622560688657</v>
-      </c>
-      <c r="F97" t="n">
-        <v>-0.5405134628425766</v>
-      </c>
-      <c r="G97" t="n">
-        <v>135</v>
-      </c>
-      <c r="H97" t="n">
-        <v>69.16896550290448</v>
-      </c>
-      <c r="I97" t="n">
-        <v>48</v>
-      </c>
-      <c r="J97" t="n">
-        <v>87</v>
-      </c>
-      <c r="K97" t="n">
-        <v>225.7697865585631</v>
-      </c>
-      <c r="L97" t="n">
-        <v>9.121093800202305</v>
-      </c>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N97" t="n">
-        <v>0</v>
-      </c>
-      <c r="O97" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P97" t="n">
-        <v>0.7688988777773711</v>
-      </c>
-      <c r="Q97" t="n">
-        <v>0.5517241379310345</v>
-      </c>
-      <c r="R97" t="n">
-        <v>0.1724019275096524</v>
-      </c>
-      <c r="S97" t="n">
-        <v>0.9722042709834954</v>
-      </c>
-      <c r="T97" t="inlineStr">
-        <is>
-          <t>n31</t>
-        </is>
-      </c>
-      <c r="U97" t="n">
-        <v>1977</v>
-      </c>
-      <c r="V97" t="inlineStr">
-        <is>
-          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W97" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X97" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>2541</v>
-      </c>
-      <c r="B98" t="n">
-        <v>2598</v>
-      </c>
-      <c r="C98" t="n">
-        <v>2727</v>
-      </c>
-      <c r="D98" t="n">
-        <v>5.385046464050767</v>
-      </c>
-      <c r="E98" t="n">
-        <v>4.986652468700614</v>
-      </c>
-      <c r="F98" t="n">
-        <v>-0.3983939953501532</v>
-      </c>
-      <c r="G98" t="n">
-        <v>186</v>
-      </c>
-      <c r="H98" t="n">
-        <v>142.6679892506113</v>
-      </c>
-      <c r="I98" t="n">
-        <v>57</v>
-      </c>
-      <c r="J98" t="n">
-        <v>129</v>
-      </c>
-      <c r="K98" t="n">
-        <v>588.0473147751867</v>
-      </c>
-      <c r="L98" t="n">
-        <v>28.67785893219985</v>
-      </c>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N98" t="n">
-        <v>0</v>
-      </c>
-      <c r="O98" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P98" t="n">
-        <v>0.7356936063957419</v>
-      </c>
-      <c r="Q98" t="n">
-        <v>0.4418604651162791</v>
-      </c>
-      <c r="R98" t="n">
-        <v>0.4901962671961977</v>
-      </c>
-      <c r="S98" t="n">
-        <v>0.9746943220570091</v>
-      </c>
-      <c r="T98" t="inlineStr">
-        <is>
-          <t>n32</t>
-        </is>
-      </c>
-      <c r="U98" t="n">
-        <v>1978</v>
-      </c>
-      <c r="V98" t="inlineStr">
-        <is>
-          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W98" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X98" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>2727</v>
-      </c>
-      <c r="B99" t="n">
-        <v>2738</v>
-      </c>
-      <c r="C99" t="n">
-        <v>2786</v>
-      </c>
-      <c r="D99" t="n">
-        <v>1.152325758743998</v>
-      </c>
-      <c r="E99" t="n">
-        <v>0.7539317633938444</v>
-      </c>
-      <c r="F99" t="n">
-        <v>-0.3983939953501532</v>
-      </c>
-      <c r="G99" t="n">
-        <v>59</v>
-      </c>
-      <c r="H99" t="n">
-        <v>10.81984415156967</v>
-      </c>
-      <c r="I99" t="n">
-        <v>11</v>
-      </c>
-      <c r="J99" t="n">
-        <v>48</v>
-      </c>
-      <c r="K99" t="n">
-        <v>45.82742591034609</v>
-      </c>
-      <c r="L99" t="n">
-        <v>6.136666744439251</v>
-      </c>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N99" t="n">
-        <v>0</v>
-      </c>
-      <c r="O99" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P99" t="n">
-        <v>0.826817737533281</v>
-      </c>
-      <c r="Q99" t="n">
-        <v>0.2291666666666667</v>
-      </c>
-      <c r="R99" t="n">
-        <v>0.2937831649290981</v>
-      </c>
-      <c r="S99" t="n">
-        <v>0.7848411352598426</v>
-      </c>
-      <c r="T99" t="inlineStr">
-        <is>
-          <t>n32</t>
-        </is>
-      </c>
-      <c r="U99" t="n">
-        <v>1979</v>
-      </c>
-      <c r="V99" t="inlineStr">
-        <is>
-          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W99" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X99" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>1233</v>
-      </c>
-      <c r="B100" t="n">
-        <v>1247</v>
-      </c>
-      <c r="C100" t="n">
-        <v>1269</v>
-      </c>
-      <c r="D100" t="n">
-        <v>0.8481757320928169</v>
-      </c>
-      <c r="E100" t="n">
-        <v>0.2860720950619889</v>
-      </c>
-      <c r="F100" t="n">
-        <v>-0.562103637030828</v>
-      </c>
-      <c r="G100" t="n">
-        <v>36</v>
-      </c>
-      <c r="H100" t="n">
-        <v>19.611954385633</v>
-      </c>
-      <c r="I100" t="n">
-        <v>14</v>
-      </c>
-      <c r="J100" t="n">
-        <v>22</v>
-      </c>
-      <c r="K100" t="n">
-        <v>17.46514468636778</v>
-      </c>
-      <c r="L100" t="n">
-        <v>3.690269242512108</v>
-      </c>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N100" t="n">
-        <v>0</v>
-      </c>
-      <c r="O100" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P100" t="n">
-        <v>0.6312573534324597</v>
-      </c>
-      <c r="Q100" t="n">
-        <v>0.6363636363636364</v>
-      </c>
-      <c r="R100" t="n">
-        <v>0.04612092191219377</v>
-      </c>
-      <c r="S100" t="n">
-        <v>0.8788023125859381</v>
-      </c>
-      <c r="T100" t="inlineStr">
-        <is>
-          <t>n33</t>
-        </is>
-      </c>
-      <c r="U100" t="n">
-        <v>1980</v>
-      </c>
-      <c r="V100" t="inlineStr">
-        <is>
-          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W100" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X100" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>1394</v>
-      </c>
-      <c r="B101" t="n">
-        <v>1410</v>
-      </c>
-      <c r="C101" t="n">
-        <v>1437</v>
-      </c>
-      <c r="D101" t="n">
-        <v>2.93385527613809</v>
-      </c>
-      <c r="E101" t="n">
-        <v>2.371751639107262</v>
-      </c>
-      <c r="F101" t="n">
-        <v>-0.562103637030828</v>
-      </c>
-      <c r="G101" t="n">
-        <v>43</v>
-      </c>
-      <c r="H101" t="n">
-        <v>13.28887816134943</v>
-      </c>
-      <c r="I101" t="n">
-        <v>16</v>
-      </c>
-      <c r="J101" t="n">
-        <v>27</v>
-      </c>
-      <c r="K101" t="n">
-        <v>112.5415935073805</v>
-      </c>
-      <c r="L101" t="n">
-        <v>12.76470839456826</v>
-      </c>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N101" t="n">
-        <v>0</v>
-      </c>
-      <c r="O101" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P101" t="n">
-        <v>0.6977489523754492</v>
-      </c>
-      <c r="Q101" t="n">
-        <v>0.5925925925925926</v>
-      </c>
-      <c r="R101" t="n">
-        <v>0.07929706766014308</v>
-      </c>
-      <c r="S101" t="n">
-        <v>0.9600768097057487</v>
-      </c>
-      <c r="T101" t="inlineStr">
-        <is>
-          <t>n33</t>
-        </is>
-      </c>
-      <c r="U101" t="n">
-        <v>1981</v>
-      </c>
-      <c r="V101" t="inlineStr">
-        <is>
-          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W101" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X101" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>1437</v>
-      </c>
-      <c r="B102" t="n">
-        <v>1484</v>
-      </c>
-      <c r="C102" t="n">
-        <v>1555</v>
-      </c>
-      <c r="D102" t="n">
-        <v>2.727239807976304</v>
-      </c>
-      <c r="E102" t="n">
-        <v>2.165136170945476</v>
-      </c>
-      <c r="F102" t="n">
-        <v>-0.562103637030828</v>
-      </c>
-      <c r="G102" t="n">
-        <v>118</v>
-      </c>
-      <c r="H102" t="n">
-        <v>14.77625619143396</v>
-      </c>
-      <c r="I102" t="n">
-        <v>47</v>
-      </c>
-      <c r="J102" t="n">
-        <v>71</v>
-      </c>
-      <c r="K102" t="n">
-        <v>250.8740261606397</v>
-      </c>
-      <c r="L102" t="n">
-        <v>11.8657594169745</v>
-      </c>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N102" t="n">
-        <v>0</v>
-      </c>
-      <c r="O102" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P102" t="n">
-        <v>0.5723586009919127</v>
-      </c>
-      <c r="Q102" t="n">
-        <v>0.6619718309859155</v>
-      </c>
-      <c r="R102" t="n">
-        <v>0.2774909016086629</v>
-      </c>
-      <c r="S102" t="n">
-        <v>0.9445873141466651</v>
-      </c>
-      <c r="T102" t="inlineStr">
-        <is>
-          <t>n33</t>
-        </is>
-      </c>
-      <c r="U102" t="n">
-        <v>1982</v>
-      </c>
-      <c r="V102" t="inlineStr">
-        <is>
-          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W102" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X102" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>1555</v>
-      </c>
-      <c r="B103" t="n">
-        <v>1586</v>
-      </c>
-      <c r="C103" t="n">
-        <v>1638</v>
-      </c>
-      <c r="D103" t="n">
-        <v>1.394648018546624</v>
-      </c>
-      <c r="E103" t="n">
-        <v>0.8325443815157964</v>
-      </c>
-      <c r="F103" t="n">
-        <v>-0.562103637030828</v>
-      </c>
-      <c r="G103" t="n">
-        <v>83</v>
-      </c>
-      <c r="H103" t="n">
-        <v>14.62082212318842</v>
-      </c>
-      <c r="I103" t="n">
-        <v>31</v>
-      </c>
-      <c r="J103" t="n">
-        <v>52</v>
-      </c>
-      <c r="K103" t="n">
-        <v>72.64456637204931</v>
-      </c>
-      <c r="L103" t="n">
-        <v>6.067877790224092</v>
-      </c>
-      <c r="M103" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N103" t="n">
-        <v>0</v>
-      </c>
-      <c r="O103" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P103" t="n">
-        <v>0.5808473109440311</v>
-      </c>
-      <c r="Q103" t="n">
-        <v>0.5961538461538461</v>
-      </c>
-      <c r="R103" t="n">
-        <v>0.3041638535011137</v>
-      </c>
-      <c r="S103" t="n">
-        <v>0.9279621339955995</v>
-      </c>
-      <c r="T103" t="inlineStr">
-        <is>
-          <t>n33</t>
-        </is>
-      </c>
-      <c r="U103" t="n">
-        <v>1983</v>
-      </c>
-      <c r="V103" t="inlineStr">
-        <is>
-          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W103" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X103" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>1896</v>
-      </c>
-      <c r="B104" t="n">
-        <v>1915</v>
-      </c>
-      <c r="C104" t="n">
-        <v>1940</v>
-      </c>
-      <c r="D104" t="n">
-        <v>1.05281173689214</v>
-      </c>
-      <c r="E104" t="n">
-        <v>0.4907080998613123</v>
-      </c>
-      <c r="F104" t="n">
-        <v>-0.562103637030828</v>
-      </c>
-      <c r="G104" t="n">
-        <v>44</v>
-      </c>
-      <c r="H104" t="n">
-        <v>31.96157951656801</v>
-      </c>
-      <c r="I104" t="n">
-        <v>19</v>
-      </c>
-      <c r="J104" t="n">
-        <v>25</v>
-      </c>
-      <c r="K104" t="n">
-        <v>29.7070181840711</v>
-      </c>
-      <c r="L104" t="n">
-        <v>4.580605909606073</v>
-      </c>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N104" t="n">
-        <v>0</v>
-      </c>
-      <c r="O104" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P104" t="n">
-        <v>0.7638490126534456</v>
-      </c>
-      <c r="Q104" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="R104" t="n">
-        <v>0.469700121675779</v>
-      </c>
-      <c r="S104" t="n">
-        <v>0.9823704827981462</v>
-      </c>
-      <c r="T104" t="inlineStr">
-        <is>
-          <t>n33</t>
-        </is>
-      </c>
-      <c r="U104" t="n">
-        <v>1984</v>
-      </c>
-      <c r="V104" t="inlineStr">
-        <is>
-          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W104" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X104" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>1940</v>
-      </c>
-      <c r="B105" t="n">
-        <v>1954</v>
-      </c>
-      <c r="C105" t="n">
-        <v>1989</v>
-      </c>
-      <c r="D105" t="n">
-        <v>0.9065463182753819</v>
-      </c>
-      <c r="E105" t="n">
-        <v>0.3444426812445538</v>
-      </c>
-      <c r="F105" t="n">
-        <v>-0.562103637030828</v>
-      </c>
-      <c r="G105" t="n">
-        <v>49</v>
-      </c>
-      <c r="H105" t="n">
-        <v>13.75929523877971</v>
-      </c>
-      <c r="I105" t="n">
-        <v>14</v>
-      </c>
-      <c r="J105" t="n">
-        <v>35</v>
-      </c>
-      <c r="K105" t="n">
-        <v>25.37252263784661</v>
-      </c>
-      <c r="L105" t="n">
-        <v>3.944229796565486</v>
-      </c>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N105" t="n">
-        <v>0</v>
-      </c>
-      <c r="O105" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P105" t="n">
-        <v>0.8566407636286847</v>
-      </c>
-      <c r="Q105" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="R105" t="n">
-        <v>0.3162344925027254</v>
-      </c>
-      <c r="S105" t="n">
-        <v>0.8454206106649435</v>
-      </c>
-      <c r="T105" t="inlineStr">
-        <is>
-          <t>n33</t>
-        </is>
-      </c>
-      <c r="U105" t="n">
-        <v>1985</v>
-      </c>
-      <c r="V105" t="inlineStr">
-        <is>
-          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W105" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X105" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
-        <v>2118</v>
-      </c>
-      <c r="B106" t="n">
-        <v>2156</v>
-      </c>
-      <c r="C106" t="n">
-        <v>2208</v>
-      </c>
-      <c r="D106" t="n">
-        <v>1.263049649539602</v>
-      </c>
-      <c r="E106" t="n">
-        <v>0.700946012508774</v>
-      </c>
-      <c r="F106" t="n">
-        <v>-0.562103637030828</v>
-      </c>
-      <c r="G106" t="n">
-        <v>90</v>
-      </c>
-      <c r="H106" t="n">
-        <v>63.93099801341759</v>
-      </c>
-      <c r="I106" t="n">
-        <v>38</v>
-      </c>
-      <c r="J106" t="n">
-        <v>52</v>
-      </c>
-      <c r="K106" t="n">
-        <v>73.58551000487675</v>
-      </c>
-      <c r="L106" t="n">
-        <v>5.495315530852316</v>
-      </c>
-      <c r="M106" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N106" t="n">
-        <v>0</v>
-      </c>
-      <c r="O106" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P106" t="n">
-        <v>0.6127940807789843</v>
-      </c>
-      <c r="Q106" t="n">
-        <v>0.7307692307692307</v>
-      </c>
-      <c r="R106" t="n">
-        <v>0.1332389752314767</v>
-      </c>
-      <c r="S106" t="n">
-        <v>0.7012492032786195</v>
-      </c>
-      <c r="T106" t="inlineStr">
-        <is>
-          <t>n33</t>
-        </is>
-      </c>
-      <c r="U106" t="n">
-        <v>1986</v>
-      </c>
-      <c r="V106" t="inlineStr">
-        <is>
-          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W106" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X106" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>2560</v>
-      </c>
-      <c r="B107" t="n">
-        <v>2578</v>
-      </c>
-      <c r="C107" t="n">
-        <v>2602</v>
-      </c>
-      <c r="D107" t="n">
-        <v>3.294136810010637</v>
-      </c>
-      <c r="E107" t="n">
-        <v>2.732033172979809</v>
-      </c>
-      <c r="F107" t="n">
-        <v>-0.562103637030828</v>
-      </c>
-      <c r="G107" t="n">
-        <v>42</v>
-      </c>
-      <c r="H107" t="n">
-        <v>12.1885578504257</v>
-      </c>
-      <c r="I107" t="n">
-        <v>18</v>
-      </c>
-      <c r="J107" t="n">
-        <v>24</v>
-      </c>
-      <c r="K107" t="n">
-        <v>103.9046546968667</v>
-      </c>
-      <c r="L107" t="n">
-        <v>14.3322324497713</v>
-      </c>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N107" t="n">
-        <v>0</v>
-      </c>
-      <c r="O107" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P107" t="n">
-        <v>0.7828520060290914</v>
-      </c>
-      <c r="Q107" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="R107" t="n">
-        <v>0.2384535213050905</v>
-      </c>
-      <c r="S107" t="n">
-        <v>0.9923172952832988</v>
-      </c>
-      <c r="T107" t="inlineStr">
-        <is>
-          <t>n33</t>
-        </is>
-      </c>
-      <c r="U107" t="n">
-        <v>1987</v>
-      </c>
-      <c r="V107" t="inlineStr">
-        <is>
-          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W107" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X107" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
-        <v>242</v>
-      </c>
-      <c r="B108" t="n">
-        <v>272</v>
-      </c>
-      <c r="C108" t="n">
-        <v>361</v>
-      </c>
-      <c r="D108" t="n">
-        <v>3.144862306932446</v>
-      </c>
-      <c r="E108" t="n">
-        <v>2.648745481933077</v>
-      </c>
-      <c r="F108" t="n">
-        <v>-0.4961168249993682</v>
-      </c>
-      <c r="G108" t="n">
-        <v>119</v>
-      </c>
-      <c r="H108" t="n">
-        <v>66.6136670042651</v>
-      </c>
-      <c r="I108" t="n">
-        <v>30</v>
-      </c>
-      <c r="J108" t="n">
-        <v>89</v>
-      </c>
-      <c r="K108" t="n">
-        <v>297.3495318901779</v>
-      </c>
-      <c r="L108" t="n">
-        <v>9.61568349633415</v>
-      </c>
-      <c r="M108" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N108" t="n">
-        <v>0</v>
-      </c>
-      <c r="O108" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P108" t="n">
-        <v>0.7558470835706889</v>
-      </c>
-      <c r="Q108" t="n">
-        <v>0.3370786516853932</v>
-      </c>
-      <c r="R108" t="n">
-        <v>0.04012389902262956</v>
-      </c>
-      <c r="S108" t="n">
-        <v>0.9682997876027829</v>
-      </c>
-      <c r="T108" t="inlineStr">
-        <is>
-          <t>n34</t>
-        </is>
-      </c>
-      <c r="U108" t="n">
-        <v>1988</v>
-      </c>
-      <c r="V108" t="inlineStr">
-        <is>
-          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W108" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X108" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
-        <v>361</v>
-      </c>
-      <c r="B109" t="n">
-        <v>392</v>
-      </c>
-      <c r="C109" t="n">
-        <v>470</v>
-      </c>
-      <c r="D109" t="n">
-        <v>2.460969940371134</v>
-      </c>
-      <c r="E109" t="n">
-        <v>1.964853115371766</v>
-      </c>
-      <c r="F109" t="n">
-        <v>-0.4961168249993682</v>
-      </c>
-      <c r="G109" t="n">
-        <v>109</v>
-      </c>
-      <c r="H109" t="n">
-        <v>24.45384589472241</v>
-      </c>
-      <c r="I109" t="n">
-        <v>31</v>
-      </c>
-      <c r="J109" t="n">
-        <v>78</v>
-      </c>
-      <c r="K109" t="n">
-        <v>199.4476714312199</v>
-      </c>
-      <c r="L109" t="n">
-        <v>7.524624524398763</v>
-      </c>
-      <c r="M109" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N109" t="n">
-        <v>0</v>
-      </c>
-      <c r="O109" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P109" t="n">
-        <v>0.5104619104227819</v>
-      </c>
-      <c r="Q109" t="n">
-        <v>0.3974358974358974</v>
-      </c>
-      <c r="R109" t="n">
-        <v>0.1058978963682067</v>
-      </c>
-      <c r="S109" t="n">
-        <v>0.6429253167267153</v>
-      </c>
-      <c r="T109" t="inlineStr">
-        <is>
-          <t>n34</t>
-        </is>
-      </c>
-      <c r="U109" t="n">
-        <v>1989</v>
-      </c>
-      <c r="V109" t="inlineStr">
-        <is>
-          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W109" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X109" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="n">
-        <v>75</v>
-      </c>
-      <c r="B110" t="n">
-        <v>100</v>
-      </c>
-      <c r="C110" t="n">
-        <v>147</v>
-      </c>
-      <c r="D110" t="n">
-        <v>3.262865109253163</v>
-      </c>
-      <c r="E110" t="n">
-        <v>2.687403527657549</v>
-      </c>
-      <c r="F110" t="n">
-        <v>-0.575461581595613</v>
-      </c>
-      <c r="G110" t="n">
-        <v>72</v>
-      </c>
-      <c r="H110" t="n">
-        <v>28.20597185159954</v>
-      </c>
-      <c r="I110" t="n">
-        <v>25</v>
-      </c>
-      <c r="J110" t="n">
-        <v>47</v>
-      </c>
-      <c r="K110" t="n">
-        <v>170.8210099794214</v>
-      </c>
-      <c r="L110" t="n">
-        <v>18.65760944162382</v>
-      </c>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N110" t="n">
-        <v>0</v>
-      </c>
-      <c r="O110" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P110" t="n">
-        <v>0.8556741879069524</v>
-      </c>
-      <c r="Q110" t="n">
-        <v>0.5319148936170213</v>
-      </c>
-      <c r="R110" t="n">
-        <v>0.2014672328146705</v>
-      </c>
-      <c r="S110" t="n">
-        <v>0.9381103698958312</v>
-      </c>
-      <c r="T110" t="inlineStr">
-        <is>
-          <t>n35</t>
-        </is>
-      </c>
-      <c r="U110" t="n">
-        <v>1990</v>
-      </c>
-      <c r="V110" t="inlineStr">
-        <is>
-          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W110" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X110" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="n">
-        <v>2571</v>
-      </c>
-      <c r="B111" t="n">
-        <v>2606</v>
-      </c>
-      <c r="C111" t="n">
-        <v>2655</v>
-      </c>
-      <c r="D111" t="n">
-        <v>3.444416365015837</v>
-      </c>
-      <c r="E111" t="n">
-        <v>2.868954783420223</v>
-      </c>
-      <c r="F111" t="n">
-        <v>-0.575461581595613</v>
-      </c>
-      <c r="G111" t="n">
-        <v>84</v>
-      </c>
-      <c r="H111" t="n">
-        <v>256.5622200772709</v>
-      </c>
-      <c r="I111" t="n">
-        <v>35</v>
-      </c>
-      <c r="J111" t="n">
-        <v>49</v>
-      </c>
-      <c r="K111" t="n">
-        <v>225.0757587209713</v>
-      </c>
-      <c r="L111" t="n">
-        <v>19.69574994398484</v>
-      </c>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N111" t="n">
-        <v>0</v>
-      </c>
-      <c r="O111" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P111" t="n">
-        <v>0.6199930791743566</v>
-      </c>
-      <c r="Q111" t="n">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="R111" t="n">
-        <v>0.0931612108649366</v>
-      </c>
-      <c r="S111" t="n">
-        <v>0.9368010001931246</v>
-      </c>
-      <c r="T111" t="inlineStr">
-        <is>
-          <t>n35</t>
-        </is>
-      </c>
-      <c r="U111" t="n">
-        <v>1991</v>
-      </c>
-      <c r="V111" t="inlineStr">
-        <is>
-          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W111" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X111" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="n">
-        <v>2655</v>
-      </c>
-      <c r="B112" t="n">
-        <v>2681</v>
-      </c>
-      <c r="C112" t="n">
-        <v>2786</v>
-      </c>
-      <c r="D112" t="n">
-        <v>2.969657647571707</v>
-      </c>
-      <c r="E112" t="n">
-        <v>2.394196065976094</v>
-      </c>
-      <c r="F112" t="n">
-        <v>-0.575461581595613</v>
-      </c>
-      <c r="G112" t="n">
-        <v>131</v>
-      </c>
-      <c r="H112" t="n">
-        <v>31.11720923506164</v>
-      </c>
-      <c r="I112" t="n">
-        <v>26</v>
-      </c>
-      <c r="J112" t="n">
-        <v>105</v>
-      </c>
-      <c r="K112" t="n">
-        <v>215.0859867401995</v>
-      </c>
-      <c r="L112" t="n">
-        <v>16.98100004397862</v>
-      </c>
-      <c r="M112" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N112" t="n">
-        <v>0</v>
-      </c>
-      <c r="O112" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P112" t="n">
-        <v>0.8917918849552346</v>
-      </c>
-      <c r="Q112" t="n">
-        <v>0.2476190476190476</v>
-      </c>
-      <c r="R112" t="n">
-        <v>0.4257780307609775</v>
-      </c>
-      <c r="S112" t="n">
-        <v>0.9146630147725456</v>
-      </c>
-      <c r="T112" t="inlineStr">
-        <is>
-          <t>n35</t>
-        </is>
-      </c>
-      <c r="U112" t="n">
-        <v>1992</v>
-      </c>
-      <c r="V112" t="inlineStr">
-        <is>
-          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W112" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X112" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="n">
-        <v>1269</v>
-      </c>
-      <c r="B113" t="n">
-        <v>1290</v>
-      </c>
-      <c r="C113" t="n">
-        <v>1339</v>
-      </c>
-      <c r="D113" t="n">
-        <v>2.165481844886507</v>
-      </c>
-      <c r="E113" t="n">
-        <v>1.695798199797842</v>
-      </c>
-      <c r="F113" t="n">
-        <v>-0.4696836450886649</v>
-      </c>
-      <c r="G113" t="n">
-        <v>70</v>
-      </c>
-      <c r="H113" t="n">
-        <v>20.03531342844576</v>
-      </c>
-      <c r="I113" t="n">
-        <v>21</v>
-      </c>
-      <c r="J113" t="n">
-        <v>49</v>
-      </c>
-      <c r="K113" t="n">
-        <v>104.57557636502</v>
-      </c>
-      <c r="L113" t="n">
-        <v>5.938229188508214</v>
-      </c>
-      <c r="M113" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N113" t="n">
-        <v>0</v>
-      </c>
-      <c r="O113" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P113" t="n">
-        <v>0.6588698588502822</v>
-      </c>
-      <c r="Q113" t="n">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="R113" t="n">
-        <v>0.3385618522302804</v>
-      </c>
-      <c r="S113" t="n">
-        <v>0.4311017280394521</v>
-      </c>
-      <c r="T113" t="inlineStr">
-        <is>
-          <t>n36</t>
-        </is>
-      </c>
-      <c r="U113" t="n">
-        <v>1993</v>
-      </c>
-      <c r="V113" t="inlineStr">
-        <is>
-          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W113" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X113" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="n">
-        <v>2032</v>
-      </c>
-      <c r="B114" t="n">
-        <v>2054</v>
-      </c>
-      <c r="C114" t="n">
-        <v>2195</v>
-      </c>
-      <c r="D114" t="n">
-        <v>2.938355121874606</v>
-      </c>
-      <c r="E114" t="n">
-        <v>2.468671476785941</v>
-      </c>
-      <c r="F114" t="n">
-        <v>-0.4696836450886649</v>
-      </c>
-      <c r="G114" t="n">
-        <v>163</v>
-      </c>
-      <c r="H114" t="n">
-        <v>150.0587772668323</v>
-      </c>
-      <c r="I114" t="n">
-        <v>22</v>
-      </c>
-      <c r="J114" t="n">
-        <v>141</v>
-      </c>
-      <c r="K114" t="n">
-        <v>246.3698123918492</v>
-      </c>
-      <c r="L114" t="n">
-        <v>8.057618304268388</v>
-      </c>
-      <c r="M114" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N114" t="n">
-        <v>0</v>
-      </c>
-      <c r="O114" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P114" t="n">
-        <v>0.8069899940016485</v>
-      </c>
-      <c r="Q114" t="n">
-        <v>0.1560283687943262</v>
-      </c>
-      <c r="R114" t="n">
-        <v>0.4081167043222709</v>
-      </c>
-      <c r="S114" t="n">
-        <v>0.7158643811054166</v>
-      </c>
-      <c r="T114" t="inlineStr">
-        <is>
-          <t>n36</t>
-        </is>
-      </c>
-      <c r="U114" t="n">
-        <v>1994</v>
-      </c>
-      <c r="V114" t="inlineStr">
-        <is>
-          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W114" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X114" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="n">
-        <v>2828</v>
-      </c>
-      <c r="B115" t="n">
-        <v>2850</v>
-      </c>
-      <c r="C115" t="n">
-        <v>2880</v>
-      </c>
-      <c r="D115" t="n">
-        <v>1.564248168743866</v>
-      </c>
-      <c r="E115" t="n">
-        <v>1.094564523655201</v>
-      </c>
-      <c r="F115" t="n">
-        <v>-0.4696836450886649</v>
-      </c>
-      <c r="G115" t="n">
-        <v>52</v>
-      </c>
-      <c r="H115" t="n">
-        <v>14.64165277931261</v>
-      </c>
-      <c r="I115" t="n">
-        <v>22</v>
-      </c>
-      <c r="J115" t="n">
-        <v>30</v>
-      </c>
-      <c r="K115" t="n">
-        <v>64.32727840076856</v>
-      </c>
-      <c r="L115" t="n">
-        <v>4.289513742929661</v>
-      </c>
-      <c r="M115" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N115" t="n">
-        <v>0</v>
-      </c>
-      <c r="O115" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P115" t="n">
-        <v>0.6607851862631564</v>
-      </c>
-      <c r="Q115" t="n">
-        <v>0.7333333333333333</v>
-      </c>
-      <c r="R115" t="n">
-        <v>0.1608276905858165</v>
-      </c>
-      <c r="S115" t="n">
-        <v>0.6850505413565985</v>
-      </c>
-      <c r="T115" t="inlineStr">
-        <is>
-          <t>n36</t>
-        </is>
-      </c>
-      <c r="U115" t="n">
-        <v>1995</v>
-      </c>
-      <c r="V115" t="inlineStr">
-        <is>
-          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W115" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X115" t="inlineStr">
         <is>
           <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
         </is>

--- a/Visualization/results/processed_2979_all_datasets_analysis/processed_No.2979240926social22024-12-05202642trace/processed_No.2979240926social22024-12-05202642trace_transients.xlsx
+++ b/Visualization/results/processed_2979_all_datasets_analysis/processed_No.2979240926social22024-12-05202642trace/processed_No.2979240926social22024-12-05202642trace_transients.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X36"/>
+  <dimension ref="A1:X75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,37 +560,37 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C2" t="n">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D2" t="n">
-        <v>3.187207464253673</v>
+        <v>3.231677109381709</v>
       </c>
       <c r="E2" t="n">
-        <v>2.544582185601613</v>
+        <v>2.576296995578411</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.6426252786520592</v>
+        <v>-0.6553801138032984</v>
       </c>
       <c r="G2" t="n">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="H2" t="n">
-        <v>33.34815987435466</v>
+        <v>30.91624166359833</v>
       </c>
       <c r="I2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J2" t="n">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K2" t="n">
-        <v>159.9306225103585</v>
+        <v>171.5242957246656</v>
       </c>
       <c r="L2" t="n">
-        <v>10.43348770718524</v>
+        <v>10.46273948369591</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -606,16 +606,16 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.8187433447009667</v>
+        <v>0.8790272268516239</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.4130434782608696</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="R2" t="n">
-        <v>0.135195454235357</v>
+        <v>0.1943250034520057</v>
       </c>
       <c r="S2" t="n">
-        <v>0.988028375470079</v>
+        <v>0.9259783838884745</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="U2" t="n">
-        <v>747</v>
+        <v>1505</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -643,40 +643,40 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>65</v>
+        <v>143</v>
       </c>
       <c r="B3" t="n">
-        <v>107</v>
+        <v>157</v>
       </c>
       <c r="C3" t="n">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D3" t="n">
-        <v>2.488830714331041</v>
+        <v>1.844693320422736</v>
       </c>
       <c r="E3" t="n">
-        <v>1.846205435678982</v>
+        <v>1.189313206619438</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.6426252786520592</v>
+        <v>-0.6553801138032984</v>
       </c>
       <c r="G3" t="n">
-        <v>130</v>
+        <v>46</v>
       </c>
       <c r="H3" t="n">
-        <v>32.5230438160244</v>
+        <v>15.48713782508702</v>
       </c>
       <c r="I3" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="J3" t="n">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="K3" t="n">
-        <v>221.8871055293149</v>
+        <v>64.42608754412984</v>
       </c>
       <c r="L3" t="n">
-        <v>8.147315464862132</v>
+        <v>5.972300135699412</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -692,16 +692,16 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.8114023512633747</v>
+        <v>0.8513878736019287</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.4772727272727273</v>
+        <v>0.4375</v>
       </c>
       <c r="R3" t="n">
-        <v>0.2317272136445571</v>
+        <v>0.1659028453910084</v>
       </c>
       <c r="S3" t="n">
-        <v>0.8547206565800953</v>
+        <v>0.9917901238090349</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="U3" t="n">
-        <v>748</v>
+        <v>1506</v>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -729,40 +729,40 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2315</v>
+        <v>892</v>
       </c>
       <c r="B4" t="n">
-        <v>2354</v>
+        <v>920</v>
       </c>
       <c r="C4" t="n">
-        <v>2426</v>
+        <v>971</v>
       </c>
       <c r="D4" t="n">
-        <v>2.505920784013379</v>
+        <v>3.079993071083774</v>
       </c>
       <c r="E4" t="n">
-        <v>1.834741739937339</v>
+        <v>2.424612957280476</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.6711790440760401</v>
+        <v>-0.6553801138032984</v>
       </c>
       <c r="G4" t="n">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="H4" t="n">
-        <v>127.1057841111474</v>
+        <v>112.5193363254826</v>
       </c>
       <c r="I4" t="n">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="J4" t="n">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="K4" t="n">
-        <v>160.1777249580943</v>
+        <v>189.0868704940166</v>
       </c>
       <c r="L4" t="n">
-        <v>6.205880754518434</v>
+        <v>9.971653733842052</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -778,24 +778,24 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.7924455876272158</v>
+        <v>0.7173666286306732</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.5490196078431373</v>
       </c>
       <c r="R4" t="n">
-        <v>0.3029381112487997</v>
+        <v>0.1680639065596447</v>
       </c>
       <c r="S4" t="n">
-        <v>0.9168501080781314</v>
+        <v>0.821646838395796</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>n3</t>
+          <t>n1</t>
         </is>
       </c>
       <c r="U4" t="n">
-        <v>749</v>
+        <v>1507</v>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -815,40 +815,40 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>835</v>
+        <v>1063</v>
       </c>
       <c r="B5" t="n">
-        <v>870</v>
+        <v>1084</v>
       </c>
       <c r="C5" t="n">
-        <v>948</v>
+        <v>1186</v>
       </c>
       <c r="D5" t="n">
-        <v>2.029672383176003</v>
+        <v>2.443510735357307</v>
       </c>
       <c r="E5" t="n">
-        <v>1.155944944853687</v>
+        <v>1.788130621554008</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.8737274383223155</v>
+        <v>-0.6553801138032984</v>
       </c>
       <c r="G5" t="n">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="H5" t="n">
-        <v>31.80869002381928</v>
+        <v>33.24435563422435</v>
       </c>
       <c r="I5" t="n">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="J5" t="n">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="K5" t="n">
-        <v>131.0016583387398</v>
+        <v>167.6297945264992</v>
       </c>
       <c r="L5" t="n">
-        <v>6.758794984401198</v>
+        <v>7.911005767079561</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -864,24 +864,24 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.8611818004282609</v>
+        <v>0.8468662731514724</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.4487179487179487</v>
+        <v>0.2058823529411765</v>
       </c>
       <c r="R5" t="n">
-        <v>0.3498004899520221</v>
+        <v>0.4034167868598738</v>
       </c>
       <c r="S5" t="n">
-        <v>0.9574086560519274</v>
+        <v>0.7292466129364372</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>n4</t>
+          <t>n1</t>
         </is>
       </c>
       <c r="U5" t="n">
-        <v>750</v>
+        <v>1508</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -901,40 +901,40 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1370</v>
+        <v>757</v>
       </c>
       <c r="B6" t="n">
-        <v>1402</v>
+        <v>785</v>
       </c>
       <c r="C6" t="n">
-        <v>1644</v>
+        <v>895</v>
       </c>
       <c r="D6" t="n">
-        <v>2.317188288563418</v>
+        <v>2.164507205661456</v>
       </c>
       <c r="E6" t="n">
-        <v>1.443460850241103</v>
+        <v>1.590053411046348</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.8737274383223155</v>
+        <v>-0.5744537946151074</v>
       </c>
       <c r="G6" t="n">
-        <v>274</v>
+        <v>138</v>
       </c>
       <c r="H6" t="n">
-        <v>32.03426517745174</v>
+        <v>44.89321616904817</v>
       </c>
       <c r="I6" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J6" t="n">
-        <v>242</v>
+        <v>110</v>
       </c>
       <c r="K6" t="n">
-        <v>439.4054630335686</v>
+        <v>188.8596462554356</v>
       </c>
       <c r="L6" t="n">
-        <v>7.716220958847008</v>
+        <v>3.955411839720217</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -950,24 +950,24 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.7030469989824704</v>
+        <v>0.8576529196810858</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.1322314049586777</v>
+        <v>0.2545454545454545</v>
       </c>
       <c r="R6" t="n">
-        <v>0.3796771044709976</v>
+        <v>0.1485147569569837</v>
       </c>
       <c r="S6" t="n">
-        <v>0.5366591931899973</v>
+        <v>0.836211017724018</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>n4</t>
+          <t>n2</t>
         </is>
       </c>
       <c r="U6" t="n">
-        <v>751</v>
+        <v>1509</v>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -987,40 +987,40 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2891</v>
+        <v>943</v>
       </c>
       <c r="B7" t="n">
-        <v>2931</v>
+        <v>987</v>
       </c>
       <c r="C7" t="n">
-        <v>2998</v>
+        <v>1077</v>
       </c>
       <c r="D7" t="n">
-        <v>2.38723656132729</v>
+        <v>1.796119828660447</v>
       </c>
       <c r="E7" t="n">
-        <v>1.792898959117421</v>
+        <v>1.115430690037594</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.5943376022098695</v>
+        <v>-0.6806891386228533</v>
       </c>
       <c r="G7" t="n">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="H7" t="n">
-        <v>32.93429123639589</v>
+        <v>44.93293181614081</v>
       </c>
       <c r="I7" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J7" t="n">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="K7" t="n">
-        <v>177.1346563891953</v>
+        <v>119.2355591599883</v>
       </c>
       <c r="L7" t="n">
-        <v>7.818668206810947</v>
+        <v>4.438081445574227</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -1036,24 +1036,24 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.8060694101269908</v>
+        <v>0.8072590009632858</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.5970149253731343</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="R7" t="n">
-        <v>0.3756572072438275</v>
+        <v>0.2855412345187248</v>
       </c>
       <c r="S7" t="n">
-        <v>0.8798313993459541</v>
+        <v>0.6613241736700136</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>n5</t>
+          <t>n3</t>
         </is>
       </c>
       <c r="U7" t="n">
-        <v>752</v>
+        <v>1510</v>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -1073,40 +1073,40 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111</v>
+        <v>1077</v>
       </c>
       <c r="B8" t="n">
-        <v>138</v>
+        <v>1110</v>
       </c>
       <c r="C8" t="n">
-        <v>181</v>
+        <v>1158</v>
       </c>
       <c r="D8" t="n">
-        <v>2.837504298139484</v>
+        <v>2.449399088664387</v>
       </c>
       <c r="E8" t="n">
-        <v>2.373986896259954</v>
+        <v>1.768709950041534</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.46351740187953</v>
+        <v>-0.6806891386228533</v>
       </c>
       <c r="G8" t="n">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="H8" t="n">
-        <v>27.66930043946903</v>
+        <v>45.74734504994058</v>
       </c>
       <c r="I8" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="J8" t="n">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="K8" t="n">
-        <v>150.4874058076684</v>
+        <v>140.7097100313354</v>
       </c>
       <c r="L8" t="n">
-        <v>12.31401185815407</v>
+        <v>6.052286977041614</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -1122,24 +1122,24 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.6684820022636216</v>
+        <v>0.7192554888413432</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.6279069767441861</v>
+        <v>0.6875</v>
       </c>
       <c r="R8" t="n">
-        <v>0.1609378254468342</v>
+        <v>0.6736223407290982</v>
       </c>
       <c r="S8" t="n">
-        <v>0.9679659753807583</v>
+        <v>0.6338487153769068</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>n6</t>
+          <t>n3</t>
         </is>
       </c>
       <c r="U8" t="n">
-        <v>753</v>
+        <v>1511</v>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -1159,40 +1159,40 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>181</v>
+        <v>1600</v>
       </c>
       <c r="B9" t="n">
-        <v>198</v>
+        <v>1635</v>
       </c>
       <c r="C9" t="n">
-        <v>238</v>
+        <v>1764</v>
       </c>
       <c r="D9" t="n">
-        <v>2.322114678959956</v>
+        <v>2.834874237753611</v>
       </c>
       <c r="E9" t="n">
-        <v>1.858597277080426</v>
+        <v>2.154185099130758</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.46351740187953</v>
+        <v>-0.6806891386228533</v>
       </c>
       <c r="G9" t="n">
-        <v>57</v>
+        <v>164</v>
       </c>
       <c r="H9" t="n">
-        <v>20.94569359276252</v>
+        <v>312.1727488645511</v>
       </c>
       <c r="I9" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="J9" t="n">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="K9" t="n">
-        <v>88.70761414037887</v>
+        <v>300.6015304070268</v>
       </c>
       <c r="L9" t="n">
-        <v>10.07735837138841</v>
+        <v>7.004768030702015</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1208,24 +1208,24 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.9066677130418804</v>
+        <v>0.8870477056734903</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.425</v>
+        <v>0.2713178294573643</v>
       </c>
       <c r="R9" t="n">
-        <v>0.256607092895752</v>
+        <v>0.2990735430518913</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9309340529954957</v>
+        <v>0.8899798232648564</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>n6</t>
+          <t>n3</t>
         </is>
       </c>
       <c r="U9" t="n">
-        <v>754</v>
+        <v>1512</v>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -1245,40 +1245,40 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>241</v>
+        <v>2317</v>
       </c>
       <c r="B10" t="n">
-        <v>278</v>
+        <v>2358</v>
       </c>
       <c r="C10" t="n">
-        <v>349</v>
+        <v>2430</v>
       </c>
       <c r="D10" t="n">
-        <v>3.379799579406825</v>
+        <v>2.470985341760218</v>
       </c>
       <c r="E10" t="n">
-        <v>2.858371962455854</v>
+        <v>1.790296203137365</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.521427616950971</v>
+        <v>-0.6806891386228533</v>
       </c>
       <c r="G10" t="n">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="H10" t="n">
-        <v>33.80881488516064</v>
+        <v>61.08593078657896</v>
       </c>
       <c r="I10" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J10" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K10" t="n">
-        <v>259.3101154816088</v>
+        <v>159.8040466686525</v>
       </c>
       <c r="L10" t="n">
-        <v>13.23337447456117</v>
+        <v>6.105625038241866</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1294,24 +1294,24 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.7570119246663523</v>
+        <v>0.7368102634376346</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.5211267605633803</v>
+        <v>0.5694444444444444</v>
       </c>
       <c r="R10" t="n">
-        <v>0.1206573403172478</v>
+        <v>0.3969701121174147</v>
       </c>
       <c r="S10" t="n">
-        <v>0.9449058431431629</v>
+        <v>0.9247737163974535</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>n7</t>
+          <t>n3</t>
         </is>
       </c>
       <c r="U10" t="n">
-        <v>755</v>
+        <v>1513</v>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -1331,40 +1331,40 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2748</v>
+        <v>749</v>
       </c>
       <c r="B11" t="n">
-        <v>2838</v>
+        <v>780</v>
       </c>
       <c r="C11" t="n">
-        <v>2998</v>
+        <v>839</v>
       </c>
       <c r="D11" t="n">
-        <v>2.220843980200791</v>
+        <v>2.482358378891558</v>
       </c>
       <c r="E11" t="n">
-        <v>1.69941636324982</v>
+        <v>1.602338067046604</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.521427616950971</v>
+        <v>-0.880020311844954</v>
       </c>
       <c r="G11" t="n">
-        <v>250</v>
+        <v>90</v>
       </c>
       <c r="H11" t="n">
-        <v>76.34256652070462</v>
+        <v>26.51662098552151</v>
       </c>
       <c r="I11" t="n">
-        <v>90</v>
+        <v>31</v>
       </c>
       <c r="J11" t="n">
-        <v>160</v>
+        <v>59</v>
       </c>
       <c r="K11" t="n">
-        <v>214.4943483316714</v>
+        <v>169.6575922254519</v>
       </c>
       <c r="L11" t="n">
-        <v>8.695562961378313</v>
+        <v>8.31361853771917</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1380,24 +1380,24 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.7003699442293165</v>
+        <v>0.7497156393537391</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.5625</v>
+        <v>0.5254237288135594</v>
       </c>
       <c r="R11" t="n">
-        <v>0.1963089573497613</v>
+        <v>0.1776448937558318</v>
       </c>
       <c r="S11" t="n">
-        <v>0.9009707767962321</v>
+        <v>0.9241000390537795</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>n7</t>
+          <t>n4</t>
         </is>
       </c>
       <c r="U11" t="n">
-        <v>756</v>
+        <v>1514</v>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -1417,40 +1417,40 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>118</v>
+        <v>839</v>
       </c>
       <c r="B12" t="n">
-        <v>148</v>
+        <v>868</v>
       </c>
       <c r="C12" t="n">
-        <v>216</v>
+        <v>954</v>
       </c>
       <c r="D12" t="n">
-        <v>2.586553639683269</v>
+        <v>2.175989957706198</v>
       </c>
       <c r="E12" t="n">
-        <v>1.87630601776685</v>
+        <v>1.295969645861244</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.7102476219164189</v>
+        <v>-0.880020311844954</v>
       </c>
       <c r="G12" t="n">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="H12" t="n">
-        <v>73.92814510699439</v>
+        <v>31.78757072190024</v>
       </c>
       <c r="I12" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J12" t="n">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="K12" t="n">
-        <v>204.3806014298971</v>
+        <v>130.5187069667607</v>
       </c>
       <c r="L12" t="n">
-        <v>11.28971635155635</v>
+        <v>7.287565971177314</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1466,24 +1466,24 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.6996502889348977</v>
+        <v>0.9034209866685643</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.4411764705882353</v>
+        <v>0.3372093023255814</v>
       </c>
       <c r="R12" t="n">
-        <v>0.08103263194970897</v>
+        <v>0.3639860786541108</v>
       </c>
       <c r="S12" t="n">
-        <v>0.8381807140737627</v>
+        <v>0.9342802511914949</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>n9</t>
+          <t>n4</t>
         </is>
       </c>
       <c r="U12" t="n">
-        <v>757</v>
+        <v>1515</v>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -1503,40 +1503,40 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>216</v>
+        <v>1125</v>
       </c>
       <c r="B13" t="n">
-        <v>254</v>
+        <v>1152</v>
       </c>
       <c r="C13" t="n">
-        <v>314</v>
+        <v>1195</v>
       </c>
       <c r="D13" t="n">
-        <v>3.295016614927142</v>
+        <v>1.722615328328739</v>
       </c>
       <c r="E13" t="n">
-        <v>2.584768993010722</v>
+        <v>0.8425950164837851</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.7102476219164189</v>
+        <v>-0.880020311844954</v>
       </c>
       <c r="G13" t="n">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="H13" t="n">
-        <v>71.2829746785979</v>
+        <v>30.41465385368974</v>
       </c>
       <c r="I13" t="n">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="J13" t="n">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="K13" t="n">
-        <v>239.9405142559681</v>
+        <v>89.06732784652412</v>
       </c>
       <c r="L13" t="n">
-        <v>14.38199555789921</v>
+        <v>5.76917774997009</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1552,24 +1552,24 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.7851251479784085</v>
+        <v>0.7660087302817371</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.6333333333333333</v>
+        <v>0.6279069767441861</v>
       </c>
       <c r="R13" t="n">
-        <v>0.2766855162566446</v>
+        <v>0.1454789744486292</v>
       </c>
       <c r="S13" t="n">
-        <v>0.9388766271709356</v>
+        <v>0.9643215433303262</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>n9</t>
+          <t>n4</t>
         </is>
       </c>
       <c r="U13" t="n">
-        <v>758</v>
+        <v>1516</v>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -1589,40 +1589,40 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>314</v>
+        <v>1424</v>
       </c>
       <c r="B14" t="n">
-        <v>333</v>
+        <v>1451</v>
       </c>
       <c r="C14" t="n">
-        <v>398</v>
+        <v>1562</v>
       </c>
       <c r="D14" t="n">
-        <v>2.725269736024091</v>
+        <v>2.175997605292352</v>
       </c>
       <c r="E14" t="n">
-        <v>2.015022114107673</v>
+        <v>1.295977293447398</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.7102476219164189</v>
+        <v>-0.880020311844954</v>
       </c>
       <c r="G14" t="n">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="H14" t="n">
-        <v>41.81379845579011</v>
+        <v>33.44971225731592</v>
       </c>
       <c r="I14" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="J14" t="n">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="K14" t="n">
-        <v>190.9966649994815</v>
+        <v>236.6960875081888</v>
       </c>
       <c r="L14" t="n">
-        <v>11.89518045524098</v>
+        <v>7.287591583560506</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1638,24 +1638,24 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.7813896457152302</v>
+        <v>0.739657951198352</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.2923076923076923</v>
+        <v>0.2432432432432433</v>
       </c>
       <c r="R14" t="n">
-        <v>0.0603918222160908</v>
+        <v>0.09986172240772841</v>
       </c>
       <c r="S14" t="n">
-        <v>0.8479998733236722</v>
+        <v>0.7186054478871274</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>n9</t>
+          <t>n4</t>
         </is>
       </c>
       <c r="U14" t="n">
-        <v>759</v>
+        <v>1517</v>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -1675,40 +1675,40 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>398</v>
+        <v>97</v>
       </c>
       <c r="B15" t="n">
-        <v>424</v>
+        <v>158</v>
       </c>
       <c r="C15" t="n">
-        <v>492</v>
+        <v>240</v>
       </c>
       <c r="D15" t="n">
-        <v>2.724406613726787</v>
+        <v>1.705738661203742</v>
       </c>
       <c r="E15" t="n">
-        <v>2.014158991810368</v>
+        <v>1.104133524819344</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.7102476219164189</v>
+        <v>-0.6016051363843976</v>
       </c>
       <c r="G15" t="n">
-        <v>94</v>
+        <v>143</v>
       </c>
       <c r="H15" t="n">
-        <v>40.7827436070861</v>
+        <v>46.13795875759897</v>
       </c>
       <c r="I15" t="n">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="J15" t="n">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="K15" t="n">
-        <v>192.6323612848167</v>
+        <v>112.7556262266235</v>
       </c>
       <c r="L15" t="n">
-        <v>11.89141312338914</v>
+        <v>5.559744683438883</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1724,24 +1724,24 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.819810293441624</v>
+        <v>0.6963033206879863</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.3823529411764706</v>
+        <v>0.7439024390243902</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1100498393682365</v>
+        <v>0.3033966992693924</v>
       </c>
       <c r="S15" t="n">
-        <v>0.9519560443703358</v>
+        <v>0.9756314098635486</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>n9</t>
+          <t>n5</t>
         </is>
       </c>
       <c r="U15" t="n">
-        <v>760</v>
+        <v>1518</v>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -1761,40 +1761,40 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>492</v>
+        <v>1964</v>
       </c>
       <c r="B16" t="n">
-        <v>530</v>
+        <v>2024</v>
       </c>
       <c r="C16" t="n">
-        <v>593</v>
+        <v>2155</v>
       </c>
       <c r="D16" t="n">
-        <v>1.895858374305588</v>
+        <v>3.289923442275276</v>
       </c>
       <c r="E16" t="n">
-        <v>1.185610752389169</v>
+        <v>2.688318305890878</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.7102476219164189</v>
+        <v>-0.6016051363843976</v>
       </c>
       <c r="G16" t="n">
-        <v>101</v>
+        <v>191</v>
       </c>
       <c r="H16" t="n">
-        <v>31.17877888920646</v>
+        <v>116.881124132047</v>
       </c>
       <c r="I16" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="J16" t="n">
-        <v>63</v>
+        <v>131</v>
       </c>
       <c r="K16" t="n">
-        <v>137.9627671045704</v>
+        <v>368.7407518520478</v>
       </c>
       <c r="L16" t="n">
-        <v>8.274989143953645</v>
+        <v>10.72329236777856</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1810,24 +1810,24 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.7639550884292794</v>
+        <v>0.7649941834637538</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.6031746031746031</v>
+        <v>0.4580152671755725</v>
       </c>
       <c r="R16" t="n">
-        <v>0.2060237568714405</v>
+        <v>0.2446367523265253</v>
       </c>
       <c r="S16" t="n">
-        <v>0.9964046540236987</v>
+        <v>0.899976007977892</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>n9</t>
+          <t>n5</t>
         </is>
       </c>
       <c r="U16" t="n">
-        <v>761</v>
+        <v>1519</v>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -1847,40 +1847,40 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>809</v>
+        <v>2896</v>
       </c>
       <c r="B17" t="n">
-        <v>831</v>
+        <v>2925</v>
       </c>
       <c r="C17" t="n">
-        <v>865</v>
+        <v>2998</v>
       </c>
       <c r="D17" t="n">
-        <v>1.350604792848865</v>
+        <v>2.675467628533369</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6403571709324463</v>
+        <v>2.073862492148971</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.7102476219164189</v>
+        <v>-0.6016051363843976</v>
       </c>
       <c r="G17" t="n">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="H17" t="n">
-        <v>28.83129504272176</v>
+        <v>22.65874255558765</v>
       </c>
       <c r="I17" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="J17" t="n">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="K17" t="n">
-        <v>56.23791339450037</v>
+        <v>177.0593213873551</v>
       </c>
       <c r="L17" t="n">
-        <v>5.895081694955055</v>
+        <v>8.720513441932532</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1896,24 +1896,24 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.6735592100416331</v>
+        <v>0.8172926916889603</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.6470588235294118</v>
+        <v>0.3972602739726027</v>
       </c>
       <c r="R17" t="n">
-        <v>0.07527770316737084</v>
+        <v>0.4133009897203986</v>
       </c>
       <c r="S17" t="n">
-        <v>0.9417076280080081</v>
+        <v>0.7981359487506497</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>n9</t>
+          <t>n5</t>
         </is>
       </c>
       <c r="U17" t="n">
-        <v>762</v>
+        <v>1520</v>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -1933,73 +1933,73 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="B18" t="n">
-        <v>281</v>
+        <v>132</v>
       </c>
       <c r="C18" t="n">
-        <v>449</v>
+        <v>173</v>
       </c>
       <c r="D18" t="n">
-        <v>1.799055708904275</v>
+        <v>2.822834069751961</v>
       </c>
       <c r="E18" t="n">
-        <v>1.281367527737186</v>
+        <v>2.343696241581728</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.5176881811670888</v>
+        <v>-0.4791378281702325</v>
       </c>
       <c r="G18" t="n">
-        <v>302</v>
+        <v>65</v>
       </c>
       <c r="H18" t="n">
-        <v>78.48784971451832</v>
+        <v>28.65000432756388</v>
       </c>
       <c r="I18" t="n">
-        <v>134</v>
+        <v>24</v>
       </c>
       <c r="J18" t="n">
-        <v>168</v>
+        <v>41</v>
       </c>
       <c r="K18" t="n">
-        <v>299.2023312080219</v>
+        <v>145.56151751637</v>
       </c>
       <c r="L18" t="n">
-        <v>6.733476970238488</v>
+        <v>10.87441007385054</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>complex</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>[{'index': np.int64(376), 'value': np.float64(0.9631312536827178), 'amplitude': np.float64(1.4808194348498067), 'start_idx': np.int64(353), 'end_idx': np.int64(396), 'duration': np.float64(43.0), 'fwhm': np.float64(51.84280198481531), 'rise_time': np.float64(23.0), 'decay_time': np.float64(20.0), 'auc': np.float64(55.03080431023327)}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.459096395343301</v>
+        <v>0.7255943874997842</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.7976190476190477</v>
+        <v>0.5853658536585366</v>
       </c>
       <c r="R18" t="n">
-        <v>0.5734739760911205</v>
+        <v>0.09929484193477975</v>
       </c>
       <c r="S18" t="n">
-        <v>0.3975288266671853</v>
+        <v>0.9233704199819549</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>n11</t>
+          <t>n6</t>
         </is>
       </c>
       <c r="U18" t="n">
-        <v>763</v>
+        <v>1521</v>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -2019,40 +2019,40 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>449</v>
+        <v>232</v>
       </c>
       <c r="B19" t="n">
-        <v>523</v>
+        <v>267</v>
       </c>
       <c r="C19" t="n">
-        <v>691</v>
+        <v>311</v>
       </c>
       <c r="D19" t="n">
-        <v>4.290715844260501</v>
+        <v>2.91941674239256</v>
       </c>
       <c r="E19" t="n">
-        <v>3.773027663093412</v>
+        <v>2.440278914222328</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.5176881811670888</v>
+        <v>-0.4791378281702325</v>
       </c>
       <c r="G19" t="n">
-        <v>242</v>
+        <v>79</v>
       </c>
       <c r="H19" t="n">
-        <v>81.84754871195156</v>
+        <v>39.89178631167493</v>
       </c>
       <c r="I19" t="n">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="J19" t="n">
-        <v>168</v>
+        <v>44</v>
       </c>
       <c r="K19" t="n">
-        <v>407.1926296722091</v>
+        <v>129.9889108088055</v>
       </c>
       <c r="L19" t="n">
-        <v>16.05922272454919</v>
+        <v>11.2464757221919</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
@@ -2068,24 +2068,24 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.8159652414607481</v>
+        <v>0.7230175027693255</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.4404761904761905</v>
+        <v>0.7954545454545454</v>
       </c>
       <c r="R19" t="n">
-        <v>0.2441598306012664</v>
+        <v>0.1691046628434259</v>
       </c>
       <c r="S19" t="n">
-        <v>0.8182702842862069</v>
+        <v>0.9274987449737571</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>n11</t>
+          <t>n6</t>
         </is>
       </c>
       <c r="U19" t="n">
-        <v>764</v>
+        <v>1522</v>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -2105,40 +2105,40 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>691</v>
+        <v>862</v>
       </c>
       <c r="B20" t="n">
-        <v>760</v>
+        <v>880</v>
       </c>
       <c r="C20" t="n">
-        <v>907</v>
+        <v>939</v>
       </c>
       <c r="D20" t="n">
-        <v>3.996161476585121</v>
+        <v>1.295889912927488</v>
       </c>
       <c r="E20" t="n">
-        <v>3.478473295418032</v>
+        <v>0.8167520847572556</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.5176881811670888</v>
+        <v>-0.4791378281702325</v>
       </c>
       <c r="G20" t="n">
-        <v>216</v>
+        <v>77</v>
       </c>
       <c r="H20" t="n">
-        <v>96.69033518099229</v>
+        <v>21.23948505834426</v>
       </c>
       <c r="I20" t="n">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="J20" t="n">
-        <v>147</v>
+        <v>59</v>
       </c>
       <c r="K20" t="n">
-        <v>450.0448445957421</v>
+        <v>53.21991074245034</v>
       </c>
       <c r="L20" t="n">
-        <v>14.95676934225047</v>
+        <v>4.992159643651401</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -2154,24 +2154,24 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.8467985573034572</v>
+        <v>0.9228758829389959</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.4693877551020408</v>
+        <v>0.3050847457627119</v>
       </c>
       <c r="R20" t="n">
-        <v>0.1896648046061225</v>
+        <v>0.2791837858670649</v>
       </c>
       <c r="S20" t="n">
-        <v>0.929108264804883</v>
+        <v>0.9487266449498459</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>n11</t>
+          <t>n6</t>
         </is>
       </c>
       <c r="U20" t="n">
-        <v>765</v>
+        <v>1523</v>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -2191,40 +2191,40 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1901</v>
+        <v>238</v>
       </c>
       <c r="B21" t="n">
-        <v>1930</v>
+        <v>282</v>
       </c>
       <c r="C21" t="n">
-        <v>2011</v>
+        <v>346</v>
       </c>
       <c r="D21" t="n">
-        <v>2.129061753756216</v>
+        <v>3.352856053951974</v>
       </c>
       <c r="E21" t="n">
-        <v>1.705348806668284</v>
+        <v>2.832471626182142</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.4237129470879318</v>
+        <v>-0.5203844277698323</v>
       </c>
       <c r="G21" t="n">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H21" t="n">
-        <v>77.51836187230765</v>
+        <v>37.06877299698499</v>
       </c>
       <c r="I21" t="n">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="J21" t="n">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="K21" t="n">
-        <v>154.9641300079581</v>
+        <v>259.4139816220645</v>
       </c>
       <c r="L21" t="n">
-        <v>6.181715575004493</v>
+        <v>12.85043410899563</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -2240,24 +2240,24 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.8183563011090399</v>
+        <v>0.7354724750416658</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.3580246913580247</v>
+        <v>0.6875</v>
       </c>
       <c r="R21" t="n">
-        <v>0.2542581225670097</v>
+        <v>0.1366994656708918</v>
       </c>
       <c r="S21" t="n">
-        <v>0.6217470983302206</v>
+        <v>0.9369186706960365</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>n13</t>
+          <t>n7</t>
         </is>
       </c>
       <c r="U21" t="n">
-        <v>766</v>
+        <v>1524</v>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -2277,40 +2277,40 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1789</v>
+        <v>346</v>
       </c>
       <c r="B22" t="n">
-        <v>1828</v>
+        <v>408</v>
       </c>
       <c r="C22" t="n">
-        <v>1884</v>
+        <v>508</v>
       </c>
       <c r="D22" t="n">
-        <v>2.543421942734686</v>
+        <v>2.048578267747453</v>
       </c>
       <c r="E22" t="n">
-        <v>1.984010472048443</v>
+        <v>1.528193839977621</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.5594114706862432</v>
+        <v>-0.5203844277698323</v>
       </c>
       <c r="G22" t="n">
-        <v>95</v>
+        <v>162</v>
       </c>
       <c r="H22" t="n">
-        <v>192.9117068813216</v>
+        <v>42.84246596909088</v>
       </c>
       <c r="I22" t="n">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="J22" t="n">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="K22" t="n">
-        <v>170.5113892960583</v>
+        <v>269.9330562484406</v>
       </c>
       <c r="L22" t="n">
-        <v>9.065515850290463</v>
+        <v>7.851550923511888</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -2326,24 +2326,24 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.6198398356883366</v>
+        <v>0.4757266465198789</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.6964285714285714</v>
+        <v>0.62</v>
       </c>
       <c r="R22" t="n">
-        <v>0.1064636737946127</v>
+        <v>0.1492870147447749</v>
       </c>
       <c r="S22" t="n">
-        <v>0.8454029359889195</v>
+        <v>0.5733750777622469</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>n17</t>
+          <t>n7</t>
         </is>
       </c>
       <c r="U22" t="n">
-        <v>767</v>
+        <v>1525</v>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -2363,40 +2363,40 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2601</v>
+        <v>2746</v>
       </c>
       <c r="B23" t="n">
-        <v>2649</v>
+        <v>2832</v>
       </c>
       <c r="C23" t="n">
-        <v>2728</v>
+        <v>2998</v>
       </c>
       <c r="D23" t="n">
-        <v>3.325905059769121</v>
+        <v>2.25830833234154</v>
       </c>
       <c r="E23" t="n">
-        <v>2.840317676810548</v>
+        <v>1.737923904571708</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.4855873829585732</v>
+        <v>-0.5203844277698323</v>
       </c>
       <c r="G23" t="n">
-        <v>127</v>
+        <v>252</v>
       </c>
       <c r="H23" t="n">
-        <v>70.7662651638725</v>
+        <v>72.0382386356705</v>
       </c>
       <c r="I23" t="n">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="J23" t="n">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="K23" t="n">
-        <v>276.6767627701348</v>
+        <v>214.4933539925151</v>
       </c>
       <c r="L23" t="n">
-        <v>10.3294595870585</v>
+        <v>8.655379758503178</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -2412,24 +2412,24 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.7104159860543213</v>
+        <v>0.6844037242904788</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.6075949367088608</v>
+        <v>0.5180722891566265</v>
       </c>
       <c r="R23" t="n">
-        <v>0.1119610643874683</v>
+        <v>0.3798745141968647</v>
       </c>
       <c r="S23" t="n">
-        <v>0.9377665386944215</v>
+        <v>0.9083271988495365</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>n18</t>
+          <t>n7</t>
         </is>
       </c>
       <c r="U23" t="n">
-        <v>768</v>
+        <v>1526</v>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -2449,73 +2449,73 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2728</v>
+        <v>115</v>
       </c>
       <c r="B24" t="n">
-        <v>2807</v>
+        <v>147</v>
       </c>
       <c r="C24" t="n">
-        <v>2998</v>
+        <v>221</v>
       </c>
       <c r="D24" t="n">
-        <v>3.264158382975042</v>
+        <v>2.784971997910631</v>
       </c>
       <c r="E24" t="n">
-        <v>2.778571000016469</v>
+        <v>2.082583735250723</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.4855873829585732</v>
+        <v>-0.7023882626599082</v>
       </c>
       <c r="G24" t="n">
-        <v>270</v>
+        <v>106</v>
       </c>
       <c r="H24" t="n">
-        <v>79.87879220575633</v>
+        <v>76.20846520035549</v>
       </c>
       <c r="I24" t="n">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="J24" t="n">
-        <v>191</v>
+        <v>74</v>
       </c>
       <c r="K24" t="n">
-        <v>461.5392324393874</v>
+        <v>215.695733338756</v>
       </c>
       <c r="L24" t="n">
-        <v>10.13768928961535</v>
+        <v>11.61148123822663</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>complex</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>[{'index': np.int64(2928), 'value': np.float64(1.4327723885429853), 'amplitude': np.float64(1.9183597715015583), 'start_idx': np.int64(2896), 'end_idx': np.int64(2997), 'duration': np.float64(101.0), 'fwhm': np.float64(36.22107600515983), 'rise_time': np.float64(32.0), 'decay_time': np.float64(69.0), 'auc': np.float64(114.19046960695673)}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.7393025343186105</v>
+        <v>0.7088803595456141</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.4136125654450262</v>
+        <v>0.4324324324324325</v>
       </c>
       <c r="R24" t="n">
-        <v>0.2507949478599088</v>
+        <v>0.09235993989271689</v>
       </c>
       <c r="S24" t="n">
-        <v>0.6955737467519696</v>
+        <v>0.8066906594338691</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>n18</t>
+          <t>n9</t>
         </is>
       </c>
       <c r="U24" t="n">
-        <v>769</v>
+        <v>1527</v>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -2535,40 +2535,40 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>966</v>
+        <v>221</v>
       </c>
       <c r="B25" t="n">
-        <v>1036</v>
+        <v>255</v>
       </c>
       <c r="C25" t="n">
-        <v>1191</v>
+        <v>313</v>
       </c>
       <c r="D25" t="n">
-        <v>3.298098236181914</v>
+        <v>3.339357986403324</v>
       </c>
       <c r="E25" t="n">
-        <v>2.812102862399663</v>
+        <v>2.636969723743416</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.4859953737822503</v>
+        <v>-0.7023882626599082</v>
       </c>
       <c r="G25" t="n">
-        <v>225</v>
+        <v>92</v>
       </c>
       <c r="H25" t="n">
-        <v>163.5818157264654</v>
+        <v>66.78232577375459</v>
       </c>
       <c r="I25" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="J25" t="n">
-        <v>155</v>
+        <v>58</v>
       </c>
       <c r="K25" t="n">
-        <v>392.0405616229194</v>
+        <v>229.9650833823848</v>
       </c>
       <c r="L25" t="n">
-        <v>7.726937661174241</v>
+        <v>13.92290214620992</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
@@ -2584,24 +2584,24 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.7237173174077661</v>
+        <v>0.7806931649183101</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.4516129032258064</v>
+        <v>0.5862068965517241</v>
       </c>
       <c r="R25" t="n">
-        <v>0.4998727237811851</v>
+        <v>0.2223714223683851</v>
       </c>
       <c r="S25" t="n">
-        <v>0.5611146547178765</v>
+        <v>0.8562293410449037</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>n19</t>
+          <t>n9</t>
         </is>
       </c>
       <c r="U25" t="n">
-        <v>770</v>
+        <v>1528</v>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -2621,40 +2621,40 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1149</v>
+        <v>313</v>
       </c>
       <c r="B26" t="n">
-        <v>1213</v>
+        <v>339</v>
       </c>
       <c r="C26" t="n">
-        <v>1450</v>
+        <v>391</v>
       </c>
       <c r="D26" t="n">
-        <v>4.743035896733149</v>
+        <v>3.013993037652538</v>
       </c>
       <c r="E26" t="n">
-        <v>4.291913293622342</v>
+        <v>2.31160477499263</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.4511226031108074</v>
+        <v>-0.7023882626599082</v>
       </c>
       <c r="G26" t="n">
-        <v>301</v>
+        <v>78</v>
       </c>
       <c r="H26" t="n">
-        <v>136.2177097657218</v>
+        <v>30.89369455550474</v>
       </c>
       <c r="I26" t="n">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="J26" t="n">
-        <v>237</v>
+        <v>52</v>
       </c>
       <c r="K26" t="n">
-        <v>626.4068464646027</v>
+        <v>179.500202584448</v>
       </c>
       <c r="L26" t="n">
-        <v>22.9855557143933</v>
+        <v>12.56634667605415</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
@@ -2670,24 +2670,24 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.953587561440667</v>
+        <v>0.717643730119681</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.270042194092827</v>
+        <v>0.5</v>
       </c>
       <c r="R26" t="n">
-        <v>0.4427013536608733</v>
+        <v>0.07958153930651775</v>
       </c>
       <c r="S26" t="n">
-        <v>0.9671882587725303</v>
+        <v>0.7716578884703404</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>n20</t>
+          <t>n9</t>
         </is>
       </c>
       <c r="U26" t="n">
-        <v>771</v>
+        <v>1529</v>
       </c>
       <c r="V26" t="inlineStr">
         <is>
@@ -2707,40 +2707,40 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1843</v>
+        <v>391</v>
       </c>
       <c r="B27" t="n">
-        <v>1885</v>
+        <v>433</v>
       </c>
       <c r="C27" t="n">
-        <v>1946</v>
+        <v>488</v>
       </c>
       <c r="D27" t="n">
-        <v>1.834786594161953</v>
+        <v>2.819995925544855</v>
       </c>
       <c r="E27" t="n">
-        <v>1.383663991051146</v>
+        <v>2.117607662884947</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.4511226031108074</v>
+        <v>-0.7023882626599082</v>
       </c>
       <c r="G27" t="n">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="H27" t="n">
-        <v>50.88467596918531</v>
+        <v>41.35251464338359</v>
       </c>
       <c r="I27" t="n">
         <v>42</v>
       </c>
       <c r="J27" t="n">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="K27" t="n">
-        <v>123.4352909965111</v>
+        <v>199.3956319448942</v>
       </c>
       <c r="L27" t="n">
-        <v>8.891686759777492</v>
+        <v>11.75750772571696</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -2756,24 +2756,24 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.7888401192718434</v>
+        <v>0.7051264688598629</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.6885245901639344</v>
+        <v>0.7636363636363637</v>
       </c>
       <c r="R27" t="n">
-        <v>0.6594053403382573</v>
+        <v>0.1419686629041024</v>
       </c>
       <c r="S27" t="n">
-        <v>0.8985308890061242</v>
+        <v>0.9887931376053518</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>n20</t>
+          <t>n9</t>
         </is>
       </c>
       <c r="U27" t="n">
-        <v>772</v>
+        <v>1530</v>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -2793,40 +2793,40 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1975</v>
+        <v>488</v>
       </c>
       <c r="B28" t="n">
-        <v>1999</v>
+        <v>533</v>
       </c>
       <c r="C28" t="n">
-        <v>2036</v>
+        <v>593</v>
       </c>
       <c r="D28" t="n">
-        <v>2.791572409453613</v>
+        <v>1.981276375429275</v>
       </c>
       <c r="E28" t="n">
-        <v>2.213901954882493</v>
+        <v>1.278888112769367</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.5776704545711194</v>
+        <v>-0.7023882626599082</v>
       </c>
       <c r="G28" t="n">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="H28" t="n">
-        <v>38.18198870292576</v>
+        <v>25.50050097673841</v>
       </c>
       <c r="I28" t="n">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="J28" t="n">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="K28" t="n">
-        <v>133.9990038266594</v>
+        <v>142.9157017954934</v>
       </c>
       <c r="L28" t="n">
-        <v>10.40257263482637</v>
+        <v>8.260604946225008</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -2842,24 +2842,24 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.7365344230338948</v>
+        <v>0.6368195175113902</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.6486486486486487</v>
+        <v>0.75</v>
       </c>
       <c r="R28" t="n">
-        <v>0.1489254623744555</v>
+        <v>0.2268767907526428</v>
       </c>
       <c r="S28" t="n">
-        <v>0.9929059198094676</v>
+        <v>0.8510896601234135</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>n24</t>
+          <t>n9</t>
         </is>
       </c>
       <c r="U28" t="n">
-        <v>773</v>
+        <v>1531</v>
       </c>
       <c r="V28" t="inlineStr">
         <is>
@@ -2879,40 +2879,40 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2036</v>
+        <v>689</v>
       </c>
       <c r="B29" t="n">
-        <v>2071</v>
+        <v>716</v>
       </c>
       <c r="C29" t="n">
-        <v>2137</v>
+        <v>803</v>
       </c>
       <c r="D29" t="n">
-        <v>2.034374658726715</v>
+        <v>2.466144440452581</v>
       </c>
       <c r="E29" t="n">
-        <v>1.456704204155596</v>
+        <v>1.763756177792673</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.5776704545711194</v>
+        <v>-0.7023882626599082</v>
       </c>
       <c r="G29" t="n">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="H29" t="n">
-        <v>55.11954052260398</v>
+        <v>155.905488415464</v>
       </c>
       <c r="I29" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="J29" t="n">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="K29" t="n">
-        <v>171.7181139152582</v>
+        <v>210.160481602764</v>
       </c>
       <c r="L29" t="n">
-        <v>7.580935419116316</v>
+        <v>10.28218234242762</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
@@ -2928,24 +2928,24 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.6530224769747784</v>
+        <v>0.853151081841496</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.5303030303030303</v>
+        <v>0.3103448275862069</v>
       </c>
       <c r="R29" t="n">
-        <v>0.0557796763383734</v>
+        <v>0.2125367409968719</v>
       </c>
       <c r="S29" t="n">
-        <v>0.7910183385330878</v>
+        <v>0.7970749224098275</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>n24</t>
+          <t>n9</t>
         </is>
       </c>
       <c r="U29" t="n">
-        <v>774</v>
+        <v>1532</v>
       </c>
       <c r="V29" t="inlineStr">
         <is>
@@ -2965,40 +2965,40 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1443</v>
+        <v>2804</v>
       </c>
       <c r="B30" t="n">
-        <v>1474</v>
+        <v>2853</v>
       </c>
       <c r="C30" t="n">
-        <v>1598</v>
+        <v>2915</v>
       </c>
       <c r="D30" t="n">
-        <v>4.279245896025791</v>
+        <v>2.18156867615535</v>
       </c>
       <c r="E30" t="n">
-        <v>3.872231076793609</v>
+        <v>1.824879366045082</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.4070148192321814</v>
+        <v>-0.3566893101102684</v>
       </c>
       <c r="G30" t="n">
-        <v>155</v>
+        <v>111</v>
       </c>
       <c r="H30" t="n">
-        <v>27.8482370254635</v>
+        <v>29.40717359336077</v>
       </c>
       <c r="I30" t="n">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="J30" t="n">
-        <v>124</v>
+        <v>62</v>
       </c>
       <c r="K30" t="n">
-        <v>414.713775868782</v>
+        <v>119.9694763033415</v>
       </c>
       <c r="L30" t="n">
-        <v>20.56436154890254</v>
+        <v>4.275210911297369</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
@@ -3014,24 +3014,24 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.8791580950418189</v>
+        <v>0.6551436079684205</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.25</v>
+        <v>0.7903225806451613</v>
       </c>
       <c r="R30" t="n">
-        <v>0.4149156544819844</v>
+        <v>0.3194722104832317</v>
       </c>
       <c r="S30" t="n">
-        <v>0.9816274108097394</v>
+        <v>0.5090198847346799</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>n26</t>
+          <t>n10</t>
         </is>
       </c>
       <c r="U30" t="n">
-        <v>775</v>
+        <v>1533</v>
       </c>
       <c r="V30" t="inlineStr">
         <is>
@@ -3051,40 +3051,40 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2422</v>
+        <v>2915</v>
       </c>
       <c r="B31" t="n">
-        <v>2460</v>
+        <v>2946</v>
       </c>
       <c r="C31" t="n">
-        <v>2535</v>
+        <v>2998</v>
       </c>
       <c r="D31" t="n">
-        <v>3.146183407999656</v>
+        <v>2.247233072279958</v>
       </c>
       <c r="E31" t="n">
-        <v>2.669105563399407</v>
+        <v>1.89054376216969</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.4770778446002484</v>
+        <v>-0.3566893101102684</v>
       </c>
       <c r="G31" t="n">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="H31" t="n">
-        <v>66.65115546988955</v>
+        <v>49.24066387265202</v>
       </c>
       <c r="I31" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="J31" t="n">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="K31" t="n">
-        <v>202.0191370672955</v>
+        <v>117.5746640947563</v>
       </c>
       <c r="L31" t="n">
-        <v>16.19062733033918</v>
+        <v>4.40389315076297</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
@@ -3100,24 +3100,24 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.8380388039575051</v>
+        <v>0.784560532328672</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.5066666666666667</v>
+        <v>0.5961538461538461</v>
       </c>
       <c r="R31" t="n">
-        <v>0.2134538272201147</v>
+        <v>0.2048215058386151</v>
       </c>
       <c r="S31" t="n">
-        <v>0.969759624794427</v>
+        <v>0.8967284912234761</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>n27</t>
+          <t>n10</t>
         </is>
       </c>
       <c r="U31" t="n">
-        <v>776</v>
+        <v>1534</v>
       </c>
       <c r="V31" t="inlineStr">
         <is>
@@ -3137,40 +3137,40 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1106</v>
+        <v>346</v>
       </c>
       <c r="B32" t="n">
-        <v>1151</v>
+        <v>368</v>
       </c>
       <c r="C32" t="n">
-        <v>1214</v>
+        <v>443</v>
       </c>
       <c r="D32" t="n">
-        <v>1.874956753328359</v>
+        <v>1.473426388302682</v>
       </c>
       <c r="E32" t="n">
-        <v>1.358535688603353</v>
+        <v>0.9473491786408661</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.5164210647250058</v>
+        <v>-0.5260772096618158</v>
       </c>
       <c r="G32" t="n">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="H32" t="n">
-        <v>81.45232797067524</v>
+        <v>64.15666833928947</v>
       </c>
       <c r="I32" t="n">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="J32" t="n">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="K32" t="n">
-        <v>106.0034214966948</v>
+        <v>109.1129949767659</v>
       </c>
       <c r="L32" t="n">
-        <v>6.999535328875599</v>
+        <v>4.984388074830188</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
@@ -3186,24 +3186,24 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.7682078304373055</v>
+        <v>0.7961608482956745</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2933333333333333</v>
       </c>
       <c r="R32" t="n">
-        <v>0.2465966999262262</v>
+        <v>0.1517165057963455</v>
       </c>
       <c r="S32" t="n">
-        <v>0.9635553210922454</v>
+        <v>0.6370580202447182</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>n31</t>
+          <t>n11</t>
         </is>
       </c>
       <c r="U32" t="n">
-        <v>777</v>
+        <v>1535</v>
       </c>
       <c r="V32" t="inlineStr">
         <is>
@@ -3223,40 +3223,40 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2440</v>
+        <v>443</v>
       </c>
       <c r="B33" t="n">
-        <v>2509</v>
+        <v>517</v>
       </c>
       <c r="C33" t="n">
-        <v>2610</v>
+        <v>611</v>
       </c>
       <c r="D33" t="n">
-        <v>3.23936502645768</v>
+        <v>4.657649017900541</v>
       </c>
       <c r="E33" t="n">
-        <v>2.681635255154026</v>
+        <v>4.131571808238725</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.5577297713036538</v>
+        <v>-0.5260772096618158</v>
       </c>
       <c r="G33" t="n">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H33" t="n">
-        <v>132.4629336563949</v>
+        <v>74.74859090509523</v>
       </c>
       <c r="I33" t="n">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="J33" t="n">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="K33" t="n">
-        <v>386.5949520581995</v>
+        <v>347.1786531590571</v>
       </c>
       <c r="L33" t="n">
-        <v>15.89738030972494</v>
+        <v>15.75615205881523</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
@@ -3272,24 +3272,24 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.6990750705207086</v>
+        <v>0.7619391449278042</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.6831683168316832</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="R33" t="n">
-        <v>0.5492358924191462</v>
+        <v>0.4261024692207446</v>
       </c>
       <c r="S33" t="n">
-        <v>0.6216064301718202</v>
+        <v>0.908163247068519</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>n33</t>
+          <t>n11</t>
         </is>
       </c>
       <c r="U33" t="n">
-        <v>778</v>
+        <v>1536</v>
       </c>
       <c r="V33" t="inlineStr">
         <is>
@@ -3309,40 +3309,40 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2610</v>
+        <v>611</v>
       </c>
       <c r="B34" t="n">
-        <v>2626</v>
+        <v>635</v>
       </c>
       <c r="C34" t="n">
-        <v>2669</v>
+        <v>698</v>
       </c>
       <c r="D34" t="n">
-        <v>1.977598753448417</v>
+        <v>1.57039800595738</v>
       </c>
       <c r="E34" t="n">
-        <v>1.419868982144763</v>
+        <v>1.044320796295564</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.5577297713036538</v>
+        <v>-0.5260772096618158</v>
       </c>
       <c r="G34" t="n">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="H34" t="n">
-        <v>17.07209879842048</v>
+        <v>22.04883212112702</v>
       </c>
       <c r="I34" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="J34" t="n">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="K34" t="n">
-        <v>80.53300022256427</v>
+        <v>69.11829728519339</v>
       </c>
       <c r="L34" t="n">
-        <v>9.705185808586171</v>
+        <v>5.31242901292677</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -3358,24 +3358,24 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.9043830619022913</v>
+        <v>0.7875110363788654</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.3720930232558139</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="R34" t="n">
-        <v>0.2872494573822699</v>
+        <v>0.300090332869995</v>
       </c>
       <c r="S34" t="n">
-        <v>0.9852089760842933</v>
+        <v>0.5562398274531751</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>n33</t>
+          <t>n11</t>
         </is>
       </c>
       <c r="U34" t="n">
-        <v>779</v>
+        <v>1537</v>
       </c>
       <c r="V34" t="inlineStr">
         <is>
@@ -3395,40 +3395,40 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2659</v>
+        <v>698</v>
       </c>
       <c r="B35" t="n">
-        <v>2682</v>
+        <v>762</v>
       </c>
       <c r="C35" t="n">
-        <v>2777</v>
+        <v>915</v>
       </c>
       <c r="D35" t="n">
-        <v>2.847214533506139</v>
+        <v>4.331813308896375</v>
       </c>
       <c r="E35" t="n">
-        <v>2.27721205306864</v>
+        <v>3.805736099234559</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.5700024804374986</v>
+        <v>-0.5260772096618158</v>
       </c>
       <c r="G35" t="n">
-        <v>118</v>
+        <v>217</v>
       </c>
       <c r="H35" t="n">
-        <v>26.60029717457337</v>
+        <v>47.73884321401295</v>
       </c>
       <c r="I35" t="n">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="J35" t="n">
-        <v>95</v>
+        <v>153</v>
       </c>
       <c r="K35" t="n">
-        <v>201.7664929948666</v>
+        <v>455.5511993851521</v>
       </c>
       <c r="L35" t="n">
-        <v>17.33282982211986</v>
+        <v>14.65389704614026</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -3444,24 +3444,24 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.8670167686267086</v>
+        <v>0.7749767866848003</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.2421052631578947</v>
+        <v>0.4183006535947713</v>
       </c>
       <c r="R35" t="n">
-        <v>0.4078901198147561</v>
+        <v>0.2446545345331118</v>
       </c>
       <c r="S35" t="n">
-        <v>0.8433793326909977</v>
+        <v>0.8937182572380304</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>n35</t>
+          <t>n11</t>
         </is>
       </c>
       <c r="U35" t="n">
-        <v>780</v>
+        <v>1538</v>
       </c>
       <c r="V35" t="inlineStr">
         <is>
@@ -3481,85 +3481,3439 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2757</v>
+        <v>848</v>
       </c>
       <c r="B36" t="n">
-        <v>2800</v>
+        <v>862</v>
       </c>
       <c r="C36" t="n">
+        <v>892</v>
+      </c>
+      <c r="D36" t="n">
+        <v>3.062350052438965</v>
+      </c>
+      <c r="E36" t="n">
+        <v>2.520754114132635</v>
+      </c>
+      <c r="F36" t="n">
+        <v>-0.5415959383063298</v>
+      </c>
+      <c r="G36" t="n">
+        <v>44</v>
+      </c>
+      <c r="H36" t="n">
+        <v>11.17686352435589</v>
+      </c>
+      <c r="I36" t="n">
+        <v>14</v>
+      </c>
+      <c r="J36" t="n">
+        <v>30</v>
+      </c>
+      <c r="K36" t="n">
+        <v>85.72085142091423</v>
+      </c>
+      <c r="L36" t="n">
+        <v>9.436215330217591</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P36" t="n">
+        <v>0.8472399460151411</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.357121687326992</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0.9902095528209641</v>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>n12</t>
+        </is>
+      </c>
+      <c r="U36" t="n">
+        <v>1539</v>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>2142</v>
+      </c>
+      <c r="B37" t="n">
+        <v>2166</v>
+      </c>
+      <c r="C37" t="n">
+        <v>2223</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2.668194780764317</v>
+      </c>
+      <c r="E37" t="n">
+        <v>2.221200385661277</v>
+      </c>
+      <c r="F37" t="n">
+        <v>-0.44699439510304</v>
+      </c>
+      <c r="G37" t="n">
+        <v>81</v>
+      </c>
+      <c r="H37" t="n">
+        <v>124.7360764501022</v>
+      </c>
+      <c r="I37" t="n">
+        <v>24</v>
+      </c>
+      <c r="J37" t="n">
+        <v>57</v>
+      </c>
+      <c r="K37" t="n">
+        <v>133.7825600668677</v>
+      </c>
+      <c r="L37" t="n">
+        <v>7.420017005581219</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P37" t="n">
+        <v>0.7391705738897651</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0.4210526315789473</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0.1592910506437927</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0.7462115342233886</v>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>n13</t>
+        </is>
+      </c>
+      <c r="U37" t="n">
+        <v>1540</v>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>1708</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1730</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1780</v>
+      </c>
+      <c r="D38" t="n">
+        <v>3.446780094823296</v>
+      </c>
+      <c r="E38" t="n">
+        <v>2.966501276703234</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-0.480278818120062</v>
+      </c>
+      <c r="G38" t="n">
+        <v>72</v>
+      </c>
+      <c r="H38" t="n">
+        <v>62.62028324117227</v>
+      </c>
+      <c r="I38" t="n">
+        <v>22</v>
+      </c>
+      <c r="J38" t="n">
+        <v>50</v>
+      </c>
+      <c r="K38" t="n">
+        <v>163.7621921783599</v>
+      </c>
+      <c r="L38" t="n">
+        <v>11.79664680618567</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P38" t="n">
+        <v>0.7896283859716996</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.3387010812117205</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0.6970507296082322</v>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>n15</t>
+        </is>
+      </c>
+      <c r="U38" t="n">
+        <v>1541</v>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>2001</v>
+      </c>
+      <c r="B39" t="n">
+        <v>2038</v>
+      </c>
+      <c r="C39" t="n">
+        <v>2092</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2.014483774446592</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1.44955409220358</v>
+      </c>
+      <c r="F39" t="n">
+        <v>-0.5649296822430117</v>
+      </c>
+      <c r="G39" t="n">
+        <v>91</v>
+      </c>
+      <c r="H39" t="n">
+        <v>22.07005598877799</v>
+      </c>
+      <c r="I39" t="n">
+        <v>37</v>
+      </c>
+      <c r="J39" t="n">
+        <v>54</v>
+      </c>
+      <c r="K39" t="n">
+        <v>127.2903697924317</v>
+      </c>
+      <c r="L39" t="n">
+        <v>5.639109905269585</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P39" t="n">
+        <v>0.6769675330214648</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.6851851851851852</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.504518548871588</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.5534317517108632</v>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>n16</t>
+        </is>
+      </c>
+      <c r="U39" t="n">
+        <v>1542</v>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>2092</v>
+      </c>
+      <c r="B40" t="n">
+        <v>2112</v>
+      </c>
+      <c r="C40" t="n">
+        <v>2160</v>
+      </c>
+      <c r="D40" t="n">
+        <v>2.13468088609077</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1.569751203847759</v>
+      </c>
+      <c r="F40" t="n">
+        <v>-0.5649296822430117</v>
+      </c>
+      <c r="G40" t="n">
+        <v>68</v>
+      </c>
+      <c r="H40" t="n">
+        <v>35.78272523562418</v>
+      </c>
+      <c r="I40" t="n">
+        <v>20</v>
+      </c>
+      <c r="J40" t="n">
+        <v>48</v>
+      </c>
+      <c r="K40" t="n">
+        <v>106.283633738093</v>
+      </c>
+      <c r="L40" t="n">
+        <v>5.97557561993819</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P40" t="n">
+        <v>0.8201949734979878</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0.1486670518517494</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0.9562831125156992</v>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>n16</t>
+        </is>
+      </c>
+      <c r="U40" t="n">
+        <v>1543</v>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>2103</v>
+      </c>
+      <c r="B41" t="n">
+        <v>2131</v>
+      </c>
+      <c r="C41" t="n">
+        <v>2180</v>
+      </c>
+      <c r="D41" t="n">
+        <v>3.568389685670843</v>
+      </c>
+      <c r="E41" t="n">
+        <v>2.998634637023813</v>
+      </c>
+      <c r="F41" t="n">
+        <v>-0.5697550486470302</v>
+      </c>
+      <c r="G41" t="n">
+        <v>77</v>
+      </c>
+      <c r="H41" t="n">
+        <v>57.20156755720154</v>
+      </c>
+      <c r="I41" t="n">
+        <v>28</v>
+      </c>
+      <c r="J41" t="n">
+        <v>49</v>
+      </c>
+      <c r="K41" t="n">
+        <v>160.0077444054657</v>
+      </c>
+      <c r="L41" t="n">
+        <v>11.52879406657937</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P41" t="n">
+        <v>0.6954367747712684</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0.12816140880725</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0.8325141907966895</v>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>n17</t>
+        </is>
+      </c>
+      <c r="U41" t="n">
+        <v>1544</v>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>2421</v>
+      </c>
+      <c r="B42" t="n">
+        <v>2446</v>
+      </c>
+      <c r="C42" t="n">
+        <v>2510</v>
+      </c>
+      <c r="D42" t="n">
+        <v>2.743376083034808</v>
+      </c>
+      <c r="E42" t="n">
+        <v>2.236415116822295</v>
+      </c>
+      <c r="F42" t="n">
+        <v>-0.5069609662125124</v>
+      </c>
+      <c r="G42" t="n">
+        <v>89</v>
+      </c>
+      <c r="H42" t="n">
+        <v>35.78803297700188</v>
+      </c>
+      <c r="I42" t="n">
+        <v>25</v>
+      </c>
+      <c r="J42" t="n">
+        <v>64</v>
+      </c>
+      <c r="K42" t="n">
+        <v>143.7757615926283</v>
+      </c>
+      <c r="L42" t="n">
+        <v>8.259194792384065</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P42" t="n">
+        <v>0.7435385725688839</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0.390625</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.4370587376459428</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0.7375621650605589</v>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>n18</t>
+        </is>
+      </c>
+      <c r="U42" t="n">
+        <v>1545</v>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>2897</v>
+      </c>
+      <c r="B43" t="n">
+        <v>2930</v>
+      </c>
+      <c r="C43" t="n">
         <v>2998</v>
       </c>
-      <c r="D36" t="n">
-        <v>2.463902308951462</v>
-      </c>
-      <c r="E36" t="n">
-        <v>2.026708580501613</v>
-      </c>
-      <c r="F36" t="n">
-        <v>-0.4371937284498488</v>
-      </c>
-      <c r="G36" t="n">
+      <c r="D43" t="n">
+        <v>2.29338404575344</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1.786423079540928</v>
+      </c>
+      <c r="F43" t="n">
+        <v>-0.5069609662125124</v>
+      </c>
+      <c r="G43" t="n">
+        <v>101</v>
+      </c>
+      <c r="H43" t="n">
+        <v>25.63299527653862</v>
+      </c>
+      <c r="I43" t="n">
+        <v>33</v>
+      </c>
+      <c r="J43" t="n">
+        <v>68</v>
+      </c>
+      <c r="K43" t="n">
+        <v>113.7531659022823</v>
+      </c>
+      <c r="L43" t="n">
+        <v>6.904450937207935</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P43" t="n">
+        <v>0.6877510906315332</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0.4852941176470588</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0.2326748866950088</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0.6724918460448175</v>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>n18</t>
+        </is>
+      </c>
+      <c r="U43" t="n">
+        <v>1546</v>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>1108</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1131</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1191</v>
+      </c>
+      <c r="D44" t="n">
+        <v>2.513216830772105</v>
+      </c>
+      <c r="E44" t="n">
+        <v>2.06396001010874</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-0.4492568206633655</v>
+      </c>
+      <c r="G44" t="n">
+        <v>83</v>
+      </c>
+      <c r="H44" t="n">
+        <v>27.49259511798959</v>
+      </c>
+      <c r="I44" t="n">
+        <v>23</v>
+      </c>
+      <c r="J44" t="n">
+        <v>60</v>
+      </c>
+      <c r="K44" t="n">
+        <v>126.0933406355263</v>
+      </c>
+      <c r="L44" t="n">
+        <v>5.692017760141472</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P44" t="n">
+        <v>0.9101051860547891</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0.3833333333333334</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.3991668933958535</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0.9407039048895028</v>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>n19</t>
+        </is>
+      </c>
+      <c r="U44" t="n">
+        <v>1547</v>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>1152</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1221</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1457</v>
+      </c>
+      <c r="D45" t="n">
+        <v>4.965908644659748</v>
+      </c>
+      <c r="E45" t="n">
+        <v>4.501011701693044</v>
+      </c>
+      <c r="F45" t="n">
+        <v>-0.4648969429667044</v>
+      </c>
+      <c r="G45" t="n">
+        <v>305</v>
+      </c>
+      <c r="H45" t="n">
+        <v>136.9808806375661</v>
+      </c>
+      <c r="I45" t="n">
+        <v>69</v>
+      </c>
+      <c r="J45" t="n">
+        <v>236</v>
+      </c>
+      <c r="K45" t="n">
+        <v>632.6103170653904</v>
+      </c>
+      <c r="L45" t="n">
+        <v>23.17699543967667</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P45" t="n">
+        <v>0.8903726964552472</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0.2923728813559322</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0.5258407941862617</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0.9470117866032122</v>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>n20</t>
+        </is>
+      </c>
+      <c r="U45" t="n">
+        <v>1548</v>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>1457</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1486</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1549</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.875554356728101</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.4106574137613965</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-0.4648969429667044</v>
+      </c>
+      <c r="G46" t="n">
+        <v>92</v>
+      </c>
+      <c r="H46" t="n">
+        <v>23.4691425950607</v>
+      </c>
+      <c r="I46" t="n">
+        <v>29</v>
+      </c>
+      <c r="J46" t="n">
+        <v>63</v>
+      </c>
+      <c r="K46" t="n">
+        <v>42.5750356710049</v>
+      </c>
+      <c r="L46" t="n">
+        <v>4.086406091038076</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P46" t="n">
+        <v>0.7524874409235505</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0.4603174603174603</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0.344272490908649</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0.5457852899370316</v>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>n20</t>
+        </is>
+      </c>
+      <c r="U46" t="n">
+        <v>1549</v>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>1851</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1890</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1944</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1.833092930769323</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1.368195987802619</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-0.4648969429667044</v>
+      </c>
+      <c r="G47" t="n">
+        <v>93</v>
+      </c>
+      <c r="H47" t="n">
+        <v>57.77335686675724</v>
+      </c>
+      <c r="I47" t="n">
+        <v>39</v>
+      </c>
+      <c r="J47" t="n">
+        <v>54</v>
+      </c>
+      <c r="K47" t="n">
+        <v>122.8729379527661</v>
+      </c>
+      <c r="L47" t="n">
+        <v>8.555450681242876</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P47" t="n">
+        <v>0.7537206892432635</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0.7222222222222222</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0.2609335557084292</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0.8584665603765147</v>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>n20</t>
+        </is>
+      </c>
+      <c r="U47" t="n">
+        <v>1550</v>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>2179</v>
+      </c>
+      <c r="B48" t="n">
+        <v>2205</v>
+      </c>
+      <c r="C48" t="n">
+        <v>2293</v>
+      </c>
+      <c r="D48" t="n">
+        <v>3.470077150068267</v>
+      </c>
+      <c r="E48" t="n">
+        <v>2.954582731310611</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-0.5154944187576556</v>
+      </c>
+      <c r="G48" t="n">
+        <v>114</v>
+      </c>
+      <c r="H48" t="n">
+        <v>50.00603262173445</v>
+      </c>
+      <c r="I48" t="n">
+        <v>26</v>
+      </c>
+      <c r="J48" t="n">
+        <v>88</v>
+      </c>
+      <c r="K48" t="n">
+        <v>200.0504891090256</v>
+      </c>
+      <c r="L48" t="n">
+        <v>10.07921560887734</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P48" t="n">
+        <v>0.9522478304619405</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0.2954545454545455</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0.2231032540610365</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0.9091206035780337</v>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>n22</t>
+        </is>
+      </c>
+      <c r="U48" t="n">
+        <v>1551</v>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>2361</v>
+      </c>
+      <c r="B49" t="n">
+        <v>2389</v>
+      </c>
+      <c r="C49" t="n">
+        <v>2480</v>
+      </c>
+      <c r="D49" t="n">
+        <v>2.494076919470717</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1.978582500713061</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-0.5154944187576556</v>
+      </c>
+      <c r="G49" t="n">
+        <v>119</v>
+      </c>
+      <c r="H49" t="n">
+        <v>78.49662423167729</v>
+      </c>
+      <c r="I49" t="n">
+        <v>28</v>
+      </c>
+      <c r="J49" t="n">
+        <v>91</v>
+      </c>
+      <c r="K49" t="n">
+        <v>204.3284152900146</v>
+      </c>
+      <c r="L49" t="n">
+        <v>7.244317036575231</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P49" t="n">
+        <v>0.8106104166547051</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0.3076923076923077</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0.2900881273262947</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0.6757383118776821</v>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>n22</t>
+        </is>
+      </c>
+      <c r="U49" t="n">
+        <v>1552</v>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>2480</v>
+      </c>
+      <c r="B50" t="n">
+        <v>2511</v>
+      </c>
+      <c r="C50" t="n">
+        <v>2557</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1.371175882496174</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.8556814637385186</v>
+      </c>
+      <c r="F50" t="n">
+        <v>-0.5154944187576556</v>
+      </c>
+      <c r="G50" t="n">
+        <v>77</v>
+      </c>
+      <c r="H50" t="n">
+        <v>27.20657317064843</v>
+      </c>
+      <c r="I50" t="n">
+        <v>31</v>
+      </c>
+      <c r="J50" t="n">
+        <v>46</v>
+      </c>
+      <c r="K50" t="n">
+        <v>67.18169968255594</v>
+      </c>
+      <c r="L50" t="n">
+        <v>3.982729132434336</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P50" t="n">
+        <v>0.8122714610491576</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0.6739130434782609</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0.4260748609795174</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0.9047830027614178</v>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>n22</t>
+        </is>
+      </c>
+      <c r="U50" t="n">
+        <v>1553</v>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>1037</v>
+      </c>
+      <c r="B51" t="n">
+        <v>1069</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1132</v>
+      </c>
+      <c r="D51" t="n">
+        <v>2.976789732116578</v>
+      </c>
+      <c r="E51" t="n">
+        <v>2.409403407503725</v>
+      </c>
+      <c r="F51" t="n">
+        <v>-0.567386324612853</v>
+      </c>
+      <c r="G51" t="n">
+        <v>95</v>
+      </c>
+      <c r="H51" t="n">
+        <v>43.47523691950255</v>
+      </c>
+      <c r="I51" t="n">
+        <v>32</v>
+      </c>
+      <c r="J51" t="n">
+        <v>63</v>
+      </c>
+      <c r="K51" t="n">
+        <v>200.3353850320723</v>
+      </c>
+      <c r="L51" t="n">
+        <v>7.707709428068239</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P51" t="n">
+        <v>0.7612834707318478</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0.5079365079365079</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0.1280781727497559</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0.8714118525264406</v>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>n23</t>
+        </is>
+      </c>
+      <c r="U51" t="n">
+        <v>1554</v>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>1970</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1995</v>
+      </c>
+      <c r="C52" t="n">
+        <v>2032</v>
+      </c>
+      <c r="D52" t="n">
+        <v>2.882263904307858</v>
+      </c>
+      <c r="E52" t="n">
+        <v>2.29918728748176</v>
+      </c>
+      <c r="F52" t="n">
+        <v>-0.583076616826098</v>
+      </c>
+      <c r="G52" t="n">
+        <v>62</v>
+      </c>
+      <c r="H52" t="n">
+        <v>44.17547186223146</v>
+      </c>
+      <c r="I52" t="n">
+        <v>25</v>
+      </c>
+      <c r="J52" t="n">
+        <v>37</v>
+      </c>
+      <c r="K52" t="n">
+        <v>138.48342367342</v>
+      </c>
+      <c r="L52" t="n">
+        <v>10.32615375843687</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P52" t="n">
+        <v>0.6399121658542198</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0.6756756756756757</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0.06922030747379793</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0.9482246618964193</v>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>n24</t>
+        </is>
+      </c>
+      <c r="U52" t="n">
+        <v>1555</v>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>2132</v>
+      </c>
+      <c r="B53" t="n">
+        <v>2176</v>
+      </c>
+      <c r="C53" t="n">
+        <v>2286</v>
+      </c>
+      <c r="D53" t="n">
+        <v>3.266179153430147</v>
+      </c>
+      <c r="E53" t="n">
+        <v>2.68310253660405</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-0.583076616826098</v>
+      </c>
+      <c r="G53" t="n">
+        <v>154</v>
+      </c>
+      <c r="H53" t="n">
+        <v>106.6529275803437</v>
+      </c>
+      <c r="I53" t="n">
+        <v>44</v>
+      </c>
+      <c r="J53" t="n">
+        <v>110</v>
+      </c>
+      <c r="K53" t="n">
+        <v>331.7865300253272</v>
+      </c>
+      <c r="L53" t="n">
+        <v>11.70158918845428</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P53" t="n">
+        <v>0.7267865589039245</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0.1057670048227142</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0.9718745412112789</v>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>n24</t>
+        </is>
+      </c>
+      <c r="U53" t="n">
+        <v>1556</v>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>2849</v>
+      </c>
+      <c r="B54" t="n">
+        <v>2862</v>
+      </c>
+      <c r="C54" t="n">
+        <v>2998</v>
+      </c>
+      <c r="D54" t="n">
+        <v>2.403232559436731</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1.820155942610633</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-0.583076616826098</v>
+      </c>
+      <c r="G54" t="n">
+        <v>149</v>
+      </c>
+      <c r="H54" t="n">
+        <v>12.98027273012985</v>
+      </c>
+      <c r="I54" t="n">
+        <v>13</v>
+      </c>
+      <c r="J54" t="n">
+        <v>136</v>
+      </c>
+      <c r="K54" t="n">
+        <v>173.782463274849</v>
+      </c>
+      <c r="L54" t="n">
+        <v>8.609950285584537</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P54" t="n">
+        <v>0.6944210540653534</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0.09558823529411764</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0.4810439685204854</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0.5875159095241784</v>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>n24</t>
+        </is>
+      </c>
+      <c r="U54" t="n">
+        <v>1557</v>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>1490</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1520</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1647</v>
+      </c>
+      <c r="D55" t="n">
+        <v>3.215985951549545</v>
+      </c>
+      <c r="E55" t="n">
+        <v>2.799707080744287</v>
+      </c>
+      <c r="F55" t="n">
+        <v>-0.4162788708052584</v>
+      </c>
+      <c r="G55" t="n">
+        <v>157</v>
+      </c>
+      <c r="H55" t="n">
+        <v>13.68419638144178</v>
+      </c>
+      <c r="I55" t="n">
+        <v>30</v>
+      </c>
+      <c r="J55" t="n">
+        <v>127</v>
+      </c>
+      <c r="K55" t="n">
+        <v>289.046179311104</v>
+      </c>
+      <c r="L55" t="n">
+        <v>10.58888823559467</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P55" t="n">
+        <v>0.6480467525438881</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0.2362204724409449</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0.4213878033291938</v>
+      </c>
+      <c r="S55" t="n">
+        <v>0.8635538084403311</v>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>n25</t>
+        </is>
+      </c>
+      <c r="U55" t="n">
+        <v>1558</v>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>1447</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1470</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1605</v>
+      </c>
+      <c r="D56" t="n">
+        <v>4.600750100964675</v>
+      </c>
+      <c r="E56" t="n">
+        <v>4.182690191319557</v>
+      </c>
+      <c r="F56" t="n">
+        <v>-0.4180599096451176</v>
+      </c>
+      <c r="G56" t="n">
+        <v>158</v>
+      </c>
+      <c r="H56" t="n">
+        <v>23.60830746805323</v>
+      </c>
+      <c r="I56" t="n">
+        <v>23</v>
+      </c>
+      <c r="J56" t="n">
+        <v>135</v>
+      </c>
+      <c r="K56" t="n">
+        <v>408.9284633869919</v>
+      </c>
+      <c r="L56" t="n">
+        <v>20.79016395031621</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P56" t="n">
+        <v>0.8267504298952387</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0.1703703703703704</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0.4152300716935557</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0.977639735416956</v>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>n26</t>
+        </is>
+      </c>
+      <c r="U56" t="n">
+        <v>1559</v>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W56" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>1634</v>
+      </c>
+      <c r="B57" t="n">
+        <v>1650</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1677</v>
+      </c>
+      <c r="D57" t="n">
+        <v>2.548760687239358</v>
+      </c>
+      <c r="E57" t="n">
+        <v>2.035747699808311</v>
+      </c>
+      <c r="F57" t="n">
+        <v>-0.5130129874310468</v>
+      </c>
+      <c r="G57" t="n">
+        <v>43</v>
+      </c>
+      <c r="H57" t="n">
+        <v>8.288912059574159</v>
+      </c>
+      <c r="I57" t="n">
+        <v>16</v>
+      </c>
+      <c r="J57" t="n">
+        <v>27</v>
+      </c>
+      <c r="K57" t="n">
+        <v>94.93280295081135</v>
+      </c>
+      <c r="L57" t="n">
+        <v>12.4056730548461</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P57" t="n">
+        <v>0.5952184836056276</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0.5925925925925926</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0.08242609554636331</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0.7490531403798286</v>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>n27</t>
+        </is>
+      </c>
+      <c r="U57" t="n">
+        <v>1560</v>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>1677</v>
+      </c>
+      <c r="B58" t="n">
+        <v>1693</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1738</v>
+      </c>
+      <c r="D58" t="n">
+        <v>2.607653734260376</v>
+      </c>
+      <c r="E58" t="n">
+        <v>2.094640746829329</v>
+      </c>
+      <c r="F58" t="n">
+        <v>-0.5130129874310468</v>
+      </c>
+      <c r="G58" t="n">
+        <v>61</v>
+      </c>
+      <c r="H58" t="n">
+        <v>16.89258195941147</v>
+      </c>
+      <c r="I58" t="n">
+        <v>16</v>
+      </c>
+      <c r="J58" t="n">
+        <v>45</v>
+      </c>
+      <c r="K58" t="n">
+        <v>113.7756710243511</v>
+      </c>
+      <c r="L58" t="n">
+        <v>12.69232526594002</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P58" t="n">
+        <v>0.9069395405653102</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0.3555555555555556</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0.2352959590521477</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0.9899749327107522</v>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>n27</t>
+        </is>
+      </c>
+      <c r="U58" t="n">
+        <v>1561</v>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>1738</v>
+      </c>
+      <c r="B59" t="n">
+        <v>1764</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1824</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1.468039698501863</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.955026711070816</v>
+      </c>
+      <c r="F59" t="n">
+        <v>-0.5130129874310468</v>
+      </c>
+      <c r="G59" t="n">
+        <v>86</v>
+      </c>
+      <c r="H59" t="n">
+        <v>22.67485376973627</v>
+      </c>
+      <c r="I59" t="n">
+        <v>26</v>
+      </c>
+      <c r="J59" t="n">
+        <v>60</v>
+      </c>
+      <c r="K59" t="n">
+        <v>87.05210884297207</v>
+      </c>
+      <c r="L59" t="n">
+        <v>7.145441556097979</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P59" t="n">
+        <v>0.7988597415602804</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0.4333333333333333</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0.2596445369688012</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0.6872918641125083</v>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>n27</t>
+        </is>
+      </c>
+      <c r="U59" t="n">
+        <v>1562</v>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>2426</v>
+      </c>
+      <c r="B60" t="n">
+        <v>2455</v>
+      </c>
+      <c r="C60" t="n">
+        <v>2527</v>
+      </c>
+      <c r="D60" t="n">
+        <v>3.128390008761666</v>
+      </c>
+      <c r="E60" t="n">
+        <v>2.615377021330619</v>
+      </c>
+      <c r="F60" t="n">
+        <v>-0.5130129874310468</v>
+      </c>
+      <c r="G60" t="n">
+        <v>101</v>
+      </c>
+      <c r="H60" t="n">
+        <v>80.23827973725975</v>
+      </c>
+      <c r="I60" t="n">
+        <v>29</v>
+      </c>
+      <c r="J60" t="n">
+        <v>72</v>
+      </c>
+      <c r="K60" t="n">
+        <v>197.1362108641446</v>
+      </c>
+      <c r="L60" t="n">
+        <v>15.22692335575077</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P60" t="n">
+        <v>0.8350018981941059</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0.4027777777777778</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0.1879077705807788</v>
+      </c>
+      <c r="S60" t="n">
+        <v>0.9484569221063003</v>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>n27</t>
+        </is>
+      </c>
+      <c r="U60" t="n">
+        <v>1563</v>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>2125</v>
+      </c>
+      <c r="B61" t="n">
+        <v>2145</v>
+      </c>
+      <c r="C61" t="n">
+        <v>2194</v>
+      </c>
+      <c r="D61" t="n">
+        <v>2.8943016479128</v>
+      </c>
+      <c r="E61" t="n">
+        <v>2.392522406671113</v>
+      </c>
+      <c r="F61" t="n">
+        <v>-0.5017792412416869</v>
+      </c>
+      <c r="G61" t="n">
+        <v>69</v>
+      </c>
+      <c r="H61" t="n">
+        <v>14.82952008857228</v>
+      </c>
+      <c r="I61" t="n">
+        <v>20</v>
+      </c>
+      <c r="J61" t="n">
+        <v>49</v>
+      </c>
+      <c r="K61" t="n">
+        <v>136.0343514195482</v>
+      </c>
+      <c r="L61" t="n">
+        <v>9.7758388677083</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
+        <v>0</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P61" t="n">
+        <v>0.7577491134258437</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0.4081632653061225</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0.6002171558412259</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0.5658351936674817</v>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>n28</t>
+        </is>
+      </c>
+      <c r="U61" t="n">
+        <v>1564</v>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>2068</v>
+      </c>
+      <c r="B62" t="n">
+        <v>2140</v>
+      </c>
+      <c r="C62" t="n">
+        <v>2367</v>
+      </c>
+      <c r="D62" t="n">
+        <v>4.170034096721508</v>
+      </c>
+      <c r="E62" t="n">
+        <v>3.644045580446006</v>
+      </c>
+      <c r="F62" t="n">
+        <v>-0.5259885162755024</v>
+      </c>
+      <c r="G62" t="n">
+        <v>299</v>
+      </c>
+      <c r="H62" t="n">
+        <v>171.2089419106587</v>
+      </c>
+      <c r="I62" t="n">
+        <v>72</v>
+      </c>
+      <c r="J62" t="n">
+        <v>227</v>
+      </c>
+      <c r="K62" t="n">
+        <v>642.4492824730065</v>
+      </c>
+      <c r="L62" t="n">
+        <v>16.92273147071997</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
+        <v>0</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P62" t="n">
+        <v>0.8303097393383321</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0.3171806167400881</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0.3246534128645783</v>
+      </c>
+      <c r="S62" t="n">
+        <v>0.8256785824238748</v>
+      </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>n29</t>
+        </is>
+      </c>
+      <c r="U62" t="n">
+        <v>1565</v>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>1110</v>
+      </c>
+      <c r="B63" t="n">
+        <v>1146</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1221</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1.996285264142442</v>
+      </c>
+      <c r="E63" t="n">
+        <v>1.455893316208385</v>
+      </c>
+      <c r="F63" t="n">
+        <v>-0.5403919479340574</v>
+      </c>
+      <c r="G63" t="n">
+        <v>111</v>
+      </c>
+      <c r="H63" t="n">
+        <v>89.50739075127899</v>
+      </c>
+      <c r="I63" t="n">
+        <v>36</v>
+      </c>
+      <c r="J63" t="n">
+        <v>75</v>
+      </c>
+      <c r="K63" t="n">
+        <v>111.839527956611</v>
+      </c>
+      <c r="L63" t="n">
+        <v>7.181711908791296</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P63" t="n">
+        <v>0.7639812702676374</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0.1590601409602978</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0.8901242440650955</v>
+      </c>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>n31</t>
+        </is>
+      </c>
+      <c r="U63" t="n">
+        <v>1566</v>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W63" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>2520</v>
+      </c>
+      <c r="B64" t="n">
+        <v>2570</v>
+      </c>
+      <c r="C64" t="n">
+        <v>2655</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2.52821446448473</v>
+      </c>
+      <c r="E64" t="n">
+        <v>1.987822516550673</v>
+      </c>
+      <c r="F64" t="n">
+        <v>-0.5403919479340574</v>
+      </c>
+      <c r="G64" t="n">
+        <v>135</v>
+      </c>
+      <c r="H64" t="n">
+        <v>67.70509028529841</v>
+      </c>
+      <c r="I64" t="n">
+        <v>50</v>
+      </c>
+      <c r="J64" t="n">
+        <v>85</v>
+      </c>
+      <c r="K64" t="n">
+        <v>225.9048337670441</v>
+      </c>
+      <c r="L64" t="n">
+        <v>9.095347370290881</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P64" t="n">
+        <v>0.7036992777663174</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0.5882352941176471</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0.1688675897228338</v>
+      </c>
+      <c r="S64" t="n">
+        <v>0.9755054909390275</v>
+      </c>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>n31</t>
+        </is>
+      </c>
+      <c r="U64" t="n">
+        <v>1567</v>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W64" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>1396</v>
+      </c>
+      <c r="B65" t="n">
+        <v>1410</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1432</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2.938005604863119</v>
+      </c>
+      <c r="E65" t="n">
+        <v>2.373050209076791</v>
+      </c>
+      <c r="F65" t="n">
+        <v>-0.5649553957863281</v>
+      </c>
+      <c r="G65" t="n">
+        <v>36</v>
+      </c>
+      <c r="H65" t="n">
+        <v>12.95304554402901</v>
+      </c>
+      <c r="I65" t="n">
+        <v>14</v>
+      </c>
+      <c r="J65" t="n">
+        <v>22</v>
+      </c>
+      <c r="K65" t="n">
+        <v>95.85162459637047</v>
+      </c>
+      <c r="L65" t="n">
+        <v>12.96219965121295</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P65" t="n">
+        <v>0.6979758875242345</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>0.6363636363636364</v>
+      </c>
+      <c r="R65" t="n">
+        <v>0.06036377113818114</v>
+      </c>
+      <c r="S65" t="n">
+        <v>0.9861809297891351</v>
+      </c>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>n33</t>
+        </is>
+      </c>
+      <c r="U65" t="n">
+        <v>1568</v>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W65" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>1432</v>
+      </c>
+      <c r="B66" t="n">
+        <v>1484</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1555</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2.704134899405278</v>
+      </c>
+      <c r="E66" t="n">
+        <v>2.13917950361895</v>
+      </c>
+      <c r="F66" t="n">
+        <v>-0.5649553957863281</v>
+      </c>
+      <c r="G66" t="n">
+        <v>123</v>
+      </c>
+      <c r="H66" t="n">
+        <v>44.23789401259978</v>
+      </c>
+      <c r="I66" t="n">
+        <v>52</v>
+      </c>
+      <c r="J66" t="n">
+        <v>71</v>
+      </c>
+      <c r="K66" t="n">
+        <v>262.6581215285223</v>
+      </c>
+      <c r="L66" t="n">
+        <v>11.93038447301972</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P66" t="n">
+        <v>0.6661294268027289</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>0.7323943661971831</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0.2691957974218226</v>
+      </c>
+      <c r="S66" t="n">
+        <v>0.9449723345102699</v>
+      </c>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>n33</t>
+        </is>
+      </c>
+      <c r="U66" t="n">
+        <v>1569</v>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W66" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>1895</v>
+      </c>
+      <c r="B67" t="n">
+        <v>1914</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1987</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1.030856484198317</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.4659010884119891</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-0.5649553957863281</v>
+      </c>
+      <c r="G67" t="n">
+        <v>92</v>
+      </c>
+      <c r="H67" t="n">
+        <v>33.26705282992521</v>
+      </c>
+      <c r="I67" t="n">
+        <v>19</v>
+      </c>
+      <c r="J67" t="n">
+        <v>73</v>
+      </c>
+      <c r="K67" t="n">
+        <v>55.21170662278017</v>
+      </c>
+      <c r="L67" t="n">
+        <v>4.548040186788064</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>complex</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
+        <v>1</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>[{'index': np.int64(1955), 'value': np.float64(0.33097836869618824), 'amplitude': np.float64(0.8959337644825164), 'start_idx': np.int64(1940), 'end_idx': np.int64(1963), 'duration': np.float64(23.0), 'fwhm': np.float64(17.566176381316836), 'rise_time': np.float64(15.0), 'decay_time': np.float64(8.0), 'auc': np.float64(16.66311707578794)}]</t>
+        </is>
+      </c>
+      <c r="P67" t="n">
+        <v>0.8668425390959625</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0.2602739726027397</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0.4630297052073287</v>
+      </c>
+      <c r="S67" t="n">
+        <v>0.4909019110077004</v>
+      </c>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>n33</t>
+        </is>
+      </c>
+      <c r="U67" t="n">
+        <v>1570</v>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W67" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>2560</v>
+      </c>
+      <c r="B68" t="n">
+        <v>2578</v>
+      </c>
+      <c r="C68" t="n">
+        <v>2603</v>
+      </c>
+      <c r="D68" t="n">
+        <v>3.234110423085184</v>
+      </c>
+      <c r="E68" t="n">
+        <v>2.669155027298856</v>
+      </c>
+      <c r="F68" t="n">
+        <v>-0.5649553957863281</v>
+      </c>
+      <c r="G68" t="n">
+        <v>43</v>
+      </c>
+      <c r="H68" t="n">
+        <v>12.04868348655918</v>
+      </c>
+      <c r="I68" t="n">
+        <v>18</v>
+      </c>
+      <c r="J68" t="n">
+        <v>25</v>
+      </c>
+      <c r="K68" t="n">
+        <v>105.5137339308481</v>
+      </c>
+      <c r="L68" t="n">
+        <v>14.26858578101727</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P68" t="n">
+        <v>0.7844722619080894</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="R68" t="n">
+        <v>0.2486635192900564</v>
+      </c>
+      <c r="S68" t="n">
+        <v>0.9920298198593359</v>
+      </c>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>n33</t>
+        </is>
+      </c>
+      <c r="U68" t="n">
+        <v>1571</v>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W68" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
         <v>241</v>
       </c>
-      <c r="H36" t="n">
-        <v>46.86783161694393</v>
-      </c>
-      <c r="I36" t="n">
-        <v>43</v>
-      </c>
-      <c r="J36" t="n">
-        <v>198</v>
-      </c>
-      <c r="K36" t="n">
-        <v>276.1825536226485</v>
-      </c>
-      <c r="L36" t="n">
-        <v>7.233501125481461</v>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>complex</t>
-        </is>
-      </c>
-      <c r="N36" t="n">
-        <v>1</v>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>[{'index': np.int64(2918), 'value': np.float64(1.372994686134983), 'amplitude': np.float64(1.810188414584832), 'start_idx': np.int64(2894), 'end_idx': np.int64(2958), 'duration': np.float64(64.0), 'fwhm': np.float64(26.87825845441739), 'rise_time': np.float64(24.0), 'decay_time': np.float64(40.0), 'auc': np.float64(72.61329792841818)}]</t>
-        </is>
-      </c>
-      <c r="P36" t="n">
-        <v>0.7601811815690483</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>0.2171717171717172</v>
-      </c>
-      <c r="R36" t="n">
-        <v>0.4579599411747683</v>
-      </c>
-      <c r="S36" t="n">
-        <v>0.4853399731631977</v>
-      </c>
-      <c r="T36" t="inlineStr">
+      <c r="B69" t="n">
+        <v>273</v>
+      </c>
+      <c r="C69" t="n">
+        <v>361</v>
+      </c>
+      <c r="D69" t="n">
+        <v>3.158023963755586</v>
+      </c>
+      <c r="E69" t="n">
+        <v>2.658574491614844</v>
+      </c>
+      <c r="F69" t="n">
+        <v>-0.4994494721407428</v>
+      </c>
+      <c r="G69" t="n">
+        <v>120</v>
+      </c>
+      <c r="H69" t="n">
+        <v>65.1401898055405</v>
+      </c>
+      <c r="I69" t="n">
+        <v>32</v>
+      </c>
+      <c r="J69" t="n">
+        <v>88</v>
+      </c>
+      <c r="K69" t="n">
+        <v>299.728340696198</v>
+      </c>
+      <c r="L69" t="n">
+        <v>9.708678666995077</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
+        <v>0</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P69" t="n">
+        <v>0.7494312681531865</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="R69" t="n">
+        <v>0.04362671274104159</v>
+      </c>
+      <c r="S69" t="n">
+        <v>0.9722744048672277</v>
+      </c>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>n34</t>
+        </is>
+      </c>
+      <c r="U69" t="n">
+        <v>1572</v>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W69" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>75</v>
+      </c>
+      <c r="B70" t="n">
+        <v>101</v>
+      </c>
+      <c r="C70" t="n">
+        <v>147</v>
+      </c>
+      <c r="D70" t="n">
+        <v>3.235159050208351</v>
+      </c>
+      <c r="E70" t="n">
+        <v>2.659894290329495</v>
+      </c>
+      <c r="F70" t="n">
+        <v>-0.5752647598788561</v>
+      </c>
+      <c r="G70" t="n">
+        <v>72</v>
+      </c>
+      <c r="H70" t="n">
+        <v>27.4527299537427</v>
+      </c>
+      <c r="I70" t="n">
+        <v>26</v>
+      </c>
+      <c r="J70" t="n">
+        <v>46</v>
+      </c>
+      <c r="K70" t="n">
+        <v>170.9526557214903</v>
+      </c>
+      <c r="L70" t="n">
+        <v>18.66439462776081</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
+        <v>0</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P70" t="n">
+        <v>0.8581821135050566</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>0.5652173913043478</v>
+      </c>
+      <c r="R70" t="n">
+        <v>0.2122013876703201</v>
+      </c>
+      <c r="S70" t="n">
+        <v>0.9475453843599692</v>
+      </c>
+      <c r="T70" t="inlineStr">
+        <is>
+          <t>n35</t>
+        </is>
+      </c>
+      <c r="U70" t="n">
+        <v>1573</v>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W70" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>2572</v>
+      </c>
+      <c r="B71" t="n">
+        <v>2606</v>
+      </c>
+      <c r="C71" t="n">
+        <v>2655</v>
+      </c>
+      <c r="D71" t="n">
+        <v>3.424240188554183</v>
+      </c>
+      <c r="E71" t="n">
+        <v>2.848975428675327</v>
+      </c>
+      <c r="F71" t="n">
+        <v>-0.5752647598788561</v>
+      </c>
+      <c r="G71" t="n">
+        <v>83</v>
+      </c>
+      <c r="H71" t="n">
+        <v>255.4595484577412</v>
+      </c>
+      <c r="I71" t="n">
+        <v>34</v>
+      </c>
+      <c r="J71" t="n">
+        <v>49</v>
+      </c>
+      <c r="K71" t="n">
+        <v>223.1532920441657</v>
+      </c>
+      <c r="L71" t="n">
+        <v>19.75524825442426</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P71" t="n">
+        <v>0.6181281338963408</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>0.6938775510204082</v>
+      </c>
+      <c r="R71" t="n">
+        <v>0.08482301349112314</v>
+      </c>
+      <c r="S71" t="n">
+        <v>0.9407706813779222</v>
+      </c>
+      <c r="T71" t="inlineStr">
+        <is>
+          <t>n35</t>
+        </is>
+      </c>
+      <c r="U71" t="n">
+        <v>1574</v>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W71" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>2655</v>
+      </c>
+      <c r="B72" t="n">
+        <v>2681</v>
+      </c>
+      <c r="C72" t="n">
+        <v>2786</v>
+      </c>
+      <c r="D72" t="n">
+        <v>2.964046812553613</v>
+      </c>
+      <c r="E72" t="n">
+        <v>2.388782052674757</v>
+      </c>
+      <c r="F72" t="n">
+        <v>-0.5752647598788561</v>
+      </c>
+      <c r="G72" t="n">
+        <v>131</v>
+      </c>
+      <c r="H72" t="n">
+        <v>30.12385318444967</v>
+      </c>
+      <c r="I72" t="n">
+        <v>26</v>
+      </c>
+      <c r="J72" t="n">
+        <v>105</v>
+      </c>
+      <c r="K72" t="n">
+        <v>214.7260277575415</v>
+      </c>
+      <c r="L72" t="n">
+        <v>17.10028426611494</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P72" t="n">
+        <v>0.882912172358668</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>0.2476190476190476</v>
+      </c>
+      <c r="R72" t="n">
+        <v>0.4268047304776821</v>
+      </c>
+      <c r="S72" t="n">
+        <v>0.8920175676389474</v>
+      </c>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>n35</t>
+        </is>
+      </c>
+      <c r="U72" t="n">
+        <v>1575</v>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W72" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>1269</v>
+      </c>
+      <c r="B73" t="n">
+        <v>1290</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1339</v>
+      </c>
+      <c r="D73" t="n">
+        <v>2.144833141038</v>
+      </c>
+      <c r="E73" t="n">
+        <v>1.674965893951578</v>
+      </c>
+      <c r="F73" t="n">
+        <v>-0.469867247086422</v>
+      </c>
+      <c r="G73" t="n">
+        <v>70</v>
+      </c>
+      <c r="H73" t="n">
+        <v>20.11840325783601</v>
+      </c>
+      <c r="I73" t="n">
+        <v>21</v>
+      </c>
+      <c r="J73" t="n">
+        <v>49</v>
+      </c>
+      <c r="K73" t="n">
+        <v>104.6242072737697</v>
+      </c>
+      <c r="L73" t="n">
+        <v>5.946626163345254</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P73" t="n">
+        <v>0.6382415321745041</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="R73" t="n">
+        <v>0.336328397051409</v>
+      </c>
+      <c r="S73" t="n">
+        <v>0.4817860891388205</v>
+      </c>
+      <c r="T73" t="inlineStr">
         <is>
           <t>n36</t>
         </is>
       </c>
-      <c r="U36" t="n">
-        <v>781</v>
-      </c>
-      <c r="V36" t="inlineStr">
-        <is>
-          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X36" t="inlineStr">
+      <c r="U73" t="n">
+        <v>1576</v>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W73" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>2032</v>
+      </c>
+      <c r="B74" t="n">
+        <v>2055</v>
+      </c>
+      <c r="C74" t="n">
+        <v>2195</v>
+      </c>
+      <c r="D74" t="n">
+        <v>2.929257428332591</v>
+      </c>
+      <c r="E74" t="n">
+        <v>2.459390181246168</v>
+      </c>
+      <c r="F74" t="n">
+        <v>-0.469867247086422</v>
+      </c>
+      <c r="G74" t="n">
+        <v>163</v>
+      </c>
+      <c r="H74" t="n">
+        <v>152.5708898978439</v>
+      </c>
+      <c r="I74" t="n">
+        <v>23</v>
+      </c>
+      <c r="J74" t="n">
+        <v>140</v>
+      </c>
+      <c r="K74" t="n">
+        <v>246.4944720338486</v>
+      </c>
+      <c r="L74" t="n">
+        <v>8.121470397490189</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
+        <v>0</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P74" t="n">
+        <v>0.8196089236294886</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>0.1642857142857143</v>
+      </c>
+      <c r="R74" t="n">
+        <v>0.417708023024714</v>
+      </c>
+      <c r="S74" t="n">
+        <v>0.7591518212454671</v>
+      </c>
+      <c r="T74" t="inlineStr">
+        <is>
+          <t>n36</t>
+        </is>
+      </c>
+      <c r="U74" t="n">
+        <v>1577</v>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W74" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>2829</v>
+      </c>
+      <c r="B75" t="n">
+        <v>2850</v>
+      </c>
+      <c r="C75" t="n">
+        <v>2879</v>
+      </c>
+      <c r="D75" t="n">
+        <v>1.559102869153465</v>
+      </c>
+      <c r="E75" t="n">
+        <v>1.089235622067043</v>
+      </c>
+      <c r="F75" t="n">
+        <v>-0.469867247086422</v>
+      </c>
+      <c r="G75" t="n">
+        <v>50</v>
+      </c>
+      <c r="H75" t="n">
+        <v>28.13978133632372</v>
+      </c>
+      <c r="I75" t="n">
+        <v>21</v>
+      </c>
+      <c r="J75" t="n">
+        <v>29</v>
+      </c>
+      <c r="K75" t="n">
+        <v>62.36557640492771</v>
+      </c>
+      <c r="L75" t="n">
+        <v>4.322668153368667</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P75" t="n">
+        <v>0.6480016203928691</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>0.7241379310344828</v>
+      </c>
+      <c r="R75" t="n">
+        <v>0.1415421863018174</v>
+      </c>
+      <c r="S75" t="n">
+        <v>0.6727562728398895</v>
+      </c>
+      <c r="T75" t="inlineStr">
+        <is>
+          <t>n36</t>
+        </is>
+      </c>
+      <c r="U75" t="n">
+        <v>1578</v>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W75" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X75" t="inlineStr">
         <is>
           <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
         </is>

--- a/Visualization/results/processed_2979_all_datasets_analysis/processed_No.2979240926social22024-12-05202642trace/processed_No.2979240926social22024-12-05202642trace_transients.xlsx
+++ b/Visualization/results/processed_2979_all_datasets_analysis/processed_No.2979240926social22024-12-05202642trace/processed_No.2979240926social22024-12-05202642trace_transients.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X75"/>
+  <dimension ref="A1:X78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="U2" t="n">
-        <v>1505</v>
+        <v>1574</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="U3" t="n">
-        <v>1506</v>
+        <v>1575</v>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -795,7 +795,7 @@
         </is>
       </c>
       <c r="U4" t="n">
-        <v>1507</v>
+        <v>1576</v>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         </is>
       </c>
       <c r="U5" t="n">
-        <v>1508</v>
+        <v>1577</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="U6" t="n">
-        <v>1509</v>
+        <v>1578</v>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="U7" t="n">
-        <v>1510</v>
+        <v>1579</v>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -1139,7 +1139,7 @@
         </is>
       </c>
       <c r="U8" t="n">
-        <v>1511</v>
+        <v>1580</v>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         </is>
       </c>
       <c r="U9" t="n">
-        <v>1512</v>
+        <v>1581</v>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         </is>
       </c>
       <c r="U10" t="n">
-        <v>1513</v>
+        <v>1582</v>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         </is>
       </c>
       <c r="U11" t="n">
-        <v>1514</v>
+        <v>1583</v>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         </is>
       </c>
       <c r="U12" t="n">
-        <v>1515</v>
+        <v>1584</v>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         </is>
       </c>
       <c r="U13" t="n">
-        <v>1516</v>
+        <v>1585</v>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -1589,40 +1589,40 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1424</v>
+        <v>1483</v>
       </c>
       <c r="B14" t="n">
-        <v>1451</v>
+        <v>1512</v>
       </c>
       <c r="C14" t="n">
         <v>1562</v>
       </c>
       <c r="D14" t="n">
-        <v>2.175997605292352</v>
+        <v>1.959812005393335</v>
       </c>
       <c r="E14" t="n">
-        <v>1.295977293447398</v>
+        <v>1.079791693548382</v>
       </c>
       <c r="F14" t="n">
         <v>-0.880020311844954</v>
       </c>
       <c r="G14" t="n">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="H14" t="n">
-        <v>33.44971225731592</v>
+        <v>19.08271004786775</v>
       </c>
       <c r="I14" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J14" t="n">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="K14" t="n">
-        <v>236.6960875081888</v>
+        <v>125.4792195108571</v>
       </c>
       <c r="L14" t="n">
-        <v>7.287591583560506</v>
+        <v>6.5635685632781</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1638,16 +1638,16 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.739657951198352</v>
+        <v>0.719281935482515</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.2432432432432433</v>
+        <v>0.58</v>
       </c>
       <c r="R14" t="n">
-        <v>0.09986172240772841</v>
+        <v>0.1380797196394482</v>
       </c>
       <c r="S14" t="n">
-        <v>0.7186054478871274</v>
+        <v>0.9540552023095527</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         </is>
       </c>
       <c r="U14" t="n">
-        <v>1517</v>
+        <v>1586</v>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         </is>
       </c>
       <c r="U15" t="n">
-        <v>1518</v>
+        <v>1587</v>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         </is>
       </c>
       <c r="U16" t="n">
-        <v>1519</v>
+        <v>1588</v>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         </is>
       </c>
       <c r="U17" t="n">
-        <v>1520</v>
+        <v>1589</v>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="U18" t="n">
-        <v>1521</v>
+        <v>1590</v>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         </is>
       </c>
       <c r="U19" t="n">
-        <v>1522</v>
+        <v>1591</v>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="U20" t="n">
-        <v>1523</v>
+        <v>1592</v>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         </is>
       </c>
       <c r="U21" t="n">
-        <v>1524</v>
+        <v>1593</v>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -2277,40 +2277,40 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>346</v>
+        <v>461</v>
       </c>
       <c r="B22" t="n">
-        <v>408</v>
+        <v>474</v>
       </c>
       <c r="C22" t="n">
         <v>508</v>
       </c>
       <c r="D22" t="n">
-        <v>2.048578267747453</v>
+        <v>1.806612140834638</v>
       </c>
       <c r="E22" t="n">
-        <v>1.528193839977621</v>
+        <v>1.286227713064805</v>
       </c>
       <c r="F22" t="n">
         <v>-0.5203844277698323</v>
       </c>
       <c r="G22" t="n">
-        <v>162</v>
+        <v>47</v>
       </c>
       <c r="H22" t="n">
-        <v>42.84246596909088</v>
+        <v>14.2018616664505</v>
       </c>
       <c r="I22" t="n">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="J22" t="n">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="K22" t="n">
-        <v>269.9330562484406</v>
+        <v>63.56795753584017</v>
       </c>
       <c r="L22" t="n">
-        <v>7.851550923511888</v>
+        <v>6.924171483277038</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -2326,16 +2326,16 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.4757266465198789</v>
+        <v>0.8932517806634811</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.62</v>
+        <v>0.3823529411764706</v>
       </c>
       <c r="R22" t="n">
-        <v>0.1492870147447749</v>
+        <v>0.239779064428804</v>
       </c>
       <c r="S22" t="n">
-        <v>0.5733750777622469</v>
+        <v>0.9268394934140762</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -2343,7 +2343,7 @@
         </is>
       </c>
       <c r="U22" t="n">
-        <v>1525</v>
+        <v>1594</v>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         </is>
       </c>
       <c r="U23" t="n">
-        <v>1526</v>
+        <v>1595</v>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         </is>
       </c>
       <c r="U24" t="n">
-        <v>1527</v>
+        <v>1596</v>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         </is>
       </c>
       <c r="U25" t="n">
-        <v>1528</v>
+        <v>1597</v>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         </is>
       </c>
       <c r="U26" t="n">
-        <v>1529</v>
+        <v>1598</v>
       </c>
       <c r="V26" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         </is>
       </c>
       <c r="U27" t="n">
-        <v>1530</v>
+        <v>1599</v>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         </is>
       </c>
       <c r="U28" t="n">
-        <v>1531</v>
+        <v>1600</v>
       </c>
       <c r="V28" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         </is>
       </c>
       <c r="U29" t="n">
-        <v>1532</v>
+        <v>1601</v>
       </c>
       <c r="V29" t="inlineStr">
         <is>
@@ -3031,7 +3031,7 @@
         </is>
       </c>
       <c r="U30" t="n">
-        <v>1533</v>
+        <v>1602</v>
       </c>
       <c r="V30" t="inlineStr">
         <is>
@@ -3117,7 +3117,7 @@
         </is>
       </c>
       <c r="U31" t="n">
-        <v>1534</v>
+        <v>1603</v>
       </c>
       <c r="V31" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         </is>
       </c>
       <c r="U32" t="n">
-        <v>1535</v>
+        <v>1604</v>
       </c>
       <c r="V32" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         </is>
       </c>
       <c r="U33" t="n">
-        <v>1536</v>
+        <v>1605</v>
       </c>
       <c r="V33" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         </is>
       </c>
       <c r="U34" t="n">
-        <v>1537</v>
+        <v>1606</v>
       </c>
       <c r="V34" t="inlineStr">
         <is>
@@ -3461,7 +3461,7 @@
         </is>
       </c>
       <c r="U35" t="n">
-        <v>1538</v>
+        <v>1607</v>
       </c>
       <c r="V35" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="U36" t="n">
-        <v>1539</v>
+        <v>1608</v>
       </c>
       <c r="V36" t="inlineStr">
         <is>
@@ -3633,7 +3633,7 @@
         </is>
       </c>
       <c r="U37" t="n">
-        <v>1540</v>
+        <v>1609</v>
       </c>
       <c r="V37" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         </is>
       </c>
       <c r="U38" t="n">
-        <v>1541</v>
+        <v>1610</v>
       </c>
       <c r="V38" t="inlineStr">
         <is>
@@ -3805,7 +3805,7 @@
         </is>
       </c>
       <c r="U39" t="n">
-        <v>1542</v>
+        <v>1611</v>
       </c>
       <c r="V39" t="inlineStr">
         <is>
@@ -3891,7 +3891,7 @@
         </is>
       </c>
       <c r="U40" t="n">
-        <v>1543</v>
+        <v>1612</v>
       </c>
       <c r="V40" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
         </is>
       </c>
       <c r="U41" t="n">
-        <v>1544</v>
+        <v>1613</v>
       </c>
       <c r="V41" t="inlineStr">
         <is>
@@ -4063,7 +4063,7 @@
         </is>
       </c>
       <c r="U42" t="n">
-        <v>1545</v>
+        <v>1614</v>
       </c>
       <c r="V42" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="U43" t="n">
-        <v>1546</v>
+        <v>1615</v>
       </c>
       <c r="V43" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         </is>
       </c>
       <c r="U44" t="n">
-        <v>1547</v>
+        <v>1616</v>
       </c>
       <c r="V44" t="inlineStr">
         <is>
@@ -4261,7 +4261,7 @@
         <v>1221</v>
       </c>
       <c r="C45" t="n">
-        <v>1457</v>
+        <v>1353</v>
       </c>
       <c r="D45" t="n">
         <v>4.965908644659748</v>
@@ -4273,7 +4273,7 @@
         <v>-0.4648969429667044</v>
       </c>
       <c r="G45" t="n">
-        <v>305</v>
+        <v>201</v>
       </c>
       <c r="H45" t="n">
         <v>136.9808806375661</v>
@@ -4282,10 +4282,10 @@
         <v>69</v>
       </c>
       <c r="J45" t="n">
-        <v>236</v>
+        <v>132</v>
       </c>
       <c r="K45" t="n">
-        <v>632.6103170653904</v>
+        <v>578.6208233585575</v>
       </c>
       <c r="L45" t="n">
         <v>23.17699543967667</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>0.8903726964552472</v>
+        <v>0.7465700571832189</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.2923728813559322</v>
+        <v>0.5227272727272727</v>
       </c>
       <c r="R45" t="n">
-        <v>0.5258407941862617</v>
+        <v>0.2940526396599231</v>
       </c>
       <c r="S45" t="n">
-        <v>0.9470117866032122</v>
+        <v>0.9065882343180098</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="U45" t="n">
-        <v>1548</v>
+        <v>1617</v>
       </c>
       <c r="V45" t="inlineStr">
         <is>
@@ -4341,40 +4341,40 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
+        <v>1353</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1367</v>
+      </c>
+      <c r="C46" t="n">
         <v>1457</v>
       </c>
-      <c r="B46" t="n">
-        <v>1486</v>
-      </c>
-      <c r="C46" t="n">
-        <v>1549</v>
-      </c>
       <c r="D46" t="n">
-        <v>0.875554356728101</v>
+        <v>0.9983971973455608</v>
       </c>
       <c r="E46" t="n">
-        <v>0.4106574137613965</v>
+        <v>0.5335002543788563</v>
       </c>
       <c r="F46" t="n">
         <v>-0.4648969429667044</v>
       </c>
       <c r="G46" t="n">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="H46" t="n">
-        <v>23.4691425950607</v>
+        <v>12.9606181576471</v>
       </c>
       <c r="I46" t="n">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="J46" t="n">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="K46" t="n">
-        <v>42.5750356710049</v>
+        <v>53.98949370683299</v>
       </c>
       <c r="L46" t="n">
-        <v>4.086406091038076</v>
+        <v>4.659740834086469</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
@@ -4390,16 +4390,16 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>0.7524874409235505</v>
+        <v>0.7600044214272783</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.4603174603174603</v>
+        <v>0.1555555555555556</v>
       </c>
       <c r="R46" t="n">
-        <v>0.344272490908649</v>
+        <v>0.4297960130919705</v>
       </c>
       <c r="S46" t="n">
-        <v>0.5457852899370316</v>
+        <v>0.7412118332699775</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="U46" t="n">
-        <v>1549</v>
+        <v>1618</v>
       </c>
       <c r="V46" t="inlineStr">
         <is>
@@ -4427,40 +4427,40 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1851</v>
+        <v>1457</v>
       </c>
       <c r="B47" t="n">
-        <v>1890</v>
+        <v>1486</v>
       </c>
       <c r="C47" t="n">
-        <v>1944</v>
+        <v>1549</v>
       </c>
       <c r="D47" t="n">
-        <v>1.833092930769323</v>
+        <v>0.875554356728101</v>
       </c>
       <c r="E47" t="n">
-        <v>1.368195987802619</v>
+        <v>0.4106574137613965</v>
       </c>
       <c r="F47" t="n">
         <v>-0.4648969429667044</v>
       </c>
       <c r="G47" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H47" t="n">
-        <v>57.77335686675724</v>
+        <v>23.4691425950607</v>
       </c>
       <c r="I47" t="n">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="J47" t="n">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="K47" t="n">
-        <v>122.8729379527661</v>
+        <v>42.5750356710049</v>
       </c>
       <c r="L47" t="n">
-        <v>8.555450681242876</v>
+        <v>4.086406091038076</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
@@ -4476,16 +4476,16 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>0.7537206892432635</v>
+        <v>0.7524874409235505</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.7222222222222222</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="R47" t="n">
-        <v>0.2609335557084292</v>
+        <v>0.344272490908649</v>
       </c>
       <c r="S47" t="n">
-        <v>0.8584665603765147</v>
+        <v>0.5457852899370316</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         </is>
       </c>
       <c r="U47" t="n">
-        <v>1550</v>
+        <v>1619</v>
       </c>
       <c r="V47" t="inlineStr">
         <is>
@@ -4513,40 +4513,40 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>2179</v>
+        <v>1851</v>
       </c>
       <c r="B48" t="n">
-        <v>2205</v>
+        <v>1890</v>
       </c>
       <c r="C48" t="n">
-        <v>2293</v>
+        <v>1944</v>
       </c>
       <c r="D48" t="n">
-        <v>3.470077150068267</v>
+        <v>1.833092930769323</v>
       </c>
       <c r="E48" t="n">
-        <v>2.954582731310611</v>
+        <v>1.368195987802619</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.5154944187576556</v>
+        <v>-0.4648969429667044</v>
       </c>
       <c r="G48" t="n">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="H48" t="n">
-        <v>50.00603262173445</v>
+        <v>57.77335686675724</v>
       </c>
       <c r="I48" t="n">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="J48" t="n">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="K48" t="n">
-        <v>200.0504891090256</v>
+        <v>122.8729379527661</v>
       </c>
       <c r="L48" t="n">
-        <v>10.07921560887734</v>
+        <v>8.555450681242876</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
@@ -4562,24 +4562,24 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>0.9522478304619405</v>
+        <v>0.7537206892432635</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.2954545454545455</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="R48" t="n">
-        <v>0.2231032540610365</v>
+        <v>0.2609335557084292</v>
       </c>
       <c r="S48" t="n">
-        <v>0.9091206035780337</v>
+        <v>0.8584665603765147</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>n22</t>
+          <t>n20</t>
         </is>
       </c>
       <c r="U48" t="n">
-        <v>1551</v>
+        <v>1620</v>
       </c>
       <c r="V48" t="inlineStr">
         <is>
@@ -4599,40 +4599,40 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>2361</v>
+        <v>2179</v>
       </c>
       <c r="B49" t="n">
-        <v>2389</v>
+        <v>2205</v>
       </c>
       <c r="C49" t="n">
-        <v>2480</v>
+        <v>2293</v>
       </c>
       <c r="D49" t="n">
-        <v>2.494076919470717</v>
+        <v>3.470077150068267</v>
       </c>
       <c r="E49" t="n">
-        <v>1.978582500713061</v>
+        <v>2.954582731310611</v>
       </c>
       <c r="F49" t="n">
         <v>-0.5154944187576556</v>
       </c>
       <c r="G49" t="n">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="H49" t="n">
-        <v>78.49662423167729</v>
+        <v>50.00603262173445</v>
       </c>
       <c r="I49" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J49" t="n">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K49" t="n">
-        <v>204.3284152900146</v>
+        <v>200.0504891090256</v>
       </c>
       <c r="L49" t="n">
-        <v>7.244317036575231</v>
+        <v>10.07921560887734</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
@@ -4648,16 +4648,16 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>0.8106104166547051</v>
+        <v>0.9522478304619405</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.2954545454545455</v>
       </c>
       <c r="R49" t="n">
-        <v>0.2900881273262947</v>
+        <v>0.2231032540610365</v>
       </c>
       <c r="S49" t="n">
-        <v>0.6757383118776821</v>
+        <v>0.9091206035780337</v>
       </c>
       <c r="T49" t="inlineStr">
         <is>
@@ -4665,7 +4665,7 @@
         </is>
       </c>
       <c r="U49" t="n">
-        <v>1552</v>
+        <v>1621</v>
       </c>
       <c r="V49" t="inlineStr">
         <is>
@@ -4685,40 +4685,40 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
+        <v>2361</v>
+      </c>
+      <c r="B50" t="n">
+        <v>2389</v>
+      </c>
+      <c r="C50" t="n">
         <v>2480</v>
       </c>
-      <c r="B50" t="n">
-        <v>2511</v>
-      </c>
-      <c r="C50" t="n">
-        <v>2557</v>
-      </c>
       <c r="D50" t="n">
-        <v>1.371175882496174</v>
+        <v>2.494076919470717</v>
       </c>
       <c r="E50" t="n">
-        <v>0.8556814637385186</v>
+        <v>1.978582500713061</v>
       </c>
       <c r="F50" t="n">
         <v>-0.5154944187576556</v>
       </c>
       <c r="G50" t="n">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="H50" t="n">
-        <v>27.20657317064843</v>
+        <v>78.49662423167729</v>
       </c>
       <c r="I50" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J50" t="n">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="K50" t="n">
-        <v>67.18169968255594</v>
+        <v>204.3284152900146</v>
       </c>
       <c r="L50" t="n">
-        <v>3.982729132434336</v>
+        <v>7.244317036575231</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -4734,16 +4734,16 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>0.8122714610491576</v>
+        <v>0.8106104166547051</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.6739130434782609</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="R50" t="n">
-        <v>0.4260748609795174</v>
+        <v>0.2900881273262947</v>
       </c>
       <c r="S50" t="n">
-        <v>0.9047830027614178</v>
+        <v>0.6757383118776821</v>
       </c>
       <c r="T50" t="inlineStr">
         <is>
@@ -4751,7 +4751,7 @@
         </is>
       </c>
       <c r="U50" t="n">
-        <v>1553</v>
+        <v>1622</v>
       </c>
       <c r="V50" t="inlineStr">
         <is>
@@ -4771,40 +4771,40 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1037</v>
+        <v>2480</v>
       </c>
       <c r="B51" t="n">
-        <v>1069</v>
+        <v>2511</v>
       </c>
       <c r="C51" t="n">
-        <v>1132</v>
+        <v>2557</v>
       </c>
       <c r="D51" t="n">
-        <v>2.976789732116578</v>
+        <v>1.371175882496174</v>
       </c>
       <c r="E51" t="n">
-        <v>2.409403407503725</v>
+        <v>0.8556814637385186</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.567386324612853</v>
+        <v>-0.5154944187576556</v>
       </c>
       <c r="G51" t="n">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="H51" t="n">
-        <v>43.47523691950255</v>
+        <v>27.20657317064843</v>
       </c>
       <c r="I51" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J51" t="n">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="K51" t="n">
-        <v>200.3353850320723</v>
+        <v>67.18169968255594</v>
       </c>
       <c r="L51" t="n">
-        <v>7.707709428068239</v>
+        <v>3.982729132434336</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
@@ -4820,24 +4820,24 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>0.7612834707318478</v>
+        <v>0.8122714610491576</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.5079365079365079</v>
+        <v>0.6739130434782609</v>
       </c>
       <c r="R51" t="n">
-        <v>0.1280781727497559</v>
+        <v>0.4260748609795174</v>
       </c>
       <c r="S51" t="n">
-        <v>0.8714118525264406</v>
+        <v>0.9047830027614178</v>
       </c>
       <c r="T51" t="inlineStr">
         <is>
-          <t>n23</t>
+          <t>n22</t>
         </is>
       </c>
       <c r="U51" t="n">
-        <v>1554</v>
+        <v>1623</v>
       </c>
       <c r="V51" t="inlineStr">
         <is>
@@ -4857,40 +4857,40 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1970</v>
+        <v>1037</v>
       </c>
       <c r="B52" t="n">
-        <v>1995</v>
+        <v>1069</v>
       </c>
       <c r="C52" t="n">
-        <v>2032</v>
+        <v>1132</v>
       </c>
       <c r="D52" t="n">
-        <v>2.882263904307858</v>
+        <v>2.976789732116578</v>
       </c>
       <c r="E52" t="n">
-        <v>2.29918728748176</v>
+        <v>2.409403407503725</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.583076616826098</v>
+        <v>-0.567386324612853</v>
       </c>
       <c r="G52" t="n">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="H52" t="n">
-        <v>44.17547186223146</v>
+        <v>43.47523691950255</v>
       </c>
       <c r="I52" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="J52" t="n">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="K52" t="n">
-        <v>138.48342367342</v>
+        <v>200.3353850320723</v>
       </c>
       <c r="L52" t="n">
-        <v>10.32615375843687</v>
+        <v>7.707709428068239</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
@@ -4906,24 +4906,24 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>0.6399121658542198</v>
+        <v>0.7612834707318478</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.6756756756756757</v>
+        <v>0.5079365079365079</v>
       </c>
       <c r="R52" t="n">
-        <v>0.06922030747379793</v>
+        <v>0.1280781727497559</v>
       </c>
       <c r="S52" t="n">
-        <v>0.9482246618964193</v>
+        <v>0.8714118525264406</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
-          <t>n24</t>
+          <t>n23</t>
         </is>
       </c>
       <c r="U52" t="n">
-        <v>1555</v>
+        <v>1624</v>
       </c>
       <c r="V52" t="inlineStr">
         <is>
@@ -4943,40 +4943,40 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>2132</v>
+        <v>1970</v>
       </c>
       <c r="B53" t="n">
-        <v>2176</v>
+        <v>1995</v>
       </c>
       <c r="C53" t="n">
-        <v>2286</v>
+        <v>2032</v>
       </c>
       <c r="D53" t="n">
-        <v>3.266179153430147</v>
+        <v>2.882263904307858</v>
       </c>
       <c r="E53" t="n">
-        <v>2.68310253660405</v>
+        <v>2.29918728748176</v>
       </c>
       <c r="F53" t="n">
         <v>-0.583076616826098</v>
       </c>
       <c r="G53" t="n">
-        <v>154</v>
+        <v>62</v>
       </c>
       <c r="H53" t="n">
-        <v>106.6529275803437</v>
+        <v>44.17547186223146</v>
       </c>
       <c r="I53" t="n">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="J53" t="n">
-        <v>110</v>
+        <v>37</v>
       </c>
       <c r="K53" t="n">
-        <v>331.7865300253272</v>
+        <v>138.48342367342</v>
       </c>
       <c r="L53" t="n">
-        <v>11.70158918845428</v>
+        <v>10.32615375843687</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
@@ -4992,16 +4992,16 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>0.7267865589039245</v>
+        <v>0.6399121658542198</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.4</v>
+        <v>0.6756756756756757</v>
       </c>
       <c r="R53" t="n">
-        <v>0.1057670048227142</v>
+        <v>0.06922030747379793</v>
       </c>
       <c r="S53" t="n">
-        <v>0.9718745412112789</v>
+        <v>0.9482246618964193</v>
       </c>
       <c r="T53" t="inlineStr">
         <is>
@@ -5009,7 +5009,7 @@
         </is>
       </c>
       <c r="U53" t="n">
-        <v>1556</v>
+        <v>1625</v>
       </c>
       <c r="V53" t="inlineStr">
         <is>
@@ -5029,40 +5029,40 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>2849</v>
+        <v>2132</v>
       </c>
       <c r="B54" t="n">
-        <v>2862</v>
+        <v>2176</v>
       </c>
       <c r="C54" t="n">
-        <v>2998</v>
+        <v>2286</v>
       </c>
       <c r="D54" t="n">
-        <v>2.403232559436731</v>
+        <v>3.266179153430147</v>
       </c>
       <c r="E54" t="n">
-        <v>1.820155942610633</v>
+        <v>2.68310253660405</v>
       </c>
       <c r="F54" t="n">
         <v>-0.583076616826098</v>
       </c>
       <c r="G54" t="n">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="H54" t="n">
-        <v>12.98027273012985</v>
+        <v>106.6529275803437</v>
       </c>
       <c r="I54" t="n">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="J54" t="n">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="K54" t="n">
-        <v>173.782463274849</v>
+        <v>331.7865300253272</v>
       </c>
       <c r="L54" t="n">
-        <v>8.609950285584537</v>
+        <v>11.70158918845428</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
@@ -5078,16 +5078,16 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>0.6944210540653534</v>
+        <v>0.7267865589039245</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.09558823529411764</v>
+        <v>0.4</v>
       </c>
       <c r="R54" t="n">
-        <v>0.4810439685204854</v>
+        <v>0.1057670048227142</v>
       </c>
       <c r="S54" t="n">
-        <v>0.5875159095241784</v>
+        <v>0.9718745412112789</v>
       </c>
       <c r="T54" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         </is>
       </c>
       <c r="U54" t="n">
-        <v>1557</v>
+        <v>1626</v>
       </c>
       <c r="V54" t="inlineStr">
         <is>
@@ -5115,40 +5115,40 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1490</v>
+        <v>2849</v>
       </c>
       <c r="B55" t="n">
-        <v>1520</v>
+        <v>2862</v>
       </c>
       <c r="C55" t="n">
-        <v>1647</v>
+        <v>2998</v>
       </c>
       <c r="D55" t="n">
-        <v>3.215985951549545</v>
+        <v>2.403232559436731</v>
       </c>
       <c r="E55" t="n">
-        <v>2.799707080744287</v>
+        <v>1.820155942610633</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.4162788708052584</v>
+        <v>-0.583076616826098</v>
       </c>
       <c r="G55" t="n">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="H55" t="n">
-        <v>13.68419638144178</v>
+        <v>12.98027273012985</v>
       </c>
       <c r="I55" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="J55" t="n">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="K55" t="n">
-        <v>289.046179311104</v>
+        <v>173.782463274849</v>
       </c>
       <c r="L55" t="n">
-        <v>10.58888823559467</v>
+        <v>8.609950285584537</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
@@ -5164,24 +5164,24 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>0.6480467525438881</v>
+        <v>0.6944210540653534</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.2362204724409449</v>
+        <v>0.09558823529411764</v>
       </c>
       <c r="R55" t="n">
-        <v>0.4213878033291938</v>
+        <v>0.4810439685204854</v>
       </c>
       <c r="S55" t="n">
-        <v>0.8635538084403311</v>
+        <v>0.5875159095241784</v>
       </c>
       <c r="T55" t="inlineStr">
         <is>
-          <t>n25</t>
+          <t>n24</t>
         </is>
       </c>
       <c r="U55" t="n">
-        <v>1558</v>
+        <v>1627</v>
       </c>
       <c r="V55" t="inlineStr">
         <is>
@@ -5201,40 +5201,40 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1447</v>
+        <v>1490</v>
       </c>
       <c r="B56" t="n">
-        <v>1470</v>
+        <v>1520</v>
       </c>
       <c r="C56" t="n">
-        <v>1605</v>
+        <v>1647</v>
       </c>
       <c r="D56" t="n">
-        <v>4.600750100964675</v>
+        <v>3.215985951549545</v>
       </c>
       <c r="E56" t="n">
-        <v>4.182690191319557</v>
+        <v>2.799707080744287</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.4180599096451176</v>
+        <v>-0.4162788708052584</v>
       </c>
       <c r="G56" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H56" t="n">
-        <v>23.60830746805323</v>
+        <v>13.68419638144178</v>
       </c>
       <c r="I56" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="J56" t="n">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="K56" t="n">
-        <v>408.9284633869919</v>
+        <v>289.046179311104</v>
       </c>
       <c r="L56" t="n">
-        <v>20.79016395031621</v>
+        <v>10.58888823559467</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
@@ -5250,24 +5250,24 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>0.8267504298952387</v>
+        <v>0.6480467525438881</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.1703703703703704</v>
+        <v>0.2362204724409449</v>
       </c>
       <c r="R56" t="n">
-        <v>0.4152300716935557</v>
+        <v>0.4213878033291938</v>
       </c>
       <c r="S56" t="n">
-        <v>0.977639735416956</v>
+        <v>0.8635538084403311</v>
       </c>
       <c r="T56" t="inlineStr">
         <is>
-          <t>n26</t>
+          <t>n25</t>
         </is>
       </c>
       <c r="U56" t="n">
-        <v>1559</v>
+        <v>1628</v>
       </c>
       <c r="V56" t="inlineStr">
         <is>
@@ -5287,40 +5287,40 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1634</v>
+        <v>1447</v>
       </c>
       <c r="B57" t="n">
-        <v>1650</v>
+        <v>1470</v>
       </c>
       <c r="C57" t="n">
-        <v>1677</v>
+        <v>1605</v>
       </c>
       <c r="D57" t="n">
-        <v>2.548760687239358</v>
+        <v>4.600750100964675</v>
       </c>
       <c r="E57" t="n">
-        <v>2.035747699808311</v>
+        <v>4.182690191319557</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.5130129874310468</v>
+        <v>-0.4180599096451176</v>
       </c>
       <c r="G57" t="n">
-        <v>43</v>
+        <v>158</v>
       </c>
       <c r="H57" t="n">
-        <v>8.288912059574159</v>
+        <v>23.60830746805323</v>
       </c>
       <c r="I57" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="J57" t="n">
-        <v>27</v>
+        <v>135</v>
       </c>
       <c r="K57" t="n">
-        <v>94.93280295081135</v>
+        <v>408.9284633869919</v>
       </c>
       <c r="L57" t="n">
-        <v>12.4056730548461</v>
+        <v>20.79016395031621</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
@@ -5336,24 +5336,24 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>0.5952184836056276</v>
+        <v>0.8267504298952387</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.5925925925925926</v>
+        <v>0.1703703703703704</v>
       </c>
       <c r="R57" t="n">
-        <v>0.08242609554636331</v>
+        <v>0.4152300716935557</v>
       </c>
       <c r="S57" t="n">
-        <v>0.7490531403798286</v>
+        <v>0.977639735416956</v>
       </c>
       <c r="T57" t="inlineStr">
         <is>
-          <t>n27</t>
+          <t>n26</t>
         </is>
       </c>
       <c r="U57" t="n">
-        <v>1560</v>
+        <v>1629</v>
       </c>
       <c r="V57" t="inlineStr">
         <is>
@@ -5373,40 +5373,40 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
+        <v>1634</v>
+      </c>
+      <c r="B58" t="n">
+        <v>1650</v>
+      </c>
+      <c r="C58" t="n">
         <v>1677</v>
       </c>
-      <c r="B58" t="n">
-        <v>1693</v>
-      </c>
-      <c r="C58" t="n">
-        <v>1738</v>
-      </c>
       <c r="D58" t="n">
-        <v>2.607653734260376</v>
+        <v>2.548760687239358</v>
       </c>
       <c r="E58" t="n">
-        <v>2.094640746829329</v>
+        <v>2.035747699808311</v>
       </c>
       <c r="F58" t="n">
         <v>-0.5130129874310468</v>
       </c>
       <c r="G58" t="n">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="H58" t="n">
-        <v>16.89258195941147</v>
+        <v>8.288912059574159</v>
       </c>
       <c r="I58" t="n">
         <v>16</v>
       </c>
       <c r="J58" t="n">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="K58" t="n">
-        <v>113.7756710243511</v>
+        <v>94.93280295081135</v>
       </c>
       <c r="L58" t="n">
-        <v>12.69232526594002</v>
+        <v>12.4056730548461</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
@@ -5422,16 +5422,16 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>0.9069395405653102</v>
+        <v>0.5952184836056276</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.3555555555555556</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="R58" t="n">
-        <v>0.2352959590521477</v>
+        <v>0.08242609554636331</v>
       </c>
       <c r="S58" t="n">
-        <v>0.9899749327107522</v>
+        <v>0.7490531403798286</v>
       </c>
       <c r="T58" t="inlineStr">
         <is>
@@ -5439,7 +5439,7 @@
         </is>
       </c>
       <c r="U58" t="n">
-        <v>1561</v>
+        <v>1630</v>
       </c>
       <c r="V58" t="inlineStr">
         <is>
@@ -5459,40 +5459,40 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
+        <v>1677</v>
+      </c>
+      <c r="B59" t="n">
+        <v>1693</v>
+      </c>
+      <c r="C59" t="n">
         <v>1738</v>
       </c>
-      <c r="B59" t="n">
-        <v>1764</v>
-      </c>
-      <c r="C59" t="n">
-        <v>1824</v>
-      </c>
       <c r="D59" t="n">
-        <v>1.468039698501863</v>
+        <v>2.607653734260376</v>
       </c>
       <c r="E59" t="n">
-        <v>0.955026711070816</v>
+        <v>2.094640746829329</v>
       </c>
       <c r="F59" t="n">
         <v>-0.5130129874310468</v>
       </c>
       <c r="G59" t="n">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="H59" t="n">
-        <v>22.67485376973627</v>
+        <v>16.89258195941147</v>
       </c>
       <c r="I59" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="J59" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="K59" t="n">
-        <v>87.05210884297207</v>
+        <v>113.7756710243511</v>
       </c>
       <c r="L59" t="n">
-        <v>7.145441556097979</v>
+        <v>12.69232526594002</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
@@ -5508,16 +5508,16 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>0.7988597415602804</v>
+        <v>0.9069395405653102</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.4333333333333333</v>
+        <v>0.3555555555555556</v>
       </c>
       <c r="R59" t="n">
-        <v>0.2596445369688012</v>
+        <v>0.2352959590521477</v>
       </c>
       <c r="S59" t="n">
-        <v>0.6872918641125083</v>
+        <v>0.9899749327107522</v>
       </c>
       <c r="T59" t="inlineStr">
         <is>
@@ -5525,7 +5525,7 @@
         </is>
       </c>
       <c r="U59" t="n">
-        <v>1562</v>
+        <v>1631</v>
       </c>
       <c r="V59" t="inlineStr">
         <is>
@@ -5545,40 +5545,40 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2426</v>
+        <v>1738</v>
       </c>
       <c r="B60" t="n">
-        <v>2455</v>
+        <v>1764</v>
       </c>
       <c r="C60" t="n">
-        <v>2527</v>
+        <v>1824</v>
       </c>
       <c r="D60" t="n">
-        <v>3.128390008761666</v>
+        <v>1.468039698501863</v>
       </c>
       <c r="E60" t="n">
-        <v>2.615377021330619</v>
+        <v>0.955026711070816</v>
       </c>
       <c r="F60" t="n">
         <v>-0.5130129874310468</v>
       </c>
       <c r="G60" t="n">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="H60" t="n">
-        <v>80.23827973725975</v>
+        <v>22.67485376973627</v>
       </c>
       <c r="I60" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J60" t="n">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="K60" t="n">
-        <v>197.1362108641446</v>
+        <v>87.05210884297207</v>
       </c>
       <c r="L60" t="n">
-        <v>15.22692335575077</v>
+        <v>7.145441556097979</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
@@ -5594,16 +5594,16 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>0.8350018981941059</v>
+        <v>0.7988597415602804</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.4027777777777778</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="R60" t="n">
-        <v>0.1879077705807788</v>
+        <v>0.2596445369688012</v>
       </c>
       <c r="S60" t="n">
-        <v>0.9484569221063003</v>
+        <v>0.6872918641125083</v>
       </c>
       <c r="T60" t="inlineStr">
         <is>
@@ -5611,7 +5611,7 @@
         </is>
       </c>
       <c r="U60" t="n">
-        <v>1563</v>
+        <v>1632</v>
       </c>
       <c r="V60" t="inlineStr">
         <is>
@@ -5631,40 +5631,40 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>2125</v>
+        <v>2426</v>
       </c>
       <c r="B61" t="n">
-        <v>2145</v>
+        <v>2455</v>
       </c>
       <c r="C61" t="n">
-        <v>2194</v>
+        <v>2527</v>
       </c>
       <c r="D61" t="n">
-        <v>2.8943016479128</v>
+        <v>3.128390008761666</v>
       </c>
       <c r="E61" t="n">
-        <v>2.392522406671113</v>
+        <v>2.615377021330619</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.5017792412416869</v>
+        <v>-0.5130129874310468</v>
       </c>
       <c r="G61" t="n">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="H61" t="n">
-        <v>14.82952008857228</v>
+        <v>80.23827973725975</v>
       </c>
       <c r="I61" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="J61" t="n">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="K61" t="n">
-        <v>136.0343514195482</v>
+        <v>197.1362108641446</v>
       </c>
       <c r="L61" t="n">
-        <v>9.7758388677083</v>
+        <v>15.22692335575077</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
@@ -5680,24 +5680,24 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>0.7577491134258437</v>
+        <v>0.8350018981941059</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.4081632653061225</v>
+        <v>0.4027777777777778</v>
       </c>
       <c r="R61" t="n">
-        <v>0.6002171558412259</v>
+        <v>0.1879077705807788</v>
       </c>
       <c r="S61" t="n">
-        <v>0.5658351936674817</v>
+        <v>0.9484569221063003</v>
       </c>
       <c r="T61" t="inlineStr">
         <is>
-          <t>n28</t>
+          <t>n27</t>
         </is>
       </c>
       <c r="U61" t="n">
-        <v>1564</v>
+        <v>1633</v>
       </c>
       <c r="V61" t="inlineStr">
         <is>
@@ -5717,40 +5717,40 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>2068</v>
+        <v>2125</v>
       </c>
       <c r="B62" t="n">
-        <v>2140</v>
+        <v>2145</v>
       </c>
       <c r="C62" t="n">
-        <v>2367</v>
+        <v>2194</v>
       </c>
       <c r="D62" t="n">
-        <v>4.170034096721508</v>
+        <v>2.8943016479128</v>
       </c>
       <c r="E62" t="n">
-        <v>3.644045580446006</v>
+        <v>2.392522406671113</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.5259885162755024</v>
+        <v>-0.5017792412416869</v>
       </c>
       <c r="G62" t="n">
-        <v>299</v>
+        <v>69</v>
       </c>
       <c r="H62" t="n">
-        <v>171.2089419106587</v>
+        <v>14.82952008857228</v>
       </c>
       <c r="I62" t="n">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="J62" t="n">
-        <v>227</v>
+        <v>49</v>
       </c>
       <c r="K62" t="n">
-        <v>642.4492824730065</v>
+        <v>136.0343514195482</v>
       </c>
       <c r="L62" t="n">
-        <v>16.92273147071997</v>
+        <v>9.7758388677083</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
@@ -5766,24 +5766,24 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>0.8303097393383321</v>
+        <v>0.7577491134258437</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.3171806167400881</v>
+        <v>0.4081632653061225</v>
       </c>
       <c r="R62" t="n">
-        <v>0.3246534128645783</v>
+        <v>0.6002171558412259</v>
       </c>
       <c r="S62" t="n">
-        <v>0.8256785824238748</v>
+        <v>0.5658351936674817</v>
       </c>
       <c r="T62" t="inlineStr">
         <is>
-          <t>n29</t>
+          <t>n28</t>
         </is>
       </c>
       <c r="U62" t="n">
-        <v>1565</v>
+        <v>1634</v>
       </c>
       <c r="V62" t="inlineStr">
         <is>
@@ -5803,40 +5803,40 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1110</v>
+        <v>2068</v>
       </c>
       <c r="B63" t="n">
-        <v>1146</v>
+        <v>2140</v>
       </c>
       <c r="C63" t="n">
-        <v>1221</v>
+        <v>2367</v>
       </c>
       <c r="D63" t="n">
-        <v>1.996285264142442</v>
+        <v>4.170034096721508</v>
       </c>
       <c r="E63" t="n">
-        <v>1.455893316208385</v>
+        <v>3.644045580446006</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.5403919479340574</v>
+        <v>-0.5259885162755024</v>
       </c>
       <c r="G63" t="n">
-        <v>111</v>
+        <v>299</v>
       </c>
       <c r="H63" t="n">
-        <v>89.50739075127899</v>
+        <v>171.2089419106587</v>
       </c>
       <c r="I63" t="n">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="J63" t="n">
-        <v>75</v>
+        <v>227</v>
       </c>
       <c r="K63" t="n">
-        <v>111.839527956611</v>
+        <v>642.4492824730065</v>
       </c>
       <c r="L63" t="n">
-        <v>7.181711908791296</v>
+        <v>16.92273147071997</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
@@ -5852,24 +5852,24 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>0.7639812702676374</v>
+        <v>0.8303097393383321</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.48</v>
+        <v>0.3171806167400881</v>
       </c>
       <c r="R63" t="n">
-        <v>0.1590601409602978</v>
+        <v>0.3246534128645783</v>
       </c>
       <c r="S63" t="n">
-        <v>0.8901242440650955</v>
+        <v>0.8256785824238748</v>
       </c>
       <c r="T63" t="inlineStr">
         <is>
-          <t>n31</t>
+          <t>n29</t>
         </is>
       </c>
       <c r="U63" t="n">
-        <v>1566</v>
+        <v>1635</v>
       </c>
       <c r="V63" t="inlineStr">
         <is>
@@ -5889,40 +5889,40 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>2520</v>
+        <v>1110</v>
       </c>
       <c r="B64" t="n">
-        <v>2570</v>
+        <v>1146</v>
       </c>
       <c r="C64" t="n">
-        <v>2655</v>
+        <v>1221</v>
       </c>
       <c r="D64" t="n">
-        <v>2.52821446448473</v>
+        <v>1.996285264142442</v>
       </c>
       <c r="E64" t="n">
-        <v>1.987822516550673</v>
+        <v>1.455893316208385</v>
       </c>
       <c r="F64" t="n">
         <v>-0.5403919479340574</v>
       </c>
       <c r="G64" t="n">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="H64" t="n">
-        <v>67.70509028529841</v>
+        <v>89.50739075127899</v>
       </c>
       <c r="I64" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="J64" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K64" t="n">
-        <v>225.9048337670441</v>
+        <v>111.839527956611</v>
       </c>
       <c r="L64" t="n">
-        <v>9.095347370290881</v>
+        <v>7.181711908791296</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
@@ -5938,16 +5938,16 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>0.7036992777663174</v>
+        <v>0.7639812702676374</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.5882352941176471</v>
+        <v>0.48</v>
       </c>
       <c r="R64" t="n">
-        <v>0.1688675897228338</v>
+        <v>0.1590601409602978</v>
       </c>
       <c r="S64" t="n">
-        <v>0.9755054909390275</v>
+        <v>0.8901242440650955</v>
       </c>
       <c r="T64" t="inlineStr">
         <is>
@@ -5955,7 +5955,7 @@
         </is>
       </c>
       <c r="U64" t="n">
-        <v>1567</v>
+        <v>1636</v>
       </c>
       <c r="V64" t="inlineStr">
         <is>
@@ -5975,40 +5975,40 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1396</v>
+        <v>2520</v>
       </c>
       <c r="B65" t="n">
-        <v>1410</v>
+        <v>2570</v>
       </c>
       <c r="C65" t="n">
-        <v>1432</v>
+        <v>2655</v>
       </c>
       <c r="D65" t="n">
-        <v>2.938005604863119</v>
+        <v>2.52821446448473</v>
       </c>
       <c r="E65" t="n">
-        <v>2.373050209076791</v>
+        <v>1.987822516550673</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.5649553957863281</v>
+        <v>-0.5403919479340574</v>
       </c>
       <c r="G65" t="n">
-        <v>36</v>
+        <v>135</v>
       </c>
       <c r="H65" t="n">
-        <v>12.95304554402901</v>
+        <v>67.70509028529841</v>
       </c>
       <c r="I65" t="n">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="J65" t="n">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="K65" t="n">
-        <v>95.85162459637047</v>
+        <v>225.9048337670441</v>
       </c>
       <c r="L65" t="n">
-        <v>12.96219965121295</v>
+        <v>9.095347370290881</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
@@ -6024,24 +6024,24 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>0.6979758875242345</v>
+        <v>0.7036992777663174</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="R65" t="n">
-        <v>0.06036377113818114</v>
+        <v>0.1688675897228338</v>
       </c>
       <c r="S65" t="n">
-        <v>0.9861809297891351</v>
+        <v>0.9755054909390275</v>
       </c>
       <c r="T65" t="inlineStr">
         <is>
-          <t>n33</t>
+          <t>n31</t>
         </is>
       </c>
       <c r="U65" t="n">
-        <v>1568</v>
+        <v>1637</v>
       </c>
       <c r="V65" t="inlineStr">
         <is>
@@ -6061,40 +6061,40 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1432</v>
+        <v>2575</v>
       </c>
       <c r="B66" t="n">
-        <v>1484</v>
+        <v>2598</v>
       </c>
       <c r="C66" t="n">
-        <v>1555</v>
+        <v>2728</v>
       </c>
       <c r="D66" t="n">
-        <v>2.704134899405278</v>
+        <v>5.332167120613411</v>
       </c>
       <c r="E66" t="n">
-        <v>2.13917950361895</v>
+        <v>4.932959348956455</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.5649553957863281</v>
+        <v>-0.3992077716569559</v>
       </c>
       <c r="G66" t="n">
-        <v>123</v>
+        <v>153</v>
       </c>
       <c r="H66" t="n">
-        <v>44.23789401259978</v>
+        <v>143.5001375832303</v>
       </c>
       <c r="I66" t="n">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="J66" t="n">
-        <v>71</v>
+        <v>130</v>
       </c>
       <c r="K66" t="n">
-        <v>262.6581215285223</v>
+        <v>431.3628925750778</v>
       </c>
       <c r="L66" t="n">
-        <v>11.93038447301972</v>
+        <v>28.49682718317295</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
@@ -6110,24 +6110,24 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>0.6661294268027289</v>
+        <v>0.8433459842415618</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.7323943661971831</v>
+        <v>0.1769230769230769</v>
       </c>
       <c r="R66" t="n">
-        <v>0.2691957974218226</v>
+        <v>0.5139096324030897</v>
       </c>
       <c r="S66" t="n">
-        <v>0.9449723345102699</v>
+        <v>0.975883545826685</v>
       </c>
       <c r="T66" t="inlineStr">
         <is>
-          <t>n33</t>
+          <t>n32</t>
         </is>
       </c>
       <c r="U66" t="n">
-        <v>1569</v>
+        <v>1638</v>
       </c>
       <c r="V66" t="inlineStr">
         <is>
@@ -6147,73 +6147,73 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1895</v>
+        <v>2728</v>
       </c>
       <c r="B67" t="n">
-        <v>1914</v>
+        <v>2738</v>
       </c>
       <c r="C67" t="n">
-        <v>1987</v>
+        <v>2785</v>
       </c>
       <c r="D67" t="n">
-        <v>1.030856484198317</v>
+        <v>1.139613953712309</v>
       </c>
       <c r="E67" t="n">
-        <v>0.4659010884119891</v>
+        <v>0.7404061820553528</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.5649553957863281</v>
+        <v>-0.3992077716569559</v>
       </c>
       <c r="G67" t="n">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="H67" t="n">
-        <v>33.26705282992521</v>
+        <v>11.21638227833273</v>
       </c>
       <c r="I67" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="J67" t="n">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="K67" t="n">
-        <v>55.21170662278017</v>
+        <v>44.32828688685851</v>
       </c>
       <c r="L67" t="n">
-        <v>4.548040186788064</v>
+        <v>6.090465876233857</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>complex</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>[{'index': np.int64(1955), 'value': np.float64(0.33097836869618824), 'amplitude': np.float64(0.8959337644825164), 'start_idx': np.int64(1940), 'end_idx': np.int64(1963), 'duration': np.float64(23.0), 'fwhm': np.float64(17.566176381316836), 'rise_time': np.float64(15.0), 'decay_time': np.float64(8.0), 'auc': np.float64(16.66311707578794)}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P67" t="n">
-        <v>0.8668425390959625</v>
+        <v>0.8319635684424582</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.2602739726027397</v>
+        <v>0.2127659574468085</v>
       </c>
       <c r="R67" t="n">
-        <v>0.4630297052073287</v>
+        <v>0.2915291629284698</v>
       </c>
       <c r="S67" t="n">
-        <v>0.4909019110077004</v>
+        <v>0.8163992323909817</v>
       </c>
       <c r="T67" t="inlineStr">
         <is>
-          <t>n33</t>
+          <t>n32</t>
         </is>
       </c>
       <c r="U67" t="n">
-        <v>1570</v>
+        <v>1639</v>
       </c>
       <c r="V67" t="inlineStr">
         <is>
@@ -6233,40 +6233,40 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2560</v>
+        <v>1396</v>
       </c>
       <c r="B68" t="n">
-        <v>2578</v>
+        <v>1410</v>
       </c>
       <c r="C68" t="n">
-        <v>2603</v>
+        <v>1432</v>
       </c>
       <c r="D68" t="n">
-        <v>3.234110423085184</v>
+        <v>2.938005604863119</v>
       </c>
       <c r="E68" t="n">
-        <v>2.669155027298856</v>
+        <v>2.373050209076791</v>
       </c>
       <c r="F68" t="n">
         <v>-0.5649553957863281</v>
       </c>
       <c r="G68" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H68" t="n">
-        <v>12.04868348655918</v>
+        <v>12.95304554402901</v>
       </c>
       <c r="I68" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J68" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K68" t="n">
-        <v>105.5137339308481</v>
+        <v>95.85162459637047</v>
       </c>
       <c r="L68" t="n">
-        <v>14.26858578101727</v>
+        <v>12.96219965121295</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
@@ -6282,16 +6282,16 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>0.7844722619080894</v>
+        <v>0.6979758875242345</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.72</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="R68" t="n">
-        <v>0.2486635192900564</v>
+        <v>0.06036377113818114</v>
       </c>
       <c r="S68" t="n">
-        <v>0.9920298198593359</v>
+        <v>0.9861809297891351</v>
       </c>
       <c r="T68" t="inlineStr">
         <is>
@@ -6299,7 +6299,7 @@
         </is>
       </c>
       <c r="U68" t="n">
-        <v>1571</v>
+        <v>1640</v>
       </c>
       <c r="V68" t="inlineStr">
         <is>
@@ -6319,40 +6319,40 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>241</v>
+        <v>1432</v>
       </c>
       <c r="B69" t="n">
-        <v>273</v>
+        <v>1484</v>
       </c>
       <c r="C69" t="n">
-        <v>361</v>
+        <v>1555</v>
       </c>
       <c r="D69" t="n">
-        <v>3.158023963755586</v>
+        <v>2.704134899405278</v>
       </c>
       <c r="E69" t="n">
-        <v>2.658574491614844</v>
+        <v>2.13917950361895</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.4994494721407428</v>
+        <v>-0.5649553957863281</v>
       </c>
       <c r="G69" t="n">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="H69" t="n">
-        <v>65.1401898055405</v>
+        <v>44.23789401259978</v>
       </c>
       <c r="I69" t="n">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="J69" t="n">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="K69" t="n">
-        <v>299.728340696198</v>
+        <v>262.6581215285223</v>
       </c>
       <c r="L69" t="n">
-        <v>9.708678666995077</v>
+        <v>11.93038447301972</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
@@ -6368,24 +6368,24 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>0.7494312681531865</v>
+        <v>0.6661294268027289</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.7323943661971831</v>
       </c>
       <c r="R69" t="n">
-        <v>0.04362671274104159</v>
+        <v>0.2691957974218226</v>
       </c>
       <c r="S69" t="n">
-        <v>0.9722744048672277</v>
+        <v>0.9449723345102699</v>
       </c>
       <c r="T69" t="inlineStr">
         <is>
-          <t>n34</t>
+          <t>n33</t>
         </is>
       </c>
       <c r="U69" t="n">
-        <v>1572</v>
+        <v>1641</v>
       </c>
       <c r="V69" t="inlineStr">
         <is>
@@ -6405,73 +6405,73 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>75</v>
+        <v>1895</v>
       </c>
       <c r="B70" t="n">
-        <v>101</v>
+        <v>1914</v>
       </c>
       <c r="C70" t="n">
-        <v>147</v>
+        <v>1987</v>
       </c>
       <c r="D70" t="n">
-        <v>3.235159050208351</v>
+        <v>1.030856484198317</v>
       </c>
       <c r="E70" t="n">
-        <v>2.659894290329495</v>
+        <v>0.4659010884119891</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.5752647598788561</v>
+        <v>-0.5649553957863281</v>
       </c>
       <c r="G70" t="n">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="H70" t="n">
-        <v>27.4527299537427</v>
+        <v>33.26705282992521</v>
       </c>
       <c r="I70" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J70" t="n">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="K70" t="n">
-        <v>170.9526557214903</v>
+        <v>55.21170662278017</v>
       </c>
       <c r="L70" t="n">
-        <v>18.66439462776081</v>
+        <v>4.548040186788064</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>simple</t>
+          <t>complex</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'index': np.int64(1955), 'value': np.float64(0.33097836869618824), 'amplitude': np.float64(0.8959337644825164), 'start_idx': np.int64(1940), 'end_idx': np.int64(1963), 'duration': np.float64(23.0), 'fwhm': np.float64(17.566176381316836), 'rise_time': np.float64(15.0), 'decay_time': np.float64(8.0), 'auc': np.float64(16.66311707578794)}]</t>
         </is>
       </c>
       <c r="P70" t="n">
-        <v>0.8581821135050566</v>
+        <v>0.8668425390959625</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.5652173913043478</v>
+        <v>0.2602739726027397</v>
       </c>
       <c r="R70" t="n">
-        <v>0.2122013876703201</v>
+        <v>0.4630297052073287</v>
       </c>
       <c r="S70" t="n">
-        <v>0.9475453843599692</v>
+        <v>0.4909019110077004</v>
       </c>
       <c r="T70" t="inlineStr">
         <is>
-          <t>n35</t>
+          <t>n33</t>
         </is>
       </c>
       <c r="U70" t="n">
-        <v>1573</v>
+        <v>1642</v>
       </c>
       <c r="V70" t="inlineStr">
         <is>
@@ -6491,40 +6491,40 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2572</v>
+        <v>2560</v>
       </c>
       <c r="B71" t="n">
-        <v>2606</v>
+        <v>2578</v>
       </c>
       <c r="C71" t="n">
-        <v>2655</v>
+        <v>2603</v>
       </c>
       <c r="D71" t="n">
-        <v>3.424240188554183</v>
+        <v>3.234110423085184</v>
       </c>
       <c r="E71" t="n">
-        <v>2.848975428675327</v>
+        <v>2.669155027298856</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.5752647598788561</v>
+        <v>-0.5649553957863281</v>
       </c>
       <c r="G71" t="n">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="H71" t="n">
-        <v>255.4595484577412</v>
+        <v>12.04868348655918</v>
       </c>
       <c r="I71" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="J71" t="n">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="K71" t="n">
-        <v>223.1532920441657</v>
+        <v>105.5137339308481</v>
       </c>
       <c r="L71" t="n">
-        <v>19.75524825442426</v>
+        <v>14.26858578101727</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
@@ -6540,24 +6540,24 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>0.6181281338963408</v>
+        <v>0.7844722619080894</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.6938775510204082</v>
+        <v>0.72</v>
       </c>
       <c r="R71" t="n">
-        <v>0.08482301349112314</v>
+        <v>0.2486635192900564</v>
       </c>
       <c r="S71" t="n">
-        <v>0.9407706813779222</v>
+        <v>0.9920298198593359</v>
       </c>
       <c r="T71" t="inlineStr">
         <is>
-          <t>n35</t>
+          <t>n33</t>
         </is>
       </c>
       <c r="U71" t="n">
-        <v>1574</v>
+        <v>1643</v>
       </c>
       <c r="V71" t="inlineStr">
         <is>
@@ -6577,40 +6577,40 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2655</v>
+        <v>241</v>
       </c>
       <c r="B72" t="n">
-        <v>2681</v>
+        <v>273</v>
       </c>
       <c r="C72" t="n">
-        <v>2786</v>
+        <v>361</v>
       </c>
       <c r="D72" t="n">
-        <v>2.964046812553613</v>
+        <v>3.158023963755586</v>
       </c>
       <c r="E72" t="n">
-        <v>2.388782052674757</v>
+        <v>2.658574491614844</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.5752647598788561</v>
+        <v>-0.4994494721407428</v>
       </c>
       <c r="G72" t="n">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="H72" t="n">
-        <v>30.12385318444967</v>
+        <v>65.1401898055405</v>
       </c>
       <c r="I72" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J72" t="n">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="K72" t="n">
-        <v>214.7260277575415</v>
+        <v>299.728340696198</v>
       </c>
       <c r="L72" t="n">
-        <v>17.10028426611494</v>
+        <v>9.708678666995077</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
@@ -6626,24 +6626,24 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>0.882912172358668</v>
+        <v>0.7494312681531865</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.2476190476190476</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="R72" t="n">
-        <v>0.4268047304776821</v>
+        <v>0.04362671274104159</v>
       </c>
       <c r="S72" t="n">
-        <v>0.8920175676389474</v>
+        <v>0.9722744048672277</v>
       </c>
       <c r="T72" t="inlineStr">
         <is>
-          <t>n35</t>
+          <t>n34</t>
         </is>
       </c>
       <c r="U72" t="n">
-        <v>1575</v>
+        <v>1644</v>
       </c>
       <c r="V72" t="inlineStr">
         <is>
@@ -6663,40 +6663,40 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>1269</v>
+        <v>75</v>
       </c>
       <c r="B73" t="n">
-        <v>1290</v>
+        <v>101</v>
       </c>
       <c r="C73" t="n">
-        <v>1339</v>
+        <v>147</v>
       </c>
       <c r="D73" t="n">
-        <v>2.144833141038</v>
+        <v>3.235159050208351</v>
       </c>
       <c r="E73" t="n">
-        <v>1.674965893951578</v>
+        <v>2.659894290329495</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.469867247086422</v>
+        <v>-0.5752647598788561</v>
       </c>
       <c r="G73" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H73" t="n">
-        <v>20.11840325783601</v>
+        <v>27.4527299537427</v>
       </c>
       <c r="I73" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="J73" t="n">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K73" t="n">
-        <v>104.6242072737697</v>
+        <v>170.9526557214903</v>
       </c>
       <c r="L73" t="n">
-        <v>5.946626163345254</v>
+        <v>18.66439462776081</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
@@ -6712,24 +6712,24 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>0.6382415321745041</v>
+        <v>0.8581821135050566</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="R73" t="n">
-        <v>0.336328397051409</v>
+        <v>0.2122013876703201</v>
       </c>
       <c r="S73" t="n">
-        <v>0.4817860891388205</v>
+        <v>0.9475453843599692</v>
       </c>
       <c r="T73" t="inlineStr">
         <is>
-          <t>n36</t>
+          <t>n35</t>
         </is>
       </c>
       <c r="U73" t="n">
-        <v>1576</v>
+        <v>1645</v>
       </c>
       <c r="V73" t="inlineStr">
         <is>
@@ -6749,40 +6749,40 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2032</v>
+        <v>2572</v>
       </c>
       <c r="B74" t="n">
-        <v>2055</v>
+        <v>2606</v>
       </c>
       <c r="C74" t="n">
-        <v>2195</v>
+        <v>2655</v>
       </c>
       <c r="D74" t="n">
-        <v>2.929257428332591</v>
+        <v>3.424240188554183</v>
       </c>
       <c r="E74" t="n">
-        <v>2.459390181246168</v>
+        <v>2.848975428675327</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.469867247086422</v>
+        <v>-0.5752647598788561</v>
       </c>
       <c r="G74" t="n">
-        <v>163</v>
+        <v>83</v>
       </c>
       <c r="H74" t="n">
-        <v>152.5708898978439</v>
+        <v>255.4595484577412</v>
       </c>
       <c r="I74" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="J74" t="n">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="K74" t="n">
-        <v>246.4944720338486</v>
+        <v>223.1532920441657</v>
       </c>
       <c r="L74" t="n">
-        <v>8.121470397490189</v>
+        <v>19.75524825442426</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
@@ -6798,24 +6798,24 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>0.8196089236294886</v>
+        <v>0.6181281338963408</v>
       </c>
       <c r="Q74" t="n">
-        <v>0.1642857142857143</v>
+        <v>0.6938775510204082</v>
       </c>
       <c r="R74" t="n">
-        <v>0.417708023024714</v>
+        <v>0.08482301349112314</v>
       </c>
       <c r="S74" t="n">
-        <v>0.7591518212454671</v>
+        <v>0.9407706813779222</v>
       </c>
       <c r="T74" t="inlineStr">
         <is>
-          <t>n36</t>
+          <t>n35</t>
         </is>
       </c>
       <c r="U74" t="n">
-        <v>1577</v>
+        <v>1646</v>
       </c>
       <c r="V74" t="inlineStr">
         <is>
@@ -6835,85 +6835,343 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
+        <v>2655</v>
+      </c>
+      <c r="B75" t="n">
+        <v>2681</v>
+      </c>
+      <c r="C75" t="n">
+        <v>2786</v>
+      </c>
+      <c r="D75" t="n">
+        <v>2.964046812553613</v>
+      </c>
+      <c r="E75" t="n">
+        <v>2.388782052674757</v>
+      </c>
+      <c r="F75" t="n">
+        <v>-0.5752647598788561</v>
+      </c>
+      <c r="G75" t="n">
+        <v>131</v>
+      </c>
+      <c r="H75" t="n">
+        <v>30.12385318444967</v>
+      </c>
+      <c r="I75" t="n">
+        <v>26</v>
+      </c>
+      <c r="J75" t="n">
+        <v>105</v>
+      </c>
+      <c r="K75" t="n">
+        <v>214.7260277575415</v>
+      </c>
+      <c r="L75" t="n">
+        <v>17.10028426611494</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P75" t="n">
+        <v>0.882912172358668</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>0.2476190476190476</v>
+      </c>
+      <c r="R75" t="n">
+        <v>0.4268047304776821</v>
+      </c>
+      <c r="S75" t="n">
+        <v>0.8920175676389474</v>
+      </c>
+      <c r="T75" t="inlineStr">
+        <is>
+          <t>n35</t>
+        </is>
+      </c>
+      <c r="U75" t="n">
+        <v>1647</v>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W75" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>1310</v>
+      </c>
+      <c r="B76" t="n">
+        <v>1320</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1339</v>
+      </c>
+      <c r="D76" t="n">
+        <v>1.540927025146663</v>
+      </c>
+      <c r="E76" t="n">
+        <v>1.071059778060241</v>
+      </c>
+      <c r="F76" t="n">
+        <v>-0.469867247086422</v>
+      </c>
+      <c r="G76" t="n">
+        <v>29</v>
+      </c>
+      <c r="H76" t="n">
+        <v>9.152847172042584</v>
+      </c>
+      <c r="I76" t="n">
+        <v>10</v>
+      </c>
+      <c r="J76" t="n">
+        <v>19</v>
+      </c>
+      <c r="K76" t="n">
+        <v>33.89931350877716</v>
+      </c>
+      <c r="L76" t="n">
+        <v>4.272274979445857</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
+        <v>0.7410425901969624</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>0.5263157894736842</v>
+      </c>
+      <c r="R76" t="n">
+        <v>0.1048603832899762</v>
+      </c>
+      <c r="S76" t="n">
+        <v>0.9399588019795286</v>
+      </c>
+      <c r="T76" t="inlineStr">
+        <is>
+          <t>n36</t>
+        </is>
+      </c>
+      <c r="U76" t="n">
+        <v>1648</v>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W76" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>2032</v>
+      </c>
+      <c r="B77" t="n">
+        <v>2055</v>
+      </c>
+      <c r="C77" t="n">
+        <v>2195</v>
+      </c>
+      <c r="D77" t="n">
+        <v>2.929257428332591</v>
+      </c>
+      <c r="E77" t="n">
+        <v>2.459390181246168</v>
+      </c>
+      <c r="F77" t="n">
+        <v>-0.469867247086422</v>
+      </c>
+      <c r="G77" t="n">
+        <v>163</v>
+      </c>
+      <c r="H77" t="n">
+        <v>152.5708898978439</v>
+      </c>
+      <c r="I77" t="n">
+        <v>23</v>
+      </c>
+      <c r="J77" t="n">
+        <v>140</v>
+      </c>
+      <c r="K77" t="n">
+        <v>246.4944720338486</v>
+      </c>
+      <c r="L77" t="n">
+        <v>8.121470397490189</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>0</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P77" t="n">
+        <v>0.8196089236294886</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>0.1642857142857143</v>
+      </c>
+      <c r="R77" t="n">
+        <v>0.417708023024714</v>
+      </c>
+      <c r="S77" t="n">
+        <v>0.7591518212454671</v>
+      </c>
+      <c r="T77" t="inlineStr">
+        <is>
+          <t>n36</t>
+        </is>
+      </c>
+      <c r="U77" t="n">
+        <v>1649</v>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W77" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
         <v>2829</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B78" t="n">
         <v>2850</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C78" t="n">
         <v>2879</v>
       </c>
-      <c r="D75" t="n">
+      <c r="D78" t="n">
         <v>1.559102869153465</v>
       </c>
-      <c r="E75" t="n">
+      <c r="E78" t="n">
         <v>1.089235622067043</v>
       </c>
-      <c r="F75" t="n">
+      <c r="F78" t="n">
         <v>-0.469867247086422</v>
       </c>
-      <c r="G75" t="n">
+      <c r="G78" t="n">
         <v>50</v>
       </c>
-      <c r="H75" t="n">
+      <c r="H78" t="n">
         <v>28.13978133632372</v>
       </c>
-      <c r="I75" t="n">
+      <c r="I78" t="n">
         <v>21</v>
       </c>
-      <c r="J75" t="n">
+      <c r="J78" t="n">
         <v>29</v>
       </c>
-      <c r="K75" t="n">
+      <c r="K78" t="n">
         <v>62.36557640492771</v>
       </c>
-      <c r="L75" t="n">
+      <c r="L78" t="n">
         <v>4.322668153368667</v>
       </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N75" t="n">
-        <v>0</v>
-      </c>
-      <c r="O75" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P75" t="n">
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P78" t="n">
         <v>0.6480016203928691</v>
       </c>
-      <c r="Q75" t="n">
+      <c r="Q78" t="n">
         <v>0.7241379310344828</v>
       </c>
-      <c r="R75" t="n">
+      <c r="R78" t="n">
         <v>0.1415421863018174</v>
       </c>
-      <c r="S75" t="n">
+      <c r="S78" t="n">
         <v>0.6727562728398895</v>
       </c>
-      <c r="T75" t="inlineStr">
+      <c r="T78" t="inlineStr">
         <is>
           <t>n36</t>
         </is>
       </c>
-      <c r="U75" t="n">
-        <v>1578</v>
-      </c>
-      <c r="V75" t="inlineStr">
-        <is>
-          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W75" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X75" t="inlineStr">
+      <c r="U78" t="n">
+        <v>1650</v>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W78" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X78" t="inlineStr">
         <is>
           <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.2979240926social22024-12-05202642trace.xlsx</t>
         </is>
